--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -28,7 +28,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="449">
   <si>
     <t xml:space="preserve">Library QC Template</t>
   </si>
@@ -279,10 +279,13 @@
     <t xml:space="preserve">A03</t>
   </si>
   <si>
+    <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
   </si>
   <si>
     <t xml:space="preserve">A05</t>
@@ -1976,7 +1979,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.88"/>
@@ -25008,7 +25011,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R6:R1000" type="list">
-      <formula1>Index!$K$2:$K$4</formula1>
+      <formula1>Index!$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
@@ -25042,7 +25045,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.2"/>
   </cols>
@@ -26761,7 +26764,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
@@ -26770,7 +26773,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="55.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="55.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26896,14 +26899,16 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="K5" s="43" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -26917,10 +26922,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -26934,10 +26939,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -26951,2161 +26956,2162 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="43"/>
       <c r="E9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="43" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="43" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B298" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B299" s="43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B310" s="43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B311" s="43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B318" s="43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B319" s="43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B320" s="43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B322" s="43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B325" s="43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B326" s="43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B327" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B329" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B330" s="43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B332" s="43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B335" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="43" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="43" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="43" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="43" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="43" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="43" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="43" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="43" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="43" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="43" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="43" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="43" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="43" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="43" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="43" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="43" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LibraryQC" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Info" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="LibraryQC" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Double_stranded" vbProcedure="false">Index!$H$2</definedName>
@@ -28,16 +28,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Volume measured before removing Volume used</t>
         </r>
@@ -1434,7 +1436,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1508,11 +1510,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1869,6 +1866,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1877,15 +1878,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1969,114 +1966,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2085,10 +1976,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
@@ -25142,7 +25033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -25152,7 +25043,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.19"/>
   </cols>
@@ -26861,7 +26752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -26871,7 +26762,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LibraryQC" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="LibraryQC" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Index" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Double_stranded" vbProcedure="false">Index!$H$2</definedName>
@@ -28,18 +28,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Volume measured before removing Volume used</t>
         </r>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="449">
   <si>
     <t xml:space="preserve">Library QC Template</t>
   </si>
@@ -1436,7 +1434,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1510,6 +1508,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1866,10 +1869,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1878,11 +1877,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1966,8 +1969,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1979,7 +2088,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
@@ -2024,9 +2133,7 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
         <v>3</v>
@@ -25033,7 +25140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -25043,7 +25150,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.19"/>
   </cols>
@@ -26752,7 +26859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -26762,7 +26869,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -1803,7 +1803,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1819,7 +1819,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2104,10 +2104,10 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2276,7 +2276,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D7), ISBLANK(E7)),AND(OR(ISBLANK(G7),ISBLANK(H7),ISBLANK(I7)),ISBLANK(J7))),"",IF(ISBLANK(J7),IF(ISBLANK(E7),(D7-F7)*I7*H7*INDIRECT(SUBSTITUTE(G7," ","_"))/1000000,(E7-F7)*I7*H7*INDIRECT(SUBSTITUTE(G7," ","_"))/1000000),IF(ISBLANK(E7),(D7-F7)*J7,(E7-F7)*J7)))</f>
         <v/>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D8), ISBLANK(E8)),AND(OR(ISBLANK(G8),ISBLANK(H8),ISBLANK(I8)),ISBLANK(J8))),"",IF(ISBLANK(J8),IF(ISBLANK(E8),(D8-F8)*I8*H8*INDIRECT(SUBSTITUTE(G8," ","_"))/1000000,(E8-F8)*I8*H8*INDIRECT(SUBSTITUTE(G8," ","_"))/1000000),IF(ISBLANK(E8),(D8-F8)*J8,(E8-F8)*J8)))</f>
         <v/>
       </c>
@@ -2322,8 +2322,8 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="22" t="str">
-        <f aca="true">IF(OR(AND(ISBLANK(D9), ISBLANK(E9)),AND(OR(ISBLANK(G9),ISBLANK(H9),ISBLANK(I9)),ISBLANK(J9))),"",IF(ISBLANK(J9),IF(ISBLANK(E9),(D9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000,(E9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000),IF(ISBLANK(E9),(D9-F9)*J9,(E9-F9)*J9)))</f>
+      <c r="K9" s="18" t="str">
+        <f aca="true">IF(AND(AND(ISBLANK(D9), ISBLANK(E9)),AND(OR(ISBLANK(G9),ISBLANK(H9),ISBLANK(I9)))),"",IF(ISBLANK(J9),IF(ISBLANK(E9),(D9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000,(E9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000),IF(ISBLANK(E9),(D9-F9)*J9,(E9-F9)*J9)))</f>
         <v/>
       </c>
       <c r="L9" s="15"/>
@@ -2345,7 +2345,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D10), ISBLANK(E10)),AND(OR(ISBLANK(G10),ISBLANK(H10),ISBLANK(I10)),ISBLANK(J10))),"",IF(ISBLANK(J10),IF(ISBLANK(E10),(D10-F10)*I10*H10*INDIRECT(SUBSTITUTE(G10," ","_"))/1000000,(E10-F10)*I10*H10*INDIRECT(SUBSTITUTE(G10," ","_"))/1000000),IF(ISBLANK(E10),(D10-F10)*J10,(E10-F10)*J10)))</f>
         <v/>
       </c>
@@ -2368,10 +2368,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="22" t="str">
-        <f aca="true">IF(OR(AND(ISBLANK(D11), ISBLANK(E11)),AND(OR(ISBLANK(G11),ISBLANK(H11),ISBLANK(I11)),ISBLANK(J11))),"",IF(ISBLANK(J11),IF(ISBLANK(E11),(D11-F11)*I11*H11*INDIRECT(SUBSTITUTE(G11," ","_"))/1000000,(E11-F11)*I11*H11*INDIRECT(SUBSTITUTE(G11," ","_"))/1000000),IF(ISBLANK(E11),(D11-F11)*J11,(E11-F11)*J11)))</f>
-        <v/>
-      </c>
+      <c r="K11" s="22"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -2391,7 +2388,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D12), ISBLANK(E12)),AND(OR(ISBLANK(G12),ISBLANK(H12),ISBLANK(I12)),ISBLANK(J12))),"",IF(ISBLANK(J12),IF(ISBLANK(E12),(D12-F12)*I12*H12*INDIRECT(SUBSTITUTE(G12," ","_"))/1000000,(E12-F12)*I12*H12*INDIRECT(SUBSTITUTE(G12," ","_"))/1000000),IF(ISBLANK(E12),(D12-F12)*J12,(E12-F12)*J12)))</f>
         <v/>
       </c>
@@ -2414,7 +2411,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="22" t="str">
+      <c r="K13" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D13), ISBLANK(E13)),AND(OR(ISBLANK(G13),ISBLANK(H13),ISBLANK(I13)),ISBLANK(J13))),"",IF(ISBLANK(J13),IF(ISBLANK(E13),(D13-F13)*I13*H13*INDIRECT(SUBSTITUTE(G13," ","_"))/1000000,(E13-F13)*I13*H13*INDIRECT(SUBSTITUTE(G13," ","_"))/1000000),IF(ISBLANK(E13),(D13-F13)*J13,(E13-F13)*J13)))</f>
         <v/>
       </c>
@@ -2437,7 +2434,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D14), ISBLANK(E14)),AND(OR(ISBLANK(G14),ISBLANK(H14),ISBLANK(I14)),ISBLANK(J14))),"",IF(ISBLANK(J14),IF(ISBLANK(E14),(D14-F14)*I14*H14*INDIRECT(SUBSTITUTE(G14," ","_"))/1000000,(E14-F14)*I14*H14*INDIRECT(SUBSTITUTE(G14," ","_"))/1000000),IF(ISBLANK(E14),(D14-F14)*J14,(E14-F14)*J14)))</f>
         <v/>
       </c>
@@ -2460,7 +2457,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D15), ISBLANK(E15)),AND(OR(ISBLANK(G15),ISBLANK(H15),ISBLANK(I15)),ISBLANK(J15))),"",IF(ISBLANK(J15),IF(ISBLANK(E15),(D15-F15)*I15*H15*INDIRECT(SUBSTITUTE(G15," ","_"))/1000000,(E15-F15)*I15*H15*INDIRECT(SUBSTITUTE(G15," ","_"))/1000000),IF(ISBLANK(E15),(D15-F15)*J15,(E15-F15)*J15)))</f>
         <v/>
       </c>
@@ -2483,7 +2480,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="22" t="str">
+      <c r="K16" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D16), ISBLANK(E16)),AND(OR(ISBLANK(G16),ISBLANK(H16),ISBLANK(I16)),ISBLANK(J16))),"",IF(ISBLANK(J16),IF(ISBLANK(E16),(D16-F16)*I16*H16*INDIRECT(SUBSTITUTE(G16," ","_"))/1000000,(E16-F16)*I16*H16*INDIRECT(SUBSTITUTE(G16," ","_"))/1000000),IF(ISBLANK(E16),(D16-F16)*J16,(E16-F16)*J16)))</f>
         <v/>
       </c>
@@ -2506,7 +2503,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="22" t="str">
+      <c r="K17" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D17), ISBLANK(E17)),AND(OR(ISBLANK(G17),ISBLANK(H17),ISBLANK(I17)),ISBLANK(J17))),"",IF(ISBLANK(J17),IF(ISBLANK(E17),(D17-F17)*I17*H17*INDIRECT(SUBSTITUTE(G17," ","_"))/1000000,(E17-F17)*I17*H17*INDIRECT(SUBSTITUTE(G17," ","_"))/1000000),IF(ISBLANK(E17),(D17-F17)*J17,(E17-F17)*J17)))</f>
         <v/>
       </c>
@@ -2529,7 +2526,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D18), ISBLANK(E18)),AND(OR(ISBLANK(G18),ISBLANK(H18),ISBLANK(I18)),ISBLANK(J18))),"",IF(ISBLANK(J18),IF(ISBLANK(E18),(D18-F18)*I18*H18*INDIRECT(SUBSTITUTE(G18," ","_"))/1000000,(E18-F18)*I18*H18*INDIRECT(SUBSTITUTE(G18," ","_"))/1000000),IF(ISBLANK(E18),(D18-F18)*J18,(E18-F18)*J18)))</f>
         <v/>
       </c>
@@ -2552,7 +2549,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D19), ISBLANK(E19)),AND(OR(ISBLANK(G19),ISBLANK(H19),ISBLANK(I19)),ISBLANK(J19))),"",IF(ISBLANK(J19),IF(ISBLANK(E19),(D19-F19)*I19*H19*INDIRECT(SUBSTITUTE(G19," ","_"))/1000000,(E19-F19)*I19*H19*INDIRECT(SUBSTITUTE(G19," ","_"))/1000000),IF(ISBLANK(E19),(D19-F19)*J19,(E19-F19)*J19)))</f>
         <v/>
       </c>
@@ -2575,7 +2572,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="22" t="str">
+      <c r="K20" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D20), ISBLANK(E20)),AND(OR(ISBLANK(G20),ISBLANK(H20),ISBLANK(I20)),ISBLANK(J20))),"",IF(ISBLANK(J20),IF(ISBLANK(E20),(D20-F20)*I20*H20*INDIRECT(SUBSTITUTE(G20," ","_"))/1000000,(E20-F20)*I20*H20*INDIRECT(SUBSTITUTE(G20," ","_"))/1000000),IF(ISBLANK(E20),(D20-F20)*J20,(E20-F20)*J20)))</f>
         <v/>
       </c>
@@ -2598,7 +2595,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="22" t="str">
+      <c r="K21" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D21), ISBLANK(E21)),AND(OR(ISBLANK(G21),ISBLANK(H21),ISBLANK(I21)),ISBLANK(J21))),"",IF(ISBLANK(J21),IF(ISBLANK(E21),(D21-F21)*I21*H21*INDIRECT(SUBSTITUTE(G21," ","_"))/1000000,(E21-F21)*I21*H21*INDIRECT(SUBSTITUTE(G21," ","_"))/1000000),IF(ISBLANK(E21),(D21-F21)*J21,(E21-F21)*J21)))</f>
         <v/>
       </c>
@@ -2621,7 +2618,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="22" t="str">
+      <c r="K22" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D22), ISBLANK(E22)),AND(OR(ISBLANK(G22),ISBLANK(H22),ISBLANK(I22)),ISBLANK(J22))),"",IF(ISBLANK(J22),IF(ISBLANK(E22),(D22-F22)*I22*H22*INDIRECT(SUBSTITUTE(G22," ","_"))/1000000,(E22-F22)*I22*H22*INDIRECT(SUBSTITUTE(G22," ","_"))/1000000),IF(ISBLANK(E22),(D22-F22)*J22,(E22-F22)*J22)))</f>
         <v/>
       </c>
@@ -2644,7 +2641,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="22" t="str">
+      <c r="K23" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D23), ISBLANK(E23)),AND(OR(ISBLANK(G23),ISBLANK(H23),ISBLANK(I23)),ISBLANK(J23))),"",IF(ISBLANK(J23),IF(ISBLANK(E23),(D23-F23)*I23*H23*INDIRECT(SUBSTITUTE(G23," ","_"))/1000000,(E23-F23)*I23*H23*INDIRECT(SUBSTITUTE(G23," ","_"))/1000000),IF(ISBLANK(E23),(D23-F23)*J23,(E23-F23)*J23)))</f>
         <v/>
       </c>
@@ -2667,7 +2664,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D24), ISBLANK(E24)),AND(OR(ISBLANK(G24),ISBLANK(H24),ISBLANK(I24)),ISBLANK(J24))),"",IF(ISBLANK(J24),IF(ISBLANK(E24),(D24-F24)*I24*H24*INDIRECT(SUBSTITUTE(G24," ","_"))/1000000,(E24-F24)*I24*H24*INDIRECT(SUBSTITUTE(G24," ","_"))/1000000),IF(ISBLANK(E24),(D24-F24)*J24,(E24-F24)*J24)))</f>
         <v/>
       </c>
@@ -2690,7 +2687,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="22" t="str">
+      <c r="K25" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D25), ISBLANK(E25)),AND(OR(ISBLANK(G25),ISBLANK(H25),ISBLANK(I25)),ISBLANK(J25))),"",IF(ISBLANK(J25),IF(ISBLANK(E25),(D25-F25)*I25*H25*INDIRECT(SUBSTITUTE(G25," ","_"))/1000000,(E25-F25)*I25*H25*INDIRECT(SUBSTITUTE(G25," ","_"))/1000000),IF(ISBLANK(E25),(D25-F25)*J25,(E25-F25)*J25)))</f>
         <v/>
       </c>
@@ -2713,7 +2710,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="22" t="str">
+      <c r="K26" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D26), ISBLANK(E26)),AND(OR(ISBLANK(G26),ISBLANK(H26),ISBLANK(I26)),ISBLANK(J26))),"",IF(ISBLANK(J26),IF(ISBLANK(E26),(D26-F26)*I26*H26*INDIRECT(SUBSTITUTE(G26," ","_"))/1000000,(E26-F26)*I26*H26*INDIRECT(SUBSTITUTE(G26," ","_"))/1000000),IF(ISBLANK(E26),(D26-F26)*J26,(E26-F26)*J26)))</f>
         <v/>
       </c>
@@ -2736,7 +2733,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="22" t="str">
+      <c r="K27" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D27), ISBLANK(E27)),AND(OR(ISBLANK(G27),ISBLANK(H27),ISBLANK(I27)),ISBLANK(J27))),"",IF(ISBLANK(J27),IF(ISBLANK(E27),(D27-F27)*I27*H27*INDIRECT(SUBSTITUTE(G27," ","_"))/1000000,(E27-F27)*I27*H27*INDIRECT(SUBSTITUTE(G27," ","_"))/1000000),IF(ISBLANK(E27),(D27-F27)*J27,(E27-F27)*J27)))</f>
         <v/>
       </c>
@@ -2759,7 +2756,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="22" t="str">
+      <c r="K28" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D28), ISBLANK(E28)),AND(OR(ISBLANK(G28),ISBLANK(H28),ISBLANK(I28)),ISBLANK(J28))),"",IF(ISBLANK(J28),IF(ISBLANK(E28),(D28-F28)*I28*H28*INDIRECT(SUBSTITUTE(G28," ","_"))/1000000,(E28-F28)*I28*H28*INDIRECT(SUBSTITUTE(G28," ","_"))/1000000),IF(ISBLANK(E28),(D28-F28)*J28,(E28-F28)*J28)))</f>
         <v/>
       </c>
@@ -2782,7 +2779,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="22" t="str">
+      <c r="K29" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D29), ISBLANK(E29)),AND(OR(ISBLANK(G29),ISBLANK(H29),ISBLANK(I29)),ISBLANK(J29))),"",IF(ISBLANK(J29),IF(ISBLANK(E29),(D29-F29)*I29*H29*INDIRECT(SUBSTITUTE(G29," ","_"))/1000000,(E29-F29)*I29*H29*INDIRECT(SUBSTITUTE(G29," ","_"))/1000000),IF(ISBLANK(E29),(D29-F29)*J29,(E29-F29)*J29)))</f>
         <v/>
       </c>
@@ -2805,7 +2802,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="22" t="str">
+      <c r="K30" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D30), ISBLANK(E30)),AND(OR(ISBLANK(G30),ISBLANK(H30),ISBLANK(I30)),ISBLANK(J30))),"",IF(ISBLANK(J30),IF(ISBLANK(E30),(D30-F30)*I30*H30*INDIRECT(SUBSTITUTE(G30," ","_"))/1000000,(E30-F30)*I30*H30*INDIRECT(SUBSTITUTE(G30," ","_"))/1000000),IF(ISBLANK(E30),(D30-F30)*J30,(E30-F30)*J30)))</f>
         <v/>
       </c>
@@ -2828,7 +2825,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="22" t="str">
+      <c r="K31" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D31), ISBLANK(E31)),AND(OR(ISBLANK(G31),ISBLANK(H31),ISBLANK(I31)),ISBLANK(J31))),"",IF(ISBLANK(J31),IF(ISBLANK(E31),(D31-F31)*I31*H31*INDIRECT(SUBSTITUTE(G31," ","_"))/1000000,(E31-F31)*I31*H31*INDIRECT(SUBSTITUTE(G31," ","_"))/1000000),IF(ISBLANK(E31),(D31-F31)*J31,(E31-F31)*J31)))</f>
         <v/>
       </c>
@@ -2851,7 +2848,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="22" t="str">
+      <c r="K32" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D32), ISBLANK(E32)),AND(OR(ISBLANK(G32),ISBLANK(H32),ISBLANK(I32)),ISBLANK(J32))),"",IF(ISBLANK(J32),IF(ISBLANK(E32),(D32-F32)*I32*H32*INDIRECT(SUBSTITUTE(G32," ","_"))/1000000,(E32-F32)*I32*H32*INDIRECT(SUBSTITUTE(G32," ","_"))/1000000),IF(ISBLANK(E32),(D32-F32)*J32,(E32-F32)*J32)))</f>
         <v/>
       </c>
@@ -2874,7 +2871,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="22" t="str">
+      <c r="K33" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D33), ISBLANK(E33)),AND(OR(ISBLANK(G33),ISBLANK(H33),ISBLANK(I33)),ISBLANK(J33))),"",IF(ISBLANK(J33),IF(ISBLANK(E33),(D33-F33)*I33*H33*INDIRECT(SUBSTITUTE(G33," ","_"))/1000000,(E33-F33)*I33*H33*INDIRECT(SUBSTITUTE(G33," ","_"))/1000000),IF(ISBLANK(E33),(D33-F33)*J33,(E33-F33)*J33)))</f>
         <v/>
       </c>
@@ -2897,7 +2894,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="22" t="str">
+      <c r="K34" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D34), ISBLANK(E34)),AND(OR(ISBLANK(G34),ISBLANK(H34),ISBLANK(I34)),ISBLANK(J34))),"",IF(ISBLANK(J34),IF(ISBLANK(E34),(D34-F34)*I34*H34*INDIRECT(SUBSTITUTE(G34," ","_"))/1000000,(E34-F34)*I34*H34*INDIRECT(SUBSTITUTE(G34," ","_"))/1000000),IF(ISBLANK(E34),(D34-F34)*J34,(E34-F34)*J34)))</f>
         <v/>
       </c>
@@ -2920,7 +2917,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="22" t="str">
+      <c r="K35" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D35), ISBLANK(E35)),AND(OR(ISBLANK(G35),ISBLANK(H35),ISBLANK(I35)),ISBLANK(J35))),"",IF(ISBLANK(J35),IF(ISBLANK(E35),(D35-F35)*I35*H35*INDIRECT(SUBSTITUTE(G35," ","_"))/1000000,(E35-F35)*I35*H35*INDIRECT(SUBSTITUTE(G35," ","_"))/1000000),IF(ISBLANK(E35),(D35-F35)*J35,(E35-F35)*J35)))</f>
         <v/>
       </c>
@@ -2943,7 +2940,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="22" t="str">
+      <c r="K36" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D36), ISBLANK(E36)),AND(OR(ISBLANK(G36),ISBLANK(H36),ISBLANK(I36)),ISBLANK(J36))),"",IF(ISBLANK(J36),IF(ISBLANK(E36),(D36-F36)*I36*H36*INDIRECT(SUBSTITUTE(G36," ","_"))/1000000,(E36-F36)*I36*H36*INDIRECT(SUBSTITUTE(G36," ","_"))/1000000),IF(ISBLANK(E36),(D36-F36)*J36,(E36-F36)*J36)))</f>
         <v/>
       </c>
@@ -2966,7 +2963,7 @@
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="22" t="str">
+      <c r="K37" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D37), ISBLANK(E37)),AND(OR(ISBLANK(G37),ISBLANK(H37),ISBLANK(I37)),ISBLANK(J37))),"",IF(ISBLANK(J37),IF(ISBLANK(E37),(D37-F37)*I37*H37*INDIRECT(SUBSTITUTE(G37," ","_"))/1000000,(E37-F37)*I37*H37*INDIRECT(SUBSTITUTE(G37," ","_"))/1000000),IF(ISBLANK(E37),(D37-F37)*J37,(E37-F37)*J37)))</f>
         <v/>
       </c>
@@ -2989,7 +2986,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="22" t="str">
+      <c r="K38" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D38), ISBLANK(E38)),AND(OR(ISBLANK(G38),ISBLANK(H38),ISBLANK(I38)),ISBLANK(J38))),"",IF(ISBLANK(J38),IF(ISBLANK(E38),(D38-F38)*I38*H38*INDIRECT(SUBSTITUTE(G38," ","_"))/1000000,(E38-F38)*I38*H38*INDIRECT(SUBSTITUTE(G38," ","_"))/1000000),IF(ISBLANK(E38),(D38-F38)*J38,(E38-F38)*J38)))</f>
         <v/>
       </c>
@@ -3012,7 +3009,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="22" t="str">
+      <c r="K39" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D39), ISBLANK(E39)),AND(OR(ISBLANK(G39),ISBLANK(H39),ISBLANK(I39)),ISBLANK(J39))),"",IF(ISBLANK(J39),IF(ISBLANK(E39),(D39-F39)*I39*H39*INDIRECT(SUBSTITUTE(G39," ","_"))/1000000,(E39-F39)*I39*H39*INDIRECT(SUBSTITUTE(G39," ","_"))/1000000),IF(ISBLANK(E39),(D39-F39)*J39,(E39-F39)*J39)))</f>
         <v/>
       </c>
@@ -3035,7 +3032,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="22" t="str">
+      <c r="K40" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D40), ISBLANK(E40)),AND(OR(ISBLANK(G40),ISBLANK(H40),ISBLANK(I40)),ISBLANK(J40))),"",IF(ISBLANK(J40),IF(ISBLANK(E40),(D40-F40)*I40*H40*INDIRECT(SUBSTITUTE(G40," ","_"))/1000000,(E40-F40)*I40*H40*INDIRECT(SUBSTITUTE(G40," ","_"))/1000000),IF(ISBLANK(E40),(D40-F40)*J40,(E40-F40)*J40)))</f>
         <v/>
       </c>
@@ -3058,7 +3055,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="22" t="str">
+      <c r="K41" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D41), ISBLANK(E41)),AND(OR(ISBLANK(G41),ISBLANK(H41),ISBLANK(I41)),ISBLANK(J41))),"",IF(ISBLANK(J41),IF(ISBLANK(E41),(D41-F41)*I41*H41*INDIRECT(SUBSTITUTE(G41," ","_"))/1000000,(E41-F41)*I41*H41*INDIRECT(SUBSTITUTE(G41," ","_"))/1000000),IF(ISBLANK(E41),(D41-F41)*J41,(E41-F41)*J41)))</f>
         <v/>
       </c>
@@ -3081,7 +3078,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="22" t="str">
+      <c r="K42" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D42), ISBLANK(E42)),AND(OR(ISBLANK(G42),ISBLANK(H42),ISBLANK(I42)),ISBLANK(J42))),"",IF(ISBLANK(J42),IF(ISBLANK(E42),(D42-F42)*I42*H42*INDIRECT(SUBSTITUTE(G42," ","_"))/1000000,(E42-F42)*I42*H42*INDIRECT(SUBSTITUTE(G42," ","_"))/1000000),IF(ISBLANK(E42),(D42-F42)*J42,(E42-F42)*J42)))</f>
         <v/>
       </c>
@@ -3104,7 +3101,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="22" t="str">
+      <c r="K43" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D43), ISBLANK(E43)),AND(OR(ISBLANK(G43),ISBLANK(H43),ISBLANK(I43)),ISBLANK(J43))),"",IF(ISBLANK(J43),IF(ISBLANK(E43),(D43-F43)*I43*H43*INDIRECT(SUBSTITUTE(G43," ","_"))/1000000,(E43-F43)*I43*H43*INDIRECT(SUBSTITUTE(G43," ","_"))/1000000),IF(ISBLANK(E43),(D43-F43)*J43,(E43-F43)*J43)))</f>
         <v/>
       </c>
@@ -3127,7 +3124,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
-      <c r="K44" s="22" t="str">
+      <c r="K44" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D44), ISBLANK(E44)),AND(OR(ISBLANK(G44),ISBLANK(H44),ISBLANK(I44)),ISBLANK(J44))),"",IF(ISBLANK(J44),IF(ISBLANK(E44),(D44-F44)*I44*H44*INDIRECT(SUBSTITUTE(G44," ","_"))/1000000,(E44-F44)*I44*H44*INDIRECT(SUBSTITUTE(G44," ","_"))/1000000),IF(ISBLANK(E44),(D44-F44)*J44,(E44-F44)*J44)))</f>
         <v/>
       </c>
@@ -3150,7 +3147,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="22" t="str">
+      <c r="K45" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D45), ISBLANK(E45)),AND(OR(ISBLANK(G45),ISBLANK(H45),ISBLANK(I45)),ISBLANK(J45))),"",IF(ISBLANK(J45),IF(ISBLANK(E45),(D45-F45)*I45*H45*INDIRECT(SUBSTITUTE(G45," ","_"))/1000000,(E45-F45)*I45*H45*INDIRECT(SUBSTITUTE(G45," ","_"))/1000000),IF(ISBLANK(E45),(D45-F45)*J45,(E45-F45)*J45)))</f>
         <v/>
       </c>
@@ -3173,7 +3170,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="22" t="str">
+      <c r="K46" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D46), ISBLANK(E46)),AND(OR(ISBLANK(G46),ISBLANK(H46),ISBLANK(I46)),ISBLANK(J46))),"",IF(ISBLANK(J46),IF(ISBLANK(E46),(D46-F46)*I46*H46*INDIRECT(SUBSTITUTE(G46," ","_"))/1000000,(E46-F46)*I46*H46*INDIRECT(SUBSTITUTE(G46," ","_"))/1000000),IF(ISBLANK(E46),(D46-F46)*J46,(E46-F46)*J46)))</f>
         <v/>
       </c>
@@ -3196,7 +3193,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="22" t="str">
+      <c r="K47" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D47), ISBLANK(E47)),AND(OR(ISBLANK(G47),ISBLANK(H47),ISBLANK(I47)),ISBLANK(J47))),"",IF(ISBLANK(J47),IF(ISBLANK(E47),(D47-F47)*I47*H47*INDIRECT(SUBSTITUTE(G47," ","_"))/1000000,(E47-F47)*I47*H47*INDIRECT(SUBSTITUTE(G47," ","_"))/1000000),IF(ISBLANK(E47),(D47-F47)*J47,(E47-F47)*J47)))</f>
         <v/>
       </c>
@@ -3219,7 +3216,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="22" t="str">
+      <c r="K48" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D48), ISBLANK(E48)),AND(OR(ISBLANK(G48),ISBLANK(H48),ISBLANK(I48)),ISBLANK(J48))),"",IF(ISBLANK(J48),IF(ISBLANK(E48),(D48-F48)*I48*H48*INDIRECT(SUBSTITUTE(G48," ","_"))/1000000,(E48-F48)*I48*H48*INDIRECT(SUBSTITUTE(G48," ","_"))/1000000),IF(ISBLANK(E48),(D48-F48)*J48,(E48-F48)*J48)))</f>
         <v/>
       </c>
@@ -3242,7 +3239,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="22" t="str">
+      <c r="K49" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D49), ISBLANK(E49)),AND(OR(ISBLANK(G49),ISBLANK(H49),ISBLANK(I49)),ISBLANK(J49))),"",IF(ISBLANK(J49),IF(ISBLANK(E49),(D49-F49)*I49*H49*INDIRECT(SUBSTITUTE(G49," ","_"))/1000000,(E49-F49)*I49*H49*INDIRECT(SUBSTITUTE(G49," ","_"))/1000000),IF(ISBLANK(E49),(D49-F49)*J49,(E49-F49)*J49)))</f>
         <v/>
       </c>
@@ -3265,7 +3262,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="22" t="str">
+      <c r="K50" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D50), ISBLANK(E50)),AND(OR(ISBLANK(G50),ISBLANK(H50),ISBLANK(I50)),ISBLANK(J50))),"",IF(ISBLANK(J50),IF(ISBLANK(E50),(D50-F50)*I50*H50*INDIRECT(SUBSTITUTE(G50," ","_"))/1000000,(E50-F50)*I50*H50*INDIRECT(SUBSTITUTE(G50," ","_"))/1000000),IF(ISBLANK(E50),(D50-F50)*J50,(E50-F50)*J50)))</f>
         <v/>
       </c>
@@ -3288,7 +3285,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="22" t="str">
+      <c r="K51" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D51), ISBLANK(E51)),AND(OR(ISBLANK(G51),ISBLANK(H51),ISBLANK(I51)),ISBLANK(J51))),"",IF(ISBLANK(J51),IF(ISBLANK(E51),(D51-F51)*I51*H51*INDIRECT(SUBSTITUTE(G51," ","_"))/1000000,(E51-F51)*I51*H51*INDIRECT(SUBSTITUTE(G51," ","_"))/1000000),IF(ISBLANK(E51),(D51-F51)*J51,(E51-F51)*J51)))</f>
         <v/>
       </c>
@@ -3311,7 +3308,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="22" t="str">
+      <c r="K52" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D52), ISBLANK(E52)),AND(OR(ISBLANK(G52),ISBLANK(H52),ISBLANK(I52)),ISBLANK(J52))),"",IF(ISBLANK(J52),IF(ISBLANK(E52),(D52-F52)*I52*H52*INDIRECT(SUBSTITUTE(G52," ","_"))/1000000,(E52-F52)*I52*H52*INDIRECT(SUBSTITUTE(G52," ","_"))/1000000),IF(ISBLANK(E52),(D52-F52)*J52,(E52-F52)*J52)))</f>
         <v/>
       </c>
@@ -3334,7 +3331,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="22" t="str">
+      <c r="K53" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D53), ISBLANK(E53)),AND(OR(ISBLANK(G53),ISBLANK(H53),ISBLANK(I53)),ISBLANK(J53))),"",IF(ISBLANK(J53),IF(ISBLANK(E53),(D53-F53)*I53*H53*INDIRECT(SUBSTITUTE(G53," ","_"))/1000000,(E53-F53)*I53*H53*INDIRECT(SUBSTITUTE(G53," ","_"))/1000000),IF(ISBLANK(E53),(D53-F53)*J53,(E53-F53)*J53)))</f>
         <v/>
       </c>
@@ -3357,7 +3354,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
-      <c r="K54" s="22" t="str">
+      <c r="K54" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D54), ISBLANK(E54)),AND(OR(ISBLANK(G54),ISBLANK(H54),ISBLANK(I54)),ISBLANK(J54))),"",IF(ISBLANK(J54),IF(ISBLANK(E54),(D54-F54)*I54*H54*INDIRECT(SUBSTITUTE(G54," ","_"))/1000000,(E54-F54)*I54*H54*INDIRECT(SUBSTITUTE(G54," ","_"))/1000000),IF(ISBLANK(E54),(D54-F54)*J54,(E54-F54)*J54)))</f>
         <v/>
       </c>
@@ -3380,7 +3377,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="22" t="str">
+      <c r="K55" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D55), ISBLANK(E55)),AND(OR(ISBLANK(G55),ISBLANK(H55),ISBLANK(I55)),ISBLANK(J55))),"",IF(ISBLANK(J55),IF(ISBLANK(E55),(D55-F55)*I55*H55*INDIRECT(SUBSTITUTE(G55," ","_"))/1000000,(E55-F55)*I55*H55*INDIRECT(SUBSTITUTE(G55," ","_"))/1000000),IF(ISBLANK(E55),(D55-F55)*J55,(E55-F55)*J55)))</f>
         <v/>
       </c>
@@ -3403,7 +3400,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="22" t="str">
+      <c r="K56" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D56), ISBLANK(E56)),AND(OR(ISBLANK(G56),ISBLANK(H56),ISBLANK(I56)),ISBLANK(J56))),"",IF(ISBLANK(J56),IF(ISBLANK(E56),(D56-F56)*I56*H56*INDIRECT(SUBSTITUTE(G56," ","_"))/1000000,(E56-F56)*I56*H56*INDIRECT(SUBSTITUTE(G56," ","_"))/1000000),IF(ISBLANK(E56),(D56-F56)*J56,(E56-F56)*J56)))</f>
         <v/>
       </c>
@@ -3426,7 +3423,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
-      <c r="K57" s="22" t="str">
+      <c r="K57" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D57), ISBLANK(E57)),AND(OR(ISBLANK(G57),ISBLANK(H57),ISBLANK(I57)),ISBLANK(J57))),"",IF(ISBLANK(J57),IF(ISBLANK(E57),(D57-F57)*I57*H57*INDIRECT(SUBSTITUTE(G57," ","_"))/1000000,(E57-F57)*I57*H57*INDIRECT(SUBSTITUTE(G57," ","_"))/1000000),IF(ISBLANK(E57),(D57-F57)*J57,(E57-F57)*J57)))</f>
         <v/>
       </c>
@@ -3449,7 +3446,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="22" t="str">
+      <c r="K58" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D58), ISBLANK(E58)),AND(OR(ISBLANK(G58),ISBLANK(H58),ISBLANK(I58)),ISBLANK(J58))),"",IF(ISBLANK(J58),IF(ISBLANK(E58),(D58-F58)*I58*H58*INDIRECT(SUBSTITUTE(G58," ","_"))/1000000,(E58-F58)*I58*H58*INDIRECT(SUBSTITUTE(G58," ","_"))/1000000),IF(ISBLANK(E58),(D58-F58)*J58,(E58-F58)*J58)))</f>
         <v/>
       </c>
@@ -3472,7 +3469,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="22" t="str">
+      <c r="K59" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D59), ISBLANK(E59)),AND(OR(ISBLANK(G59),ISBLANK(H59),ISBLANK(I59)),ISBLANK(J59))),"",IF(ISBLANK(J59),IF(ISBLANK(E59),(D59-F59)*I59*H59*INDIRECT(SUBSTITUTE(G59," ","_"))/1000000,(E59-F59)*I59*H59*INDIRECT(SUBSTITUTE(G59," ","_"))/1000000),IF(ISBLANK(E59),(D59-F59)*J59,(E59-F59)*J59)))</f>
         <v/>
       </c>
@@ -3495,7 +3492,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="22" t="str">
+      <c r="K60" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D60), ISBLANK(E60)),AND(OR(ISBLANK(G60),ISBLANK(H60),ISBLANK(I60)),ISBLANK(J60))),"",IF(ISBLANK(J60),IF(ISBLANK(E60),(D60-F60)*I60*H60*INDIRECT(SUBSTITUTE(G60," ","_"))/1000000,(E60-F60)*I60*H60*INDIRECT(SUBSTITUTE(G60," ","_"))/1000000),IF(ISBLANK(E60),(D60-F60)*J60,(E60-F60)*J60)))</f>
         <v/>
       </c>
@@ -3518,7 +3515,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="22" t="str">
+      <c r="K61" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D61), ISBLANK(E61)),AND(OR(ISBLANK(G61),ISBLANK(H61),ISBLANK(I61)),ISBLANK(J61))),"",IF(ISBLANK(J61),IF(ISBLANK(E61),(D61-F61)*I61*H61*INDIRECT(SUBSTITUTE(G61," ","_"))/1000000,(E61-F61)*I61*H61*INDIRECT(SUBSTITUTE(G61," ","_"))/1000000),IF(ISBLANK(E61),(D61-F61)*J61,(E61-F61)*J61)))</f>
         <v/>
       </c>
@@ -3541,7 +3538,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="22" t="str">
+      <c r="K62" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D62), ISBLANK(E62)),AND(OR(ISBLANK(G62),ISBLANK(H62),ISBLANK(I62)),ISBLANK(J62))),"",IF(ISBLANK(J62),IF(ISBLANK(E62),(D62-F62)*I62*H62*INDIRECT(SUBSTITUTE(G62," ","_"))/1000000,(E62-F62)*I62*H62*INDIRECT(SUBSTITUTE(G62," ","_"))/1000000),IF(ISBLANK(E62),(D62-F62)*J62,(E62-F62)*J62)))</f>
         <v/>
       </c>
@@ -3564,7 +3561,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="22" t="str">
+      <c r="K63" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D63), ISBLANK(E63)),AND(OR(ISBLANK(G63),ISBLANK(H63),ISBLANK(I63)),ISBLANK(J63))),"",IF(ISBLANK(J63),IF(ISBLANK(E63),(D63-F63)*I63*H63*INDIRECT(SUBSTITUTE(G63," ","_"))/1000000,(E63-F63)*I63*H63*INDIRECT(SUBSTITUTE(G63," ","_"))/1000000),IF(ISBLANK(E63),(D63-F63)*J63,(E63-F63)*J63)))</f>
         <v/>
       </c>
@@ -3587,7 +3584,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="22" t="str">
+      <c r="K64" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D64), ISBLANK(E64)),AND(OR(ISBLANK(G64),ISBLANK(H64),ISBLANK(I64)),ISBLANK(J64))),"",IF(ISBLANK(J64),IF(ISBLANK(E64),(D64-F64)*I64*H64*INDIRECT(SUBSTITUTE(G64," ","_"))/1000000,(E64-F64)*I64*H64*INDIRECT(SUBSTITUTE(G64," ","_"))/1000000),IF(ISBLANK(E64),(D64-F64)*J64,(E64-F64)*J64)))</f>
         <v/>
       </c>
@@ -3610,7 +3607,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
-      <c r="K65" s="22" t="str">
+      <c r="K65" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D65), ISBLANK(E65)),AND(OR(ISBLANK(G65),ISBLANK(H65),ISBLANK(I65)),ISBLANK(J65))),"",IF(ISBLANK(J65),IF(ISBLANK(E65),(D65-F65)*I65*H65*INDIRECT(SUBSTITUTE(G65," ","_"))/1000000,(E65-F65)*I65*H65*INDIRECT(SUBSTITUTE(G65," ","_"))/1000000),IF(ISBLANK(E65),(D65-F65)*J65,(E65-F65)*J65)))</f>
         <v/>
       </c>
@@ -3633,7 +3630,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="22" t="str">
+      <c r="K66" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D66), ISBLANK(E66)),AND(OR(ISBLANK(G66),ISBLANK(H66),ISBLANK(I66)),ISBLANK(J66))),"",IF(ISBLANK(J66),IF(ISBLANK(E66),(D66-F66)*I66*H66*INDIRECT(SUBSTITUTE(G66," ","_"))/1000000,(E66-F66)*I66*H66*INDIRECT(SUBSTITUTE(G66," ","_"))/1000000),IF(ISBLANK(E66),(D66-F66)*J66,(E66-F66)*J66)))</f>
         <v/>
       </c>
@@ -3656,7 +3653,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="22" t="str">
+      <c r="K67" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D67), ISBLANK(E67)),AND(OR(ISBLANK(G67),ISBLANK(H67),ISBLANK(I67)),ISBLANK(J67))),"",IF(ISBLANK(J67),IF(ISBLANK(E67),(D67-F67)*I67*H67*INDIRECT(SUBSTITUTE(G67," ","_"))/1000000,(E67-F67)*I67*H67*INDIRECT(SUBSTITUTE(G67," ","_"))/1000000),IF(ISBLANK(E67),(D67-F67)*J67,(E67-F67)*J67)))</f>
         <v/>
       </c>
@@ -3679,7 +3676,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="22" t="str">
+      <c r="K68" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D68), ISBLANK(E68)),AND(OR(ISBLANK(G68),ISBLANK(H68),ISBLANK(I68)),ISBLANK(J68))),"",IF(ISBLANK(J68),IF(ISBLANK(E68),(D68-F68)*I68*H68*INDIRECT(SUBSTITUTE(G68," ","_"))/1000000,(E68-F68)*I68*H68*INDIRECT(SUBSTITUTE(G68," ","_"))/1000000),IF(ISBLANK(E68),(D68-F68)*J68,(E68-F68)*J68)))</f>
         <v/>
       </c>
@@ -3702,7 +3699,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="22" t="str">
+      <c r="K69" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D69), ISBLANK(E69)),AND(OR(ISBLANK(G69),ISBLANK(H69),ISBLANK(I69)),ISBLANK(J69))),"",IF(ISBLANK(J69),IF(ISBLANK(E69),(D69-F69)*I69*H69*INDIRECT(SUBSTITUTE(G69," ","_"))/1000000,(E69-F69)*I69*H69*INDIRECT(SUBSTITUTE(G69," ","_"))/1000000),IF(ISBLANK(E69),(D69-F69)*J69,(E69-F69)*J69)))</f>
         <v/>
       </c>
@@ -3725,7 +3722,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="22" t="str">
+      <c r="K70" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D70), ISBLANK(E70)),AND(OR(ISBLANK(G70),ISBLANK(H70),ISBLANK(I70)),ISBLANK(J70))),"",IF(ISBLANK(J70),IF(ISBLANK(E70),(D70-F70)*I70*H70*INDIRECT(SUBSTITUTE(G70," ","_"))/1000000,(E70-F70)*I70*H70*INDIRECT(SUBSTITUTE(G70," ","_"))/1000000),IF(ISBLANK(E70),(D70-F70)*J70,(E70-F70)*J70)))</f>
         <v/>
       </c>
@@ -3748,7 +3745,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="22" t="str">
+      <c r="K71" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D71), ISBLANK(E71)),AND(OR(ISBLANK(G71),ISBLANK(H71),ISBLANK(I71)),ISBLANK(J71))),"",IF(ISBLANK(J71),IF(ISBLANK(E71),(D71-F71)*I71*H71*INDIRECT(SUBSTITUTE(G71," ","_"))/1000000,(E71-F71)*I71*H71*INDIRECT(SUBSTITUTE(G71," ","_"))/1000000),IF(ISBLANK(E71),(D71-F71)*J71,(E71-F71)*J71)))</f>
         <v/>
       </c>
@@ -3771,7 +3768,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="22" t="str">
+      <c r="K72" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D72), ISBLANK(E72)),AND(OR(ISBLANK(G72),ISBLANK(H72),ISBLANK(I72)),ISBLANK(J72))),"",IF(ISBLANK(J72),IF(ISBLANK(E72),(D72-F72)*I72*H72*INDIRECT(SUBSTITUTE(G72," ","_"))/1000000,(E72-F72)*I72*H72*INDIRECT(SUBSTITUTE(G72," ","_"))/1000000),IF(ISBLANK(E72),(D72-F72)*J72,(E72-F72)*J72)))</f>
         <v/>
       </c>
@@ -3794,7 +3791,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="22" t="str">
+      <c r="K73" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D73), ISBLANK(E73)),AND(OR(ISBLANK(G73),ISBLANK(H73),ISBLANK(I73)),ISBLANK(J73))),"",IF(ISBLANK(J73),IF(ISBLANK(E73),(D73-F73)*I73*H73*INDIRECT(SUBSTITUTE(G73," ","_"))/1000000,(E73-F73)*I73*H73*INDIRECT(SUBSTITUTE(G73," ","_"))/1000000),IF(ISBLANK(E73),(D73-F73)*J73,(E73-F73)*J73)))</f>
         <v/>
       </c>
@@ -3817,7 +3814,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="22" t="str">
+      <c r="K74" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D74), ISBLANK(E74)),AND(OR(ISBLANK(G74),ISBLANK(H74),ISBLANK(I74)),ISBLANK(J74))),"",IF(ISBLANK(J74),IF(ISBLANK(E74),(D74-F74)*I74*H74*INDIRECT(SUBSTITUTE(G74," ","_"))/1000000,(E74-F74)*I74*H74*INDIRECT(SUBSTITUTE(G74," ","_"))/1000000),IF(ISBLANK(E74),(D74-F74)*J74,(E74-F74)*J74)))</f>
         <v/>
       </c>
@@ -3840,7 +3837,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="22" t="str">
+      <c r="K75" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D75), ISBLANK(E75)),AND(OR(ISBLANK(G75),ISBLANK(H75),ISBLANK(I75)),ISBLANK(J75))),"",IF(ISBLANK(J75),IF(ISBLANK(E75),(D75-F75)*I75*H75*INDIRECT(SUBSTITUTE(G75," ","_"))/1000000,(E75-F75)*I75*H75*INDIRECT(SUBSTITUTE(G75," ","_"))/1000000),IF(ISBLANK(E75),(D75-F75)*J75,(E75-F75)*J75)))</f>
         <v/>
       </c>
@@ -3863,7 +3860,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="22" t="str">
+      <c r="K76" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D76), ISBLANK(E76)),AND(OR(ISBLANK(G76),ISBLANK(H76),ISBLANK(I76)),ISBLANK(J76))),"",IF(ISBLANK(J76),IF(ISBLANK(E76),(D76-F76)*I76*H76*INDIRECT(SUBSTITUTE(G76," ","_"))/1000000,(E76-F76)*I76*H76*INDIRECT(SUBSTITUTE(G76," ","_"))/1000000),IF(ISBLANK(E76),(D76-F76)*J76,(E76-F76)*J76)))</f>
         <v/>
       </c>
@@ -3886,7 +3883,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="22" t="str">
+      <c r="K77" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D77), ISBLANK(E77)),AND(OR(ISBLANK(G77),ISBLANK(H77),ISBLANK(I77)),ISBLANK(J77))),"",IF(ISBLANK(J77),IF(ISBLANK(E77),(D77-F77)*I77*H77*INDIRECT(SUBSTITUTE(G77," ","_"))/1000000,(E77-F77)*I77*H77*INDIRECT(SUBSTITUTE(G77," ","_"))/1000000),IF(ISBLANK(E77),(D77-F77)*J77,(E77-F77)*J77)))</f>
         <v/>
       </c>
@@ -3909,7 +3906,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="22" t="str">
+      <c r="K78" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D78), ISBLANK(E78)),AND(OR(ISBLANK(G78),ISBLANK(H78),ISBLANK(I78)),ISBLANK(J78))),"",IF(ISBLANK(J78),IF(ISBLANK(E78),(D78-F78)*I78*H78*INDIRECT(SUBSTITUTE(G78," ","_"))/1000000,(E78-F78)*I78*H78*INDIRECT(SUBSTITUTE(G78," ","_"))/1000000),IF(ISBLANK(E78),(D78-F78)*J78,(E78-F78)*J78)))</f>
         <v/>
       </c>
@@ -3932,7 +3929,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="22" t="str">
+      <c r="K79" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D79), ISBLANK(E79)),AND(OR(ISBLANK(G79),ISBLANK(H79),ISBLANK(I79)),ISBLANK(J79))),"",IF(ISBLANK(J79),IF(ISBLANK(E79),(D79-F79)*I79*H79*INDIRECT(SUBSTITUTE(G79," ","_"))/1000000,(E79-F79)*I79*H79*INDIRECT(SUBSTITUTE(G79," ","_"))/1000000),IF(ISBLANK(E79),(D79-F79)*J79,(E79-F79)*J79)))</f>
         <v/>
       </c>
@@ -3955,7 +3952,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="22" t="str">
+      <c r="K80" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D80), ISBLANK(E80)),AND(OR(ISBLANK(G80),ISBLANK(H80),ISBLANK(I80)),ISBLANK(J80))),"",IF(ISBLANK(J80),IF(ISBLANK(E80),(D80-F80)*I80*H80*INDIRECT(SUBSTITUTE(G80," ","_"))/1000000,(E80-F80)*I80*H80*INDIRECT(SUBSTITUTE(G80," ","_"))/1000000),IF(ISBLANK(E80),(D80-F80)*J80,(E80-F80)*J80)))</f>
         <v/>
       </c>
@@ -3978,7 +3975,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="22" t="str">
+      <c r="K81" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D81), ISBLANK(E81)),AND(OR(ISBLANK(G81),ISBLANK(H81),ISBLANK(I81)),ISBLANK(J81))),"",IF(ISBLANK(J81),IF(ISBLANK(E81),(D81-F81)*I81*H81*INDIRECT(SUBSTITUTE(G81," ","_"))/1000000,(E81-F81)*I81*H81*INDIRECT(SUBSTITUTE(G81," ","_"))/1000000),IF(ISBLANK(E81),(D81-F81)*J81,(E81-F81)*J81)))</f>
         <v/>
       </c>
@@ -4001,7 +3998,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="22" t="str">
+      <c r="K82" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D82), ISBLANK(E82)),AND(OR(ISBLANK(G82),ISBLANK(H82),ISBLANK(I82)),ISBLANK(J82))),"",IF(ISBLANK(J82),IF(ISBLANK(E82),(D82-F82)*I82*H82*INDIRECT(SUBSTITUTE(G82," ","_"))/1000000,(E82-F82)*I82*H82*INDIRECT(SUBSTITUTE(G82," ","_"))/1000000),IF(ISBLANK(E82),(D82-F82)*J82,(E82-F82)*J82)))</f>
         <v/>
       </c>
@@ -4024,7 +4021,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="22" t="str">
+      <c r="K83" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D83), ISBLANK(E83)),AND(OR(ISBLANK(G83),ISBLANK(H83),ISBLANK(I83)),ISBLANK(J83))),"",IF(ISBLANK(J83),IF(ISBLANK(E83),(D83-F83)*I83*H83*INDIRECT(SUBSTITUTE(G83," ","_"))/1000000,(E83-F83)*I83*H83*INDIRECT(SUBSTITUTE(G83," ","_"))/1000000),IF(ISBLANK(E83),(D83-F83)*J83,(E83-F83)*J83)))</f>
         <v/>
       </c>
@@ -4047,7 +4044,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
-      <c r="K84" s="22" t="str">
+      <c r="K84" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D84), ISBLANK(E84)),AND(OR(ISBLANK(G84),ISBLANK(H84),ISBLANK(I84)),ISBLANK(J84))),"",IF(ISBLANK(J84),IF(ISBLANK(E84),(D84-F84)*I84*H84*INDIRECT(SUBSTITUTE(G84," ","_"))/1000000,(E84-F84)*I84*H84*INDIRECT(SUBSTITUTE(G84," ","_"))/1000000),IF(ISBLANK(E84),(D84-F84)*J84,(E84-F84)*J84)))</f>
         <v/>
       </c>
@@ -4070,7 +4067,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="22" t="str">
+      <c r="K85" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D85), ISBLANK(E85)),AND(OR(ISBLANK(G85),ISBLANK(H85),ISBLANK(I85)),ISBLANK(J85))),"",IF(ISBLANK(J85),IF(ISBLANK(E85),(D85-F85)*I85*H85*INDIRECT(SUBSTITUTE(G85," ","_"))/1000000,(E85-F85)*I85*H85*INDIRECT(SUBSTITUTE(G85," ","_"))/1000000),IF(ISBLANK(E85),(D85-F85)*J85,(E85-F85)*J85)))</f>
         <v/>
       </c>
@@ -4093,7 +4090,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
-      <c r="K86" s="22" t="str">
+      <c r="K86" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D86), ISBLANK(E86)),AND(OR(ISBLANK(G86),ISBLANK(H86),ISBLANK(I86)),ISBLANK(J86))),"",IF(ISBLANK(J86),IF(ISBLANK(E86),(D86-F86)*I86*H86*INDIRECT(SUBSTITUTE(G86," ","_"))/1000000,(E86-F86)*I86*H86*INDIRECT(SUBSTITUTE(G86," ","_"))/1000000),IF(ISBLANK(E86),(D86-F86)*J86,(E86-F86)*J86)))</f>
         <v/>
       </c>
@@ -4116,7 +4113,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
-      <c r="K87" s="22" t="str">
+      <c r="K87" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D87), ISBLANK(E87)),AND(OR(ISBLANK(G87),ISBLANK(H87),ISBLANK(I87)),ISBLANK(J87))),"",IF(ISBLANK(J87),IF(ISBLANK(E87),(D87-F87)*I87*H87*INDIRECT(SUBSTITUTE(G87," ","_"))/1000000,(E87-F87)*I87*H87*INDIRECT(SUBSTITUTE(G87," ","_"))/1000000),IF(ISBLANK(E87),(D87-F87)*J87,(E87-F87)*J87)))</f>
         <v/>
       </c>
@@ -4139,7 +4136,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="22" t="str">
+      <c r="K88" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D88), ISBLANK(E88)),AND(OR(ISBLANK(G88),ISBLANK(H88),ISBLANK(I88)),ISBLANK(J88))),"",IF(ISBLANK(J88),IF(ISBLANK(E88),(D88-F88)*I88*H88*INDIRECT(SUBSTITUTE(G88," ","_"))/1000000,(E88-F88)*I88*H88*INDIRECT(SUBSTITUTE(G88," ","_"))/1000000),IF(ISBLANK(E88),(D88-F88)*J88,(E88-F88)*J88)))</f>
         <v/>
       </c>
@@ -4162,7 +4159,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
-      <c r="K89" s="22" t="str">
+      <c r="K89" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D89), ISBLANK(E89)),AND(OR(ISBLANK(G89),ISBLANK(H89),ISBLANK(I89)),ISBLANK(J89))),"",IF(ISBLANK(J89),IF(ISBLANK(E89),(D89-F89)*I89*H89*INDIRECT(SUBSTITUTE(G89," ","_"))/1000000,(E89-F89)*I89*H89*INDIRECT(SUBSTITUTE(G89," ","_"))/1000000),IF(ISBLANK(E89),(D89-F89)*J89,(E89-F89)*J89)))</f>
         <v/>
       </c>
@@ -4185,7 +4182,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="22" t="str">
+      <c r="K90" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D90), ISBLANK(E90)),AND(OR(ISBLANK(G90),ISBLANK(H90),ISBLANK(I90)),ISBLANK(J90))),"",IF(ISBLANK(J90),IF(ISBLANK(E90),(D90-F90)*I90*H90*INDIRECT(SUBSTITUTE(G90," ","_"))/1000000,(E90-F90)*I90*H90*INDIRECT(SUBSTITUTE(G90," ","_"))/1000000),IF(ISBLANK(E90),(D90-F90)*J90,(E90-F90)*J90)))</f>
         <v/>
       </c>
@@ -4208,7 +4205,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="22" t="str">
+      <c r="K91" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D91), ISBLANK(E91)),AND(OR(ISBLANK(G91),ISBLANK(H91),ISBLANK(I91)),ISBLANK(J91))),"",IF(ISBLANK(J91),IF(ISBLANK(E91),(D91-F91)*I91*H91*INDIRECT(SUBSTITUTE(G91," ","_"))/1000000,(E91-F91)*I91*H91*INDIRECT(SUBSTITUTE(G91," ","_"))/1000000),IF(ISBLANK(E91),(D91-F91)*J91,(E91-F91)*J91)))</f>
         <v/>
       </c>
@@ -4231,7 +4228,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="22" t="str">
+      <c r="K92" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D92), ISBLANK(E92)),AND(OR(ISBLANK(G92),ISBLANK(H92),ISBLANK(I92)),ISBLANK(J92))),"",IF(ISBLANK(J92),IF(ISBLANK(E92),(D92-F92)*I92*H92*INDIRECT(SUBSTITUTE(G92," ","_"))/1000000,(E92-F92)*I92*H92*INDIRECT(SUBSTITUTE(G92," ","_"))/1000000),IF(ISBLANK(E92),(D92-F92)*J92,(E92-F92)*J92)))</f>
         <v/>
       </c>
@@ -4254,7 +4251,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
-      <c r="K93" s="22" t="str">
+      <c r="K93" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D93), ISBLANK(E93)),AND(OR(ISBLANK(G93),ISBLANK(H93),ISBLANK(I93)),ISBLANK(J93))),"",IF(ISBLANK(J93),IF(ISBLANK(E93),(D93-F93)*I93*H93*INDIRECT(SUBSTITUTE(G93," ","_"))/1000000,(E93-F93)*I93*H93*INDIRECT(SUBSTITUTE(G93," ","_"))/1000000),IF(ISBLANK(E93),(D93-F93)*J93,(E93-F93)*J93)))</f>
         <v/>
       </c>
@@ -4277,7 +4274,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="22" t="str">
+      <c r="K94" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D94), ISBLANK(E94)),AND(OR(ISBLANK(G94),ISBLANK(H94),ISBLANK(I94)),ISBLANK(J94))),"",IF(ISBLANK(J94),IF(ISBLANK(E94),(D94-F94)*I94*H94*INDIRECT(SUBSTITUTE(G94," ","_"))/1000000,(E94-F94)*I94*H94*INDIRECT(SUBSTITUTE(G94," ","_"))/1000000),IF(ISBLANK(E94),(D94-F94)*J94,(E94-F94)*J94)))</f>
         <v/>
       </c>
@@ -4300,7 +4297,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
-      <c r="K95" s="22" t="str">
+      <c r="K95" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D95), ISBLANK(E95)),AND(OR(ISBLANK(G95),ISBLANK(H95),ISBLANK(I95)),ISBLANK(J95))),"",IF(ISBLANK(J95),IF(ISBLANK(E95),(D95-F95)*I95*H95*INDIRECT(SUBSTITUTE(G95," ","_"))/1000000,(E95-F95)*I95*H95*INDIRECT(SUBSTITUTE(G95," ","_"))/1000000),IF(ISBLANK(E95),(D95-F95)*J95,(E95-F95)*J95)))</f>
         <v/>
       </c>
@@ -4323,7 +4320,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
-      <c r="K96" s="22" t="str">
+      <c r="K96" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D96), ISBLANK(E96)),AND(OR(ISBLANK(G96),ISBLANK(H96),ISBLANK(I96)),ISBLANK(J96))),"",IF(ISBLANK(J96),IF(ISBLANK(E96),(D96-F96)*I96*H96*INDIRECT(SUBSTITUTE(G96," ","_"))/1000000,(E96-F96)*I96*H96*INDIRECT(SUBSTITUTE(G96," ","_"))/1000000),IF(ISBLANK(E96),(D96-F96)*J96,(E96-F96)*J96)))</f>
         <v/>
       </c>
@@ -4346,7 +4343,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="22" t="str">
+      <c r="K97" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D97), ISBLANK(E97)),AND(OR(ISBLANK(G97),ISBLANK(H97),ISBLANK(I97)),ISBLANK(J97))),"",IF(ISBLANK(J97),IF(ISBLANK(E97),(D97-F97)*I97*H97*INDIRECT(SUBSTITUTE(G97," ","_"))/1000000,(E97-F97)*I97*H97*INDIRECT(SUBSTITUTE(G97," ","_"))/1000000),IF(ISBLANK(E97),(D97-F97)*J97,(E97-F97)*J97)))</f>
         <v/>
       </c>
@@ -4369,7 +4366,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
-      <c r="K98" s="22" t="str">
+      <c r="K98" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D98), ISBLANK(E98)),AND(OR(ISBLANK(G98),ISBLANK(H98),ISBLANK(I98)),ISBLANK(J98))),"",IF(ISBLANK(J98),IF(ISBLANK(E98),(D98-F98)*I98*H98*INDIRECT(SUBSTITUTE(G98," ","_"))/1000000,(E98-F98)*I98*H98*INDIRECT(SUBSTITUTE(G98," ","_"))/1000000),IF(ISBLANK(E98),(D98-F98)*J98,(E98-F98)*J98)))</f>
         <v/>
       </c>
@@ -4392,7 +4389,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
-      <c r="K99" s="22" t="str">
+      <c r="K99" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D99), ISBLANK(E99)),AND(OR(ISBLANK(G99),ISBLANK(H99),ISBLANK(I99)),ISBLANK(J99))),"",IF(ISBLANK(J99),IF(ISBLANK(E99),(D99-F99)*I99*H99*INDIRECT(SUBSTITUTE(G99," ","_"))/1000000,(E99-F99)*I99*H99*INDIRECT(SUBSTITUTE(G99," ","_"))/1000000),IF(ISBLANK(E99),(D99-F99)*J99,(E99-F99)*J99)))</f>
         <v/>
       </c>
@@ -4415,7 +4412,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="22" t="str">
+      <c r="K100" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D100), ISBLANK(E100)),AND(OR(ISBLANK(G100),ISBLANK(H100),ISBLANK(I100)),ISBLANK(J100))),"",IF(ISBLANK(J100),IF(ISBLANK(E100),(D100-F100)*I100*H100*INDIRECT(SUBSTITUTE(G100," ","_"))/1000000,(E100-F100)*I100*H100*INDIRECT(SUBSTITUTE(G100," ","_"))/1000000),IF(ISBLANK(E100),(D100-F100)*J100,(E100-F100)*J100)))</f>
         <v/>
       </c>
@@ -4438,7 +4435,7 @@
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
-      <c r="K101" s="22" t="str">
+      <c r="K101" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D101), ISBLANK(E101)),AND(OR(ISBLANK(G101),ISBLANK(H101),ISBLANK(I101)),ISBLANK(J101))),"",IF(ISBLANK(J101),IF(ISBLANK(E101),(D101-F101)*I101*H101*INDIRECT(SUBSTITUTE(G101," ","_"))/1000000,(E101-F101)*I101*H101*INDIRECT(SUBSTITUTE(G101," ","_"))/1000000),IF(ISBLANK(E101),(D101-F101)*J101,(E101-F101)*J101)))</f>
         <v/>
       </c>
@@ -4461,7 +4458,7 @@
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
       <c r="J102" s="31"/>
-      <c r="K102" s="22" t="str">
+      <c r="K102" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D102), ISBLANK(E102)),AND(OR(ISBLANK(G102),ISBLANK(H102),ISBLANK(I102)),ISBLANK(J102))),"",IF(ISBLANK(J102),IF(ISBLANK(E102),(D102-F102)*I102*H102*INDIRECT(SUBSTITUTE(G102," ","_"))/1000000,(E102-F102)*I102*H102*INDIRECT(SUBSTITUTE(G102," ","_"))/1000000),IF(ISBLANK(E102),(D102-F102)*J102,(E102-F102)*J102)))</f>
         <v/>
       </c>
@@ -4484,7 +4481,7 @@
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
-      <c r="K103" s="22" t="str">
+      <c r="K103" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D103), ISBLANK(E103)),AND(OR(ISBLANK(G103),ISBLANK(H103),ISBLANK(I103)),ISBLANK(J103))),"",IF(ISBLANK(J103),IF(ISBLANK(E103),(D103-F103)*I103*H103*INDIRECT(SUBSTITUTE(G103," ","_"))/1000000,(E103-F103)*I103*H103*INDIRECT(SUBSTITUTE(G103," ","_"))/1000000),IF(ISBLANK(E103),(D103-F103)*J103,(E103-F103)*J103)))</f>
         <v/>
       </c>
@@ -4507,7 +4504,7 @@
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
-      <c r="K104" s="22" t="str">
+      <c r="K104" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D104), ISBLANK(E104)),AND(OR(ISBLANK(G104),ISBLANK(H104),ISBLANK(I104)),ISBLANK(J104))),"",IF(ISBLANK(J104),IF(ISBLANK(E104),(D104-F104)*I104*H104*INDIRECT(SUBSTITUTE(G104," ","_"))/1000000,(E104-F104)*I104*H104*INDIRECT(SUBSTITUTE(G104," ","_"))/1000000),IF(ISBLANK(E104),(D104-F104)*J104,(E104-F104)*J104)))</f>
         <v/>
       </c>
@@ -4530,7 +4527,7 @@
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
-      <c r="K105" s="22" t="str">
+      <c r="K105" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D105), ISBLANK(E105)),AND(OR(ISBLANK(G105),ISBLANK(H105),ISBLANK(I105)),ISBLANK(J105))),"",IF(ISBLANK(J105),IF(ISBLANK(E105),(D105-F105)*I105*H105*INDIRECT(SUBSTITUTE(G105," ","_"))/1000000,(E105-F105)*I105*H105*INDIRECT(SUBSTITUTE(G105," ","_"))/1000000),IF(ISBLANK(E105),(D105-F105)*J105,(E105-F105)*J105)))</f>
         <v/>
       </c>
@@ -4553,7 +4550,7 @@
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
       <c r="J106" s="31"/>
-      <c r="K106" s="22" t="str">
+      <c r="K106" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D106), ISBLANK(E106)),AND(OR(ISBLANK(G106),ISBLANK(H106),ISBLANK(I106)),ISBLANK(J106))),"",IF(ISBLANK(J106),IF(ISBLANK(E106),(D106-F106)*I106*H106*INDIRECT(SUBSTITUTE(G106," ","_"))/1000000,(E106-F106)*I106*H106*INDIRECT(SUBSTITUTE(G106," ","_"))/1000000),IF(ISBLANK(E106),(D106-F106)*J106,(E106-F106)*J106)))</f>
         <v/>
       </c>
@@ -4576,7 +4573,7 @@
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
       <c r="J107" s="31"/>
-      <c r="K107" s="22" t="str">
+      <c r="K107" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D107), ISBLANK(E107)),AND(OR(ISBLANK(G107),ISBLANK(H107),ISBLANK(I107)),ISBLANK(J107))),"",IF(ISBLANK(J107),IF(ISBLANK(E107),(D107-F107)*I107*H107*INDIRECT(SUBSTITUTE(G107," ","_"))/1000000,(E107-F107)*I107*H107*INDIRECT(SUBSTITUTE(G107," ","_"))/1000000),IF(ISBLANK(E107),(D107-F107)*J107,(E107-F107)*J107)))</f>
         <v/>
       </c>
@@ -4599,7 +4596,7 @@
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
-      <c r="K108" s="22" t="str">
+      <c r="K108" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D108), ISBLANK(E108)),AND(OR(ISBLANK(G108),ISBLANK(H108),ISBLANK(I108)),ISBLANK(J108))),"",IF(ISBLANK(J108),IF(ISBLANK(E108),(D108-F108)*I108*H108*INDIRECT(SUBSTITUTE(G108," ","_"))/1000000,(E108-F108)*I108*H108*INDIRECT(SUBSTITUTE(G108," ","_"))/1000000),IF(ISBLANK(E108),(D108-F108)*J108,(E108-F108)*J108)))</f>
         <v/>
       </c>
@@ -4622,7 +4619,7 @@
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
       <c r="J109" s="31"/>
-      <c r="K109" s="22" t="str">
+      <c r="K109" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D109), ISBLANK(E109)),AND(OR(ISBLANK(G109),ISBLANK(H109),ISBLANK(I109)),ISBLANK(J109))),"",IF(ISBLANK(J109),IF(ISBLANK(E109),(D109-F109)*I109*H109*INDIRECT(SUBSTITUTE(G109," ","_"))/1000000,(E109-F109)*I109*H109*INDIRECT(SUBSTITUTE(G109," ","_"))/1000000),IF(ISBLANK(E109),(D109-F109)*J109,(E109-F109)*J109)))</f>
         <v/>
       </c>
@@ -4645,7 +4642,7 @@
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
       <c r="J110" s="31"/>
-      <c r="K110" s="22" t="str">
+      <c r="K110" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D110), ISBLANK(E110)),AND(OR(ISBLANK(G110),ISBLANK(H110),ISBLANK(I110)),ISBLANK(J110))),"",IF(ISBLANK(J110),IF(ISBLANK(E110),(D110-F110)*I110*H110*INDIRECT(SUBSTITUTE(G110," ","_"))/1000000,(E110-F110)*I110*H110*INDIRECT(SUBSTITUTE(G110," ","_"))/1000000),IF(ISBLANK(E110),(D110-F110)*J110,(E110-F110)*J110)))</f>
         <v/>
       </c>
@@ -4668,7 +4665,7 @@
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
       <c r="J111" s="31"/>
-      <c r="K111" s="22" t="str">
+      <c r="K111" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D111), ISBLANK(E111)),AND(OR(ISBLANK(G111),ISBLANK(H111),ISBLANK(I111)),ISBLANK(J111))),"",IF(ISBLANK(J111),IF(ISBLANK(E111),(D111-F111)*I111*H111*INDIRECT(SUBSTITUTE(G111," ","_"))/1000000,(E111-F111)*I111*H111*INDIRECT(SUBSTITUTE(G111," ","_"))/1000000),IF(ISBLANK(E111),(D111-F111)*J111,(E111-F111)*J111)))</f>
         <v/>
       </c>
@@ -4691,7 +4688,7 @@
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
-      <c r="K112" s="22" t="str">
+      <c r="K112" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D112), ISBLANK(E112)),AND(OR(ISBLANK(G112),ISBLANK(H112),ISBLANK(I112)),ISBLANK(J112))),"",IF(ISBLANK(J112),IF(ISBLANK(E112),(D112-F112)*I112*H112*INDIRECT(SUBSTITUTE(G112," ","_"))/1000000,(E112-F112)*I112*H112*INDIRECT(SUBSTITUTE(G112," ","_"))/1000000),IF(ISBLANK(E112),(D112-F112)*J112,(E112-F112)*J112)))</f>
         <v/>
       </c>
@@ -4714,7 +4711,7 @@
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
       <c r="J113" s="31"/>
-      <c r="K113" s="22" t="str">
+      <c r="K113" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D113), ISBLANK(E113)),AND(OR(ISBLANK(G113),ISBLANK(H113),ISBLANK(I113)),ISBLANK(J113))),"",IF(ISBLANK(J113),IF(ISBLANK(E113),(D113-F113)*I113*H113*INDIRECT(SUBSTITUTE(G113," ","_"))/1000000,(E113-F113)*I113*H113*INDIRECT(SUBSTITUTE(G113," ","_"))/1000000),IF(ISBLANK(E113),(D113-F113)*J113,(E113-F113)*J113)))</f>
         <v/>
       </c>
@@ -4737,7 +4734,7 @@
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
       <c r="J114" s="31"/>
-      <c r="K114" s="22" t="str">
+      <c r="K114" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D114), ISBLANK(E114)),AND(OR(ISBLANK(G114),ISBLANK(H114),ISBLANK(I114)),ISBLANK(J114))),"",IF(ISBLANK(J114),IF(ISBLANK(E114),(D114-F114)*I114*H114*INDIRECT(SUBSTITUTE(G114," ","_"))/1000000,(E114-F114)*I114*H114*INDIRECT(SUBSTITUTE(G114," ","_"))/1000000),IF(ISBLANK(E114),(D114-F114)*J114,(E114-F114)*J114)))</f>
         <v/>
       </c>
@@ -4760,7 +4757,7 @@
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
       <c r="J115" s="31"/>
-      <c r="K115" s="22" t="str">
+      <c r="K115" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D115), ISBLANK(E115)),AND(OR(ISBLANK(G115),ISBLANK(H115),ISBLANK(I115)),ISBLANK(J115))),"",IF(ISBLANK(J115),IF(ISBLANK(E115),(D115-F115)*I115*H115*INDIRECT(SUBSTITUTE(G115," ","_"))/1000000,(E115-F115)*I115*H115*INDIRECT(SUBSTITUTE(G115," ","_"))/1000000),IF(ISBLANK(E115),(D115-F115)*J115,(E115-F115)*J115)))</f>
         <v/>
       </c>
@@ -4783,7 +4780,7 @@
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
       <c r="J116" s="31"/>
-      <c r="K116" s="22" t="str">
+      <c r="K116" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D116), ISBLANK(E116)),AND(OR(ISBLANK(G116),ISBLANK(H116),ISBLANK(I116)),ISBLANK(J116))),"",IF(ISBLANK(J116),IF(ISBLANK(E116),(D116-F116)*I116*H116*INDIRECT(SUBSTITUTE(G116," ","_"))/1000000,(E116-F116)*I116*H116*INDIRECT(SUBSTITUTE(G116," ","_"))/1000000),IF(ISBLANK(E116),(D116-F116)*J116,(E116-F116)*J116)))</f>
         <v/>
       </c>
@@ -4806,7 +4803,7 @@
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
       <c r="J117" s="31"/>
-      <c r="K117" s="22" t="str">
+      <c r="K117" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D117), ISBLANK(E117)),AND(OR(ISBLANK(G117),ISBLANK(H117),ISBLANK(I117)),ISBLANK(J117))),"",IF(ISBLANK(J117),IF(ISBLANK(E117),(D117-F117)*I117*H117*INDIRECT(SUBSTITUTE(G117," ","_"))/1000000,(E117-F117)*I117*H117*INDIRECT(SUBSTITUTE(G117," ","_"))/1000000),IF(ISBLANK(E117),(D117-F117)*J117,(E117-F117)*J117)))</f>
         <v/>
       </c>
@@ -4829,7 +4826,7 @@
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
       <c r="J118" s="31"/>
-      <c r="K118" s="22" t="str">
+      <c r="K118" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D118), ISBLANK(E118)),AND(OR(ISBLANK(G118),ISBLANK(H118),ISBLANK(I118)),ISBLANK(J118))),"",IF(ISBLANK(J118),IF(ISBLANK(E118),(D118-F118)*I118*H118*INDIRECT(SUBSTITUTE(G118," ","_"))/1000000,(E118-F118)*I118*H118*INDIRECT(SUBSTITUTE(G118," ","_"))/1000000),IF(ISBLANK(E118),(D118-F118)*J118,(E118-F118)*J118)))</f>
         <v/>
       </c>
@@ -4852,7 +4849,7 @@
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
       <c r="J119" s="31"/>
-      <c r="K119" s="22" t="str">
+      <c r="K119" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D119), ISBLANK(E119)),AND(OR(ISBLANK(G119),ISBLANK(H119),ISBLANK(I119)),ISBLANK(J119))),"",IF(ISBLANK(J119),IF(ISBLANK(E119),(D119-F119)*I119*H119*INDIRECT(SUBSTITUTE(G119," ","_"))/1000000,(E119-F119)*I119*H119*INDIRECT(SUBSTITUTE(G119," ","_"))/1000000),IF(ISBLANK(E119),(D119-F119)*J119,(E119-F119)*J119)))</f>
         <v/>
       </c>
@@ -4875,7 +4872,7 @@
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
       <c r="J120" s="31"/>
-      <c r="K120" s="22" t="str">
+      <c r="K120" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D120), ISBLANK(E120)),AND(OR(ISBLANK(G120),ISBLANK(H120),ISBLANK(I120)),ISBLANK(J120))),"",IF(ISBLANK(J120),IF(ISBLANK(E120),(D120-F120)*I120*H120*INDIRECT(SUBSTITUTE(G120," ","_"))/1000000,(E120-F120)*I120*H120*INDIRECT(SUBSTITUTE(G120," ","_"))/1000000),IF(ISBLANK(E120),(D120-F120)*J120,(E120-F120)*J120)))</f>
         <v/>
       </c>
@@ -4898,7 +4895,7 @@
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
-      <c r="K121" s="22" t="str">
+      <c r="K121" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D121), ISBLANK(E121)),AND(OR(ISBLANK(G121),ISBLANK(H121),ISBLANK(I121)),ISBLANK(J121))),"",IF(ISBLANK(J121),IF(ISBLANK(E121),(D121-F121)*I121*H121*INDIRECT(SUBSTITUTE(G121," ","_"))/1000000,(E121-F121)*I121*H121*INDIRECT(SUBSTITUTE(G121," ","_"))/1000000),IF(ISBLANK(E121),(D121-F121)*J121,(E121-F121)*J121)))</f>
         <v/>
       </c>
@@ -4921,7 +4918,7 @@
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
-      <c r="K122" s="22" t="str">
+      <c r="K122" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D122), ISBLANK(E122)),AND(OR(ISBLANK(G122),ISBLANK(H122),ISBLANK(I122)),ISBLANK(J122))),"",IF(ISBLANK(J122),IF(ISBLANK(E122),(D122-F122)*I122*H122*INDIRECT(SUBSTITUTE(G122," ","_"))/1000000,(E122-F122)*I122*H122*INDIRECT(SUBSTITUTE(G122," ","_"))/1000000),IF(ISBLANK(E122),(D122-F122)*J122,(E122-F122)*J122)))</f>
         <v/>
       </c>
@@ -4944,7 +4941,7 @@
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
-      <c r="K123" s="22" t="str">
+      <c r="K123" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D123), ISBLANK(E123)),AND(OR(ISBLANK(G123),ISBLANK(H123),ISBLANK(I123)),ISBLANK(J123))),"",IF(ISBLANK(J123),IF(ISBLANK(E123),(D123-F123)*I123*H123*INDIRECT(SUBSTITUTE(G123," ","_"))/1000000,(E123-F123)*I123*H123*INDIRECT(SUBSTITUTE(G123," ","_"))/1000000),IF(ISBLANK(E123),(D123-F123)*J123,(E123-F123)*J123)))</f>
         <v/>
       </c>
@@ -4967,7 +4964,7 @@
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
-      <c r="K124" s="22" t="str">
+      <c r="K124" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D124), ISBLANK(E124)),AND(OR(ISBLANK(G124),ISBLANK(H124),ISBLANK(I124)),ISBLANK(J124))),"",IF(ISBLANK(J124),IF(ISBLANK(E124),(D124-F124)*I124*H124*INDIRECT(SUBSTITUTE(G124," ","_"))/1000000,(E124-F124)*I124*H124*INDIRECT(SUBSTITUTE(G124," ","_"))/1000000),IF(ISBLANK(E124),(D124-F124)*J124,(E124-F124)*J124)))</f>
         <v/>
       </c>
@@ -4990,7 +4987,7 @@
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
-      <c r="K125" s="22" t="str">
+      <c r="K125" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D125), ISBLANK(E125)),AND(OR(ISBLANK(G125),ISBLANK(H125),ISBLANK(I125)),ISBLANK(J125))),"",IF(ISBLANK(J125),IF(ISBLANK(E125),(D125-F125)*I125*H125*INDIRECT(SUBSTITUTE(G125," ","_"))/1000000,(E125-F125)*I125*H125*INDIRECT(SUBSTITUTE(G125," ","_"))/1000000),IF(ISBLANK(E125),(D125-F125)*J125,(E125-F125)*J125)))</f>
         <v/>
       </c>
@@ -5013,7 +5010,7 @@
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
-      <c r="K126" s="22" t="str">
+      <c r="K126" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D126), ISBLANK(E126)),AND(OR(ISBLANK(G126),ISBLANK(H126),ISBLANK(I126)),ISBLANK(J126))),"",IF(ISBLANK(J126),IF(ISBLANK(E126),(D126-F126)*I126*H126*INDIRECT(SUBSTITUTE(G126," ","_"))/1000000,(E126-F126)*I126*H126*INDIRECT(SUBSTITUTE(G126," ","_"))/1000000),IF(ISBLANK(E126),(D126-F126)*J126,(E126-F126)*J126)))</f>
         <v/>
       </c>
@@ -5036,7 +5033,7 @@
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
-      <c r="K127" s="22" t="str">
+      <c r="K127" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D127), ISBLANK(E127)),AND(OR(ISBLANK(G127),ISBLANK(H127),ISBLANK(I127)),ISBLANK(J127))),"",IF(ISBLANK(J127),IF(ISBLANK(E127),(D127-F127)*I127*H127*INDIRECT(SUBSTITUTE(G127," ","_"))/1000000,(E127-F127)*I127*H127*INDIRECT(SUBSTITUTE(G127," ","_"))/1000000),IF(ISBLANK(E127),(D127-F127)*J127,(E127-F127)*J127)))</f>
         <v/>
       </c>
@@ -5059,7 +5056,7 @@
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
-      <c r="K128" s="22" t="str">
+      <c r="K128" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D128), ISBLANK(E128)),AND(OR(ISBLANK(G128),ISBLANK(H128),ISBLANK(I128)),ISBLANK(J128))),"",IF(ISBLANK(J128),IF(ISBLANK(E128),(D128-F128)*I128*H128*INDIRECT(SUBSTITUTE(G128," ","_"))/1000000,(E128-F128)*I128*H128*INDIRECT(SUBSTITUTE(G128," ","_"))/1000000),IF(ISBLANK(E128),(D128-F128)*J128,(E128-F128)*J128)))</f>
         <v/>
       </c>
@@ -5082,7 +5079,7 @@
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
       <c r="J129" s="31"/>
-      <c r="K129" s="22" t="str">
+      <c r="K129" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D129), ISBLANK(E129)),AND(OR(ISBLANK(G129),ISBLANK(H129),ISBLANK(I129)),ISBLANK(J129))),"",IF(ISBLANK(J129),IF(ISBLANK(E129),(D129-F129)*I129*H129*INDIRECT(SUBSTITUTE(G129," ","_"))/1000000,(E129-F129)*I129*H129*INDIRECT(SUBSTITUTE(G129," ","_"))/1000000),IF(ISBLANK(E129),(D129-F129)*J129,(E129-F129)*J129)))</f>
         <v/>
       </c>
@@ -5105,7 +5102,7 @@
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
       <c r="J130" s="31"/>
-      <c r="K130" s="22" t="str">
+      <c r="K130" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D130), ISBLANK(E130)),AND(OR(ISBLANK(G130),ISBLANK(H130),ISBLANK(I130)),ISBLANK(J130))),"",IF(ISBLANK(J130),IF(ISBLANK(E130),(D130-F130)*I130*H130*INDIRECT(SUBSTITUTE(G130," ","_"))/1000000,(E130-F130)*I130*H130*INDIRECT(SUBSTITUTE(G130," ","_"))/1000000),IF(ISBLANK(E130),(D130-F130)*J130,(E130-F130)*J130)))</f>
         <v/>
       </c>
@@ -5128,7 +5125,7 @@
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
-      <c r="K131" s="22" t="str">
+      <c r="K131" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D131), ISBLANK(E131)),AND(OR(ISBLANK(G131),ISBLANK(H131),ISBLANK(I131)),ISBLANK(J131))),"",IF(ISBLANK(J131),IF(ISBLANK(E131),(D131-F131)*I131*H131*INDIRECT(SUBSTITUTE(G131," ","_"))/1000000,(E131-F131)*I131*H131*INDIRECT(SUBSTITUTE(G131," ","_"))/1000000),IF(ISBLANK(E131),(D131-F131)*J131,(E131-F131)*J131)))</f>
         <v/>
       </c>
@@ -5151,7 +5148,7 @@
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
       <c r="J132" s="31"/>
-      <c r="K132" s="22" t="str">
+      <c r="K132" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D132), ISBLANK(E132)),AND(OR(ISBLANK(G132),ISBLANK(H132),ISBLANK(I132)),ISBLANK(J132))),"",IF(ISBLANK(J132),IF(ISBLANK(E132),(D132-F132)*I132*H132*INDIRECT(SUBSTITUTE(G132," ","_"))/1000000,(E132-F132)*I132*H132*INDIRECT(SUBSTITUTE(G132," ","_"))/1000000),IF(ISBLANK(E132),(D132-F132)*J132,(E132-F132)*J132)))</f>
         <v/>
       </c>
@@ -5174,7 +5171,7 @@
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
       <c r="J133" s="31"/>
-      <c r="K133" s="22" t="str">
+      <c r="K133" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D133), ISBLANK(E133)),AND(OR(ISBLANK(G133),ISBLANK(H133),ISBLANK(I133)),ISBLANK(J133))),"",IF(ISBLANK(J133),IF(ISBLANK(E133),(D133-F133)*I133*H133*INDIRECT(SUBSTITUTE(G133," ","_"))/1000000,(E133-F133)*I133*H133*INDIRECT(SUBSTITUTE(G133," ","_"))/1000000),IF(ISBLANK(E133),(D133-F133)*J133,(E133-F133)*J133)))</f>
         <v/>
       </c>
@@ -5197,7 +5194,7 @@
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
       <c r="J134" s="31"/>
-      <c r="K134" s="22" t="str">
+      <c r="K134" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D134), ISBLANK(E134)),AND(OR(ISBLANK(G134),ISBLANK(H134),ISBLANK(I134)),ISBLANK(J134))),"",IF(ISBLANK(J134),IF(ISBLANK(E134),(D134-F134)*I134*H134*INDIRECT(SUBSTITUTE(G134," ","_"))/1000000,(E134-F134)*I134*H134*INDIRECT(SUBSTITUTE(G134," ","_"))/1000000),IF(ISBLANK(E134),(D134-F134)*J134,(E134-F134)*J134)))</f>
         <v/>
       </c>
@@ -5220,7 +5217,7 @@
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
       <c r="J135" s="31"/>
-      <c r="K135" s="22" t="str">
+      <c r="K135" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D135), ISBLANK(E135)),AND(OR(ISBLANK(G135),ISBLANK(H135),ISBLANK(I135)),ISBLANK(J135))),"",IF(ISBLANK(J135),IF(ISBLANK(E135),(D135-F135)*I135*H135*INDIRECT(SUBSTITUTE(G135," ","_"))/1000000,(E135-F135)*I135*H135*INDIRECT(SUBSTITUTE(G135," ","_"))/1000000),IF(ISBLANK(E135),(D135-F135)*J135,(E135-F135)*J135)))</f>
         <v/>
       </c>
@@ -5243,7 +5240,7 @@
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
       <c r="J136" s="31"/>
-      <c r="K136" s="22" t="str">
+      <c r="K136" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D136), ISBLANK(E136)),AND(OR(ISBLANK(G136),ISBLANK(H136),ISBLANK(I136)),ISBLANK(J136))),"",IF(ISBLANK(J136),IF(ISBLANK(E136),(D136-F136)*I136*H136*INDIRECT(SUBSTITUTE(G136," ","_"))/1000000,(E136-F136)*I136*H136*INDIRECT(SUBSTITUTE(G136," ","_"))/1000000),IF(ISBLANK(E136),(D136-F136)*J136,(E136-F136)*J136)))</f>
         <v/>
       </c>
@@ -5266,7 +5263,7 @@
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
       <c r="J137" s="31"/>
-      <c r="K137" s="22" t="str">
+      <c r="K137" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D137), ISBLANK(E137)),AND(OR(ISBLANK(G137),ISBLANK(H137),ISBLANK(I137)),ISBLANK(J137))),"",IF(ISBLANK(J137),IF(ISBLANK(E137),(D137-F137)*I137*H137*INDIRECT(SUBSTITUTE(G137," ","_"))/1000000,(E137-F137)*I137*H137*INDIRECT(SUBSTITUTE(G137," ","_"))/1000000),IF(ISBLANK(E137),(D137-F137)*J137,(E137-F137)*J137)))</f>
         <v/>
       </c>
@@ -5289,7 +5286,7 @@
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
       <c r="J138" s="31"/>
-      <c r="K138" s="22" t="str">
+      <c r="K138" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D138), ISBLANK(E138)),AND(OR(ISBLANK(G138),ISBLANK(H138),ISBLANK(I138)),ISBLANK(J138))),"",IF(ISBLANK(J138),IF(ISBLANK(E138),(D138-F138)*I138*H138*INDIRECT(SUBSTITUTE(G138," ","_"))/1000000,(E138-F138)*I138*H138*INDIRECT(SUBSTITUTE(G138," ","_"))/1000000),IF(ISBLANK(E138),(D138-F138)*J138,(E138-F138)*J138)))</f>
         <v/>
       </c>
@@ -5312,7 +5309,7 @@
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
       <c r="J139" s="31"/>
-      <c r="K139" s="22" t="str">
+      <c r="K139" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D139), ISBLANK(E139)),AND(OR(ISBLANK(G139),ISBLANK(H139),ISBLANK(I139)),ISBLANK(J139))),"",IF(ISBLANK(J139),IF(ISBLANK(E139),(D139-F139)*I139*H139*INDIRECT(SUBSTITUTE(G139," ","_"))/1000000,(E139-F139)*I139*H139*INDIRECT(SUBSTITUTE(G139," ","_"))/1000000),IF(ISBLANK(E139),(D139-F139)*J139,(E139-F139)*J139)))</f>
         <v/>
       </c>
@@ -5335,7 +5332,7 @@
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
       <c r="J140" s="31"/>
-      <c r="K140" s="22" t="str">
+      <c r="K140" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D140), ISBLANK(E140)),AND(OR(ISBLANK(G140),ISBLANK(H140),ISBLANK(I140)),ISBLANK(J140))),"",IF(ISBLANK(J140),IF(ISBLANK(E140),(D140-F140)*I140*H140*INDIRECT(SUBSTITUTE(G140," ","_"))/1000000,(E140-F140)*I140*H140*INDIRECT(SUBSTITUTE(G140," ","_"))/1000000),IF(ISBLANK(E140),(D140-F140)*J140,(E140-F140)*J140)))</f>
         <v/>
       </c>
@@ -5358,7 +5355,7 @@
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
       <c r="J141" s="31"/>
-      <c r="K141" s="22" t="str">
+      <c r="K141" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D141), ISBLANK(E141)),AND(OR(ISBLANK(G141),ISBLANK(H141),ISBLANK(I141)),ISBLANK(J141))),"",IF(ISBLANK(J141),IF(ISBLANK(E141),(D141-F141)*I141*H141*INDIRECT(SUBSTITUTE(G141," ","_"))/1000000,(E141-F141)*I141*H141*INDIRECT(SUBSTITUTE(G141," ","_"))/1000000),IF(ISBLANK(E141),(D141-F141)*J141,(E141-F141)*J141)))</f>
         <v/>
       </c>
@@ -5381,7 +5378,7 @@
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
       <c r="J142" s="31"/>
-      <c r="K142" s="22" t="str">
+      <c r="K142" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D142), ISBLANK(E142)),AND(OR(ISBLANK(G142),ISBLANK(H142),ISBLANK(I142)),ISBLANK(J142))),"",IF(ISBLANK(J142),IF(ISBLANK(E142),(D142-F142)*I142*H142*INDIRECT(SUBSTITUTE(G142," ","_"))/1000000,(E142-F142)*I142*H142*INDIRECT(SUBSTITUTE(G142," ","_"))/1000000),IF(ISBLANK(E142),(D142-F142)*J142,(E142-F142)*J142)))</f>
         <v/>
       </c>
@@ -5404,7 +5401,7 @@
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
       <c r="J143" s="31"/>
-      <c r="K143" s="22" t="str">
+      <c r="K143" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D143), ISBLANK(E143)),AND(OR(ISBLANK(G143),ISBLANK(H143),ISBLANK(I143)),ISBLANK(J143))),"",IF(ISBLANK(J143),IF(ISBLANK(E143),(D143-F143)*I143*H143*INDIRECT(SUBSTITUTE(G143," ","_"))/1000000,(E143-F143)*I143*H143*INDIRECT(SUBSTITUTE(G143," ","_"))/1000000),IF(ISBLANK(E143),(D143-F143)*J143,(E143-F143)*J143)))</f>
         <v/>
       </c>
@@ -5427,7 +5424,7 @@
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
       <c r="J144" s="31"/>
-      <c r="K144" s="22" t="str">
+      <c r="K144" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D144), ISBLANK(E144)),AND(OR(ISBLANK(G144),ISBLANK(H144),ISBLANK(I144)),ISBLANK(J144))),"",IF(ISBLANK(J144),IF(ISBLANK(E144),(D144-F144)*I144*H144*INDIRECT(SUBSTITUTE(G144," ","_"))/1000000,(E144-F144)*I144*H144*INDIRECT(SUBSTITUTE(G144," ","_"))/1000000),IF(ISBLANK(E144),(D144-F144)*J144,(E144-F144)*J144)))</f>
         <v/>
       </c>
@@ -5450,7 +5447,7 @@
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
-      <c r="K145" s="22" t="str">
+      <c r="K145" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D145), ISBLANK(E145)),AND(OR(ISBLANK(G145),ISBLANK(H145),ISBLANK(I145)),ISBLANK(J145))),"",IF(ISBLANK(J145),IF(ISBLANK(E145),(D145-F145)*I145*H145*INDIRECT(SUBSTITUTE(G145," ","_"))/1000000,(E145-F145)*I145*H145*INDIRECT(SUBSTITUTE(G145," ","_"))/1000000),IF(ISBLANK(E145),(D145-F145)*J145,(E145-F145)*J145)))</f>
         <v/>
       </c>
@@ -5473,7 +5470,7 @@
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
-      <c r="K146" s="22" t="str">
+      <c r="K146" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D146), ISBLANK(E146)),AND(OR(ISBLANK(G146),ISBLANK(H146),ISBLANK(I146)),ISBLANK(J146))),"",IF(ISBLANK(J146),IF(ISBLANK(E146),(D146-F146)*I146*H146*INDIRECT(SUBSTITUTE(G146," ","_"))/1000000,(E146-F146)*I146*H146*INDIRECT(SUBSTITUTE(G146," ","_"))/1000000),IF(ISBLANK(E146),(D146-F146)*J146,(E146-F146)*J146)))</f>
         <v/>
       </c>
@@ -5496,7 +5493,7 @@
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
-      <c r="K147" s="22" t="str">
+      <c r="K147" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D147), ISBLANK(E147)),AND(OR(ISBLANK(G147),ISBLANK(H147),ISBLANK(I147)),ISBLANK(J147))),"",IF(ISBLANK(J147),IF(ISBLANK(E147),(D147-F147)*I147*H147*INDIRECT(SUBSTITUTE(G147," ","_"))/1000000,(E147-F147)*I147*H147*INDIRECT(SUBSTITUTE(G147," ","_"))/1000000),IF(ISBLANK(E147),(D147-F147)*J147,(E147-F147)*J147)))</f>
         <v/>
       </c>
@@ -5519,7 +5516,7 @@
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
-      <c r="K148" s="22" t="str">
+      <c r="K148" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D148), ISBLANK(E148)),AND(OR(ISBLANK(G148),ISBLANK(H148),ISBLANK(I148)),ISBLANK(J148))),"",IF(ISBLANK(J148),IF(ISBLANK(E148),(D148-F148)*I148*H148*INDIRECT(SUBSTITUTE(G148," ","_"))/1000000,(E148-F148)*I148*H148*INDIRECT(SUBSTITUTE(G148," ","_"))/1000000),IF(ISBLANK(E148),(D148-F148)*J148,(E148-F148)*J148)))</f>
         <v/>
       </c>
@@ -5542,7 +5539,7 @@
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
-      <c r="K149" s="22" t="str">
+      <c r="K149" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D149), ISBLANK(E149)),AND(OR(ISBLANK(G149),ISBLANK(H149),ISBLANK(I149)),ISBLANK(J149))),"",IF(ISBLANK(J149),IF(ISBLANK(E149),(D149-F149)*I149*H149*INDIRECT(SUBSTITUTE(G149," ","_"))/1000000,(E149-F149)*I149*H149*INDIRECT(SUBSTITUTE(G149," ","_"))/1000000),IF(ISBLANK(E149),(D149-F149)*J149,(E149-F149)*J149)))</f>
         <v/>
       </c>
@@ -5565,7 +5562,7 @@
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
       <c r="J150" s="31"/>
-      <c r="K150" s="22" t="str">
+      <c r="K150" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D150), ISBLANK(E150)),AND(OR(ISBLANK(G150),ISBLANK(H150),ISBLANK(I150)),ISBLANK(J150))),"",IF(ISBLANK(J150),IF(ISBLANK(E150),(D150-F150)*I150*H150*INDIRECT(SUBSTITUTE(G150," ","_"))/1000000,(E150-F150)*I150*H150*INDIRECT(SUBSTITUTE(G150," ","_"))/1000000),IF(ISBLANK(E150),(D150-F150)*J150,(E150-F150)*J150)))</f>
         <v/>
       </c>
@@ -5588,7 +5585,7 @@
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
       <c r="J151" s="31"/>
-      <c r="K151" s="22" t="str">
+      <c r="K151" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D151), ISBLANK(E151)),AND(OR(ISBLANK(G151),ISBLANK(H151),ISBLANK(I151)),ISBLANK(J151))),"",IF(ISBLANK(J151),IF(ISBLANK(E151),(D151-F151)*I151*H151*INDIRECT(SUBSTITUTE(G151," ","_"))/1000000,(E151-F151)*I151*H151*INDIRECT(SUBSTITUTE(G151," ","_"))/1000000),IF(ISBLANK(E151),(D151-F151)*J151,(E151-F151)*J151)))</f>
         <v/>
       </c>
@@ -5611,7 +5608,7 @@
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
       <c r="J152" s="31"/>
-      <c r="K152" s="22" t="str">
+      <c r="K152" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D152), ISBLANK(E152)),AND(OR(ISBLANK(G152),ISBLANK(H152),ISBLANK(I152)),ISBLANK(J152))),"",IF(ISBLANK(J152),IF(ISBLANK(E152),(D152-F152)*I152*H152*INDIRECT(SUBSTITUTE(G152," ","_"))/1000000,(E152-F152)*I152*H152*INDIRECT(SUBSTITUTE(G152," ","_"))/1000000),IF(ISBLANK(E152),(D152-F152)*J152,(E152-F152)*J152)))</f>
         <v/>
       </c>
@@ -5634,7 +5631,7 @@
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
       <c r="J153" s="31"/>
-      <c r="K153" s="22" t="str">
+      <c r="K153" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D153), ISBLANK(E153)),AND(OR(ISBLANK(G153),ISBLANK(H153),ISBLANK(I153)),ISBLANK(J153))),"",IF(ISBLANK(J153),IF(ISBLANK(E153),(D153-F153)*I153*H153*INDIRECT(SUBSTITUTE(G153," ","_"))/1000000,(E153-F153)*I153*H153*INDIRECT(SUBSTITUTE(G153," ","_"))/1000000),IF(ISBLANK(E153),(D153-F153)*J153,(E153-F153)*J153)))</f>
         <v/>
       </c>
@@ -5657,7 +5654,7 @@
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
-      <c r="K154" s="22" t="str">
+      <c r="K154" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D154), ISBLANK(E154)),AND(OR(ISBLANK(G154),ISBLANK(H154),ISBLANK(I154)),ISBLANK(J154))),"",IF(ISBLANK(J154),IF(ISBLANK(E154),(D154-F154)*I154*H154*INDIRECT(SUBSTITUTE(G154," ","_"))/1000000,(E154-F154)*I154*H154*INDIRECT(SUBSTITUTE(G154," ","_"))/1000000),IF(ISBLANK(E154),(D154-F154)*J154,(E154-F154)*J154)))</f>
         <v/>
       </c>
@@ -5680,7 +5677,7 @@
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
       <c r="J155" s="31"/>
-      <c r="K155" s="22" t="str">
+      <c r="K155" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D155), ISBLANK(E155)),AND(OR(ISBLANK(G155),ISBLANK(H155),ISBLANK(I155)),ISBLANK(J155))),"",IF(ISBLANK(J155),IF(ISBLANK(E155),(D155-F155)*I155*H155*INDIRECT(SUBSTITUTE(G155," ","_"))/1000000,(E155-F155)*I155*H155*INDIRECT(SUBSTITUTE(G155," ","_"))/1000000),IF(ISBLANK(E155),(D155-F155)*J155,(E155-F155)*J155)))</f>
         <v/>
       </c>
@@ -5703,7 +5700,7 @@
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
-      <c r="K156" s="22" t="str">
+      <c r="K156" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D156), ISBLANK(E156)),AND(OR(ISBLANK(G156),ISBLANK(H156),ISBLANK(I156)),ISBLANK(J156))),"",IF(ISBLANK(J156),IF(ISBLANK(E156),(D156-F156)*I156*H156*INDIRECT(SUBSTITUTE(G156," ","_"))/1000000,(E156-F156)*I156*H156*INDIRECT(SUBSTITUTE(G156," ","_"))/1000000),IF(ISBLANK(E156),(D156-F156)*J156,(E156-F156)*J156)))</f>
         <v/>
       </c>
@@ -5726,7 +5723,7 @@
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
-      <c r="K157" s="22" t="str">
+      <c r="K157" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D157), ISBLANK(E157)),AND(OR(ISBLANK(G157),ISBLANK(H157),ISBLANK(I157)),ISBLANK(J157))),"",IF(ISBLANK(J157),IF(ISBLANK(E157),(D157-F157)*I157*H157*INDIRECT(SUBSTITUTE(G157," ","_"))/1000000,(E157-F157)*I157*H157*INDIRECT(SUBSTITUTE(G157," ","_"))/1000000),IF(ISBLANK(E157),(D157-F157)*J157,(E157-F157)*J157)))</f>
         <v/>
       </c>
@@ -5749,7 +5746,7 @@
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
       <c r="J158" s="31"/>
-      <c r="K158" s="22" t="str">
+      <c r="K158" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D158), ISBLANK(E158)),AND(OR(ISBLANK(G158),ISBLANK(H158),ISBLANK(I158)),ISBLANK(J158))),"",IF(ISBLANK(J158),IF(ISBLANK(E158),(D158-F158)*I158*H158*INDIRECT(SUBSTITUTE(G158," ","_"))/1000000,(E158-F158)*I158*H158*INDIRECT(SUBSTITUTE(G158," ","_"))/1000000),IF(ISBLANK(E158),(D158-F158)*J158,(E158-F158)*J158)))</f>
         <v/>
       </c>
@@ -5772,7 +5769,7 @@
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
       <c r="J159" s="31"/>
-      <c r="K159" s="22" t="str">
+      <c r="K159" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D159), ISBLANK(E159)),AND(OR(ISBLANK(G159),ISBLANK(H159),ISBLANK(I159)),ISBLANK(J159))),"",IF(ISBLANK(J159),IF(ISBLANK(E159),(D159-F159)*I159*H159*INDIRECT(SUBSTITUTE(G159," ","_"))/1000000,(E159-F159)*I159*H159*INDIRECT(SUBSTITUTE(G159," ","_"))/1000000),IF(ISBLANK(E159),(D159-F159)*J159,(E159-F159)*J159)))</f>
         <v/>
       </c>
@@ -5795,7 +5792,7 @@
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
       <c r="J160" s="31"/>
-      <c r="K160" s="22" t="str">
+      <c r="K160" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D160), ISBLANK(E160)),AND(OR(ISBLANK(G160),ISBLANK(H160),ISBLANK(I160)),ISBLANK(J160))),"",IF(ISBLANK(J160),IF(ISBLANK(E160),(D160-F160)*I160*H160*INDIRECT(SUBSTITUTE(G160," ","_"))/1000000,(E160-F160)*I160*H160*INDIRECT(SUBSTITUTE(G160," ","_"))/1000000),IF(ISBLANK(E160),(D160-F160)*J160,(E160-F160)*J160)))</f>
         <v/>
       </c>
@@ -5818,7 +5815,7 @@
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
       <c r="J161" s="31"/>
-      <c r="K161" s="22" t="str">
+      <c r="K161" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D161), ISBLANK(E161)),AND(OR(ISBLANK(G161),ISBLANK(H161),ISBLANK(I161)),ISBLANK(J161))),"",IF(ISBLANK(J161),IF(ISBLANK(E161),(D161-F161)*I161*H161*INDIRECT(SUBSTITUTE(G161," ","_"))/1000000,(E161-F161)*I161*H161*INDIRECT(SUBSTITUTE(G161," ","_"))/1000000),IF(ISBLANK(E161),(D161-F161)*J161,(E161-F161)*J161)))</f>
         <v/>
       </c>
@@ -5841,7 +5838,7 @@
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
       <c r="J162" s="31"/>
-      <c r="K162" s="22" t="str">
+      <c r="K162" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D162), ISBLANK(E162)),AND(OR(ISBLANK(G162),ISBLANK(H162),ISBLANK(I162)),ISBLANK(J162))),"",IF(ISBLANK(J162),IF(ISBLANK(E162),(D162-F162)*I162*H162*INDIRECT(SUBSTITUTE(G162," ","_"))/1000000,(E162-F162)*I162*H162*INDIRECT(SUBSTITUTE(G162," ","_"))/1000000),IF(ISBLANK(E162),(D162-F162)*J162,(E162-F162)*J162)))</f>
         <v/>
       </c>
@@ -5864,7 +5861,7 @@
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
       <c r="J163" s="31"/>
-      <c r="K163" s="22" t="str">
+      <c r="K163" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D163), ISBLANK(E163)),AND(OR(ISBLANK(G163),ISBLANK(H163),ISBLANK(I163)),ISBLANK(J163))),"",IF(ISBLANK(J163),IF(ISBLANK(E163),(D163-F163)*I163*H163*INDIRECT(SUBSTITUTE(G163," ","_"))/1000000,(E163-F163)*I163*H163*INDIRECT(SUBSTITUTE(G163," ","_"))/1000000),IF(ISBLANK(E163),(D163-F163)*J163,(E163-F163)*J163)))</f>
         <v/>
       </c>
@@ -5887,7 +5884,7 @@
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
       <c r="J164" s="31"/>
-      <c r="K164" s="22" t="str">
+      <c r="K164" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D164), ISBLANK(E164)),AND(OR(ISBLANK(G164),ISBLANK(H164),ISBLANK(I164)),ISBLANK(J164))),"",IF(ISBLANK(J164),IF(ISBLANK(E164),(D164-F164)*I164*H164*INDIRECT(SUBSTITUTE(G164," ","_"))/1000000,(E164-F164)*I164*H164*INDIRECT(SUBSTITUTE(G164," ","_"))/1000000),IF(ISBLANK(E164),(D164-F164)*J164,(E164-F164)*J164)))</f>
         <v/>
       </c>
@@ -5910,7 +5907,7 @@
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
       <c r="J165" s="31"/>
-      <c r="K165" s="22" t="str">
+      <c r="K165" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D165), ISBLANK(E165)),AND(OR(ISBLANK(G165),ISBLANK(H165),ISBLANK(I165)),ISBLANK(J165))),"",IF(ISBLANK(J165),IF(ISBLANK(E165),(D165-F165)*I165*H165*INDIRECT(SUBSTITUTE(G165," ","_"))/1000000,(E165-F165)*I165*H165*INDIRECT(SUBSTITUTE(G165," ","_"))/1000000),IF(ISBLANK(E165),(D165-F165)*J165,(E165-F165)*J165)))</f>
         <v/>
       </c>
@@ -5933,7 +5930,7 @@
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
       <c r="J166" s="31"/>
-      <c r="K166" s="22" t="str">
+      <c r="K166" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D166), ISBLANK(E166)),AND(OR(ISBLANK(G166),ISBLANK(H166),ISBLANK(I166)),ISBLANK(J166))),"",IF(ISBLANK(J166),IF(ISBLANK(E166),(D166-F166)*I166*H166*INDIRECT(SUBSTITUTE(G166," ","_"))/1000000,(E166-F166)*I166*H166*INDIRECT(SUBSTITUTE(G166," ","_"))/1000000),IF(ISBLANK(E166),(D166-F166)*J166,(E166-F166)*J166)))</f>
         <v/>
       </c>
@@ -5956,7 +5953,7 @@
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
       <c r="J167" s="31"/>
-      <c r="K167" s="22" t="str">
+      <c r="K167" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D167), ISBLANK(E167)),AND(OR(ISBLANK(G167),ISBLANK(H167),ISBLANK(I167)),ISBLANK(J167))),"",IF(ISBLANK(J167),IF(ISBLANK(E167),(D167-F167)*I167*H167*INDIRECT(SUBSTITUTE(G167," ","_"))/1000000,(E167-F167)*I167*H167*INDIRECT(SUBSTITUTE(G167," ","_"))/1000000),IF(ISBLANK(E167),(D167-F167)*J167,(E167-F167)*J167)))</f>
         <v/>
       </c>
@@ -5979,7 +5976,7 @@
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
-      <c r="K168" s="22" t="str">
+      <c r="K168" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D168), ISBLANK(E168)),AND(OR(ISBLANK(G168),ISBLANK(H168),ISBLANK(I168)),ISBLANK(J168))),"",IF(ISBLANK(J168),IF(ISBLANK(E168),(D168-F168)*I168*H168*INDIRECT(SUBSTITUTE(G168," ","_"))/1000000,(E168-F168)*I168*H168*INDIRECT(SUBSTITUTE(G168," ","_"))/1000000),IF(ISBLANK(E168),(D168-F168)*J168,(E168-F168)*J168)))</f>
         <v/>
       </c>
@@ -6002,7 +5999,7 @@
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
       <c r="J169" s="31"/>
-      <c r="K169" s="22" t="str">
+      <c r="K169" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D169), ISBLANK(E169)),AND(OR(ISBLANK(G169),ISBLANK(H169),ISBLANK(I169)),ISBLANK(J169))),"",IF(ISBLANK(J169),IF(ISBLANK(E169),(D169-F169)*I169*H169*INDIRECT(SUBSTITUTE(G169," ","_"))/1000000,(E169-F169)*I169*H169*INDIRECT(SUBSTITUTE(G169," ","_"))/1000000),IF(ISBLANK(E169),(D169-F169)*J169,(E169-F169)*J169)))</f>
         <v/>
       </c>
@@ -6025,7 +6022,7 @@
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
       <c r="J170" s="31"/>
-      <c r="K170" s="22" t="str">
+      <c r="K170" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D170), ISBLANK(E170)),AND(OR(ISBLANK(G170),ISBLANK(H170),ISBLANK(I170)),ISBLANK(J170))),"",IF(ISBLANK(J170),IF(ISBLANK(E170),(D170-F170)*I170*H170*INDIRECT(SUBSTITUTE(G170," ","_"))/1000000,(E170-F170)*I170*H170*INDIRECT(SUBSTITUTE(G170," ","_"))/1000000),IF(ISBLANK(E170),(D170-F170)*J170,(E170-F170)*J170)))</f>
         <v/>
       </c>
@@ -6048,7 +6045,7 @@
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
       <c r="J171" s="31"/>
-      <c r="K171" s="22" t="str">
+      <c r="K171" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D171), ISBLANK(E171)),AND(OR(ISBLANK(G171),ISBLANK(H171),ISBLANK(I171)),ISBLANK(J171))),"",IF(ISBLANK(J171),IF(ISBLANK(E171),(D171-F171)*I171*H171*INDIRECT(SUBSTITUTE(G171," ","_"))/1000000,(E171-F171)*I171*H171*INDIRECT(SUBSTITUTE(G171," ","_"))/1000000),IF(ISBLANK(E171),(D171-F171)*J171,(E171-F171)*J171)))</f>
         <v/>
       </c>
@@ -6071,7 +6068,7 @@
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
       <c r="J172" s="31"/>
-      <c r="K172" s="22" t="str">
+      <c r="K172" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D172), ISBLANK(E172)),AND(OR(ISBLANK(G172),ISBLANK(H172),ISBLANK(I172)),ISBLANK(J172))),"",IF(ISBLANK(J172),IF(ISBLANK(E172),(D172-F172)*I172*H172*INDIRECT(SUBSTITUTE(G172," ","_"))/1000000,(E172-F172)*I172*H172*INDIRECT(SUBSTITUTE(G172," ","_"))/1000000),IF(ISBLANK(E172),(D172-F172)*J172,(E172-F172)*J172)))</f>
         <v/>
       </c>
@@ -6094,7 +6091,7 @@
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
       <c r="J173" s="31"/>
-      <c r="K173" s="22" t="str">
+      <c r="K173" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D173), ISBLANK(E173)),AND(OR(ISBLANK(G173),ISBLANK(H173),ISBLANK(I173)),ISBLANK(J173))),"",IF(ISBLANK(J173),IF(ISBLANK(E173),(D173-F173)*I173*H173*INDIRECT(SUBSTITUTE(G173," ","_"))/1000000,(E173-F173)*I173*H173*INDIRECT(SUBSTITUTE(G173," ","_"))/1000000),IF(ISBLANK(E173),(D173-F173)*J173,(E173-F173)*J173)))</f>
         <v/>
       </c>
@@ -6117,7 +6114,7 @@
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
       <c r="J174" s="31"/>
-      <c r="K174" s="22" t="str">
+      <c r="K174" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D174), ISBLANK(E174)),AND(OR(ISBLANK(G174),ISBLANK(H174),ISBLANK(I174)),ISBLANK(J174))),"",IF(ISBLANK(J174),IF(ISBLANK(E174),(D174-F174)*I174*H174*INDIRECT(SUBSTITUTE(G174," ","_"))/1000000,(E174-F174)*I174*H174*INDIRECT(SUBSTITUTE(G174," ","_"))/1000000),IF(ISBLANK(E174),(D174-F174)*J174,(E174-F174)*J174)))</f>
         <v/>
       </c>
@@ -6140,7 +6137,7 @@
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
       <c r="J175" s="31"/>
-      <c r="K175" s="22" t="str">
+      <c r="K175" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D175), ISBLANK(E175)),AND(OR(ISBLANK(G175),ISBLANK(H175),ISBLANK(I175)),ISBLANK(J175))),"",IF(ISBLANK(J175),IF(ISBLANK(E175),(D175-F175)*I175*H175*INDIRECT(SUBSTITUTE(G175," ","_"))/1000000,(E175-F175)*I175*H175*INDIRECT(SUBSTITUTE(G175," ","_"))/1000000),IF(ISBLANK(E175),(D175-F175)*J175,(E175-F175)*J175)))</f>
         <v/>
       </c>
@@ -6163,7 +6160,7 @@
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
       <c r="J176" s="31"/>
-      <c r="K176" s="22" t="str">
+      <c r="K176" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D176), ISBLANK(E176)),AND(OR(ISBLANK(G176),ISBLANK(H176),ISBLANK(I176)),ISBLANK(J176))),"",IF(ISBLANK(J176),IF(ISBLANK(E176),(D176-F176)*I176*H176*INDIRECT(SUBSTITUTE(G176," ","_"))/1000000,(E176-F176)*I176*H176*INDIRECT(SUBSTITUTE(G176," ","_"))/1000000),IF(ISBLANK(E176),(D176-F176)*J176,(E176-F176)*J176)))</f>
         <v/>
       </c>
@@ -6186,7 +6183,7 @@
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
       <c r="J177" s="31"/>
-      <c r="K177" s="22" t="str">
+      <c r="K177" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D177), ISBLANK(E177)),AND(OR(ISBLANK(G177),ISBLANK(H177),ISBLANK(I177)),ISBLANK(J177))),"",IF(ISBLANK(J177),IF(ISBLANK(E177),(D177-F177)*I177*H177*INDIRECT(SUBSTITUTE(G177," ","_"))/1000000,(E177-F177)*I177*H177*INDIRECT(SUBSTITUTE(G177," ","_"))/1000000),IF(ISBLANK(E177),(D177-F177)*J177,(E177-F177)*J177)))</f>
         <v/>
       </c>
@@ -6209,7 +6206,7 @@
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
       <c r="J178" s="31"/>
-      <c r="K178" s="22" t="str">
+      <c r="K178" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D178), ISBLANK(E178)),AND(OR(ISBLANK(G178),ISBLANK(H178),ISBLANK(I178)),ISBLANK(J178))),"",IF(ISBLANK(J178),IF(ISBLANK(E178),(D178-F178)*I178*H178*INDIRECT(SUBSTITUTE(G178," ","_"))/1000000,(E178-F178)*I178*H178*INDIRECT(SUBSTITUTE(G178," ","_"))/1000000),IF(ISBLANK(E178),(D178-F178)*J178,(E178-F178)*J178)))</f>
         <v/>
       </c>
@@ -6232,7 +6229,7 @@
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
       <c r="J179" s="31"/>
-      <c r="K179" s="22" t="str">
+      <c r="K179" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D179), ISBLANK(E179)),AND(OR(ISBLANK(G179),ISBLANK(H179),ISBLANK(I179)),ISBLANK(J179))),"",IF(ISBLANK(J179),IF(ISBLANK(E179),(D179-F179)*I179*H179*INDIRECT(SUBSTITUTE(G179," ","_"))/1000000,(E179-F179)*I179*H179*INDIRECT(SUBSTITUTE(G179," ","_"))/1000000),IF(ISBLANK(E179),(D179-F179)*J179,(E179-F179)*J179)))</f>
         <v/>
       </c>
@@ -6255,7 +6252,7 @@
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
-      <c r="K180" s="22" t="str">
+      <c r="K180" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D180), ISBLANK(E180)),AND(OR(ISBLANK(G180),ISBLANK(H180),ISBLANK(I180)),ISBLANK(J180))),"",IF(ISBLANK(J180),IF(ISBLANK(E180),(D180-F180)*I180*H180*INDIRECT(SUBSTITUTE(G180," ","_"))/1000000,(E180-F180)*I180*H180*INDIRECT(SUBSTITUTE(G180," ","_"))/1000000),IF(ISBLANK(E180),(D180-F180)*J180,(E180-F180)*J180)))</f>
         <v/>
       </c>
@@ -6278,7 +6275,7 @@
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
       <c r="J181" s="31"/>
-      <c r="K181" s="22" t="str">
+      <c r="K181" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D181), ISBLANK(E181)),AND(OR(ISBLANK(G181),ISBLANK(H181),ISBLANK(I181)),ISBLANK(J181))),"",IF(ISBLANK(J181),IF(ISBLANK(E181),(D181-F181)*I181*H181*INDIRECT(SUBSTITUTE(G181," ","_"))/1000000,(E181-F181)*I181*H181*INDIRECT(SUBSTITUTE(G181," ","_"))/1000000),IF(ISBLANK(E181),(D181-F181)*J181,(E181-F181)*J181)))</f>
         <v/>
       </c>
@@ -6301,7 +6298,7 @@
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
       <c r="J182" s="31"/>
-      <c r="K182" s="22" t="str">
+      <c r="K182" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D182), ISBLANK(E182)),AND(OR(ISBLANK(G182),ISBLANK(H182),ISBLANK(I182)),ISBLANK(J182))),"",IF(ISBLANK(J182),IF(ISBLANK(E182),(D182-F182)*I182*H182*INDIRECT(SUBSTITUTE(G182," ","_"))/1000000,(E182-F182)*I182*H182*INDIRECT(SUBSTITUTE(G182," ","_"))/1000000),IF(ISBLANK(E182),(D182-F182)*J182,(E182-F182)*J182)))</f>
         <v/>
       </c>
@@ -6324,7 +6321,7 @@
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
-      <c r="K183" s="22" t="str">
+      <c r="K183" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D183), ISBLANK(E183)),AND(OR(ISBLANK(G183),ISBLANK(H183),ISBLANK(I183)),ISBLANK(J183))),"",IF(ISBLANK(J183),IF(ISBLANK(E183),(D183-F183)*I183*H183*INDIRECT(SUBSTITUTE(G183," ","_"))/1000000,(E183-F183)*I183*H183*INDIRECT(SUBSTITUTE(G183," ","_"))/1000000),IF(ISBLANK(E183),(D183-F183)*J183,(E183-F183)*J183)))</f>
         <v/>
       </c>
@@ -6347,7 +6344,7 @@
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
-      <c r="K184" s="22" t="str">
+      <c r="K184" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D184), ISBLANK(E184)),AND(OR(ISBLANK(G184),ISBLANK(H184),ISBLANK(I184)),ISBLANK(J184))),"",IF(ISBLANK(J184),IF(ISBLANK(E184),(D184-F184)*I184*H184*INDIRECT(SUBSTITUTE(G184," ","_"))/1000000,(E184-F184)*I184*H184*INDIRECT(SUBSTITUTE(G184," ","_"))/1000000),IF(ISBLANK(E184),(D184-F184)*J184,(E184-F184)*J184)))</f>
         <v/>
       </c>
@@ -6370,7 +6367,7 @@
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
       <c r="J185" s="31"/>
-      <c r="K185" s="22" t="str">
+      <c r="K185" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D185), ISBLANK(E185)),AND(OR(ISBLANK(G185),ISBLANK(H185),ISBLANK(I185)),ISBLANK(J185))),"",IF(ISBLANK(J185),IF(ISBLANK(E185),(D185-F185)*I185*H185*INDIRECT(SUBSTITUTE(G185," ","_"))/1000000,(E185-F185)*I185*H185*INDIRECT(SUBSTITUTE(G185," ","_"))/1000000),IF(ISBLANK(E185),(D185-F185)*J185,(E185-F185)*J185)))</f>
         <v/>
       </c>
@@ -6393,7 +6390,7 @@
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
       <c r="J186" s="31"/>
-      <c r="K186" s="22" t="str">
+      <c r="K186" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D186), ISBLANK(E186)),AND(OR(ISBLANK(G186),ISBLANK(H186),ISBLANK(I186)),ISBLANK(J186))),"",IF(ISBLANK(J186),IF(ISBLANK(E186),(D186-F186)*I186*H186*INDIRECT(SUBSTITUTE(G186," ","_"))/1000000,(E186-F186)*I186*H186*INDIRECT(SUBSTITUTE(G186," ","_"))/1000000),IF(ISBLANK(E186),(D186-F186)*J186,(E186-F186)*J186)))</f>
         <v/>
       </c>
@@ -6416,7 +6413,7 @@
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
       <c r="J187" s="31"/>
-      <c r="K187" s="22" t="str">
+      <c r="K187" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D187), ISBLANK(E187)),AND(OR(ISBLANK(G187),ISBLANK(H187),ISBLANK(I187)),ISBLANK(J187))),"",IF(ISBLANK(J187),IF(ISBLANK(E187),(D187-F187)*I187*H187*INDIRECT(SUBSTITUTE(G187," ","_"))/1000000,(E187-F187)*I187*H187*INDIRECT(SUBSTITUTE(G187," ","_"))/1000000),IF(ISBLANK(E187),(D187-F187)*J187,(E187-F187)*J187)))</f>
         <v/>
       </c>
@@ -6439,7 +6436,7 @@
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
       <c r="J188" s="31"/>
-      <c r="K188" s="22" t="str">
+      <c r="K188" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D188), ISBLANK(E188)),AND(OR(ISBLANK(G188),ISBLANK(H188),ISBLANK(I188)),ISBLANK(J188))),"",IF(ISBLANK(J188),IF(ISBLANK(E188),(D188-F188)*I188*H188*INDIRECT(SUBSTITUTE(G188," ","_"))/1000000,(E188-F188)*I188*H188*INDIRECT(SUBSTITUTE(G188," ","_"))/1000000),IF(ISBLANK(E188),(D188-F188)*J188,(E188-F188)*J188)))</f>
         <v/>
       </c>
@@ -6462,7 +6459,7 @@
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
       <c r="J189" s="31"/>
-      <c r="K189" s="22" t="str">
+      <c r="K189" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D189), ISBLANK(E189)),AND(OR(ISBLANK(G189),ISBLANK(H189),ISBLANK(I189)),ISBLANK(J189))),"",IF(ISBLANK(J189),IF(ISBLANK(E189),(D189-F189)*I189*H189*INDIRECT(SUBSTITUTE(G189," ","_"))/1000000,(E189-F189)*I189*H189*INDIRECT(SUBSTITUTE(G189," ","_"))/1000000),IF(ISBLANK(E189),(D189-F189)*J189,(E189-F189)*J189)))</f>
         <v/>
       </c>
@@ -6485,7 +6482,7 @@
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
       <c r="J190" s="31"/>
-      <c r="K190" s="22" t="str">
+      <c r="K190" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D190), ISBLANK(E190)),AND(OR(ISBLANK(G190),ISBLANK(H190),ISBLANK(I190)),ISBLANK(J190))),"",IF(ISBLANK(J190),IF(ISBLANK(E190),(D190-F190)*I190*H190*INDIRECT(SUBSTITUTE(G190," ","_"))/1000000,(E190-F190)*I190*H190*INDIRECT(SUBSTITUTE(G190," ","_"))/1000000),IF(ISBLANK(E190),(D190-F190)*J190,(E190-F190)*J190)))</f>
         <v/>
       </c>
@@ -6508,7 +6505,7 @@
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
       <c r="J191" s="31"/>
-      <c r="K191" s="22" t="str">
+      <c r="K191" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D191), ISBLANK(E191)),AND(OR(ISBLANK(G191),ISBLANK(H191),ISBLANK(I191)),ISBLANK(J191))),"",IF(ISBLANK(J191),IF(ISBLANK(E191),(D191-F191)*I191*H191*INDIRECT(SUBSTITUTE(G191," ","_"))/1000000,(E191-F191)*I191*H191*INDIRECT(SUBSTITUTE(G191," ","_"))/1000000),IF(ISBLANK(E191),(D191-F191)*J191,(E191-F191)*J191)))</f>
         <v/>
       </c>
@@ -6531,7 +6528,7 @@
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
       <c r="J192" s="31"/>
-      <c r="K192" s="22" t="str">
+      <c r="K192" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D192), ISBLANK(E192)),AND(OR(ISBLANK(G192),ISBLANK(H192),ISBLANK(I192)),ISBLANK(J192))),"",IF(ISBLANK(J192),IF(ISBLANK(E192),(D192-F192)*I192*H192*INDIRECT(SUBSTITUTE(G192," ","_"))/1000000,(E192-F192)*I192*H192*INDIRECT(SUBSTITUTE(G192," ","_"))/1000000),IF(ISBLANK(E192),(D192-F192)*J192,(E192-F192)*J192)))</f>
         <v/>
       </c>
@@ -6554,7 +6551,7 @@
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
       <c r="J193" s="31"/>
-      <c r="K193" s="22" t="str">
+      <c r="K193" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D193), ISBLANK(E193)),AND(OR(ISBLANK(G193),ISBLANK(H193),ISBLANK(I193)),ISBLANK(J193))),"",IF(ISBLANK(J193),IF(ISBLANK(E193),(D193-F193)*I193*H193*INDIRECT(SUBSTITUTE(G193," ","_"))/1000000,(E193-F193)*I193*H193*INDIRECT(SUBSTITUTE(G193," ","_"))/1000000),IF(ISBLANK(E193),(D193-F193)*J193,(E193-F193)*J193)))</f>
         <v/>
       </c>
@@ -6577,7 +6574,7 @@
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
       <c r="J194" s="31"/>
-      <c r="K194" s="22" t="str">
+      <c r="K194" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D194), ISBLANK(E194)),AND(OR(ISBLANK(G194),ISBLANK(H194),ISBLANK(I194)),ISBLANK(J194))),"",IF(ISBLANK(J194),IF(ISBLANK(E194),(D194-F194)*I194*H194*INDIRECT(SUBSTITUTE(G194," ","_"))/1000000,(E194-F194)*I194*H194*INDIRECT(SUBSTITUTE(G194," ","_"))/1000000),IF(ISBLANK(E194),(D194-F194)*J194,(E194-F194)*J194)))</f>
         <v/>
       </c>
@@ -6600,7 +6597,7 @@
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
       <c r="J195" s="31"/>
-      <c r="K195" s="22" t="str">
+      <c r="K195" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D195), ISBLANK(E195)),AND(OR(ISBLANK(G195),ISBLANK(H195),ISBLANK(I195)),ISBLANK(J195))),"",IF(ISBLANK(J195),IF(ISBLANK(E195),(D195-F195)*I195*H195*INDIRECT(SUBSTITUTE(G195," ","_"))/1000000,(E195-F195)*I195*H195*INDIRECT(SUBSTITUTE(G195," ","_"))/1000000),IF(ISBLANK(E195),(D195-F195)*J195,(E195-F195)*J195)))</f>
         <v/>
       </c>
@@ -6623,7 +6620,7 @@
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
       <c r="J196" s="31"/>
-      <c r="K196" s="22" t="str">
+      <c r="K196" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D196), ISBLANK(E196)),AND(OR(ISBLANK(G196),ISBLANK(H196),ISBLANK(I196)),ISBLANK(J196))),"",IF(ISBLANK(J196),IF(ISBLANK(E196),(D196-F196)*I196*H196*INDIRECT(SUBSTITUTE(G196," ","_"))/1000000,(E196-F196)*I196*H196*INDIRECT(SUBSTITUTE(G196," ","_"))/1000000),IF(ISBLANK(E196),(D196-F196)*J196,(E196-F196)*J196)))</f>
         <v/>
       </c>
@@ -6646,7 +6643,7 @@
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
       <c r="J197" s="31"/>
-      <c r="K197" s="22" t="str">
+      <c r="K197" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D197), ISBLANK(E197)),AND(OR(ISBLANK(G197),ISBLANK(H197),ISBLANK(I197)),ISBLANK(J197))),"",IF(ISBLANK(J197),IF(ISBLANK(E197),(D197-F197)*I197*H197*INDIRECT(SUBSTITUTE(G197," ","_"))/1000000,(E197-F197)*I197*H197*INDIRECT(SUBSTITUTE(G197," ","_"))/1000000),IF(ISBLANK(E197),(D197-F197)*J197,(E197-F197)*J197)))</f>
         <v/>
       </c>
@@ -6669,7 +6666,7 @@
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
       <c r="J198" s="31"/>
-      <c r="K198" s="22" t="str">
+      <c r="K198" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D198), ISBLANK(E198)),AND(OR(ISBLANK(G198),ISBLANK(H198),ISBLANK(I198)),ISBLANK(J198))),"",IF(ISBLANK(J198),IF(ISBLANK(E198),(D198-F198)*I198*H198*INDIRECT(SUBSTITUTE(G198," ","_"))/1000000,(E198-F198)*I198*H198*INDIRECT(SUBSTITUTE(G198," ","_"))/1000000),IF(ISBLANK(E198),(D198-F198)*J198,(E198-F198)*J198)))</f>
         <v/>
       </c>
@@ -6692,7 +6689,7 @@
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
       <c r="J199" s="31"/>
-      <c r="K199" s="22" t="str">
+      <c r="K199" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D199), ISBLANK(E199)),AND(OR(ISBLANK(G199),ISBLANK(H199),ISBLANK(I199)),ISBLANK(J199))),"",IF(ISBLANK(J199),IF(ISBLANK(E199),(D199-F199)*I199*H199*INDIRECT(SUBSTITUTE(G199," ","_"))/1000000,(E199-F199)*I199*H199*INDIRECT(SUBSTITUTE(G199," ","_"))/1000000),IF(ISBLANK(E199),(D199-F199)*J199,(E199-F199)*J199)))</f>
         <v/>
       </c>
@@ -6715,7 +6712,7 @@
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
       <c r="J200" s="31"/>
-      <c r="K200" s="22" t="str">
+      <c r="K200" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D200), ISBLANK(E200)),AND(OR(ISBLANK(G200),ISBLANK(H200),ISBLANK(I200)),ISBLANK(J200))),"",IF(ISBLANK(J200),IF(ISBLANK(E200),(D200-F200)*I200*H200*INDIRECT(SUBSTITUTE(G200," ","_"))/1000000,(E200-F200)*I200*H200*INDIRECT(SUBSTITUTE(G200," ","_"))/1000000),IF(ISBLANK(E200),(D200-F200)*J200,(E200-F200)*J200)))</f>
         <v/>
       </c>
@@ -6738,7 +6735,7 @@
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
       <c r="J201" s="31"/>
-      <c r="K201" s="22" t="str">
+      <c r="K201" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D201), ISBLANK(E201)),AND(OR(ISBLANK(G201),ISBLANK(H201),ISBLANK(I201)),ISBLANK(J201))),"",IF(ISBLANK(J201),IF(ISBLANK(E201),(D201-F201)*I201*H201*INDIRECT(SUBSTITUTE(G201," ","_"))/1000000,(E201-F201)*I201*H201*INDIRECT(SUBSTITUTE(G201," ","_"))/1000000),IF(ISBLANK(E201),(D201-F201)*J201,(E201-F201)*J201)))</f>
         <v/>
       </c>
@@ -6761,7 +6758,7 @@
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
       <c r="J202" s="31"/>
-      <c r="K202" s="22" t="str">
+      <c r="K202" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D202), ISBLANK(E202)),AND(OR(ISBLANK(G202),ISBLANK(H202),ISBLANK(I202)),ISBLANK(J202))),"",IF(ISBLANK(J202),IF(ISBLANK(E202),(D202-F202)*I202*H202*INDIRECT(SUBSTITUTE(G202," ","_"))/1000000,(E202-F202)*I202*H202*INDIRECT(SUBSTITUTE(G202," ","_"))/1000000),IF(ISBLANK(E202),(D202-F202)*J202,(E202-F202)*J202)))</f>
         <v/>
       </c>
@@ -6784,7 +6781,7 @@
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
       <c r="J203" s="31"/>
-      <c r="K203" s="22" t="str">
+      <c r="K203" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D203), ISBLANK(E203)),AND(OR(ISBLANK(G203),ISBLANK(H203),ISBLANK(I203)),ISBLANK(J203))),"",IF(ISBLANK(J203),IF(ISBLANK(E203),(D203-F203)*I203*H203*INDIRECT(SUBSTITUTE(G203," ","_"))/1000000,(E203-F203)*I203*H203*INDIRECT(SUBSTITUTE(G203," ","_"))/1000000),IF(ISBLANK(E203),(D203-F203)*J203,(E203-F203)*J203)))</f>
         <v/>
       </c>
@@ -6807,7 +6804,7 @@
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
       <c r="J204" s="31"/>
-      <c r="K204" s="22" t="str">
+      <c r="K204" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D204), ISBLANK(E204)),AND(OR(ISBLANK(G204),ISBLANK(H204),ISBLANK(I204)),ISBLANK(J204))),"",IF(ISBLANK(J204),IF(ISBLANK(E204),(D204-F204)*I204*H204*INDIRECT(SUBSTITUTE(G204," ","_"))/1000000,(E204-F204)*I204*H204*INDIRECT(SUBSTITUTE(G204," ","_"))/1000000),IF(ISBLANK(E204),(D204-F204)*J204,(E204-F204)*J204)))</f>
         <v/>
       </c>
@@ -6830,7 +6827,7 @@
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
       <c r="J205" s="31"/>
-      <c r="K205" s="22" t="str">
+      <c r="K205" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D205), ISBLANK(E205)),AND(OR(ISBLANK(G205),ISBLANK(H205),ISBLANK(I205)),ISBLANK(J205))),"",IF(ISBLANK(J205),IF(ISBLANK(E205),(D205-F205)*I205*H205*INDIRECT(SUBSTITUTE(G205," ","_"))/1000000,(E205-F205)*I205*H205*INDIRECT(SUBSTITUTE(G205," ","_"))/1000000),IF(ISBLANK(E205),(D205-F205)*J205,(E205-F205)*J205)))</f>
         <v/>
       </c>
@@ -6853,7 +6850,7 @@
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
       <c r="J206" s="31"/>
-      <c r="K206" s="22" t="str">
+      <c r="K206" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D206), ISBLANK(E206)),AND(OR(ISBLANK(G206),ISBLANK(H206),ISBLANK(I206)),ISBLANK(J206))),"",IF(ISBLANK(J206),IF(ISBLANK(E206),(D206-F206)*I206*H206*INDIRECT(SUBSTITUTE(G206," ","_"))/1000000,(E206-F206)*I206*H206*INDIRECT(SUBSTITUTE(G206," ","_"))/1000000),IF(ISBLANK(E206),(D206-F206)*J206,(E206-F206)*J206)))</f>
         <v/>
       </c>
@@ -6876,7 +6873,7 @@
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
       <c r="J207" s="31"/>
-      <c r="K207" s="22" t="str">
+      <c r="K207" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D207), ISBLANK(E207)),AND(OR(ISBLANK(G207),ISBLANK(H207),ISBLANK(I207)),ISBLANK(J207))),"",IF(ISBLANK(J207),IF(ISBLANK(E207),(D207-F207)*I207*H207*INDIRECT(SUBSTITUTE(G207," ","_"))/1000000,(E207-F207)*I207*H207*INDIRECT(SUBSTITUTE(G207," ","_"))/1000000),IF(ISBLANK(E207),(D207-F207)*J207,(E207-F207)*J207)))</f>
         <v/>
       </c>
@@ -6899,7 +6896,7 @@
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
       <c r="J208" s="31"/>
-      <c r="K208" s="22" t="str">
+      <c r="K208" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D208), ISBLANK(E208)),AND(OR(ISBLANK(G208),ISBLANK(H208),ISBLANK(I208)),ISBLANK(J208))),"",IF(ISBLANK(J208),IF(ISBLANK(E208),(D208-F208)*I208*H208*INDIRECT(SUBSTITUTE(G208," ","_"))/1000000,(E208-F208)*I208*H208*INDIRECT(SUBSTITUTE(G208," ","_"))/1000000),IF(ISBLANK(E208),(D208-F208)*J208,(E208-F208)*J208)))</f>
         <v/>
       </c>
@@ -6922,7 +6919,7 @@
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
       <c r="J209" s="31"/>
-      <c r="K209" s="22" t="str">
+      <c r="K209" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D209), ISBLANK(E209)),AND(OR(ISBLANK(G209),ISBLANK(H209),ISBLANK(I209)),ISBLANK(J209))),"",IF(ISBLANK(J209),IF(ISBLANK(E209),(D209-F209)*I209*H209*INDIRECT(SUBSTITUTE(G209," ","_"))/1000000,(E209-F209)*I209*H209*INDIRECT(SUBSTITUTE(G209," ","_"))/1000000),IF(ISBLANK(E209),(D209-F209)*J209,(E209-F209)*J209)))</f>
         <v/>
       </c>
@@ -6945,7 +6942,7 @@
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
       <c r="J210" s="31"/>
-      <c r="K210" s="22" t="str">
+      <c r="K210" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D210), ISBLANK(E210)),AND(OR(ISBLANK(G210),ISBLANK(H210),ISBLANK(I210)),ISBLANK(J210))),"",IF(ISBLANK(J210),IF(ISBLANK(E210),(D210-F210)*I210*H210*INDIRECT(SUBSTITUTE(G210," ","_"))/1000000,(E210-F210)*I210*H210*INDIRECT(SUBSTITUTE(G210," ","_"))/1000000),IF(ISBLANK(E210),(D210-F210)*J210,(E210-F210)*J210)))</f>
         <v/>
       </c>
@@ -6968,7 +6965,7 @@
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
       <c r="J211" s="31"/>
-      <c r="K211" s="22" t="str">
+      <c r="K211" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D211), ISBLANK(E211)),AND(OR(ISBLANK(G211),ISBLANK(H211),ISBLANK(I211)),ISBLANK(J211))),"",IF(ISBLANK(J211),IF(ISBLANK(E211),(D211-F211)*I211*H211*INDIRECT(SUBSTITUTE(G211," ","_"))/1000000,(E211-F211)*I211*H211*INDIRECT(SUBSTITUTE(G211," ","_"))/1000000),IF(ISBLANK(E211),(D211-F211)*J211,(E211-F211)*J211)))</f>
         <v/>
       </c>
@@ -6991,7 +6988,7 @@
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
       <c r="J212" s="31"/>
-      <c r="K212" s="22" t="str">
+      <c r="K212" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D212), ISBLANK(E212)),AND(OR(ISBLANK(G212),ISBLANK(H212),ISBLANK(I212)),ISBLANK(J212))),"",IF(ISBLANK(J212),IF(ISBLANK(E212),(D212-F212)*I212*H212*INDIRECT(SUBSTITUTE(G212," ","_"))/1000000,(E212-F212)*I212*H212*INDIRECT(SUBSTITUTE(G212," ","_"))/1000000),IF(ISBLANK(E212),(D212-F212)*J212,(E212-F212)*J212)))</f>
         <v/>
       </c>
@@ -7014,7 +7011,7 @@
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
       <c r="J213" s="31"/>
-      <c r="K213" s="22" t="str">
+      <c r="K213" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D213), ISBLANK(E213)),AND(OR(ISBLANK(G213),ISBLANK(H213),ISBLANK(I213)),ISBLANK(J213))),"",IF(ISBLANK(J213),IF(ISBLANK(E213),(D213-F213)*I213*H213*INDIRECT(SUBSTITUTE(G213," ","_"))/1000000,(E213-F213)*I213*H213*INDIRECT(SUBSTITUTE(G213," ","_"))/1000000),IF(ISBLANK(E213),(D213-F213)*J213,(E213-F213)*J213)))</f>
         <v/>
       </c>
@@ -7037,7 +7034,7 @@
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
       <c r="J214" s="31"/>
-      <c r="K214" s="22" t="str">
+      <c r="K214" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D214), ISBLANK(E214)),AND(OR(ISBLANK(G214),ISBLANK(H214),ISBLANK(I214)),ISBLANK(J214))),"",IF(ISBLANK(J214),IF(ISBLANK(E214),(D214-F214)*I214*H214*INDIRECT(SUBSTITUTE(G214," ","_"))/1000000,(E214-F214)*I214*H214*INDIRECT(SUBSTITUTE(G214," ","_"))/1000000),IF(ISBLANK(E214),(D214-F214)*J214,(E214-F214)*J214)))</f>
         <v/>
       </c>
@@ -7060,7 +7057,7 @@
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
       <c r="J215" s="31"/>
-      <c r="K215" s="22" t="str">
+      <c r="K215" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D215), ISBLANK(E215)),AND(OR(ISBLANK(G215),ISBLANK(H215),ISBLANK(I215)),ISBLANK(J215))),"",IF(ISBLANK(J215),IF(ISBLANK(E215),(D215-F215)*I215*H215*INDIRECT(SUBSTITUTE(G215," ","_"))/1000000,(E215-F215)*I215*H215*INDIRECT(SUBSTITUTE(G215," ","_"))/1000000),IF(ISBLANK(E215),(D215-F215)*J215,(E215-F215)*J215)))</f>
         <v/>
       </c>
@@ -7083,7 +7080,7 @@
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
       <c r="J216" s="31"/>
-      <c r="K216" s="22" t="str">
+      <c r="K216" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D216), ISBLANK(E216)),AND(OR(ISBLANK(G216),ISBLANK(H216),ISBLANK(I216)),ISBLANK(J216))),"",IF(ISBLANK(J216),IF(ISBLANK(E216),(D216-F216)*I216*H216*INDIRECT(SUBSTITUTE(G216," ","_"))/1000000,(E216-F216)*I216*H216*INDIRECT(SUBSTITUTE(G216," ","_"))/1000000),IF(ISBLANK(E216),(D216-F216)*J216,(E216-F216)*J216)))</f>
         <v/>
       </c>
@@ -7106,7 +7103,7 @@
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
       <c r="J217" s="31"/>
-      <c r="K217" s="22" t="str">
+      <c r="K217" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D217), ISBLANK(E217)),AND(OR(ISBLANK(G217),ISBLANK(H217),ISBLANK(I217)),ISBLANK(J217))),"",IF(ISBLANK(J217),IF(ISBLANK(E217),(D217-F217)*I217*H217*INDIRECT(SUBSTITUTE(G217," ","_"))/1000000,(E217-F217)*I217*H217*INDIRECT(SUBSTITUTE(G217," ","_"))/1000000),IF(ISBLANK(E217),(D217-F217)*J217,(E217-F217)*J217)))</f>
         <v/>
       </c>
@@ -7129,7 +7126,7 @@
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
       <c r="J218" s="31"/>
-      <c r="K218" s="22" t="str">
+      <c r="K218" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D218), ISBLANK(E218)),AND(OR(ISBLANK(G218),ISBLANK(H218),ISBLANK(I218)),ISBLANK(J218))),"",IF(ISBLANK(J218),IF(ISBLANK(E218),(D218-F218)*I218*H218*INDIRECT(SUBSTITUTE(G218," ","_"))/1000000,(E218-F218)*I218*H218*INDIRECT(SUBSTITUTE(G218," ","_"))/1000000),IF(ISBLANK(E218),(D218-F218)*J218,(E218-F218)*J218)))</f>
         <v/>
       </c>
@@ -7152,7 +7149,7 @@
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
       <c r="J219" s="31"/>
-      <c r="K219" s="22" t="str">
+      <c r="K219" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D219), ISBLANK(E219)),AND(OR(ISBLANK(G219),ISBLANK(H219),ISBLANK(I219)),ISBLANK(J219))),"",IF(ISBLANK(J219),IF(ISBLANK(E219),(D219-F219)*I219*H219*INDIRECT(SUBSTITUTE(G219," ","_"))/1000000,(E219-F219)*I219*H219*INDIRECT(SUBSTITUTE(G219," ","_"))/1000000),IF(ISBLANK(E219),(D219-F219)*J219,(E219-F219)*J219)))</f>
         <v/>
       </c>
@@ -7175,7 +7172,7 @@
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
       <c r="J220" s="31"/>
-      <c r="K220" s="22" t="str">
+      <c r="K220" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D220), ISBLANK(E220)),AND(OR(ISBLANK(G220),ISBLANK(H220),ISBLANK(I220)),ISBLANK(J220))),"",IF(ISBLANK(J220),IF(ISBLANK(E220),(D220-F220)*I220*H220*INDIRECT(SUBSTITUTE(G220," ","_"))/1000000,(E220-F220)*I220*H220*INDIRECT(SUBSTITUTE(G220," ","_"))/1000000),IF(ISBLANK(E220),(D220-F220)*J220,(E220-F220)*J220)))</f>
         <v/>
       </c>
@@ -7198,7 +7195,7 @@
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
       <c r="J221" s="31"/>
-      <c r="K221" s="22" t="str">
+      <c r="K221" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D221), ISBLANK(E221)),AND(OR(ISBLANK(G221),ISBLANK(H221),ISBLANK(I221)),ISBLANK(J221))),"",IF(ISBLANK(J221),IF(ISBLANK(E221),(D221-F221)*I221*H221*INDIRECT(SUBSTITUTE(G221," ","_"))/1000000,(E221-F221)*I221*H221*INDIRECT(SUBSTITUTE(G221," ","_"))/1000000),IF(ISBLANK(E221),(D221-F221)*J221,(E221-F221)*J221)))</f>
         <v/>
       </c>
@@ -7221,7 +7218,7 @@
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
       <c r="J222" s="31"/>
-      <c r="K222" s="22" t="str">
+      <c r="K222" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D222), ISBLANK(E222)),AND(OR(ISBLANK(G222),ISBLANK(H222),ISBLANK(I222)),ISBLANK(J222))),"",IF(ISBLANK(J222),IF(ISBLANK(E222),(D222-F222)*I222*H222*INDIRECT(SUBSTITUTE(G222," ","_"))/1000000,(E222-F222)*I222*H222*INDIRECT(SUBSTITUTE(G222," ","_"))/1000000),IF(ISBLANK(E222),(D222-F222)*J222,(E222-F222)*J222)))</f>
         <v/>
       </c>
@@ -7244,7 +7241,7 @@
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
       <c r="J223" s="31"/>
-      <c r="K223" s="22" t="str">
+      <c r="K223" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D223), ISBLANK(E223)),AND(OR(ISBLANK(G223),ISBLANK(H223),ISBLANK(I223)),ISBLANK(J223))),"",IF(ISBLANK(J223),IF(ISBLANK(E223),(D223-F223)*I223*H223*INDIRECT(SUBSTITUTE(G223," ","_"))/1000000,(E223-F223)*I223*H223*INDIRECT(SUBSTITUTE(G223," ","_"))/1000000),IF(ISBLANK(E223),(D223-F223)*J223,(E223-F223)*J223)))</f>
         <v/>
       </c>
@@ -7267,7 +7264,7 @@
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
       <c r="J224" s="31"/>
-      <c r="K224" s="22" t="str">
+      <c r="K224" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D224), ISBLANK(E224)),AND(OR(ISBLANK(G224),ISBLANK(H224),ISBLANK(I224)),ISBLANK(J224))),"",IF(ISBLANK(J224),IF(ISBLANK(E224),(D224-F224)*I224*H224*INDIRECT(SUBSTITUTE(G224," ","_"))/1000000,(E224-F224)*I224*H224*INDIRECT(SUBSTITUTE(G224," ","_"))/1000000),IF(ISBLANK(E224),(D224-F224)*J224,(E224-F224)*J224)))</f>
         <v/>
       </c>
@@ -7290,7 +7287,7 @@
       <c r="H225" s="31"/>
       <c r="I225" s="31"/>
       <c r="J225" s="31"/>
-      <c r="K225" s="22" t="str">
+      <c r="K225" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D225), ISBLANK(E225)),AND(OR(ISBLANK(G225),ISBLANK(H225),ISBLANK(I225)),ISBLANK(J225))),"",IF(ISBLANK(J225),IF(ISBLANK(E225),(D225-F225)*I225*H225*INDIRECT(SUBSTITUTE(G225," ","_"))/1000000,(E225-F225)*I225*H225*INDIRECT(SUBSTITUTE(G225," ","_"))/1000000),IF(ISBLANK(E225),(D225-F225)*J225,(E225-F225)*J225)))</f>
         <v/>
       </c>
@@ -7313,7 +7310,7 @@
       <c r="H226" s="31"/>
       <c r="I226" s="31"/>
       <c r="J226" s="31"/>
-      <c r="K226" s="22" t="str">
+      <c r="K226" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D226), ISBLANK(E226)),AND(OR(ISBLANK(G226),ISBLANK(H226),ISBLANK(I226)),ISBLANK(J226))),"",IF(ISBLANK(J226),IF(ISBLANK(E226),(D226-F226)*I226*H226*INDIRECT(SUBSTITUTE(G226," ","_"))/1000000,(E226-F226)*I226*H226*INDIRECT(SUBSTITUTE(G226," ","_"))/1000000),IF(ISBLANK(E226),(D226-F226)*J226,(E226-F226)*J226)))</f>
         <v/>
       </c>
@@ -7336,7 +7333,7 @@
       <c r="H227" s="31"/>
       <c r="I227" s="31"/>
       <c r="J227" s="31"/>
-      <c r="K227" s="22" t="str">
+      <c r="K227" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D227), ISBLANK(E227)),AND(OR(ISBLANK(G227),ISBLANK(H227),ISBLANK(I227)),ISBLANK(J227))),"",IF(ISBLANK(J227),IF(ISBLANK(E227),(D227-F227)*I227*H227*INDIRECT(SUBSTITUTE(G227," ","_"))/1000000,(E227-F227)*I227*H227*INDIRECT(SUBSTITUTE(G227," ","_"))/1000000),IF(ISBLANK(E227),(D227-F227)*J227,(E227-F227)*J227)))</f>
         <v/>
       </c>
@@ -7359,7 +7356,7 @@
       <c r="H228" s="31"/>
       <c r="I228" s="31"/>
       <c r="J228" s="31"/>
-      <c r="K228" s="22" t="str">
+      <c r="K228" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D228), ISBLANK(E228)),AND(OR(ISBLANK(G228),ISBLANK(H228),ISBLANK(I228)),ISBLANK(J228))),"",IF(ISBLANK(J228),IF(ISBLANK(E228),(D228-F228)*I228*H228*INDIRECT(SUBSTITUTE(G228," ","_"))/1000000,(E228-F228)*I228*H228*INDIRECT(SUBSTITUTE(G228," ","_"))/1000000),IF(ISBLANK(E228),(D228-F228)*J228,(E228-F228)*J228)))</f>
         <v/>
       </c>
@@ -7382,7 +7379,7 @@
       <c r="H229" s="31"/>
       <c r="I229" s="31"/>
       <c r="J229" s="31"/>
-      <c r="K229" s="22" t="str">
+      <c r="K229" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D229), ISBLANK(E229)),AND(OR(ISBLANK(G229),ISBLANK(H229),ISBLANK(I229)),ISBLANK(J229))),"",IF(ISBLANK(J229),IF(ISBLANK(E229),(D229-F229)*I229*H229*INDIRECT(SUBSTITUTE(G229," ","_"))/1000000,(E229-F229)*I229*H229*INDIRECT(SUBSTITUTE(G229," ","_"))/1000000),IF(ISBLANK(E229),(D229-F229)*J229,(E229-F229)*J229)))</f>
         <v/>
       </c>
@@ -7405,7 +7402,7 @@
       <c r="H230" s="31"/>
       <c r="I230" s="31"/>
       <c r="J230" s="31"/>
-      <c r="K230" s="22" t="str">
+      <c r="K230" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D230), ISBLANK(E230)),AND(OR(ISBLANK(G230),ISBLANK(H230),ISBLANK(I230)),ISBLANK(J230))),"",IF(ISBLANK(J230),IF(ISBLANK(E230),(D230-F230)*I230*H230*INDIRECT(SUBSTITUTE(G230," ","_"))/1000000,(E230-F230)*I230*H230*INDIRECT(SUBSTITUTE(G230," ","_"))/1000000),IF(ISBLANK(E230),(D230-F230)*J230,(E230-F230)*J230)))</f>
         <v/>
       </c>
@@ -7428,7 +7425,7 @@
       <c r="H231" s="31"/>
       <c r="I231" s="31"/>
       <c r="J231" s="31"/>
-      <c r="K231" s="22" t="str">
+      <c r="K231" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D231), ISBLANK(E231)),AND(OR(ISBLANK(G231),ISBLANK(H231),ISBLANK(I231)),ISBLANK(J231))),"",IF(ISBLANK(J231),IF(ISBLANK(E231),(D231-F231)*I231*H231*INDIRECT(SUBSTITUTE(G231," ","_"))/1000000,(E231-F231)*I231*H231*INDIRECT(SUBSTITUTE(G231," ","_"))/1000000),IF(ISBLANK(E231),(D231-F231)*J231,(E231-F231)*J231)))</f>
         <v/>
       </c>
@@ -7451,7 +7448,7 @@
       <c r="H232" s="31"/>
       <c r="I232" s="31"/>
       <c r="J232" s="31"/>
-      <c r="K232" s="22" t="str">
+      <c r="K232" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D232), ISBLANK(E232)),AND(OR(ISBLANK(G232),ISBLANK(H232),ISBLANK(I232)),ISBLANK(J232))),"",IF(ISBLANK(J232),IF(ISBLANK(E232),(D232-F232)*I232*H232*INDIRECT(SUBSTITUTE(G232," ","_"))/1000000,(E232-F232)*I232*H232*INDIRECT(SUBSTITUTE(G232," ","_"))/1000000),IF(ISBLANK(E232),(D232-F232)*J232,(E232-F232)*J232)))</f>
         <v/>
       </c>
@@ -7474,7 +7471,7 @@
       <c r="H233" s="31"/>
       <c r="I233" s="31"/>
       <c r="J233" s="31"/>
-      <c r="K233" s="22" t="str">
+      <c r="K233" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D233), ISBLANK(E233)),AND(OR(ISBLANK(G233),ISBLANK(H233),ISBLANK(I233)),ISBLANK(J233))),"",IF(ISBLANK(J233),IF(ISBLANK(E233),(D233-F233)*I233*H233*INDIRECT(SUBSTITUTE(G233," ","_"))/1000000,(E233-F233)*I233*H233*INDIRECT(SUBSTITUTE(G233," ","_"))/1000000),IF(ISBLANK(E233),(D233-F233)*J233,(E233-F233)*J233)))</f>
         <v/>
       </c>
@@ -7497,7 +7494,7 @@
       <c r="H234" s="31"/>
       <c r="I234" s="31"/>
       <c r="J234" s="31"/>
-      <c r="K234" s="22" t="str">
+      <c r="K234" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D234), ISBLANK(E234)),AND(OR(ISBLANK(G234),ISBLANK(H234),ISBLANK(I234)),ISBLANK(J234))),"",IF(ISBLANK(J234),IF(ISBLANK(E234),(D234-F234)*I234*H234*INDIRECT(SUBSTITUTE(G234," ","_"))/1000000,(E234-F234)*I234*H234*INDIRECT(SUBSTITUTE(G234," ","_"))/1000000),IF(ISBLANK(E234),(D234-F234)*J234,(E234-F234)*J234)))</f>
         <v/>
       </c>
@@ -7520,7 +7517,7 @@
       <c r="H235" s="31"/>
       <c r="I235" s="31"/>
       <c r="J235" s="31"/>
-      <c r="K235" s="22" t="str">
+      <c r="K235" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D235), ISBLANK(E235)),AND(OR(ISBLANK(G235),ISBLANK(H235),ISBLANK(I235)),ISBLANK(J235))),"",IF(ISBLANK(J235),IF(ISBLANK(E235),(D235-F235)*I235*H235*INDIRECT(SUBSTITUTE(G235," ","_"))/1000000,(E235-F235)*I235*H235*INDIRECT(SUBSTITUTE(G235," ","_"))/1000000),IF(ISBLANK(E235),(D235-F235)*J235,(E235-F235)*J235)))</f>
         <v/>
       </c>
@@ -7543,7 +7540,7 @@
       <c r="H236" s="31"/>
       <c r="I236" s="31"/>
       <c r="J236" s="31"/>
-      <c r="K236" s="22" t="str">
+      <c r="K236" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D236), ISBLANK(E236)),AND(OR(ISBLANK(G236),ISBLANK(H236),ISBLANK(I236)),ISBLANK(J236))),"",IF(ISBLANK(J236),IF(ISBLANK(E236),(D236-F236)*I236*H236*INDIRECT(SUBSTITUTE(G236," ","_"))/1000000,(E236-F236)*I236*H236*INDIRECT(SUBSTITUTE(G236," ","_"))/1000000),IF(ISBLANK(E236),(D236-F236)*J236,(E236-F236)*J236)))</f>
         <v/>
       </c>
@@ -7566,7 +7563,7 @@
       <c r="H237" s="31"/>
       <c r="I237" s="31"/>
       <c r="J237" s="31"/>
-      <c r="K237" s="22" t="str">
+      <c r="K237" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D237), ISBLANK(E237)),AND(OR(ISBLANK(G237),ISBLANK(H237),ISBLANK(I237)),ISBLANK(J237))),"",IF(ISBLANK(J237),IF(ISBLANK(E237),(D237-F237)*I237*H237*INDIRECT(SUBSTITUTE(G237," ","_"))/1000000,(E237-F237)*I237*H237*INDIRECT(SUBSTITUTE(G237," ","_"))/1000000),IF(ISBLANK(E237),(D237-F237)*J237,(E237-F237)*J237)))</f>
         <v/>
       </c>
@@ -7589,7 +7586,7 @@
       <c r="H238" s="31"/>
       <c r="I238" s="31"/>
       <c r="J238" s="31"/>
-      <c r="K238" s="22" t="str">
+      <c r="K238" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D238), ISBLANK(E238)),AND(OR(ISBLANK(G238),ISBLANK(H238),ISBLANK(I238)),ISBLANK(J238))),"",IF(ISBLANK(J238),IF(ISBLANK(E238),(D238-F238)*I238*H238*INDIRECT(SUBSTITUTE(G238," ","_"))/1000000,(E238-F238)*I238*H238*INDIRECT(SUBSTITUTE(G238," ","_"))/1000000),IF(ISBLANK(E238),(D238-F238)*J238,(E238-F238)*J238)))</f>
         <v/>
       </c>
@@ -7612,7 +7609,7 @@
       <c r="H239" s="31"/>
       <c r="I239" s="31"/>
       <c r="J239" s="31"/>
-      <c r="K239" s="22" t="str">
+      <c r="K239" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D239), ISBLANK(E239)),AND(OR(ISBLANK(G239),ISBLANK(H239),ISBLANK(I239)),ISBLANK(J239))),"",IF(ISBLANK(J239),IF(ISBLANK(E239),(D239-F239)*I239*H239*INDIRECT(SUBSTITUTE(G239," ","_"))/1000000,(E239-F239)*I239*H239*INDIRECT(SUBSTITUTE(G239," ","_"))/1000000),IF(ISBLANK(E239),(D239-F239)*J239,(E239-F239)*J239)))</f>
         <v/>
       </c>
@@ -7635,7 +7632,7 @@
       <c r="H240" s="31"/>
       <c r="I240" s="31"/>
       <c r="J240" s="31"/>
-      <c r="K240" s="22" t="str">
+      <c r="K240" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D240), ISBLANK(E240)),AND(OR(ISBLANK(G240),ISBLANK(H240),ISBLANK(I240)),ISBLANK(J240))),"",IF(ISBLANK(J240),IF(ISBLANK(E240),(D240-F240)*I240*H240*INDIRECT(SUBSTITUTE(G240," ","_"))/1000000,(E240-F240)*I240*H240*INDIRECT(SUBSTITUTE(G240," ","_"))/1000000),IF(ISBLANK(E240),(D240-F240)*J240,(E240-F240)*J240)))</f>
         <v/>
       </c>
@@ -7658,7 +7655,7 @@
       <c r="H241" s="31"/>
       <c r="I241" s="31"/>
       <c r="J241" s="31"/>
-      <c r="K241" s="22" t="str">
+      <c r="K241" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D241), ISBLANK(E241)),AND(OR(ISBLANK(G241),ISBLANK(H241),ISBLANK(I241)),ISBLANK(J241))),"",IF(ISBLANK(J241),IF(ISBLANK(E241),(D241-F241)*I241*H241*INDIRECT(SUBSTITUTE(G241," ","_"))/1000000,(E241-F241)*I241*H241*INDIRECT(SUBSTITUTE(G241," ","_"))/1000000),IF(ISBLANK(E241),(D241-F241)*J241,(E241-F241)*J241)))</f>
         <v/>
       </c>
@@ -7681,7 +7678,7 @@
       <c r="H242" s="31"/>
       <c r="I242" s="31"/>
       <c r="J242" s="31"/>
-      <c r="K242" s="22" t="str">
+      <c r="K242" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D242), ISBLANK(E242)),AND(OR(ISBLANK(G242),ISBLANK(H242),ISBLANK(I242)),ISBLANK(J242))),"",IF(ISBLANK(J242),IF(ISBLANK(E242),(D242-F242)*I242*H242*INDIRECT(SUBSTITUTE(G242," ","_"))/1000000,(E242-F242)*I242*H242*INDIRECT(SUBSTITUTE(G242," ","_"))/1000000),IF(ISBLANK(E242),(D242-F242)*J242,(E242-F242)*J242)))</f>
         <v/>
       </c>
@@ -7704,7 +7701,7 @@
       <c r="H243" s="31"/>
       <c r="I243" s="31"/>
       <c r="J243" s="31"/>
-      <c r="K243" s="22" t="str">
+      <c r="K243" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D243), ISBLANK(E243)),AND(OR(ISBLANK(G243),ISBLANK(H243),ISBLANK(I243)),ISBLANK(J243))),"",IF(ISBLANK(J243),IF(ISBLANK(E243),(D243-F243)*I243*H243*INDIRECT(SUBSTITUTE(G243," ","_"))/1000000,(E243-F243)*I243*H243*INDIRECT(SUBSTITUTE(G243," ","_"))/1000000),IF(ISBLANK(E243),(D243-F243)*J243,(E243-F243)*J243)))</f>
         <v/>
       </c>
@@ -7727,7 +7724,7 @@
       <c r="H244" s="31"/>
       <c r="I244" s="31"/>
       <c r="J244" s="31"/>
-      <c r="K244" s="22" t="str">
+      <c r="K244" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D244), ISBLANK(E244)),AND(OR(ISBLANK(G244),ISBLANK(H244),ISBLANK(I244)),ISBLANK(J244))),"",IF(ISBLANK(J244),IF(ISBLANK(E244),(D244-F244)*I244*H244*INDIRECT(SUBSTITUTE(G244," ","_"))/1000000,(E244-F244)*I244*H244*INDIRECT(SUBSTITUTE(G244," ","_"))/1000000),IF(ISBLANK(E244),(D244-F244)*J244,(E244-F244)*J244)))</f>
         <v/>
       </c>
@@ -7750,7 +7747,7 @@
       <c r="H245" s="31"/>
       <c r="I245" s="31"/>
       <c r="J245" s="31"/>
-      <c r="K245" s="22" t="str">
+      <c r="K245" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D245), ISBLANK(E245)),AND(OR(ISBLANK(G245),ISBLANK(H245),ISBLANK(I245)),ISBLANK(J245))),"",IF(ISBLANK(J245),IF(ISBLANK(E245),(D245-F245)*I245*H245*INDIRECT(SUBSTITUTE(G245," ","_"))/1000000,(E245-F245)*I245*H245*INDIRECT(SUBSTITUTE(G245," ","_"))/1000000),IF(ISBLANK(E245),(D245-F245)*J245,(E245-F245)*J245)))</f>
         <v/>
       </c>
@@ -7773,7 +7770,7 @@
       <c r="H246" s="31"/>
       <c r="I246" s="31"/>
       <c r="J246" s="31"/>
-      <c r="K246" s="22" t="str">
+      <c r="K246" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D246), ISBLANK(E246)),AND(OR(ISBLANK(G246),ISBLANK(H246),ISBLANK(I246)),ISBLANK(J246))),"",IF(ISBLANK(J246),IF(ISBLANK(E246),(D246-F246)*I246*H246*INDIRECT(SUBSTITUTE(G246," ","_"))/1000000,(E246-F246)*I246*H246*INDIRECT(SUBSTITUTE(G246," ","_"))/1000000),IF(ISBLANK(E246),(D246-F246)*J246,(E246-F246)*J246)))</f>
         <v/>
       </c>
@@ -7796,7 +7793,7 @@
       <c r="H247" s="31"/>
       <c r="I247" s="31"/>
       <c r="J247" s="31"/>
-      <c r="K247" s="22" t="str">
+      <c r="K247" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D247), ISBLANK(E247)),AND(OR(ISBLANK(G247),ISBLANK(H247),ISBLANK(I247)),ISBLANK(J247))),"",IF(ISBLANK(J247),IF(ISBLANK(E247),(D247-F247)*I247*H247*INDIRECT(SUBSTITUTE(G247," ","_"))/1000000,(E247-F247)*I247*H247*INDIRECT(SUBSTITUTE(G247," ","_"))/1000000),IF(ISBLANK(E247),(D247-F247)*J247,(E247-F247)*J247)))</f>
         <v/>
       </c>
@@ -7819,7 +7816,7 @@
       <c r="H248" s="31"/>
       <c r="I248" s="31"/>
       <c r="J248" s="31"/>
-      <c r="K248" s="22" t="str">
+      <c r="K248" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D248), ISBLANK(E248)),AND(OR(ISBLANK(G248),ISBLANK(H248),ISBLANK(I248)),ISBLANK(J248))),"",IF(ISBLANK(J248),IF(ISBLANK(E248),(D248-F248)*I248*H248*INDIRECT(SUBSTITUTE(G248," ","_"))/1000000,(E248-F248)*I248*H248*INDIRECT(SUBSTITUTE(G248," ","_"))/1000000),IF(ISBLANK(E248),(D248-F248)*J248,(E248-F248)*J248)))</f>
         <v/>
       </c>
@@ -7842,7 +7839,7 @@
       <c r="H249" s="31"/>
       <c r="I249" s="31"/>
       <c r="J249" s="31"/>
-      <c r="K249" s="22" t="str">
+      <c r="K249" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D249), ISBLANK(E249)),AND(OR(ISBLANK(G249),ISBLANK(H249),ISBLANK(I249)),ISBLANK(J249))),"",IF(ISBLANK(J249),IF(ISBLANK(E249),(D249-F249)*I249*H249*INDIRECT(SUBSTITUTE(G249," ","_"))/1000000,(E249-F249)*I249*H249*INDIRECT(SUBSTITUTE(G249," ","_"))/1000000),IF(ISBLANK(E249),(D249-F249)*J249,(E249-F249)*J249)))</f>
         <v/>
       </c>
@@ -7865,7 +7862,7 @@
       <c r="H250" s="31"/>
       <c r="I250" s="31"/>
       <c r="J250" s="31"/>
-      <c r="K250" s="22" t="str">
+      <c r="K250" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D250), ISBLANK(E250)),AND(OR(ISBLANK(G250),ISBLANK(H250),ISBLANK(I250)),ISBLANK(J250))),"",IF(ISBLANK(J250),IF(ISBLANK(E250),(D250-F250)*I250*H250*INDIRECT(SUBSTITUTE(G250," ","_"))/1000000,(E250-F250)*I250*H250*INDIRECT(SUBSTITUTE(G250," ","_"))/1000000),IF(ISBLANK(E250),(D250-F250)*J250,(E250-F250)*J250)))</f>
         <v/>
       </c>
@@ -7888,7 +7885,7 @@
       <c r="H251" s="31"/>
       <c r="I251" s="31"/>
       <c r="J251" s="31"/>
-      <c r="K251" s="22" t="str">
+      <c r="K251" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D251), ISBLANK(E251)),AND(OR(ISBLANK(G251),ISBLANK(H251),ISBLANK(I251)),ISBLANK(J251))),"",IF(ISBLANK(J251),IF(ISBLANK(E251),(D251-F251)*I251*H251*INDIRECT(SUBSTITUTE(G251," ","_"))/1000000,(E251-F251)*I251*H251*INDIRECT(SUBSTITUTE(G251," ","_"))/1000000),IF(ISBLANK(E251),(D251-F251)*J251,(E251-F251)*J251)))</f>
         <v/>
       </c>
@@ -7911,7 +7908,7 @@
       <c r="H252" s="31"/>
       <c r="I252" s="31"/>
       <c r="J252" s="31"/>
-      <c r="K252" s="22" t="str">
+      <c r="K252" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D252), ISBLANK(E252)),AND(OR(ISBLANK(G252),ISBLANK(H252),ISBLANK(I252)),ISBLANK(J252))),"",IF(ISBLANK(J252),IF(ISBLANK(E252),(D252-F252)*I252*H252*INDIRECT(SUBSTITUTE(G252," ","_"))/1000000,(E252-F252)*I252*H252*INDIRECT(SUBSTITUTE(G252," ","_"))/1000000),IF(ISBLANK(E252),(D252-F252)*J252,(E252-F252)*J252)))</f>
         <v/>
       </c>
@@ -7934,7 +7931,7 @@
       <c r="H253" s="31"/>
       <c r="I253" s="31"/>
       <c r="J253" s="31"/>
-      <c r="K253" s="22" t="str">
+      <c r="K253" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D253), ISBLANK(E253)),AND(OR(ISBLANK(G253),ISBLANK(H253),ISBLANK(I253)),ISBLANK(J253))),"",IF(ISBLANK(J253),IF(ISBLANK(E253),(D253-F253)*I253*H253*INDIRECT(SUBSTITUTE(G253," ","_"))/1000000,(E253-F253)*I253*H253*INDIRECT(SUBSTITUTE(G253," ","_"))/1000000),IF(ISBLANK(E253),(D253-F253)*J253,(E253-F253)*J253)))</f>
         <v/>
       </c>
@@ -7957,7 +7954,7 @@
       <c r="H254" s="31"/>
       <c r="I254" s="31"/>
       <c r="J254" s="31"/>
-      <c r="K254" s="22" t="str">
+      <c r="K254" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D254), ISBLANK(E254)),AND(OR(ISBLANK(G254),ISBLANK(H254),ISBLANK(I254)),ISBLANK(J254))),"",IF(ISBLANK(J254),IF(ISBLANK(E254),(D254-F254)*I254*H254*INDIRECT(SUBSTITUTE(G254," ","_"))/1000000,(E254-F254)*I254*H254*INDIRECT(SUBSTITUTE(G254," ","_"))/1000000),IF(ISBLANK(E254),(D254-F254)*J254,(E254-F254)*J254)))</f>
         <v/>
       </c>
@@ -7980,7 +7977,7 @@
       <c r="H255" s="31"/>
       <c r="I255" s="31"/>
       <c r="J255" s="31"/>
-      <c r="K255" s="22" t="str">
+      <c r="K255" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D255), ISBLANK(E255)),AND(OR(ISBLANK(G255),ISBLANK(H255),ISBLANK(I255)),ISBLANK(J255))),"",IF(ISBLANK(J255),IF(ISBLANK(E255),(D255-F255)*I255*H255*INDIRECT(SUBSTITUTE(G255," ","_"))/1000000,(E255-F255)*I255*H255*INDIRECT(SUBSTITUTE(G255," ","_"))/1000000),IF(ISBLANK(E255),(D255-F255)*J255,(E255-F255)*J255)))</f>
         <v/>
       </c>
@@ -8003,7 +8000,7 @@
       <c r="H256" s="31"/>
       <c r="I256" s="31"/>
       <c r="J256" s="31"/>
-      <c r="K256" s="22" t="str">
+      <c r="K256" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D256), ISBLANK(E256)),AND(OR(ISBLANK(G256),ISBLANK(H256),ISBLANK(I256)),ISBLANK(J256))),"",IF(ISBLANK(J256),IF(ISBLANK(E256),(D256-F256)*I256*H256*INDIRECT(SUBSTITUTE(G256," ","_"))/1000000,(E256-F256)*I256*H256*INDIRECT(SUBSTITUTE(G256," ","_"))/1000000),IF(ISBLANK(E256),(D256-F256)*J256,(E256-F256)*J256)))</f>
         <v/>
       </c>
@@ -8026,7 +8023,7 @@
       <c r="H257" s="31"/>
       <c r="I257" s="31"/>
       <c r="J257" s="31"/>
-      <c r="K257" s="22" t="str">
+      <c r="K257" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D257), ISBLANK(E257)),AND(OR(ISBLANK(G257),ISBLANK(H257),ISBLANK(I257)),ISBLANK(J257))),"",IF(ISBLANK(J257),IF(ISBLANK(E257),(D257-F257)*I257*H257*INDIRECT(SUBSTITUTE(G257," ","_"))/1000000,(E257-F257)*I257*H257*INDIRECT(SUBSTITUTE(G257," ","_"))/1000000),IF(ISBLANK(E257),(D257-F257)*J257,(E257-F257)*J257)))</f>
         <v/>
       </c>
@@ -8049,7 +8046,7 @@
       <c r="H258" s="31"/>
       <c r="I258" s="31"/>
       <c r="J258" s="31"/>
-      <c r="K258" s="22" t="str">
+      <c r="K258" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D258), ISBLANK(E258)),AND(OR(ISBLANK(G258),ISBLANK(H258),ISBLANK(I258)),ISBLANK(J258))),"",IF(ISBLANK(J258),IF(ISBLANK(E258),(D258-F258)*I258*H258*INDIRECT(SUBSTITUTE(G258," ","_"))/1000000,(E258-F258)*I258*H258*INDIRECT(SUBSTITUTE(G258," ","_"))/1000000),IF(ISBLANK(E258),(D258-F258)*J258,(E258-F258)*J258)))</f>
         <v/>
       </c>
@@ -8072,7 +8069,7 @@
       <c r="H259" s="31"/>
       <c r="I259" s="31"/>
       <c r="J259" s="31"/>
-      <c r="K259" s="22" t="str">
+      <c r="K259" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D259), ISBLANK(E259)),AND(OR(ISBLANK(G259),ISBLANK(H259),ISBLANK(I259)),ISBLANK(J259))),"",IF(ISBLANK(J259),IF(ISBLANK(E259),(D259-F259)*I259*H259*INDIRECT(SUBSTITUTE(G259," ","_"))/1000000,(E259-F259)*I259*H259*INDIRECT(SUBSTITUTE(G259," ","_"))/1000000),IF(ISBLANK(E259),(D259-F259)*J259,(E259-F259)*J259)))</f>
         <v/>
       </c>
@@ -8095,7 +8092,7 @@
       <c r="H260" s="31"/>
       <c r="I260" s="31"/>
       <c r="J260" s="31"/>
-      <c r="K260" s="22" t="str">
+      <c r="K260" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D260), ISBLANK(E260)),AND(OR(ISBLANK(G260),ISBLANK(H260),ISBLANK(I260)),ISBLANK(J260))),"",IF(ISBLANK(J260),IF(ISBLANK(E260),(D260-F260)*I260*H260*INDIRECT(SUBSTITUTE(G260," ","_"))/1000000,(E260-F260)*I260*H260*INDIRECT(SUBSTITUTE(G260," ","_"))/1000000),IF(ISBLANK(E260),(D260-F260)*J260,(E260-F260)*J260)))</f>
         <v/>
       </c>
@@ -8118,7 +8115,7 @@
       <c r="H261" s="31"/>
       <c r="I261" s="31"/>
       <c r="J261" s="31"/>
-      <c r="K261" s="22" t="str">
+      <c r="K261" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D261), ISBLANK(E261)),AND(OR(ISBLANK(G261),ISBLANK(H261),ISBLANK(I261)),ISBLANK(J261))),"",IF(ISBLANK(J261),IF(ISBLANK(E261),(D261-F261)*I261*H261*INDIRECT(SUBSTITUTE(G261," ","_"))/1000000,(E261-F261)*I261*H261*INDIRECT(SUBSTITUTE(G261," ","_"))/1000000),IF(ISBLANK(E261),(D261-F261)*J261,(E261-F261)*J261)))</f>
         <v/>
       </c>
@@ -8141,7 +8138,7 @@
       <c r="H262" s="31"/>
       <c r="I262" s="31"/>
       <c r="J262" s="31"/>
-      <c r="K262" s="22" t="str">
+      <c r="K262" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D262), ISBLANK(E262)),AND(OR(ISBLANK(G262),ISBLANK(H262),ISBLANK(I262)),ISBLANK(J262))),"",IF(ISBLANK(J262),IF(ISBLANK(E262),(D262-F262)*I262*H262*INDIRECT(SUBSTITUTE(G262," ","_"))/1000000,(E262-F262)*I262*H262*INDIRECT(SUBSTITUTE(G262," ","_"))/1000000),IF(ISBLANK(E262),(D262-F262)*J262,(E262-F262)*J262)))</f>
         <v/>
       </c>
@@ -8164,7 +8161,7 @@
       <c r="H263" s="31"/>
       <c r="I263" s="31"/>
       <c r="J263" s="31"/>
-      <c r="K263" s="22" t="str">
+      <c r="K263" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D263), ISBLANK(E263)),AND(OR(ISBLANK(G263),ISBLANK(H263),ISBLANK(I263)),ISBLANK(J263))),"",IF(ISBLANK(J263),IF(ISBLANK(E263),(D263-F263)*I263*H263*INDIRECT(SUBSTITUTE(G263," ","_"))/1000000,(E263-F263)*I263*H263*INDIRECT(SUBSTITUTE(G263," ","_"))/1000000),IF(ISBLANK(E263),(D263-F263)*J263,(E263-F263)*J263)))</f>
         <v/>
       </c>
@@ -8187,7 +8184,7 @@
       <c r="H264" s="31"/>
       <c r="I264" s="31"/>
       <c r="J264" s="31"/>
-      <c r="K264" s="22" t="str">
+      <c r="K264" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D264), ISBLANK(E264)),AND(OR(ISBLANK(G264),ISBLANK(H264),ISBLANK(I264)),ISBLANK(J264))),"",IF(ISBLANK(J264),IF(ISBLANK(E264),(D264-F264)*I264*H264*INDIRECT(SUBSTITUTE(G264," ","_"))/1000000,(E264-F264)*I264*H264*INDIRECT(SUBSTITUTE(G264," ","_"))/1000000),IF(ISBLANK(E264),(D264-F264)*J264,(E264-F264)*J264)))</f>
         <v/>
       </c>
@@ -8210,7 +8207,7 @@
       <c r="H265" s="31"/>
       <c r="I265" s="31"/>
       <c r="J265" s="31"/>
-      <c r="K265" s="22" t="str">
+      <c r="K265" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D265), ISBLANK(E265)),AND(OR(ISBLANK(G265),ISBLANK(H265),ISBLANK(I265)),ISBLANK(J265))),"",IF(ISBLANK(J265),IF(ISBLANK(E265),(D265-F265)*I265*H265*INDIRECT(SUBSTITUTE(G265," ","_"))/1000000,(E265-F265)*I265*H265*INDIRECT(SUBSTITUTE(G265," ","_"))/1000000),IF(ISBLANK(E265),(D265-F265)*J265,(E265-F265)*J265)))</f>
         <v/>
       </c>
@@ -8233,7 +8230,7 @@
       <c r="H266" s="31"/>
       <c r="I266" s="31"/>
       <c r="J266" s="31"/>
-      <c r="K266" s="22" t="str">
+      <c r="K266" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D266), ISBLANK(E266)),AND(OR(ISBLANK(G266),ISBLANK(H266),ISBLANK(I266)),ISBLANK(J266))),"",IF(ISBLANK(J266),IF(ISBLANK(E266),(D266-F266)*I266*H266*INDIRECT(SUBSTITUTE(G266," ","_"))/1000000,(E266-F266)*I266*H266*INDIRECT(SUBSTITUTE(G266," ","_"))/1000000),IF(ISBLANK(E266),(D266-F266)*J266,(E266-F266)*J266)))</f>
         <v/>
       </c>
@@ -8256,7 +8253,7 @@
       <c r="H267" s="31"/>
       <c r="I267" s="31"/>
       <c r="J267" s="31"/>
-      <c r="K267" s="22" t="str">
+      <c r="K267" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D267), ISBLANK(E267)),AND(OR(ISBLANK(G267),ISBLANK(H267),ISBLANK(I267)),ISBLANK(J267))),"",IF(ISBLANK(J267),IF(ISBLANK(E267),(D267-F267)*I267*H267*INDIRECT(SUBSTITUTE(G267," ","_"))/1000000,(E267-F267)*I267*H267*INDIRECT(SUBSTITUTE(G267," ","_"))/1000000),IF(ISBLANK(E267),(D267-F267)*J267,(E267-F267)*J267)))</f>
         <v/>
       </c>
@@ -8279,7 +8276,7 @@
       <c r="H268" s="31"/>
       <c r="I268" s="31"/>
       <c r="J268" s="31"/>
-      <c r="K268" s="22" t="str">
+      <c r="K268" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D268), ISBLANK(E268)),AND(OR(ISBLANK(G268),ISBLANK(H268),ISBLANK(I268)),ISBLANK(J268))),"",IF(ISBLANK(J268),IF(ISBLANK(E268),(D268-F268)*I268*H268*INDIRECT(SUBSTITUTE(G268," ","_"))/1000000,(E268-F268)*I268*H268*INDIRECT(SUBSTITUTE(G268," ","_"))/1000000),IF(ISBLANK(E268),(D268-F268)*J268,(E268-F268)*J268)))</f>
         <v/>
       </c>
@@ -8302,7 +8299,7 @@
       <c r="H269" s="31"/>
       <c r="I269" s="31"/>
       <c r="J269" s="31"/>
-      <c r="K269" s="22" t="str">
+      <c r="K269" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D269), ISBLANK(E269)),AND(OR(ISBLANK(G269),ISBLANK(H269),ISBLANK(I269)),ISBLANK(J269))),"",IF(ISBLANK(J269),IF(ISBLANK(E269),(D269-F269)*I269*H269*INDIRECT(SUBSTITUTE(G269," ","_"))/1000000,(E269-F269)*I269*H269*INDIRECT(SUBSTITUTE(G269," ","_"))/1000000),IF(ISBLANK(E269),(D269-F269)*J269,(E269-F269)*J269)))</f>
         <v/>
       </c>
@@ -8325,7 +8322,7 @@
       <c r="H270" s="31"/>
       <c r="I270" s="31"/>
       <c r="J270" s="31"/>
-      <c r="K270" s="22" t="str">
+      <c r="K270" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D270), ISBLANK(E270)),AND(OR(ISBLANK(G270),ISBLANK(H270),ISBLANK(I270)),ISBLANK(J270))),"",IF(ISBLANK(J270),IF(ISBLANK(E270),(D270-F270)*I270*H270*INDIRECT(SUBSTITUTE(G270," ","_"))/1000000,(E270-F270)*I270*H270*INDIRECT(SUBSTITUTE(G270," ","_"))/1000000),IF(ISBLANK(E270),(D270-F270)*J270,(E270-F270)*J270)))</f>
         <v/>
       </c>
@@ -8348,7 +8345,7 @@
       <c r="H271" s="31"/>
       <c r="I271" s="31"/>
       <c r="J271" s="31"/>
-      <c r="K271" s="22" t="str">
+      <c r="K271" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D271), ISBLANK(E271)),AND(OR(ISBLANK(G271),ISBLANK(H271),ISBLANK(I271)),ISBLANK(J271))),"",IF(ISBLANK(J271),IF(ISBLANK(E271),(D271-F271)*I271*H271*INDIRECT(SUBSTITUTE(G271," ","_"))/1000000,(E271-F271)*I271*H271*INDIRECT(SUBSTITUTE(G271," ","_"))/1000000),IF(ISBLANK(E271),(D271-F271)*J271,(E271-F271)*J271)))</f>
         <v/>
       </c>
@@ -8371,7 +8368,7 @@
       <c r="H272" s="31"/>
       <c r="I272" s="31"/>
       <c r="J272" s="31"/>
-      <c r="K272" s="22" t="str">
+      <c r="K272" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D272), ISBLANK(E272)),AND(OR(ISBLANK(G272),ISBLANK(H272),ISBLANK(I272)),ISBLANK(J272))),"",IF(ISBLANK(J272),IF(ISBLANK(E272),(D272-F272)*I272*H272*INDIRECT(SUBSTITUTE(G272," ","_"))/1000000,(E272-F272)*I272*H272*INDIRECT(SUBSTITUTE(G272," ","_"))/1000000),IF(ISBLANK(E272),(D272-F272)*J272,(E272-F272)*J272)))</f>
         <v/>
       </c>
@@ -8394,7 +8391,7 @@
       <c r="H273" s="31"/>
       <c r="I273" s="31"/>
       <c r="J273" s="31"/>
-      <c r="K273" s="22" t="str">
+      <c r="K273" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D273), ISBLANK(E273)),AND(OR(ISBLANK(G273),ISBLANK(H273),ISBLANK(I273)),ISBLANK(J273))),"",IF(ISBLANK(J273),IF(ISBLANK(E273),(D273-F273)*I273*H273*INDIRECT(SUBSTITUTE(G273," ","_"))/1000000,(E273-F273)*I273*H273*INDIRECT(SUBSTITUTE(G273," ","_"))/1000000),IF(ISBLANK(E273),(D273-F273)*J273,(E273-F273)*J273)))</f>
         <v/>
       </c>
@@ -8417,7 +8414,7 @@
       <c r="H274" s="31"/>
       <c r="I274" s="31"/>
       <c r="J274" s="31"/>
-      <c r="K274" s="22" t="str">
+      <c r="K274" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D274), ISBLANK(E274)),AND(OR(ISBLANK(G274),ISBLANK(H274),ISBLANK(I274)),ISBLANK(J274))),"",IF(ISBLANK(J274),IF(ISBLANK(E274),(D274-F274)*I274*H274*INDIRECT(SUBSTITUTE(G274," ","_"))/1000000,(E274-F274)*I274*H274*INDIRECT(SUBSTITUTE(G274," ","_"))/1000000),IF(ISBLANK(E274),(D274-F274)*J274,(E274-F274)*J274)))</f>
         <v/>
       </c>
@@ -8440,7 +8437,7 @@
       <c r="H275" s="31"/>
       <c r="I275" s="31"/>
       <c r="J275" s="31"/>
-      <c r="K275" s="22" t="str">
+      <c r="K275" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D275), ISBLANK(E275)),AND(OR(ISBLANK(G275),ISBLANK(H275),ISBLANK(I275)),ISBLANK(J275))),"",IF(ISBLANK(J275),IF(ISBLANK(E275),(D275-F275)*I275*H275*INDIRECT(SUBSTITUTE(G275," ","_"))/1000000,(E275-F275)*I275*H275*INDIRECT(SUBSTITUTE(G275," ","_"))/1000000),IF(ISBLANK(E275),(D275-F275)*J275,(E275-F275)*J275)))</f>
         <v/>
       </c>
@@ -8463,7 +8460,7 @@
       <c r="H276" s="31"/>
       <c r="I276" s="31"/>
       <c r="J276" s="31"/>
-      <c r="K276" s="22" t="str">
+      <c r="K276" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D276), ISBLANK(E276)),AND(OR(ISBLANK(G276),ISBLANK(H276),ISBLANK(I276)),ISBLANK(J276))),"",IF(ISBLANK(J276),IF(ISBLANK(E276),(D276-F276)*I276*H276*INDIRECT(SUBSTITUTE(G276," ","_"))/1000000,(E276-F276)*I276*H276*INDIRECT(SUBSTITUTE(G276," ","_"))/1000000),IF(ISBLANK(E276),(D276-F276)*J276,(E276-F276)*J276)))</f>
         <v/>
       </c>
@@ -8486,7 +8483,7 @@
       <c r="H277" s="31"/>
       <c r="I277" s="31"/>
       <c r="J277" s="31"/>
-      <c r="K277" s="22" t="str">
+      <c r="K277" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D277), ISBLANK(E277)),AND(OR(ISBLANK(G277),ISBLANK(H277),ISBLANK(I277)),ISBLANK(J277))),"",IF(ISBLANK(J277),IF(ISBLANK(E277),(D277-F277)*I277*H277*INDIRECT(SUBSTITUTE(G277," ","_"))/1000000,(E277-F277)*I277*H277*INDIRECT(SUBSTITUTE(G277," ","_"))/1000000),IF(ISBLANK(E277),(D277-F277)*J277,(E277-F277)*J277)))</f>
         <v/>
       </c>
@@ -8509,7 +8506,7 @@
       <c r="H278" s="31"/>
       <c r="I278" s="31"/>
       <c r="J278" s="31"/>
-      <c r="K278" s="22" t="str">
+      <c r="K278" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D278), ISBLANK(E278)),AND(OR(ISBLANK(G278),ISBLANK(H278),ISBLANK(I278)),ISBLANK(J278))),"",IF(ISBLANK(J278),IF(ISBLANK(E278),(D278-F278)*I278*H278*INDIRECT(SUBSTITUTE(G278," ","_"))/1000000,(E278-F278)*I278*H278*INDIRECT(SUBSTITUTE(G278," ","_"))/1000000),IF(ISBLANK(E278),(D278-F278)*J278,(E278-F278)*J278)))</f>
         <v/>
       </c>
@@ -8532,7 +8529,7 @@
       <c r="H279" s="31"/>
       <c r="I279" s="31"/>
       <c r="J279" s="31"/>
-      <c r="K279" s="22" t="str">
+      <c r="K279" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D279), ISBLANK(E279)),AND(OR(ISBLANK(G279),ISBLANK(H279),ISBLANK(I279)),ISBLANK(J279))),"",IF(ISBLANK(J279),IF(ISBLANK(E279),(D279-F279)*I279*H279*INDIRECT(SUBSTITUTE(G279," ","_"))/1000000,(E279-F279)*I279*H279*INDIRECT(SUBSTITUTE(G279," ","_"))/1000000),IF(ISBLANK(E279),(D279-F279)*J279,(E279-F279)*J279)))</f>
         <v/>
       </c>
@@ -8555,7 +8552,7 @@
       <c r="H280" s="31"/>
       <c r="I280" s="31"/>
       <c r="J280" s="31"/>
-      <c r="K280" s="22" t="str">
+      <c r="K280" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D280), ISBLANK(E280)),AND(OR(ISBLANK(G280),ISBLANK(H280),ISBLANK(I280)),ISBLANK(J280))),"",IF(ISBLANK(J280),IF(ISBLANK(E280),(D280-F280)*I280*H280*INDIRECT(SUBSTITUTE(G280," ","_"))/1000000,(E280-F280)*I280*H280*INDIRECT(SUBSTITUTE(G280," ","_"))/1000000),IF(ISBLANK(E280),(D280-F280)*J280,(E280-F280)*J280)))</f>
         <v/>
       </c>
@@ -8578,7 +8575,7 @@
       <c r="H281" s="31"/>
       <c r="I281" s="31"/>
       <c r="J281" s="31"/>
-      <c r="K281" s="22" t="str">
+      <c r="K281" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D281), ISBLANK(E281)),AND(OR(ISBLANK(G281),ISBLANK(H281),ISBLANK(I281)),ISBLANK(J281))),"",IF(ISBLANK(J281),IF(ISBLANK(E281),(D281-F281)*I281*H281*INDIRECT(SUBSTITUTE(G281," ","_"))/1000000,(E281-F281)*I281*H281*INDIRECT(SUBSTITUTE(G281," ","_"))/1000000),IF(ISBLANK(E281),(D281-F281)*J281,(E281-F281)*J281)))</f>
         <v/>
       </c>
@@ -8601,7 +8598,7 @@
       <c r="H282" s="31"/>
       <c r="I282" s="31"/>
       <c r="J282" s="31"/>
-      <c r="K282" s="22" t="str">
+      <c r="K282" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D282), ISBLANK(E282)),AND(OR(ISBLANK(G282),ISBLANK(H282),ISBLANK(I282)),ISBLANK(J282))),"",IF(ISBLANK(J282),IF(ISBLANK(E282),(D282-F282)*I282*H282*INDIRECT(SUBSTITUTE(G282," ","_"))/1000000,(E282-F282)*I282*H282*INDIRECT(SUBSTITUTE(G282," ","_"))/1000000),IF(ISBLANK(E282),(D282-F282)*J282,(E282-F282)*J282)))</f>
         <v/>
       </c>
@@ -8624,7 +8621,7 @@
       <c r="H283" s="31"/>
       <c r="I283" s="31"/>
       <c r="J283" s="31"/>
-      <c r="K283" s="22" t="str">
+      <c r="K283" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D283), ISBLANK(E283)),AND(OR(ISBLANK(G283),ISBLANK(H283),ISBLANK(I283)),ISBLANK(J283))),"",IF(ISBLANK(J283),IF(ISBLANK(E283),(D283-F283)*I283*H283*INDIRECT(SUBSTITUTE(G283," ","_"))/1000000,(E283-F283)*I283*H283*INDIRECT(SUBSTITUTE(G283," ","_"))/1000000),IF(ISBLANK(E283),(D283-F283)*J283,(E283-F283)*J283)))</f>
         <v/>
       </c>
@@ -8647,7 +8644,7 @@
       <c r="H284" s="31"/>
       <c r="I284" s="31"/>
       <c r="J284" s="31"/>
-      <c r="K284" s="22" t="str">
+      <c r="K284" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D284), ISBLANK(E284)),AND(OR(ISBLANK(G284),ISBLANK(H284),ISBLANK(I284)),ISBLANK(J284))),"",IF(ISBLANK(J284),IF(ISBLANK(E284),(D284-F284)*I284*H284*INDIRECT(SUBSTITUTE(G284," ","_"))/1000000,(E284-F284)*I284*H284*INDIRECT(SUBSTITUTE(G284," ","_"))/1000000),IF(ISBLANK(E284),(D284-F284)*J284,(E284-F284)*J284)))</f>
         <v/>
       </c>
@@ -8670,7 +8667,7 @@
       <c r="H285" s="31"/>
       <c r="I285" s="31"/>
       <c r="J285" s="31"/>
-      <c r="K285" s="22" t="str">
+      <c r="K285" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D285), ISBLANK(E285)),AND(OR(ISBLANK(G285),ISBLANK(H285),ISBLANK(I285)),ISBLANK(J285))),"",IF(ISBLANK(J285),IF(ISBLANK(E285),(D285-F285)*I285*H285*INDIRECT(SUBSTITUTE(G285," ","_"))/1000000,(E285-F285)*I285*H285*INDIRECT(SUBSTITUTE(G285," ","_"))/1000000),IF(ISBLANK(E285),(D285-F285)*J285,(E285-F285)*J285)))</f>
         <v/>
       </c>
@@ -8693,7 +8690,7 @@
       <c r="H286" s="31"/>
       <c r="I286" s="31"/>
       <c r="J286" s="31"/>
-      <c r="K286" s="22" t="str">
+      <c r="K286" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D286), ISBLANK(E286)),AND(OR(ISBLANK(G286),ISBLANK(H286),ISBLANK(I286)),ISBLANK(J286))),"",IF(ISBLANK(J286),IF(ISBLANK(E286),(D286-F286)*I286*H286*INDIRECT(SUBSTITUTE(G286," ","_"))/1000000,(E286-F286)*I286*H286*INDIRECT(SUBSTITUTE(G286," ","_"))/1000000),IF(ISBLANK(E286),(D286-F286)*J286,(E286-F286)*J286)))</f>
         <v/>
       </c>
@@ -8716,7 +8713,7 @@
       <c r="H287" s="31"/>
       <c r="I287" s="31"/>
       <c r="J287" s="31"/>
-      <c r="K287" s="22" t="str">
+      <c r="K287" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D287), ISBLANK(E287)),AND(OR(ISBLANK(G287),ISBLANK(H287),ISBLANK(I287)),ISBLANK(J287))),"",IF(ISBLANK(J287),IF(ISBLANK(E287),(D287-F287)*I287*H287*INDIRECT(SUBSTITUTE(G287," ","_"))/1000000,(E287-F287)*I287*H287*INDIRECT(SUBSTITUTE(G287," ","_"))/1000000),IF(ISBLANK(E287),(D287-F287)*J287,(E287-F287)*J287)))</f>
         <v/>
       </c>
@@ -8739,7 +8736,7 @@
       <c r="H288" s="31"/>
       <c r="I288" s="31"/>
       <c r="J288" s="31"/>
-      <c r="K288" s="22" t="str">
+      <c r="K288" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D288), ISBLANK(E288)),AND(OR(ISBLANK(G288),ISBLANK(H288),ISBLANK(I288)),ISBLANK(J288))),"",IF(ISBLANK(J288),IF(ISBLANK(E288),(D288-F288)*I288*H288*INDIRECT(SUBSTITUTE(G288," ","_"))/1000000,(E288-F288)*I288*H288*INDIRECT(SUBSTITUTE(G288," ","_"))/1000000),IF(ISBLANK(E288),(D288-F288)*J288,(E288-F288)*J288)))</f>
         <v/>
       </c>
@@ -8762,7 +8759,7 @@
       <c r="H289" s="31"/>
       <c r="I289" s="31"/>
       <c r="J289" s="31"/>
-      <c r="K289" s="22" t="str">
+      <c r="K289" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D289), ISBLANK(E289)),AND(OR(ISBLANK(G289),ISBLANK(H289),ISBLANK(I289)),ISBLANK(J289))),"",IF(ISBLANK(J289),IF(ISBLANK(E289),(D289-F289)*I289*H289*INDIRECT(SUBSTITUTE(G289," ","_"))/1000000,(E289-F289)*I289*H289*INDIRECT(SUBSTITUTE(G289," ","_"))/1000000),IF(ISBLANK(E289),(D289-F289)*J289,(E289-F289)*J289)))</f>
         <v/>
       </c>
@@ -8785,7 +8782,7 @@
       <c r="H290" s="31"/>
       <c r="I290" s="31"/>
       <c r="J290" s="31"/>
-      <c r="K290" s="22" t="str">
+      <c r="K290" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D290), ISBLANK(E290)),AND(OR(ISBLANK(G290),ISBLANK(H290),ISBLANK(I290)),ISBLANK(J290))),"",IF(ISBLANK(J290),IF(ISBLANK(E290),(D290-F290)*I290*H290*INDIRECT(SUBSTITUTE(G290," ","_"))/1000000,(E290-F290)*I290*H290*INDIRECT(SUBSTITUTE(G290," ","_"))/1000000),IF(ISBLANK(E290),(D290-F290)*J290,(E290-F290)*J290)))</f>
         <v/>
       </c>
@@ -8808,7 +8805,7 @@
       <c r="H291" s="31"/>
       <c r="I291" s="31"/>
       <c r="J291" s="31"/>
-      <c r="K291" s="22" t="str">
+      <c r="K291" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D291), ISBLANK(E291)),AND(OR(ISBLANK(G291),ISBLANK(H291),ISBLANK(I291)),ISBLANK(J291))),"",IF(ISBLANK(J291),IF(ISBLANK(E291),(D291-F291)*I291*H291*INDIRECT(SUBSTITUTE(G291," ","_"))/1000000,(E291-F291)*I291*H291*INDIRECT(SUBSTITUTE(G291," ","_"))/1000000),IF(ISBLANK(E291),(D291-F291)*J291,(E291-F291)*J291)))</f>
         <v/>
       </c>
@@ -8831,7 +8828,7 @@
       <c r="H292" s="31"/>
       <c r="I292" s="31"/>
       <c r="J292" s="31"/>
-      <c r="K292" s="22" t="str">
+      <c r="K292" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D292), ISBLANK(E292)),AND(OR(ISBLANK(G292),ISBLANK(H292),ISBLANK(I292)),ISBLANK(J292))),"",IF(ISBLANK(J292),IF(ISBLANK(E292),(D292-F292)*I292*H292*INDIRECT(SUBSTITUTE(G292," ","_"))/1000000,(E292-F292)*I292*H292*INDIRECT(SUBSTITUTE(G292," ","_"))/1000000),IF(ISBLANK(E292),(D292-F292)*J292,(E292-F292)*J292)))</f>
         <v/>
       </c>
@@ -8854,7 +8851,7 @@
       <c r="H293" s="31"/>
       <c r="I293" s="31"/>
       <c r="J293" s="31"/>
-      <c r="K293" s="22" t="str">
+      <c r="K293" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D293), ISBLANK(E293)),AND(OR(ISBLANK(G293),ISBLANK(H293),ISBLANK(I293)),ISBLANK(J293))),"",IF(ISBLANK(J293),IF(ISBLANK(E293),(D293-F293)*I293*H293*INDIRECT(SUBSTITUTE(G293," ","_"))/1000000,(E293-F293)*I293*H293*INDIRECT(SUBSTITUTE(G293," ","_"))/1000000),IF(ISBLANK(E293),(D293-F293)*J293,(E293-F293)*J293)))</f>
         <v/>
       </c>
@@ -8877,7 +8874,7 @@
       <c r="H294" s="31"/>
       <c r="I294" s="31"/>
       <c r="J294" s="31"/>
-      <c r="K294" s="22" t="str">
+      <c r="K294" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D294), ISBLANK(E294)),AND(OR(ISBLANK(G294),ISBLANK(H294),ISBLANK(I294)),ISBLANK(J294))),"",IF(ISBLANK(J294),IF(ISBLANK(E294),(D294-F294)*I294*H294*INDIRECT(SUBSTITUTE(G294," ","_"))/1000000,(E294-F294)*I294*H294*INDIRECT(SUBSTITUTE(G294," ","_"))/1000000),IF(ISBLANK(E294),(D294-F294)*J294,(E294-F294)*J294)))</f>
         <v/>
       </c>
@@ -8900,7 +8897,7 @@
       <c r="H295" s="31"/>
       <c r="I295" s="31"/>
       <c r="J295" s="31"/>
-      <c r="K295" s="22" t="str">
+      <c r="K295" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D295), ISBLANK(E295)),AND(OR(ISBLANK(G295),ISBLANK(H295),ISBLANK(I295)),ISBLANK(J295))),"",IF(ISBLANK(J295),IF(ISBLANK(E295),(D295-F295)*I295*H295*INDIRECT(SUBSTITUTE(G295," ","_"))/1000000,(E295-F295)*I295*H295*INDIRECT(SUBSTITUTE(G295," ","_"))/1000000),IF(ISBLANK(E295),(D295-F295)*J295,(E295-F295)*J295)))</f>
         <v/>
       </c>
@@ -8923,7 +8920,7 @@
       <c r="H296" s="31"/>
       <c r="I296" s="31"/>
       <c r="J296" s="31"/>
-      <c r="K296" s="22" t="str">
+      <c r="K296" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D296), ISBLANK(E296)),AND(OR(ISBLANK(G296),ISBLANK(H296),ISBLANK(I296)),ISBLANK(J296))),"",IF(ISBLANK(J296),IF(ISBLANK(E296),(D296-F296)*I296*H296*INDIRECT(SUBSTITUTE(G296," ","_"))/1000000,(E296-F296)*I296*H296*INDIRECT(SUBSTITUTE(G296," ","_"))/1000000),IF(ISBLANK(E296),(D296-F296)*J296,(E296-F296)*J296)))</f>
         <v/>
       </c>
@@ -8946,7 +8943,7 @@
       <c r="H297" s="31"/>
       <c r="I297" s="31"/>
       <c r="J297" s="31"/>
-      <c r="K297" s="22" t="str">
+      <c r="K297" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D297), ISBLANK(E297)),AND(OR(ISBLANK(G297),ISBLANK(H297),ISBLANK(I297)),ISBLANK(J297))),"",IF(ISBLANK(J297),IF(ISBLANK(E297),(D297-F297)*I297*H297*INDIRECT(SUBSTITUTE(G297," ","_"))/1000000,(E297-F297)*I297*H297*INDIRECT(SUBSTITUTE(G297," ","_"))/1000000),IF(ISBLANK(E297),(D297-F297)*J297,(E297-F297)*J297)))</f>
         <v/>
       </c>
@@ -8969,7 +8966,7 @@
       <c r="H298" s="31"/>
       <c r="I298" s="31"/>
       <c r="J298" s="31"/>
-      <c r="K298" s="22" t="str">
+      <c r="K298" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D298), ISBLANK(E298)),AND(OR(ISBLANK(G298),ISBLANK(H298),ISBLANK(I298)),ISBLANK(J298))),"",IF(ISBLANK(J298),IF(ISBLANK(E298),(D298-F298)*I298*H298*INDIRECT(SUBSTITUTE(G298," ","_"))/1000000,(E298-F298)*I298*H298*INDIRECT(SUBSTITUTE(G298," ","_"))/1000000),IF(ISBLANK(E298),(D298-F298)*J298,(E298-F298)*J298)))</f>
         <v/>
       </c>
@@ -8992,7 +8989,7 @@
       <c r="H299" s="31"/>
       <c r="I299" s="31"/>
       <c r="J299" s="31"/>
-      <c r="K299" s="22" t="str">
+      <c r="K299" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D299), ISBLANK(E299)),AND(OR(ISBLANK(G299),ISBLANK(H299),ISBLANK(I299)),ISBLANK(J299))),"",IF(ISBLANK(J299),IF(ISBLANK(E299),(D299-F299)*I299*H299*INDIRECT(SUBSTITUTE(G299," ","_"))/1000000,(E299-F299)*I299*H299*INDIRECT(SUBSTITUTE(G299," ","_"))/1000000),IF(ISBLANK(E299),(D299-F299)*J299,(E299-F299)*J299)))</f>
         <v/>
       </c>
@@ -9015,7 +9012,7 @@
       <c r="H300" s="31"/>
       <c r="I300" s="31"/>
       <c r="J300" s="31"/>
-      <c r="K300" s="22" t="str">
+      <c r="K300" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D300), ISBLANK(E300)),AND(OR(ISBLANK(G300),ISBLANK(H300),ISBLANK(I300)),ISBLANK(J300))),"",IF(ISBLANK(J300),IF(ISBLANK(E300),(D300-F300)*I300*H300*INDIRECT(SUBSTITUTE(G300," ","_"))/1000000,(E300-F300)*I300*H300*INDIRECT(SUBSTITUTE(G300," ","_"))/1000000),IF(ISBLANK(E300),(D300-F300)*J300,(E300-F300)*J300)))</f>
         <v/>
       </c>
@@ -9038,7 +9035,7 @@
       <c r="H301" s="31"/>
       <c r="I301" s="31"/>
       <c r="J301" s="31"/>
-      <c r="K301" s="22" t="str">
+      <c r="K301" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D301), ISBLANK(E301)),AND(OR(ISBLANK(G301),ISBLANK(H301),ISBLANK(I301)),ISBLANK(J301))),"",IF(ISBLANK(J301),IF(ISBLANK(E301),(D301-F301)*I301*H301*INDIRECT(SUBSTITUTE(G301," ","_"))/1000000,(E301-F301)*I301*H301*INDIRECT(SUBSTITUTE(G301," ","_"))/1000000),IF(ISBLANK(E301),(D301-F301)*J301,(E301-F301)*J301)))</f>
         <v/>
       </c>
@@ -9061,7 +9058,7 @@
       <c r="H302" s="31"/>
       <c r="I302" s="31"/>
       <c r="J302" s="31"/>
-      <c r="K302" s="22" t="str">
+      <c r="K302" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D302), ISBLANK(E302)),AND(OR(ISBLANK(G302),ISBLANK(H302),ISBLANK(I302)),ISBLANK(J302))),"",IF(ISBLANK(J302),IF(ISBLANK(E302),(D302-F302)*I302*H302*INDIRECT(SUBSTITUTE(G302," ","_"))/1000000,(E302-F302)*I302*H302*INDIRECT(SUBSTITUTE(G302," ","_"))/1000000),IF(ISBLANK(E302),(D302-F302)*J302,(E302-F302)*J302)))</f>
         <v/>
       </c>
@@ -9084,7 +9081,7 @@
       <c r="H303" s="31"/>
       <c r="I303" s="31"/>
       <c r="J303" s="31"/>
-      <c r="K303" s="22" t="str">
+      <c r="K303" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D303), ISBLANK(E303)),AND(OR(ISBLANK(G303),ISBLANK(H303),ISBLANK(I303)),ISBLANK(J303))),"",IF(ISBLANK(J303),IF(ISBLANK(E303),(D303-F303)*I303*H303*INDIRECT(SUBSTITUTE(G303," ","_"))/1000000,(E303-F303)*I303*H303*INDIRECT(SUBSTITUTE(G303," ","_"))/1000000),IF(ISBLANK(E303),(D303-F303)*J303,(E303-F303)*J303)))</f>
         <v/>
       </c>
@@ -9107,7 +9104,7 @@
       <c r="H304" s="31"/>
       <c r="I304" s="31"/>
       <c r="J304" s="31"/>
-      <c r="K304" s="22" t="str">
+      <c r="K304" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D304), ISBLANK(E304)),AND(OR(ISBLANK(G304),ISBLANK(H304),ISBLANK(I304)),ISBLANK(J304))),"",IF(ISBLANK(J304),IF(ISBLANK(E304),(D304-F304)*I304*H304*INDIRECT(SUBSTITUTE(G304," ","_"))/1000000,(E304-F304)*I304*H304*INDIRECT(SUBSTITUTE(G304," ","_"))/1000000),IF(ISBLANK(E304),(D304-F304)*J304,(E304-F304)*J304)))</f>
         <v/>
       </c>
@@ -9130,7 +9127,7 @@
       <c r="H305" s="31"/>
       <c r="I305" s="31"/>
       <c r="J305" s="31"/>
-      <c r="K305" s="22" t="str">
+      <c r="K305" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D305), ISBLANK(E305)),AND(OR(ISBLANK(G305),ISBLANK(H305),ISBLANK(I305)),ISBLANK(J305))),"",IF(ISBLANK(J305),IF(ISBLANK(E305),(D305-F305)*I305*H305*INDIRECT(SUBSTITUTE(G305," ","_"))/1000000,(E305-F305)*I305*H305*INDIRECT(SUBSTITUTE(G305," ","_"))/1000000),IF(ISBLANK(E305),(D305-F305)*J305,(E305-F305)*J305)))</f>
         <v/>
       </c>
@@ -9153,7 +9150,7 @@
       <c r="H306" s="31"/>
       <c r="I306" s="31"/>
       <c r="J306" s="31"/>
-      <c r="K306" s="22" t="str">
+      <c r="K306" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D306), ISBLANK(E306)),AND(OR(ISBLANK(G306),ISBLANK(H306),ISBLANK(I306)),ISBLANK(J306))),"",IF(ISBLANK(J306),IF(ISBLANK(E306),(D306-F306)*I306*H306*INDIRECT(SUBSTITUTE(G306," ","_"))/1000000,(E306-F306)*I306*H306*INDIRECT(SUBSTITUTE(G306," ","_"))/1000000),IF(ISBLANK(E306),(D306-F306)*J306,(E306-F306)*J306)))</f>
         <v/>
       </c>
@@ -9176,7 +9173,7 @@
       <c r="H307" s="31"/>
       <c r="I307" s="31"/>
       <c r="J307" s="31"/>
-      <c r="K307" s="22" t="str">
+      <c r="K307" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D307), ISBLANK(E307)),AND(OR(ISBLANK(G307),ISBLANK(H307),ISBLANK(I307)),ISBLANK(J307))),"",IF(ISBLANK(J307),IF(ISBLANK(E307),(D307-F307)*I307*H307*INDIRECT(SUBSTITUTE(G307," ","_"))/1000000,(E307-F307)*I307*H307*INDIRECT(SUBSTITUTE(G307," ","_"))/1000000),IF(ISBLANK(E307),(D307-F307)*J307,(E307-F307)*J307)))</f>
         <v/>
       </c>
@@ -9199,7 +9196,7 @@
       <c r="H308" s="31"/>
       <c r="I308" s="31"/>
       <c r="J308" s="31"/>
-      <c r="K308" s="22" t="str">
+      <c r="K308" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D308), ISBLANK(E308)),AND(OR(ISBLANK(G308),ISBLANK(H308),ISBLANK(I308)),ISBLANK(J308))),"",IF(ISBLANK(J308),IF(ISBLANK(E308),(D308-F308)*I308*H308*INDIRECT(SUBSTITUTE(G308," ","_"))/1000000,(E308-F308)*I308*H308*INDIRECT(SUBSTITUTE(G308," ","_"))/1000000),IF(ISBLANK(E308),(D308-F308)*J308,(E308-F308)*J308)))</f>
         <v/>
       </c>
@@ -9222,7 +9219,7 @@
       <c r="H309" s="31"/>
       <c r="I309" s="31"/>
       <c r="J309" s="31"/>
-      <c r="K309" s="22" t="str">
+      <c r="K309" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D309), ISBLANK(E309)),AND(OR(ISBLANK(G309),ISBLANK(H309),ISBLANK(I309)),ISBLANK(J309))),"",IF(ISBLANK(J309),IF(ISBLANK(E309),(D309-F309)*I309*H309*INDIRECT(SUBSTITUTE(G309," ","_"))/1000000,(E309-F309)*I309*H309*INDIRECT(SUBSTITUTE(G309," ","_"))/1000000),IF(ISBLANK(E309),(D309-F309)*J309,(E309-F309)*J309)))</f>
         <v/>
       </c>
@@ -9245,7 +9242,7 @@
       <c r="H310" s="31"/>
       <c r="I310" s="31"/>
       <c r="J310" s="31"/>
-      <c r="K310" s="22" t="str">
+      <c r="K310" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D310), ISBLANK(E310)),AND(OR(ISBLANK(G310),ISBLANK(H310),ISBLANK(I310)),ISBLANK(J310))),"",IF(ISBLANK(J310),IF(ISBLANK(E310),(D310-F310)*I310*H310*INDIRECT(SUBSTITUTE(G310," ","_"))/1000000,(E310-F310)*I310*H310*INDIRECT(SUBSTITUTE(G310," ","_"))/1000000),IF(ISBLANK(E310),(D310-F310)*J310,(E310-F310)*J310)))</f>
         <v/>
       </c>
@@ -9268,7 +9265,7 @@
       <c r="H311" s="31"/>
       <c r="I311" s="31"/>
       <c r="J311" s="31"/>
-      <c r="K311" s="22" t="str">
+      <c r="K311" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D311), ISBLANK(E311)),AND(OR(ISBLANK(G311),ISBLANK(H311),ISBLANK(I311)),ISBLANK(J311))),"",IF(ISBLANK(J311),IF(ISBLANK(E311),(D311-F311)*I311*H311*INDIRECT(SUBSTITUTE(G311," ","_"))/1000000,(E311-F311)*I311*H311*INDIRECT(SUBSTITUTE(G311," ","_"))/1000000),IF(ISBLANK(E311),(D311-F311)*J311,(E311-F311)*J311)))</f>
         <v/>
       </c>
@@ -9291,7 +9288,7 @@
       <c r="H312" s="31"/>
       <c r="I312" s="31"/>
       <c r="J312" s="31"/>
-      <c r="K312" s="22" t="str">
+      <c r="K312" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D312), ISBLANK(E312)),AND(OR(ISBLANK(G312),ISBLANK(H312),ISBLANK(I312)),ISBLANK(J312))),"",IF(ISBLANK(J312),IF(ISBLANK(E312),(D312-F312)*I312*H312*INDIRECT(SUBSTITUTE(G312," ","_"))/1000000,(E312-F312)*I312*H312*INDIRECT(SUBSTITUTE(G312," ","_"))/1000000),IF(ISBLANK(E312),(D312-F312)*J312,(E312-F312)*J312)))</f>
         <v/>
       </c>
@@ -9314,7 +9311,7 @@
       <c r="H313" s="31"/>
       <c r="I313" s="31"/>
       <c r="J313" s="31"/>
-      <c r="K313" s="22" t="str">
+      <c r="K313" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D313), ISBLANK(E313)),AND(OR(ISBLANK(G313),ISBLANK(H313),ISBLANK(I313)),ISBLANK(J313))),"",IF(ISBLANK(J313),IF(ISBLANK(E313),(D313-F313)*I313*H313*INDIRECT(SUBSTITUTE(G313," ","_"))/1000000,(E313-F313)*I313*H313*INDIRECT(SUBSTITUTE(G313," ","_"))/1000000),IF(ISBLANK(E313),(D313-F313)*J313,(E313-F313)*J313)))</f>
         <v/>
       </c>
@@ -9337,7 +9334,7 @@
       <c r="H314" s="31"/>
       <c r="I314" s="31"/>
       <c r="J314" s="31"/>
-      <c r="K314" s="22" t="str">
+      <c r="K314" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D314), ISBLANK(E314)),AND(OR(ISBLANK(G314),ISBLANK(H314),ISBLANK(I314)),ISBLANK(J314))),"",IF(ISBLANK(J314),IF(ISBLANK(E314),(D314-F314)*I314*H314*INDIRECT(SUBSTITUTE(G314," ","_"))/1000000,(E314-F314)*I314*H314*INDIRECT(SUBSTITUTE(G314," ","_"))/1000000),IF(ISBLANK(E314),(D314-F314)*J314,(E314-F314)*J314)))</f>
         <v/>
       </c>
@@ -9360,7 +9357,7 @@
       <c r="H315" s="31"/>
       <c r="I315" s="31"/>
       <c r="J315" s="31"/>
-      <c r="K315" s="22" t="str">
+      <c r="K315" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D315), ISBLANK(E315)),AND(OR(ISBLANK(G315),ISBLANK(H315),ISBLANK(I315)),ISBLANK(J315))),"",IF(ISBLANK(J315),IF(ISBLANK(E315),(D315-F315)*I315*H315*INDIRECT(SUBSTITUTE(G315," ","_"))/1000000,(E315-F315)*I315*H315*INDIRECT(SUBSTITUTE(G315," ","_"))/1000000),IF(ISBLANK(E315),(D315-F315)*J315,(E315-F315)*J315)))</f>
         <v/>
       </c>
@@ -9383,7 +9380,7 @@
       <c r="H316" s="31"/>
       <c r="I316" s="31"/>
       <c r="J316" s="31"/>
-      <c r="K316" s="22" t="str">
+      <c r="K316" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D316), ISBLANK(E316)),AND(OR(ISBLANK(G316),ISBLANK(H316),ISBLANK(I316)),ISBLANK(J316))),"",IF(ISBLANK(J316),IF(ISBLANK(E316),(D316-F316)*I316*H316*INDIRECT(SUBSTITUTE(G316," ","_"))/1000000,(E316-F316)*I316*H316*INDIRECT(SUBSTITUTE(G316," ","_"))/1000000),IF(ISBLANK(E316),(D316-F316)*J316,(E316-F316)*J316)))</f>
         <v/>
       </c>
@@ -9406,7 +9403,7 @@
       <c r="H317" s="31"/>
       <c r="I317" s="31"/>
       <c r="J317" s="31"/>
-      <c r="K317" s="22" t="str">
+      <c r="K317" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D317), ISBLANK(E317)),AND(OR(ISBLANK(G317),ISBLANK(H317),ISBLANK(I317)),ISBLANK(J317))),"",IF(ISBLANK(J317),IF(ISBLANK(E317),(D317-F317)*I317*H317*INDIRECT(SUBSTITUTE(G317," ","_"))/1000000,(E317-F317)*I317*H317*INDIRECT(SUBSTITUTE(G317," ","_"))/1000000),IF(ISBLANK(E317),(D317-F317)*J317,(E317-F317)*J317)))</f>
         <v/>
       </c>
@@ -9429,7 +9426,7 @@
       <c r="H318" s="31"/>
       <c r="I318" s="31"/>
       <c r="J318" s="31"/>
-      <c r="K318" s="22" t="str">
+      <c r="K318" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D318), ISBLANK(E318)),AND(OR(ISBLANK(G318),ISBLANK(H318),ISBLANK(I318)),ISBLANK(J318))),"",IF(ISBLANK(J318),IF(ISBLANK(E318),(D318-F318)*I318*H318*INDIRECT(SUBSTITUTE(G318," ","_"))/1000000,(E318-F318)*I318*H318*INDIRECT(SUBSTITUTE(G318," ","_"))/1000000),IF(ISBLANK(E318),(D318-F318)*J318,(E318-F318)*J318)))</f>
         <v/>
       </c>
@@ -9452,7 +9449,7 @@
       <c r="H319" s="31"/>
       <c r="I319" s="31"/>
       <c r="J319" s="31"/>
-      <c r="K319" s="22" t="str">
+      <c r="K319" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D319), ISBLANK(E319)),AND(OR(ISBLANK(G319),ISBLANK(H319),ISBLANK(I319)),ISBLANK(J319))),"",IF(ISBLANK(J319),IF(ISBLANK(E319),(D319-F319)*I319*H319*INDIRECT(SUBSTITUTE(G319," ","_"))/1000000,(E319-F319)*I319*H319*INDIRECT(SUBSTITUTE(G319," ","_"))/1000000),IF(ISBLANK(E319),(D319-F319)*J319,(E319-F319)*J319)))</f>
         <v/>
       </c>
@@ -9475,7 +9472,7 @@
       <c r="H320" s="31"/>
       <c r="I320" s="31"/>
       <c r="J320" s="31"/>
-      <c r="K320" s="22" t="str">
+      <c r="K320" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D320), ISBLANK(E320)),AND(OR(ISBLANK(G320),ISBLANK(H320),ISBLANK(I320)),ISBLANK(J320))),"",IF(ISBLANK(J320),IF(ISBLANK(E320),(D320-F320)*I320*H320*INDIRECT(SUBSTITUTE(G320," ","_"))/1000000,(E320-F320)*I320*H320*INDIRECT(SUBSTITUTE(G320," ","_"))/1000000),IF(ISBLANK(E320),(D320-F320)*J320,(E320-F320)*J320)))</f>
         <v/>
       </c>
@@ -9498,7 +9495,7 @@
       <c r="H321" s="31"/>
       <c r="I321" s="31"/>
       <c r="J321" s="31"/>
-      <c r="K321" s="22" t="str">
+      <c r="K321" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D321), ISBLANK(E321)),AND(OR(ISBLANK(G321),ISBLANK(H321),ISBLANK(I321)),ISBLANK(J321))),"",IF(ISBLANK(J321),IF(ISBLANK(E321),(D321-F321)*I321*H321*INDIRECT(SUBSTITUTE(G321," ","_"))/1000000,(E321-F321)*I321*H321*INDIRECT(SUBSTITUTE(G321," ","_"))/1000000),IF(ISBLANK(E321),(D321-F321)*J321,(E321-F321)*J321)))</f>
         <v/>
       </c>
@@ -9521,7 +9518,7 @@
       <c r="H322" s="31"/>
       <c r="I322" s="31"/>
       <c r="J322" s="31"/>
-      <c r="K322" s="22" t="str">
+      <c r="K322" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D322), ISBLANK(E322)),AND(OR(ISBLANK(G322),ISBLANK(H322),ISBLANK(I322)),ISBLANK(J322))),"",IF(ISBLANK(J322),IF(ISBLANK(E322),(D322-F322)*I322*H322*INDIRECT(SUBSTITUTE(G322," ","_"))/1000000,(E322-F322)*I322*H322*INDIRECT(SUBSTITUTE(G322," ","_"))/1000000),IF(ISBLANK(E322),(D322-F322)*J322,(E322-F322)*J322)))</f>
         <v/>
       </c>
@@ -9544,7 +9541,7 @@
       <c r="H323" s="31"/>
       <c r="I323" s="31"/>
       <c r="J323" s="31"/>
-      <c r="K323" s="22" t="str">
+      <c r="K323" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D323), ISBLANK(E323)),AND(OR(ISBLANK(G323),ISBLANK(H323),ISBLANK(I323)),ISBLANK(J323))),"",IF(ISBLANK(J323),IF(ISBLANK(E323),(D323-F323)*I323*H323*INDIRECT(SUBSTITUTE(G323," ","_"))/1000000,(E323-F323)*I323*H323*INDIRECT(SUBSTITUTE(G323," ","_"))/1000000),IF(ISBLANK(E323),(D323-F323)*J323,(E323-F323)*J323)))</f>
         <v/>
       </c>
@@ -9567,7 +9564,7 @@
       <c r="H324" s="31"/>
       <c r="I324" s="31"/>
       <c r="J324" s="31"/>
-      <c r="K324" s="22" t="str">
+      <c r="K324" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D324), ISBLANK(E324)),AND(OR(ISBLANK(G324),ISBLANK(H324),ISBLANK(I324)),ISBLANK(J324))),"",IF(ISBLANK(J324),IF(ISBLANK(E324),(D324-F324)*I324*H324*INDIRECT(SUBSTITUTE(G324," ","_"))/1000000,(E324-F324)*I324*H324*INDIRECT(SUBSTITUTE(G324," ","_"))/1000000),IF(ISBLANK(E324),(D324-F324)*J324,(E324-F324)*J324)))</f>
         <v/>
       </c>
@@ -9590,7 +9587,7 @@
       <c r="H325" s="31"/>
       <c r="I325" s="31"/>
       <c r="J325" s="31"/>
-      <c r="K325" s="22" t="str">
+      <c r="K325" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D325), ISBLANK(E325)),AND(OR(ISBLANK(G325),ISBLANK(H325),ISBLANK(I325)),ISBLANK(J325))),"",IF(ISBLANK(J325),IF(ISBLANK(E325),(D325-F325)*I325*H325*INDIRECT(SUBSTITUTE(G325," ","_"))/1000000,(E325-F325)*I325*H325*INDIRECT(SUBSTITUTE(G325," ","_"))/1000000),IF(ISBLANK(E325),(D325-F325)*J325,(E325-F325)*J325)))</f>
         <v/>
       </c>
@@ -9613,7 +9610,7 @@
       <c r="H326" s="31"/>
       <c r="I326" s="31"/>
       <c r="J326" s="31"/>
-      <c r="K326" s="22" t="str">
+      <c r="K326" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D326), ISBLANK(E326)),AND(OR(ISBLANK(G326),ISBLANK(H326),ISBLANK(I326)),ISBLANK(J326))),"",IF(ISBLANK(J326),IF(ISBLANK(E326),(D326-F326)*I326*H326*INDIRECT(SUBSTITUTE(G326," ","_"))/1000000,(E326-F326)*I326*H326*INDIRECT(SUBSTITUTE(G326," ","_"))/1000000),IF(ISBLANK(E326),(D326-F326)*J326,(E326-F326)*J326)))</f>
         <v/>
       </c>
@@ -9636,7 +9633,7 @@
       <c r="H327" s="31"/>
       <c r="I327" s="31"/>
       <c r="J327" s="31"/>
-      <c r="K327" s="22" t="str">
+      <c r="K327" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D327), ISBLANK(E327)),AND(OR(ISBLANK(G327),ISBLANK(H327),ISBLANK(I327)),ISBLANK(J327))),"",IF(ISBLANK(J327),IF(ISBLANK(E327),(D327-F327)*I327*H327*INDIRECT(SUBSTITUTE(G327," ","_"))/1000000,(E327-F327)*I327*H327*INDIRECT(SUBSTITUTE(G327," ","_"))/1000000),IF(ISBLANK(E327),(D327-F327)*J327,(E327-F327)*J327)))</f>
         <v/>
       </c>
@@ -9659,7 +9656,7 @@
       <c r="H328" s="31"/>
       <c r="I328" s="31"/>
       <c r="J328" s="31"/>
-      <c r="K328" s="22" t="str">
+      <c r="K328" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D328), ISBLANK(E328)),AND(OR(ISBLANK(G328),ISBLANK(H328),ISBLANK(I328)),ISBLANK(J328))),"",IF(ISBLANK(J328),IF(ISBLANK(E328),(D328-F328)*I328*H328*INDIRECT(SUBSTITUTE(G328," ","_"))/1000000,(E328-F328)*I328*H328*INDIRECT(SUBSTITUTE(G328," ","_"))/1000000),IF(ISBLANK(E328),(D328-F328)*J328,(E328-F328)*J328)))</f>
         <v/>
       </c>
@@ -9682,7 +9679,7 @@
       <c r="H329" s="31"/>
       <c r="I329" s="31"/>
       <c r="J329" s="31"/>
-      <c r="K329" s="22" t="str">
+      <c r="K329" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D329), ISBLANK(E329)),AND(OR(ISBLANK(G329),ISBLANK(H329),ISBLANK(I329)),ISBLANK(J329))),"",IF(ISBLANK(J329),IF(ISBLANK(E329),(D329-F329)*I329*H329*INDIRECT(SUBSTITUTE(G329," ","_"))/1000000,(E329-F329)*I329*H329*INDIRECT(SUBSTITUTE(G329," ","_"))/1000000),IF(ISBLANK(E329),(D329-F329)*J329,(E329-F329)*J329)))</f>
         <v/>
       </c>
@@ -9705,7 +9702,7 @@
       <c r="H330" s="31"/>
       <c r="I330" s="31"/>
       <c r="J330" s="31"/>
-      <c r="K330" s="22" t="str">
+      <c r="K330" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D330), ISBLANK(E330)),AND(OR(ISBLANK(G330),ISBLANK(H330),ISBLANK(I330)),ISBLANK(J330))),"",IF(ISBLANK(J330),IF(ISBLANK(E330),(D330-F330)*I330*H330*INDIRECT(SUBSTITUTE(G330," ","_"))/1000000,(E330-F330)*I330*H330*INDIRECT(SUBSTITUTE(G330," ","_"))/1000000),IF(ISBLANK(E330),(D330-F330)*J330,(E330-F330)*J330)))</f>
         <v/>
       </c>
@@ -9728,7 +9725,7 @@
       <c r="H331" s="31"/>
       <c r="I331" s="31"/>
       <c r="J331" s="31"/>
-      <c r="K331" s="22" t="str">
+      <c r="K331" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D331), ISBLANK(E331)),AND(OR(ISBLANK(G331),ISBLANK(H331),ISBLANK(I331)),ISBLANK(J331))),"",IF(ISBLANK(J331),IF(ISBLANK(E331),(D331-F331)*I331*H331*INDIRECT(SUBSTITUTE(G331," ","_"))/1000000,(E331-F331)*I331*H331*INDIRECT(SUBSTITUTE(G331," ","_"))/1000000),IF(ISBLANK(E331),(D331-F331)*J331,(E331-F331)*J331)))</f>
         <v/>
       </c>
@@ -9751,7 +9748,7 @@
       <c r="H332" s="31"/>
       <c r="I332" s="31"/>
       <c r="J332" s="31"/>
-      <c r="K332" s="22" t="str">
+      <c r="K332" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D332), ISBLANK(E332)),AND(OR(ISBLANK(G332),ISBLANK(H332),ISBLANK(I332)),ISBLANK(J332))),"",IF(ISBLANK(J332),IF(ISBLANK(E332),(D332-F332)*I332*H332*INDIRECT(SUBSTITUTE(G332," ","_"))/1000000,(E332-F332)*I332*H332*INDIRECT(SUBSTITUTE(G332," ","_"))/1000000),IF(ISBLANK(E332),(D332-F332)*J332,(E332-F332)*J332)))</f>
         <v/>
       </c>
@@ -9774,7 +9771,7 @@
       <c r="H333" s="31"/>
       <c r="I333" s="31"/>
       <c r="J333" s="31"/>
-      <c r="K333" s="22" t="str">
+      <c r="K333" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D333), ISBLANK(E333)),AND(OR(ISBLANK(G333),ISBLANK(H333),ISBLANK(I333)),ISBLANK(J333))),"",IF(ISBLANK(J333),IF(ISBLANK(E333),(D333-F333)*I333*H333*INDIRECT(SUBSTITUTE(G333," ","_"))/1000000,(E333-F333)*I333*H333*INDIRECT(SUBSTITUTE(G333," ","_"))/1000000),IF(ISBLANK(E333),(D333-F333)*J333,(E333-F333)*J333)))</f>
         <v/>
       </c>
@@ -9797,7 +9794,7 @@
       <c r="H334" s="31"/>
       <c r="I334" s="31"/>
       <c r="J334" s="31"/>
-      <c r="K334" s="22" t="str">
+      <c r="K334" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D334), ISBLANK(E334)),AND(OR(ISBLANK(G334),ISBLANK(H334),ISBLANK(I334)),ISBLANK(J334))),"",IF(ISBLANK(J334),IF(ISBLANK(E334),(D334-F334)*I334*H334*INDIRECT(SUBSTITUTE(G334," ","_"))/1000000,(E334-F334)*I334*H334*INDIRECT(SUBSTITUTE(G334," ","_"))/1000000),IF(ISBLANK(E334),(D334-F334)*J334,(E334-F334)*J334)))</f>
         <v/>
       </c>
@@ -9820,7 +9817,7 @@
       <c r="H335" s="31"/>
       <c r="I335" s="31"/>
       <c r="J335" s="31"/>
-      <c r="K335" s="22" t="str">
+      <c r="K335" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D335), ISBLANK(E335)),AND(OR(ISBLANK(G335),ISBLANK(H335),ISBLANK(I335)),ISBLANK(J335))),"",IF(ISBLANK(J335),IF(ISBLANK(E335),(D335-F335)*I335*H335*INDIRECT(SUBSTITUTE(G335," ","_"))/1000000,(E335-F335)*I335*H335*INDIRECT(SUBSTITUTE(G335," ","_"))/1000000),IF(ISBLANK(E335),(D335-F335)*J335,(E335-F335)*J335)))</f>
         <v/>
       </c>
@@ -9843,7 +9840,7 @@
       <c r="H336" s="31"/>
       <c r="I336" s="31"/>
       <c r="J336" s="31"/>
-      <c r="K336" s="22" t="str">
+      <c r="K336" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D336), ISBLANK(E336)),AND(OR(ISBLANK(G336),ISBLANK(H336),ISBLANK(I336)),ISBLANK(J336))),"",IF(ISBLANK(J336),IF(ISBLANK(E336),(D336-F336)*I336*H336*INDIRECT(SUBSTITUTE(G336," ","_"))/1000000,(E336-F336)*I336*H336*INDIRECT(SUBSTITUTE(G336," ","_"))/1000000),IF(ISBLANK(E336),(D336-F336)*J336,(E336-F336)*J336)))</f>
         <v/>
       </c>
@@ -9866,7 +9863,7 @@
       <c r="H337" s="31"/>
       <c r="I337" s="31"/>
       <c r="J337" s="31"/>
-      <c r="K337" s="22" t="str">
+      <c r="K337" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D337), ISBLANK(E337)),AND(OR(ISBLANK(G337),ISBLANK(H337),ISBLANK(I337)),ISBLANK(J337))),"",IF(ISBLANK(J337),IF(ISBLANK(E337),(D337-F337)*I337*H337*INDIRECT(SUBSTITUTE(G337," ","_"))/1000000,(E337-F337)*I337*H337*INDIRECT(SUBSTITUTE(G337," ","_"))/1000000),IF(ISBLANK(E337),(D337-F337)*J337,(E337-F337)*J337)))</f>
         <v/>
       </c>
@@ -9889,7 +9886,7 @@
       <c r="H338" s="31"/>
       <c r="I338" s="31"/>
       <c r="J338" s="31"/>
-      <c r="K338" s="22" t="str">
+      <c r="K338" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D338), ISBLANK(E338)),AND(OR(ISBLANK(G338),ISBLANK(H338),ISBLANK(I338)),ISBLANK(J338))),"",IF(ISBLANK(J338),IF(ISBLANK(E338),(D338-F338)*I338*H338*INDIRECT(SUBSTITUTE(G338," ","_"))/1000000,(E338-F338)*I338*H338*INDIRECT(SUBSTITUTE(G338," ","_"))/1000000),IF(ISBLANK(E338),(D338-F338)*J338,(E338-F338)*J338)))</f>
         <v/>
       </c>
@@ -9912,7 +9909,7 @@
       <c r="H339" s="31"/>
       <c r="I339" s="31"/>
       <c r="J339" s="31"/>
-      <c r="K339" s="22" t="str">
+      <c r="K339" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D339), ISBLANK(E339)),AND(OR(ISBLANK(G339),ISBLANK(H339),ISBLANK(I339)),ISBLANK(J339))),"",IF(ISBLANK(J339),IF(ISBLANK(E339),(D339-F339)*I339*H339*INDIRECT(SUBSTITUTE(G339," ","_"))/1000000,(E339-F339)*I339*H339*INDIRECT(SUBSTITUTE(G339," ","_"))/1000000),IF(ISBLANK(E339),(D339-F339)*J339,(E339-F339)*J339)))</f>
         <v/>
       </c>
@@ -9935,7 +9932,7 @@
       <c r="H340" s="31"/>
       <c r="I340" s="31"/>
       <c r="J340" s="31"/>
-      <c r="K340" s="22" t="str">
+      <c r="K340" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D340), ISBLANK(E340)),AND(OR(ISBLANK(G340),ISBLANK(H340),ISBLANK(I340)),ISBLANK(J340))),"",IF(ISBLANK(J340),IF(ISBLANK(E340),(D340-F340)*I340*H340*INDIRECT(SUBSTITUTE(G340," ","_"))/1000000,(E340-F340)*I340*H340*INDIRECT(SUBSTITUTE(G340," ","_"))/1000000),IF(ISBLANK(E340),(D340-F340)*J340,(E340-F340)*J340)))</f>
         <v/>
       </c>
@@ -9958,7 +9955,7 @@
       <c r="H341" s="31"/>
       <c r="I341" s="31"/>
       <c r="J341" s="31"/>
-      <c r="K341" s="22" t="str">
+      <c r="K341" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D341), ISBLANK(E341)),AND(OR(ISBLANK(G341),ISBLANK(H341),ISBLANK(I341)),ISBLANK(J341))),"",IF(ISBLANK(J341),IF(ISBLANK(E341),(D341-F341)*I341*H341*INDIRECT(SUBSTITUTE(G341," ","_"))/1000000,(E341-F341)*I341*H341*INDIRECT(SUBSTITUTE(G341," ","_"))/1000000),IF(ISBLANK(E341),(D341-F341)*J341,(E341-F341)*J341)))</f>
         <v/>
       </c>
@@ -9981,7 +9978,7 @@
       <c r="H342" s="31"/>
       <c r="I342" s="31"/>
       <c r="J342" s="31"/>
-      <c r="K342" s="22" t="str">
+      <c r="K342" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D342), ISBLANK(E342)),AND(OR(ISBLANK(G342),ISBLANK(H342),ISBLANK(I342)),ISBLANK(J342))),"",IF(ISBLANK(J342),IF(ISBLANK(E342),(D342-F342)*I342*H342*INDIRECT(SUBSTITUTE(G342," ","_"))/1000000,(E342-F342)*I342*H342*INDIRECT(SUBSTITUTE(G342," ","_"))/1000000),IF(ISBLANK(E342),(D342-F342)*J342,(E342-F342)*J342)))</f>
         <v/>
       </c>
@@ -10004,7 +10001,7 @@
       <c r="H343" s="31"/>
       <c r="I343" s="31"/>
       <c r="J343" s="31"/>
-      <c r="K343" s="22" t="str">
+      <c r="K343" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D343), ISBLANK(E343)),AND(OR(ISBLANK(G343),ISBLANK(H343),ISBLANK(I343)),ISBLANK(J343))),"",IF(ISBLANK(J343),IF(ISBLANK(E343),(D343-F343)*I343*H343*INDIRECT(SUBSTITUTE(G343," ","_"))/1000000,(E343-F343)*I343*H343*INDIRECT(SUBSTITUTE(G343," ","_"))/1000000),IF(ISBLANK(E343),(D343-F343)*J343,(E343-F343)*J343)))</f>
         <v/>
       </c>
@@ -10027,7 +10024,7 @@
       <c r="H344" s="31"/>
       <c r="I344" s="31"/>
       <c r="J344" s="31"/>
-      <c r="K344" s="22" t="str">
+      <c r="K344" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D344), ISBLANK(E344)),AND(OR(ISBLANK(G344),ISBLANK(H344),ISBLANK(I344)),ISBLANK(J344))),"",IF(ISBLANK(J344),IF(ISBLANK(E344),(D344-F344)*I344*H344*INDIRECT(SUBSTITUTE(G344," ","_"))/1000000,(E344-F344)*I344*H344*INDIRECT(SUBSTITUTE(G344," ","_"))/1000000),IF(ISBLANK(E344),(D344-F344)*J344,(E344-F344)*J344)))</f>
         <v/>
       </c>
@@ -10050,7 +10047,7 @@
       <c r="H345" s="31"/>
       <c r="I345" s="31"/>
       <c r="J345" s="31"/>
-      <c r="K345" s="22" t="str">
+      <c r="K345" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D345), ISBLANK(E345)),AND(OR(ISBLANK(G345),ISBLANK(H345),ISBLANK(I345)),ISBLANK(J345))),"",IF(ISBLANK(J345),IF(ISBLANK(E345),(D345-F345)*I345*H345*INDIRECT(SUBSTITUTE(G345," ","_"))/1000000,(E345-F345)*I345*H345*INDIRECT(SUBSTITUTE(G345," ","_"))/1000000),IF(ISBLANK(E345),(D345-F345)*J345,(E345-F345)*J345)))</f>
         <v/>
       </c>
@@ -10073,7 +10070,7 @@
       <c r="H346" s="31"/>
       <c r="I346" s="31"/>
       <c r="J346" s="31"/>
-      <c r="K346" s="22" t="str">
+      <c r="K346" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D346), ISBLANK(E346)),AND(OR(ISBLANK(G346),ISBLANK(H346),ISBLANK(I346)),ISBLANK(J346))),"",IF(ISBLANK(J346),IF(ISBLANK(E346),(D346-F346)*I346*H346*INDIRECT(SUBSTITUTE(G346," ","_"))/1000000,(E346-F346)*I346*H346*INDIRECT(SUBSTITUTE(G346," ","_"))/1000000),IF(ISBLANK(E346),(D346-F346)*J346,(E346-F346)*J346)))</f>
         <v/>
       </c>
@@ -10096,7 +10093,7 @@
       <c r="H347" s="31"/>
       <c r="I347" s="31"/>
       <c r="J347" s="31"/>
-      <c r="K347" s="22" t="str">
+      <c r="K347" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D347), ISBLANK(E347)),AND(OR(ISBLANK(G347),ISBLANK(H347),ISBLANK(I347)),ISBLANK(J347))),"",IF(ISBLANK(J347),IF(ISBLANK(E347),(D347-F347)*I347*H347*INDIRECT(SUBSTITUTE(G347," ","_"))/1000000,(E347-F347)*I347*H347*INDIRECT(SUBSTITUTE(G347," ","_"))/1000000),IF(ISBLANK(E347),(D347-F347)*J347,(E347-F347)*J347)))</f>
         <v/>
       </c>
@@ -10119,7 +10116,7 @@
       <c r="H348" s="31"/>
       <c r="I348" s="31"/>
       <c r="J348" s="31"/>
-      <c r="K348" s="22" t="str">
+      <c r="K348" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D348), ISBLANK(E348)),AND(OR(ISBLANK(G348),ISBLANK(H348),ISBLANK(I348)),ISBLANK(J348))),"",IF(ISBLANK(J348),IF(ISBLANK(E348),(D348-F348)*I348*H348*INDIRECT(SUBSTITUTE(G348," ","_"))/1000000,(E348-F348)*I348*H348*INDIRECT(SUBSTITUTE(G348," ","_"))/1000000),IF(ISBLANK(E348),(D348-F348)*J348,(E348-F348)*J348)))</f>
         <v/>
       </c>
@@ -10142,7 +10139,7 @@
       <c r="H349" s="31"/>
       <c r="I349" s="31"/>
       <c r="J349" s="31"/>
-      <c r="K349" s="22" t="str">
+      <c r="K349" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D349), ISBLANK(E349)),AND(OR(ISBLANK(G349),ISBLANK(H349),ISBLANK(I349)),ISBLANK(J349))),"",IF(ISBLANK(J349),IF(ISBLANK(E349),(D349-F349)*I349*H349*INDIRECT(SUBSTITUTE(G349," ","_"))/1000000,(E349-F349)*I349*H349*INDIRECT(SUBSTITUTE(G349," ","_"))/1000000),IF(ISBLANK(E349),(D349-F349)*J349,(E349-F349)*J349)))</f>
         <v/>
       </c>
@@ -10165,7 +10162,7 @@
       <c r="H350" s="31"/>
       <c r="I350" s="31"/>
       <c r="J350" s="31"/>
-      <c r="K350" s="22" t="str">
+      <c r="K350" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D350), ISBLANK(E350)),AND(OR(ISBLANK(G350),ISBLANK(H350),ISBLANK(I350)),ISBLANK(J350))),"",IF(ISBLANK(J350),IF(ISBLANK(E350),(D350-F350)*I350*H350*INDIRECT(SUBSTITUTE(G350," ","_"))/1000000,(E350-F350)*I350*H350*INDIRECT(SUBSTITUTE(G350," ","_"))/1000000),IF(ISBLANK(E350),(D350-F350)*J350,(E350-F350)*J350)))</f>
         <v/>
       </c>
@@ -10188,7 +10185,7 @@
       <c r="H351" s="31"/>
       <c r="I351" s="31"/>
       <c r="J351" s="31"/>
-      <c r="K351" s="22" t="str">
+      <c r="K351" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D351), ISBLANK(E351)),AND(OR(ISBLANK(G351),ISBLANK(H351),ISBLANK(I351)),ISBLANK(J351))),"",IF(ISBLANK(J351),IF(ISBLANK(E351),(D351-F351)*I351*H351*INDIRECT(SUBSTITUTE(G351," ","_"))/1000000,(E351-F351)*I351*H351*INDIRECT(SUBSTITUTE(G351," ","_"))/1000000),IF(ISBLANK(E351),(D351-F351)*J351,(E351-F351)*J351)))</f>
         <v/>
       </c>
@@ -10211,7 +10208,7 @@
       <c r="H352" s="31"/>
       <c r="I352" s="31"/>
       <c r="J352" s="31"/>
-      <c r="K352" s="22" t="str">
+      <c r="K352" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D352), ISBLANK(E352)),AND(OR(ISBLANK(G352),ISBLANK(H352),ISBLANK(I352)),ISBLANK(J352))),"",IF(ISBLANK(J352),IF(ISBLANK(E352),(D352-F352)*I352*H352*INDIRECT(SUBSTITUTE(G352," ","_"))/1000000,(E352-F352)*I352*H352*INDIRECT(SUBSTITUTE(G352," ","_"))/1000000),IF(ISBLANK(E352),(D352-F352)*J352,(E352-F352)*J352)))</f>
         <v/>
       </c>
@@ -10234,7 +10231,7 @@
       <c r="H353" s="31"/>
       <c r="I353" s="31"/>
       <c r="J353" s="31"/>
-      <c r="K353" s="22" t="str">
+      <c r="K353" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D353), ISBLANK(E353)),AND(OR(ISBLANK(G353),ISBLANK(H353),ISBLANK(I353)),ISBLANK(J353))),"",IF(ISBLANK(J353),IF(ISBLANK(E353),(D353-F353)*I353*H353*INDIRECT(SUBSTITUTE(G353," ","_"))/1000000,(E353-F353)*I353*H353*INDIRECT(SUBSTITUTE(G353," ","_"))/1000000),IF(ISBLANK(E353),(D353-F353)*J353,(E353-F353)*J353)))</f>
         <v/>
       </c>
@@ -10257,7 +10254,7 @@
       <c r="H354" s="31"/>
       <c r="I354" s="31"/>
       <c r="J354" s="31"/>
-      <c r="K354" s="22" t="str">
+      <c r="K354" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D354), ISBLANK(E354)),AND(OR(ISBLANK(G354),ISBLANK(H354),ISBLANK(I354)),ISBLANK(J354))),"",IF(ISBLANK(J354),IF(ISBLANK(E354),(D354-F354)*I354*H354*INDIRECT(SUBSTITUTE(G354," ","_"))/1000000,(E354-F354)*I354*H354*INDIRECT(SUBSTITUTE(G354," ","_"))/1000000),IF(ISBLANK(E354),(D354-F354)*J354,(E354-F354)*J354)))</f>
         <v/>
       </c>
@@ -10280,7 +10277,7 @@
       <c r="H355" s="31"/>
       <c r="I355" s="31"/>
       <c r="J355" s="31"/>
-      <c r="K355" s="22" t="str">
+      <c r="K355" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D355), ISBLANK(E355)),AND(OR(ISBLANK(G355),ISBLANK(H355),ISBLANK(I355)),ISBLANK(J355))),"",IF(ISBLANK(J355),IF(ISBLANK(E355),(D355-F355)*I355*H355*INDIRECT(SUBSTITUTE(G355," ","_"))/1000000,(E355-F355)*I355*H355*INDIRECT(SUBSTITUTE(G355," ","_"))/1000000),IF(ISBLANK(E355),(D355-F355)*J355,(E355-F355)*J355)))</f>
         <v/>
       </c>
@@ -10303,7 +10300,7 @@
       <c r="H356" s="31"/>
       <c r="I356" s="31"/>
       <c r="J356" s="31"/>
-      <c r="K356" s="22" t="str">
+      <c r="K356" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D356), ISBLANK(E356)),AND(OR(ISBLANK(G356),ISBLANK(H356),ISBLANK(I356)),ISBLANK(J356))),"",IF(ISBLANK(J356),IF(ISBLANK(E356),(D356-F356)*I356*H356*INDIRECT(SUBSTITUTE(G356," ","_"))/1000000,(E356-F356)*I356*H356*INDIRECT(SUBSTITUTE(G356," ","_"))/1000000),IF(ISBLANK(E356),(D356-F356)*J356,(E356-F356)*J356)))</f>
         <v/>
       </c>
@@ -10326,7 +10323,7 @@
       <c r="H357" s="31"/>
       <c r="I357" s="31"/>
       <c r="J357" s="31"/>
-      <c r="K357" s="22" t="str">
+      <c r="K357" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D357), ISBLANK(E357)),AND(OR(ISBLANK(G357),ISBLANK(H357),ISBLANK(I357)),ISBLANK(J357))),"",IF(ISBLANK(J357),IF(ISBLANK(E357),(D357-F357)*I357*H357*INDIRECT(SUBSTITUTE(G357," ","_"))/1000000,(E357-F357)*I357*H357*INDIRECT(SUBSTITUTE(G357," ","_"))/1000000),IF(ISBLANK(E357),(D357-F357)*J357,(E357-F357)*J357)))</f>
         <v/>
       </c>
@@ -10349,7 +10346,7 @@
       <c r="H358" s="31"/>
       <c r="I358" s="31"/>
       <c r="J358" s="31"/>
-      <c r="K358" s="22" t="str">
+      <c r="K358" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D358), ISBLANK(E358)),AND(OR(ISBLANK(G358),ISBLANK(H358),ISBLANK(I358)),ISBLANK(J358))),"",IF(ISBLANK(J358),IF(ISBLANK(E358),(D358-F358)*I358*H358*INDIRECT(SUBSTITUTE(G358," ","_"))/1000000,(E358-F358)*I358*H358*INDIRECT(SUBSTITUTE(G358," ","_"))/1000000),IF(ISBLANK(E358),(D358-F358)*J358,(E358-F358)*J358)))</f>
         <v/>
       </c>
@@ -10372,7 +10369,7 @@
       <c r="H359" s="31"/>
       <c r="I359" s="31"/>
       <c r="J359" s="31"/>
-      <c r="K359" s="22" t="str">
+      <c r="K359" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D359), ISBLANK(E359)),AND(OR(ISBLANK(G359),ISBLANK(H359),ISBLANK(I359)),ISBLANK(J359))),"",IF(ISBLANK(J359),IF(ISBLANK(E359),(D359-F359)*I359*H359*INDIRECT(SUBSTITUTE(G359," ","_"))/1000000,(E359-F359)*I359*H359*INDIRECT(SUBSTITUTE(G359," ","_"))/1000000),IF(ISBLANK(E359),(D359-F359)*J359,(E359-F359)*J359)))</f>
         <v/>
       </c>
@@ -10395,7 +10392,7 @@
       <c r="H360" s="31"/>
       <c r="I360" s="31"/>
       <c r="J360" s="31"/>
-      <c r="K360" s="22" t="str">
+      <c r="K360" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D360), ISBLANK(E360)),AND(OR(ISBLANK(G360),ISBLANK(H360),ISBLANK(I360)),ISBLANK(J360))),"",IF(ISBLANK(J360),IF(ISBLANK(E360),(D360-F360)*I360*H360*INDIRECT(SUBSTITUTE(G360," ","_"))/1000000,(E360-F360)*I360*H360*INDIRECT(SUBSTITUTE(G360," ","_"))/1000000),IF(ISBLANK(E360),(D360-F360)*J360,(E360-F360)*J360)))</f>
         <v/>
       </c>
@@ -10418,7 +10415,7 @@
       <c r="H361" s="31"/>
       <c r="I361" s="31"/>
       <c r="J361" s="31"/>
-      <c r="K361" s="22" t="str">
+      <c r="K361" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D361), ISBLANK(E361)),AND(OR(ISBLANK(G361),ISBLANK(H361),ISBLANK(I361)),ISBLANK(J361))),"",IF(ISBLANK(J361),IF(ISBLANK(E361),(D361-F361)*I361*H361*INDIRECT(SUBSTITUTE(G361," ","_"))/1000000,(E361-F361)*I361*H361*INDIRECT(SUBSTITUTE(G361," ","_"))/1000000),IF(ISBLANK(E361),(D361-F361)*J361,(E361-F361)*J361)))</f>
         <v/>
       </c>
@@ -10441,7 +10438,7 @@
       <c r="H362" s="31"/>
       <c r="I362" s="31"/>
       <c r="J362" s="31"/>
-      <c r="K362" s="22" t="str">
+      <c r="K362" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D362), ISBLANK(E362)),AND(OR(ISBLANK(G362),ISBLANK(H362),ISBLANK(I362)),ISBLANK(J362))),"",IF(ISBLANK(J362),IF(ISBLANK(E362),(D362-F362)*I362*H362*INDIRECT(SUBSTITUTE(G362," ","_"))/1000000,(E362-F362)*I362*H362*INDIRECT(SUBSTITUTE(G362," ","_"))/1000000),IF(ISBLANK(E362),(D362-F362)*J362,(E362-F362)*J362)))</f>
         <v/>
       </c>
@@ -10464,7 +10461,7 @@
       <c r="H363" s="31"/>
       <c r="I363" s="31"/>
       <c r="J363" s="31"/>
-      <c r="K363" s="22" t="str">
+      <c r="K363" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D363), ISBLANK(E363)),AND(OR(ISBLANK(G363),ISBLANK(H363),ISBLANK(I363)),ISBLANK(J363))),"",IF(ISBLANK(J363),IF(ISBLANK(E363),(D363-F363)*I363*H363*INDIRECT(SUBSTITUTE(G363," ","_"))/1000000,(E363-F363)*I363*H363*INDIRECT(SUBSTITUTE(G363," ","_"))/1000000),IF(ISBLANK(E363),(D363-F363)*J363,(E363-F363)*J363)))</f>
         <v/>
       </c>
@@ -10487,7 +10484,7 @@
       <c r="H364" s="31"/>
       <c r="I364" s="31"/>
       <c r="J364" s="31"/>
-      <c r="K364" s="22" t="str">
+      <c r="K364" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D364), ISBLANK(E364)),AND(OR(ISBLANK(G364),ISBLANK(H364),ISBLANK(I364)),ISBLANK(J364))),"",IF(ISBLANK(J364),IF(ISBLANK(E364),(D364-F364)*I364*H364*INDIRECT(SUBSTITUTE(G364," ","_"))/1000000,(E364-F364)*I364*H364*INDIRECT(SUBSTITUTE(G364," ","_"))/1000000),IF(ISBLANK(E364),(D364-F364)*J364,(E364-F364)*J364)))</f>
         <v/>
       </c>
@@ -10510,7 +10507,7 @@
       <c r="H365" s="31"/>
       <c r="I365" s="31"/>
       <c r="J365" s="31"/>
-      <c r="K365" s="22" t="str">
+      <c r="K365" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D365), ISBLANK(E365)),AND(OR(ISBLANK(G365),ISBLANK(H365),ISBLANK(I365)),ISBLANK(J365))),"",IF(ISBLANK(J365),IF(ISBLANK(E365),(D365-F365)*I365*H365*INDIRECT(SUBSTITUTE(G365," ","_"))/1000000,(E365-F365)*I365*H365*INDIRECT(SUBSTITUTE(G365," ","_"))/1000000),IF(ISBLANK(E365),(D365-F365)*J365,(E365-F365)*J365)))</f>
         <v/>
       </c>
@@ -10533,7 +10530,7 @@
       <c r="H366" s="31"/>
       <c r="I366" s="31"/>
       <c r="J366" s="31"/>
-      <c r="K366" s="22" t="str">
+      <c r="K366" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D366), ISBLANK(E366)),AND(OR(ISBLANK(G366),ISBLANK(H366),ISBLANK(I366)),ISBLANK(J366))),"",IF(ISBLANK(J366),IF(ISBLANK(E366),(D366-F366)*I366*H366*INDIRECT(SUBSTITUTE(G366," ","_"))/1000000,(E366-F366)*I366*H366*INDIRECT(SUBSTITUTE(G366," ","_"))/1000000),IF(ISBLANK(E366),(D366-F366)*J366,(E366-F366)*J366)))</f>
         <v/>
       </c>
@@ -10556,7 +10553,7 @@
       <c r="H367" s="31"/>
       <c r="I367" s="31"/>
       <c r="J367" s="31"/>
-      <c r="K367" s="22" t="str">
+      <c r="K367" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D367), ISBLANK(E367)),AND(OR(ISBLANK(G367),ISBLANK(H367),ISBLANK(I367)),ISBLANK(J367))),"",IF(ISBLANK(J367),IF(ISBLANK(E367),(D367-F367)*I367*H367*INDIRECT(SUBSTITUTE(G367," ","_"))/1000000,(E367-F367)*I367*H367*INDIRECT(SUBSTITUTE(G367," ","_"))/1000000),IF(ISBLANK(E367),(D367-F367)*J367,(E367-F367)*J367)))</f>
         <v/>
       </c>
@@ -10579,7 +10576,7 @@
       <c r="H368" s="31"/>
       <c r="I368" s="31"/>
       <c r="J368" s="31"/>
-      <c r="K368" s="22" t="str">
+      <c r="K368" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D368), ISBLANK(E368)),AND(OR(ISBLANK(G368),ISBLANK(H368),ISBLANK(I368)),ISBLANK(J368))),"",IF(ISBLANK(J368),IF(ISBLANK(E368),(D368-F368)*I368*H368*INDIRECT(SUBSTITUTE(G368," ","_"))/1000000,(E368-F368)*I368*H368*INDIRECT(SUBSTITUTE(G368," ","_"))/1000000),IF(ISBLANK(E368),(D368-F368)*J368,(E368-F368)*J368)))</f>
         <v/>
       </c>
@@ -10602,7 +10599,7 @@
       <c r="H369" s="31"/>
       <c r="I369" s="31"/>
       <c r="J369" s="31"/>
-      <c r="K369" s="22" t="str">
+      <c r="K369" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D369), ISBLANK(E369)),AND(OR(ISBLANK(G369),ISBLANK(H369),ISBLANK(I369)),ISBLANK(J369))),"",IF(ISBLANK(J369),IF(ISBLANK(E369),(D369-F369)*I369*H369*INDIRECT(SUBSTITUTE(G369," ","_"))/1000000,(E369-F369)*I369*H369*INDIRECT(SUBSTITUTE(G369," ","_"))/1000000),IF(ISBLANK(E369),(D369-F369)*J369,(E369-F369)*J369)))</f>
         <v/>
       </c>
@@ -10625,7 +10622,7 @@
       <c r="H370" s="31"/>
       <c r="I370" s="31"/>
       <c r="J370" s="31"/>
-      <c r="K370" s="22" t="str">
+      <c r="K370" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D370), ISBLANK(E370)),AND(OR(ISBLANK(G370),ISBLANK(H370),ISBLANK(I370)),ISBLANK(J370))),"",IF(ISBLANK(J370),IF(ISBLANK(E370),(D370-F370)*I370*H370*INDIRECT(SUBSTITUTE(G370," ","_"))/1000000,(E370-F370)*I370*H370*INDIRECT(SUBSTITUTE(G370," ","_"))/1000000),IF(ISBLANK(E370),(D370-F370)*J370,(E370-F370)*J370)))</f>
         <v/>
       </c>
@@ -10648,7 +10645,7 @@
       <c r="H371" s="31"/>
       <c r="I371" s="31"/>
       <c r="J371" s="31"/>
-      <c r="K371" s="22" t="str">
+      <c r="K371" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D371), ISBLANK(E371)),AND(OR(ISBLANK(G371),ISBLANK(H371),ISBLANK(I371)),ISBLANK(J371))),"",IF(ISBLANK(J371),IF(ISBLANK(E371),(D371-F371)*I371*H371*INDIRECT(SUBSTITUTE(G371," ","_"))/1000000,(E371-F371)*I371*H371*INDIRECT(SUBSTITUTE(G371," ","_"))/1000000),IF(ISBLANK(E371),(D371-F371)*J371,(E371-F371)*J371)))</f>
         <v/>
       </c>
@@ -10671,7 +10668,7 @@
       <c r="H372" s="31"/>
       <c r="I372" s="31"/>
       <c r="J372" s="31"/>
-      <c r="K372" s="22" t="str">
+      <c r="K372" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D372), ISBLANK(E372)),AND(OR(ISBLANK(G372),ISBLANK(H372),ISBLANK(I372)),ISBLANK(J372))),"",IF(ISBLANK(J372),IF(ISBLANK(E372),(D372-F372)*I372*H372*INDIRECT(SUBSTITUTE(G372," ","_"))/1000000,(E372-F372)*I372*H372*INDIRECT(SUBSTITUTE(G372," ","_"))/1000000),IF(ISBLANK(E372),(D372-F372)*J372,(E372-F372)*J372)))</f>
         <v/>
       </c>
@@ -10694,7 +10691,7 @@
       <c r="H373" s="31"/>
       <c r="I373" s="31"/>
       <c r="J373" s="31"/>
-      <c r="K373" s="22" t="str">
+      <c r="K373" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D373), ISBLANK(E373)),AND(OR(ISBLANK(G373),ISBLANK(H373),ISBLANK(I373)),ISBLANK(J373))),"",IF(ISBLANK(J373),IF(ISBLANK(E373),(D373-F373)*I373*H373*INDIRECT(SUBSTITUTE(G373," ","_"))/1000000,(E373-F373)*I373*H373*INDIRECT(SUBSTITUTE(G373," ","_"))/1000000),IF(ISBLANK(E373),(D373-F373)*J373,(E373-F373)*J373)))</f>
         <v/>
       </c>
@@ -10717,7 +10714,7 @@
       <c r="H374" s="31"/>
       <c r="I374" s="31"/>
       <c r="J374" s="31"/>
-      <c r="K374" s="22" t="str">
+      <c r="K374" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D374), ISBLANK(E374)),AND(OR(ISBLANK(G374),ISBLANK(H374),ISBLANK(I374)),ISBLANK(J374))),"",IF(ISBLANK(J374),IF(ISBLANK(E374),(D374-F374)*I374*H374*INDIRECT(SUBSTITUTE(G374," ","_"))/1000000,(E374-F374)*I374*H374*INDIRECT(SUBSTITUTE(G374," ","_"))/1000000),IF(ISBLANK(E374),(D374-F374)*J374,(E374-F374)*J374)))</f>
         <v/>
       </c>
@@ -10740,7 +10737,7 @@
       <c r="H375" s="31"/>
       <c r="I375" s="31"/>
       <c r="J375" s="31"/>
-      <c r="K375" s="22" t="str">
+      <c r="K375" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D375), ISBLANK(E375)),AND(OR(ISBLANK(G375),ISBLANK(H375),ISBLANK(I375)),ISBLANK(J375))),"",IF(ISBLANK(J375),IF(ISBLANK(E375),(D375-F375)*I375*H375*INDIRECT(SUBSTITUTE(G375," ","_"))/1000000,(E375-F375)*I375*H375*INDIRECT(SUBSTITUTE(G375," ","_"))/1000000),IF(ISBLANK(E375),(D375-F375)*J375,(E375-F375)*J375)))</f>
         <v/>
       </c>
@@ -10763,7 +10760,7 @@
       <c r="H376" s="31"/>
       <c r="I376" s="31"/>
       <c r="J376" s="31"/>
-      <c r="K376" s="22" t="str">
+      <c r="K376" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D376), ISBLANK(E376)),AND(OR(ISBLANK(G376),ISBLANK(H376),ISBLANK(I376)),ISBLANK(J376))),"",IF(ISBLANK(J376),IF(ISBLANK(E376),(D376-F376)*I376*H376*INDIRECT(SUBSTITUTE(G376," ","_"))/1000000,(E376-F376)*I376*H376*INDIRECT(SUBSTITUTE(G376," ","_"))/1000000),IF(ISBLANK(E376),(D376-F376)*J376,(E376-F376)*J376)))</f>
         <v/>
       </c>
@@ -10786,7 +10783,7 @@
       <c r="H377" s="31"/>
       <c r="I377" s="31"/>
       <c r="J377" s="31"/>
-      <c r="K377" s="22" t="str">
+      <c r="K377" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D377), ISBLANK(E377)),AND(OR(ISBLANK(G377),ISBLANK(H377),ISBLANK(I377)),ISBLANK(J377))),"",IF(ISBLANK(J377),IF(ISBLANK(E377),(D377-F377)*I377*H377*INDIRECT(SUBSTITUTE(G377," ","_"))/1000000,(E377-F377)*I377*H377*INDIRECT(SUBSTITUTE(G377," ","_"))/1000000),IF(ISBLANK(E377),(D377-F377)*J377,(E377-F377)*J377)))</f>
         <v/>
       </c>
@@ -10809,7 +10806,7 @@
       <c r="H378" s="31"/>
       <c r="I378" s="31"/>
       <c r="J378" s="31"/>
-      <c r="K378" s="22" t="str">
+      <c r="K378" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D378), ISBLANK(E378)),AND(OR(ISBLANK(G378),ISBLANK(H378),ISBLANK(I378)),ISBLANK(J378))),"",IF(ISBLANK(J378),IF(ISBLANK(E378),(D378-F378)*I378*H378*INDIRECT(SUBSTITUTE(G378," ","_"))/1000000,(E378-F378)*I378*H378*INDIRECT(SUBSTITUTE(G378," ","_"))/1000000),IF(ISBLANK(E378),(D378-F378)*J378,(E378-F378)*J378)))</f>
         <v/>
       </c>
@@ -10832,7 +10829,7 @@
       <c r="H379" s="31"/>
       <c r="I379" s="31"/>
       <c r="J379" s="31"/>
-      <c r="K379" s="22" t="str">
+      <c r="K379" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D379), ISBLANK(E379)),AND(OR(ISBLANK(G379),ISBLANK(H379),ISBLANK(I379)),ISBLANK(J379))),"",IF(ISBLANK(J379),IF(ISBLANK(E379),(D379-F379)*I379*H379*INDIRECT(SUBSTITUTE(G379," ","_"))/1000000,(E379-F379)*I379*H379*INDIRECT(SUBSTITUTE(G379," ","_"))/1000000),IF(ISBLANK(E379),(D379-F379)*J379,(E379-F379)*J379)))</f>
         <v/>
       </c>
@@ -10855,7 +10852,7 @@
       <c r="H380" s="31"/>
       <c r="I380" s="31"/>
       <c r="J380" s="31"/>
-      <c r="K380" s="22" t="str">
+      <c r="K380" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D380), ISBLANK(E380)),AND(OR(ISBLANK(G380),ISBLANK(H380),ISBLANK(I380)),ISBLANK(J380))),"",IF(ISBLANK(J380),IF(ISBLANK(E380),(D380-F380)*I380*H380*INDIRECT(SUBSTITUTE(G380," ","_"))/1000000,(E380-F380)*I380*H380*INDIRECT(SUBSTITUTE(G380," ","_"))/1000000),IF(ISBLANK(E380),(D380-F380)*J380,(E380-F380)*J380)))</f>
         <v/>
       </c>
@@ -10878,7 +10875,7 @@
       <c r="H381" s="31"/>
       <c r="I381" s="31"/>
       <c r="J381" s="31"/>
-      <c r="K381" s="22" t="str">
+      <c r="K381" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D381), ISBLANK(E381)),AND(OR(ISBLANK(G381),ISBLANK(H381),ISBLANK(I381)),ISBLANK(J381))),"",IF(ISBLANK(J381),IF(ISBLANK(E381),(D381-F381)*I381*H381*INDIRECT(SUBSTITUTE(G381," ","_"))/1000000,(E381-F381)*I381*H381*INDIRECT(SUBSTITUTE(G381," ","_"))/1000000),IF(ISBLANK(E381),(D381-F381)*J381,(E381-F381)*J381)))</f>
         <v/>
       </c>
@@ -10901,7 +10898,7 @@
       <c r="H382" s="31"/>
       <c r="I382" s="31"/>
       <c r="J382" s="31"/>
-      <c r="K382" s="22" t="str">
+      <c r="K382" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D382), ISBLANK(E382)),AND(OR(ISBLANK(G382),ISBLANK(H382),ISBLANK(I382)),ISBLANK(J382))),"",IF(ISBLANK(J382),IF(ISBLANK(E382),(D382-F382)*I382*H382*INDIRECT(SUBSTITUTE(G382," ","_"))/1000000,(E382-F382)*I382*H382*INDIRECT(SUBSTITUTE(G382," ","_"))/1000000),IF(ISBLANK(E382),(D382-F382)*J382,(E382-F382)*J382)))</f>
         <v/>
       </c>
@@ -10924,7 +10921,7 @@
       <c r="H383" s="31"/>
       <c r="I383" s="31"/>
       <c r="J383" s="31"/>
-      <c r="K383" s="22" t="str">
+      <c r="K383" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D383), ISBLANK(E383)),AND(OR(ISBLANK(G383),ISBLANK(H383),ISBLANK(I383)),ISBLANK(J383))),"",IF(ISBLANK(J383),IF(ISBLANK(E383),(D383-F383)*I383*H383*INDIRECT(SUBSTITUTE(G383," ","_"))/1000000,(E383-F383)*I383*H383*INDIRECT(SUBSTITUTE(G383," ","_"))/1000000),IF(ISBLANK(E383),(D383-F383)*J383,(E383-F383)*J383)))</f>
         <v/>
       </c>
@@ -10947,7 +10944,7 @@
       <c r="H384" s="31"/>
       <c r="I384" s="31"/>
       <c r="J384" s="31"/>
-      <c r="K384" s="22" t="str">
+      <c r="K384" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D384), ISBLANK(E384)),AND(OR(ISBLANK(G384),ISBLANK(H384),ISBLANK(I384)),ISBLANK(J384))),"",IF(ISBLANK(J384),IF(ISBLANK(E384),(D384-F384)*I384*H384*INDIRECT(SUBSTITUTE(G384," ","_"))/1000000,(E384-F384)*I384*H384*INDIRECT(SUBSTITUTE(G384," ","_"))/1000000),IF(ISBLANK(E384),(D384-F384)*J384,(E384-F384)*J384)))</f>
         <v/>
       </c>
@@ -10970,7 +10967,7 @@
       <c r="H385" s="31"/>
       <c r="I385" s="31"/>
       <c r="J385" s="31"/>
-      <c r="K385" s="22" t="str">
+      <c r="K385" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D385), ISBLANK(E385)),AND(OR(ISBLANK(G385),ISBLANK(H385),ISBLANK(I385)),ISBLANK(J385))),"",IF(ISBLANK(J385),IF(ISBLANK(E385),(D385-F385)*I385*H385*INDIRECT(SUBSTITUTE(G385," ","_"))/1000000,(E385-F385)*I385*H385*INDIRECT(SUBSTITUTE(G385," ","_"))/1000000),IF(ISBLANK(E385),(D385-F385)*J385,(E385-F385)*J385)))</f>
         <v/>
       </c>
@@ -10993,7 +10990,7 @@
       <c r="H386" s="31"/>
       <c r="I386" s="31"/>
       <c r="J386" s="31"/>
-      <c r="K386" s="22" t="str">
+      <c r="K386" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D386), ISBLANK(E386)),AND(OR(ISBLANK(G386),ISBLANK(H386),ISBLANK(I386)),ISBLANK(J386))),"",IF(ISBLANK(J386),IF(ISBLANK(E386),(D386-F386)*I386*H386*INDIRECT(SUBSTITUTE(G386," ","_"))/1000000,(E386-F386)*I386*H386*INDIRECT(SUBSTITUTE(G386," ","_"))/1000000),IF(ISBLANK(E386),(D386-F386)*J386,(E386-F386)*J386)))</f>
         <v/>
       </c>
@@ -11016,7 +11013,7 @@
       <c r="H387" s="31"/>
       <c r="I387" s="31"/>
       <c r="J387" s="31"/>
-      <c r="K387" s="22" t="str">
+      <c r="K387" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D387), ISBLANK(E387)),AND(OR(ISBLANK(G387),ISBLANK(H387),ISBLANK(I387)),ISBLANK(J387))),"",IF(ISBLANK(J387),IF(ISBLANK(E387),(D387-F387)*I387*H387*INDIRECT(SUBSTITUTE(G387," ","_"))/1000000,(E387-F387)*I387*H387*INDIRECT(SUBSTITUTE(G387," ","_"))/1000000),IF(ISBLANK(E387),(D387-F387)*J387,(E387-F387)*J387)))</f>
         <v/>
       </c>
@@ -11039,7 +11036,7 @@
       <c r="H388" s="31"/>
       <c r="I388" s="31"/>
       <c r="J388" s="31"/>
-      <c r="K388" s="22" t="str">
+      <c r="K388" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D388), ISBLANK(E388)),AND(OR(ISBLANK(G388),ISBLANK(H388),ISBLANK(I388)),ISBLANK(J388))),"",IF(ISBLANK(J388),IF(ISBLANK(E388),(D388-F388)*I388*H388*INDIRECT(SUBSTITUTE(G388," ","_"))/1000000,(E388-F388)*I388*H388*INDIRECT(SUBSTITUTE(G388," ","_"))/1000000),IF(ISBLANK(E388),(D388-F388)*J388,(E388-F388)*J388)))</f>
         <v/>
       </c>
@@ -11062,7 +11059,7 @@
       <c r="H389" s="31"/>
       <c r="I389" s="31"/>
       <c r="J389" s="31"/>
-      <c r="K389" s="22" t="str">
+      <c r="K389" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D389), ISBLANK(E389)),AND(OR(ISBLANK(G389),ISBLANK(H389),ISBLANK(I389)),ISBLANK(J389))),"",IF(ISBLANK(J389),IF(ISBLANK(E389),(D389-F389)*I389*H389*INDIRECT(SUBSTITUTE(G389," ","_"))/1000000,(E389-F389)*I389*H389*INDIRECT(SUBSTITUTE(G389," ","_"))/1000000),IF(ISBLANK(E389),(D389-F389)*J389,(E389-F389)*J389)))</f>
         <v/>
       </c>
@@ -11085,7 +11082,7 @@
       <c r="H390" s="31"/>
       <c r="I390" s="31"/>
       <c r="J390" s="31"/>
-      <c r="K390" s="22" t="str">
+      <c r="K390" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D390), ISBLANK(E390)),AND(OR(ISBLANK(G390),ISBLANK(H390),ISBLANK(I390)),ISBLANK(J390))),"",IF(ISBLANK(J390),IF(ISBLANK(E390),(D390-F390)*I390*H390*INDIRECT(SUBSTITUTE(G390," ","_"))/1000000,(E390-F390)*I390*H390*INDIRECT(SUBSTITUTE(G390," ","_"))/1000000),IF(ISBLANK(E390),(D390-F390)*J390,(E390-F390)*J390)))</f>
         <v/>
       </c>
@@ -11108,7 +11105,7 @@
       <c r="H391" s="31"/>
       <c r="I391" s="31"/>
       <c r="J391" s="31"/>
-      <c r="K391" s="22" t="str">
+      <c r="K391" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D391), ISBLANK(E391)),AND(OR(ISBLANK(G391),ISBLANK(H391),ISBLANK(I391)),ISBLANK(J391))),"",IF(ISBLANK(J391),IF(ISBLANK(E391),(D391-F391)*I391*H391*INDIRECT(SUBSTITUTE(G391," ","_"))/1000000,(E391-F391)*I391*H391*INDIRECT(SUBSTITUTE(G391," ","_"))/1000000),IF(ISBLANK(E391),(D391-F391)*J391,(E391-F391)*J391)))</f>
         <v/>
       </c>
@@ -11131,7 +11128,7 @@
       <c r="H392" s="31"/>
       <c r="I392" s="31"/>
       <c r="J392" s="31"/>
-      <c r="K392" s="22" t="str">
+      <c r="K392" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D392), ISBLANK(E392)),AND(OR(ISBLANK(G392),ISBLANK(H392),ISBLANK(I392)),ISBLANK(J392))),"",IF(ISBLANK(J392),IF(ISBLANK(E392),(D392-F392)*I392*H392*INDIRECT(SUBSTITUTE(G392," ","_"))/1000000,(E392-F392)*I392*H392*INDIRECT(SUBSTITUTE(G392," ","_"))/1000000),IF(ISBLANK(E392),(D392-F392)*J392,(E392-F392)*J392)))</f>
         <v/>
       </c>
@@ -11154,7 +11151,7 @@
       <c r="H393" s="31"/>
       <c r="I393" s="31"/>
       <c r="J393" s="31"/>
-      <c r="K393" s="22" t="str">
+      <c r="K393" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D393), ISBLANK(E393)),AND(OR(ISBLANK(G393),ISBLANK(H393),ISBLANK(I393)),ISBLANK(J393))),"",IF(ISBLANK(J393),IF(ISBLANK(E393),(D393-F393)*I393*H393*INDIRECT(SUBSTITUTE(G393," ","_"))/1000000,(E393-F393)*I393*H393*INDIRECT(SUBSTITUTE(G393," ","_"))/1000000),IF(ISBLANK(E393),(D393-F393)*J393,(E393-F393)*J393)))</f>
         <v/>
       </c>
@@ -11177,7 +11174,7 @@
       <c r="H394" s="31"/>
       <c r="I394" s="31"/>
       <c r="J394" s="31"/>
-      <c r="K394" s="22" t="str">
+      <c r="K394" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D394), ISBLANK(E394)),AND(OR(ISBLANK(G394),ISBLANK(H394),ISBLANK(I394)),ISBLANK(J394))),"",IF(ISBLANK(J394),IF(ISBLANK(E394),(D394-F394)*I394*H394*INDIRECT(SUBSTITUTE(G394," ","_"))/1000000,(E394-F394)*I394*H394*INDIRECT(SUBSTITUTE(G394," ","_"))/1000000),IF(ISBLANK(E394),(D394-F394)*J394,(E394-F394)*J394)))</f>
         <v/>
       </c>
@@ -11200,7 +11197,7 @@
       <c r="H395" s="31"/>
       <c r="I395" s="31"/>
       <c r="J395" s="31"/>
-      <c r="K395" s="22" t="str">
+      <c r="K395" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D395), ISBLANK(E395)),AND(OR(ISBLANK(G395),ISBLANK(H395),ISBLANK(I395)),ISBLANK(J395))),"",IF(ISBLANK(J395),IF(ISBLANK(E395),(D395-F395)*I395*H395*INDIRECT(SUBSTITUTE(G395," ","_"))/1000000,(E395-F395)*I395*H395*INDIRECT(SUBSTITUTE(G395," ","_"))/1000000),IF(ISBLANK(E395),(D395-F395)*J395,(E395-F395)*J395)))</f>
         <v/>
       </c>
@@ -11223,7 +11220,7 @@
       <c r="H396" s="31"/>
       <c r="I396" s="31"/>
       <c r="J396" s="31"/>
-      <c r="K396" s="22" t="str">
+      <c r="K396" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D396), ISBLANK(E396)),AND(OR(ISBLANK(G396),ISBLANK(H396),ISBLANK(I396)),ISBLANK(J396))),"",IF(ISBLANK(J396),IF(ISBLANK(E396),(D396-F396)*I396*H396*INDIRECT(SUBSTITUTE(G396," ","_"))/1000000,(E396-F396)*I396*H396*INDIRECT(SUBSTITUTE(G396," ","_"))/1000000),IF(ISBLANK(E396),(D396-F396)*J396,(E396-F396)*J396)))</f>
         <v/>
       </c>
@@ -11246,7 +11243,7 @@
       <c r="H397" s="31"/>
       <c r="I397" s="31"/>
       <c r="J397" s="31"/>
-      <c r="K397" s="22" t="str">
+      <c r="K397" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D397), ISBLANK(E397)),AND(OR(ISBLANK(G397),ISBLANK(H397),ISBLANK(I397)),ISBLANK(J397))),"",IF(ISBLANK(J397),IF(ISBLANK(E397),(D397-F397)*I397*H397*INDIRECT(SUBSTITUTE(G397," ","_"))/1000000,(E397-F397)*I397*H397*INDIRECT(SUBSTITUTE(G397," ","_"))/1000000),IF(ISBLANK(E397),(D397-F397)*J397,(E397-F397)*J397)))</f>
         <v/>
       </c>
@@ -11269,7 +11266,7 @@
       <c r="H398" s="31"/>
       <c r="I398" s="31"/>
       <c r="J398" s="31"/>
-      <c r="K398" s="22" t="str">
+      <c r="K398" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D398), ISBLANK(E398)),AND(OR(ISBLANK(G398),ISBLANK(H398),ISBLANK(I398)),ISBLANK(J398))),"",IF(ISBLANK(J398),IF(ISBLANK(E398),(D398-F398)*I398*H398*INDIRECT(SUBSTITUTE(G398," ","_"))/1000000,(E398-F398)*I398*H398*INDIRECT(SUBSTITUTE(G398," ","_"))/1000000),IF(ISBLANK(E398),(D398-F398)*J398,(E398-F398)*J398)))</f>
         <v/>
       </c>
@@ -11292,7 +11289,7 @@
       <c r="H399" s="31"/>
       <c r="I399" s="31"/>
       <c r="J399" s="31"/>
-      <c r="K399" s="22" t="str">
+      <c r="K399" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D399), ISBLANK(E399)),AND(OR(ISBLANK(G399),ISBLANK(H399),ISBLANK(I399)),ISBLANK(J399))),"",IF(ISBLANK(J399),IF(ISBLANK(E399),(D399-F399)*I399*H399*INDIRECT(SUBSTITUTE(G399," ","_"))/1000000,(E399-F399)*I399*H399*INDIRECT(SUBSTITUTE(G399," ","_"))/1000000),IF(ISBLANK(E399),(D399-F399)*J399,(E399-F399)*J399)))</f>
         <v/>
       </c>
@@ -11315,7 +11312,7 @@
       <c r="H400" s="31"/>
       <c r="I400" s="31"/>
       <c r="J400" s="31"/>
-      <c r="K400" s="22" t="str">
+      <c r="K400" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D400), ISBLANK(E400)),AND(OR(ISBLANK(G400),ISBLANK(H400),ISBLANK(I400)),ISBLANK(J400))),"",IF(ISBLANK(J400),IF(ISBLANK(E400),(D400-F400)*I400*H400*INDIRECT(SUBSTITUTE(G400," ","_"))/1000000,(E400-F400)*I400*H400*INDIRECT(SUBSTITUTE(G400," ","_"))/1000000),IF(ISBLANK(E400),(D400-F400)*J400,(E400-F400)*J400)))</f>
         <v/>
       </c>
@@ -11338,7 +11335,7 @@
       <c r="H401" s="31"/>
       <c r="I401" s="31"/>
       <c r="J401" s="31"/>
-      <c r="K401" s="22" t="str">
+      <c r="K401" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D401), ISBLANK(E401)),AND(OR(ISBLANK(G401),ISBLANK(H401),ISBLANK(I401)),ISBLANK(J401))),"",IF(ISBLANK(J401),IF(ISBLANK(E401),(D401-F401)*I401*H401*INDIRECT(SUBSTITUTE(G401," ","_"))/1000000,(E401-F401)*I401*H401*INDIRECT(SUBSTITUTE(G401," ","_"))/1000000),IF(ISBLANK(E401),(D401-F401)*J401,(E401-F401)*J401)))</f>
         <v/>
       </c>
@@ -11361,7 +11358,7 @@
       <c r="H402" s="31"/>
       <c r="I402" s="31"/>
       <c r="J402" s="31"/>
-      <c r="K402" s="22" t="str">
+      <c r="K402" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D402), ISBLANK(E402)),AND(OR(ISBLANK(G402),ISBLANK(H402),ISBLANK(I402)),ISBLANK(J402))),"",IF(ISBLANK(J402),IF(ISBLANK(E402),(D402-F402)*I402*H402*INDIRECT(SUBSTITUTE(G402," ","_"))/1000000,(E402-F402)*I402*H402*INDIRECT(SUBSTITUTE(G402," ","_"))/1000000),IF(ISBLANK(E402),(D402-F402)*J402,(E402-F402)*J402)))</f>
         <v/>
       </c>
@@ -11384,7 +11381,7 @@
       <c r="H403" s="31"/>
       <c r="I403" s="31"/>
       <c r="J403" s="31"/>
-      <c r="K403" s="22" t="str">
+      <c r="K403" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D403), ISBLANK(E403)),AND(OR(ISBLANK(G403),ISBLANK(H403),ISBLANK(I403)),ISBLANK(J403))),"",IF(ISBLANK(J403),IF(ISBLANK(E403),(D403-F403)*I403*H403*INDIRECT(SUBSTITUTE(G403," ","_"))/1000000,(E403-F403)*I403*H403*INDIRECT(SUBSTITUTE(G403," ","_"))/1000000),IF(ISBLANK(E403),(D403-F403)*J403,(E403-F403)*J403)))</f>
         <v/>
       </c>
@@ -11407,7 +11404,7 @@
       <c r="H404" s="31"/>
       <c r="I404" s="31"/>
       <c r="J404" s="31"/>
-      <c r="K404" s="22" t="str">
+      <c r="K404" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D404), ISBLANK(E404)),AND(OR(ISBLANK(G404),ISBLANK(H404),ISBLANK(I404)),ISBLANK(J404))),"",IF(ISBLANK(J404),IF(ISBLANK(E404),(D404-F404)*I404*H404*INDIRECT(SUBSTITUTE(G404," ","_"))/1000000,(E404-F404)*I404*H404*INDIRECT(SUBSTITUTE(G404," ","_"))/1000000),IF(ISBLANK(E404),(D404-F404)*J404,(E404-F404)*J404)))</f>
         <v/>
       </c>
@@ -11430,7 +11427,7 @@
       <c r="H405" s="31"/>
       <c r="I405" s="31"/>
       <c r="J405" s="31"/>
-      <c r="K405" s="22" t="str">
+      <c r="K405" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D405), ISBLANK(E405)),AND(OR(ISBLANK(G405),ISBLANK(H405),ISBLANK(I405)),ISBLANK(J405))),"",IF(ISBLANK(J405),IF(ISBLANK(E405),(D405-F405)*I405*H405*INDIRECT(SUBSTITUTE(G405," ","_"))/1000000,(E405-F405)*I405*H405*INDIRECT(SUBSTITUTE(G405," ","_"))/1000000),IF(ISBLANK(E405),(D405-F405)*J405,(E405-F405)*J405)))</f>
         <v/>
       </c>
@@ -11453,7 +11450,7 @@
       <c r="H406" s="31"/>
       <c r="I406" s="31"/>
       <c r="J406" s="31"/>
-      <c r="K406" s="22" t="str">
+      <c r="K406" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D406), ISBLANK(E406)),AND(OR(ISBLANK(G406),ISBLANK(H406),ISBLANK(I406)),ISBLANK(J406))),"",IF(ISBLANK(J406),IF(ISBLANK(E406),(D406-F406)*I406*H406*INDIRECT(SUBSTITUTE(G406," ","_"))/1000000,(E406-F406)*I406*H406*INDIRECT(SUBSTITUTE(G406," ","_"))/1000000),IF(ISBLANK(E406),(D406-F406)*J406,(E406-F406)*J406)))</f>
         <v/>
       </c>
@@ -11476,7 +11473,7 @@
       <c r="H407" s="31"/>
       <c r="I407" s="31"/>
       <c r="J407" s="31"/>
-      <c r="K407" s="22" t="str">
+      <c r="K407" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D407), ISBLANK(E407)),AND(OR(ISBLANK(G407),ISBLANK(H407),ISBLANK(I407)),ISBLANK(J407))),"",IF(ISBLANK(J407),IF(ISBLANK(E407),(D407-F407)*I407*H407*INDIRECT(SUBSTITUTE(G407," ","_"))/1000000,(E407-F407)*I407*H407*INDIRECT(SUBSTITUTE(G407," ","_"))/1000000),IF(ISBLANK(E407),(D407-F407)*J407,(E407-F407)*J407)))</f>
         <v/>
       </c>
@@ -11499,7 +11496,7 @@
       <c r="H408" s="31"/>
       <c r="I408" s="31"/>
       <c r="J408" s="31"/>
-      <c r="K408" s="22" t="str">
+      <c r="K408" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D408), ISBLANK(E408)),AND(OR(ISBLANK(G408),ISBLANK(H408),ISBLANK(I408)),ISBLANK(J408))),"",IF(ISBLANK(J408),IF(ISBLANK(E408),(D408-F408)*I408*H408*INDIRECT(SUBSTITUTE(G408," ","_"))/1000000,(E408-F408)*I408*H408*INDIRECT(SUBSTITUTE(G408," ","_"))/1000000),IF(ISBLANK(E408),(D408-F408)*J408,(E408-F408)*J408)))</f>
         <v/>
       </c>
@@ -11522,7 +11519,7 @@
       <c r="H409" s="31"/>
       <c r="I409" s="31"/>
       <c r="J409" s="31"/>
-      <c r="K409" s="22" t="str">
+      <c r="K409" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D409), ISBLANK(E409)),AND(OR(ISBLANK(G409),ISBLANK(H409),ISBLANK(I409)),ISBLANK(J409))),"",IF(ISBLANK(J409),IF(ISBLANK(E409),(D409-F409)*I409*H409*INDIRECT(SUBSTITUTE(G409," ","_"))/1000000,(E409-F409)*I409*H409*INDIRECT(SUBSTITUTE(G409," ","_"))/1000000),IF(ISBLANK(E409),(D409-F409)*J409,(E409-F409)*J409)))</f>
         <v/>
       </c>
@@ -11545,7 +11542,7 @@
       <c r="H410" s="31"/>
       <c r="I410" s="31"/>
       <c r="J410" s="31"/>
-      <c r="K410" s="22" t="str">
+      <c r="K410" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D410), ISBLANK(E410)),AND(OR(ISBLANK(G410),ISBLANK(H410),ISBLANK(I410)),ISBLANK(J410))),"",IF(ISBLANK(J410),IF(ISBLANK(E410),(D410-F410)*I410*H410*INDIRECT(SUBSTITUTE(G410," ","_"))/1000000,(E410-F410)*I410*H410*INDIRECT(SUBSTITUTE(G410," ","_"))/1000000),IF(ISBLANK(E410),(D410-F410)*J410,(E410-F410)*J410)))</f>
         <v/>
       </c>
@@ -11568,7 +11565,7 @@
       <c r="H411" s="31"/>
       <c r="I411" s="31"/>
       <c r="J411" s="31"/>
-      <c r="K411" s="22" t="str">
+      <c r="K411" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D411), ISBLANK(E411)),AND(OR(ISBLANK(G411),ISBLANK(H411),ISBLANK(I411)),ISBLANK(J411))),"",IF(ISBLANK(J411),IF(ISBLANK(E411),(D411-F411)*I411*H411*INDIRECT(SUBSTITUTE(G411," ","_"))/1000000,(E411-F411)*I411*H411*INDIRECT(SUBSTITUTE(G411," ","_"))/1000000),IF(ISBLANK(E411),(D411-F411)*J411,(E411-F411)*J411)))</f>
         <v/>
       </c>
@@ -11591,7 +11588,7 @@
       <c r="H412" s="31"/>
       <c r="I412" s="31"/>
       <c r="J412" s="31"/>
-      <c r="K412" s="22" t="str">
+      <c r="K412" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D412), ISBLANK(E412)),AND(OR(ISBLANK(G412),ISBLANK(H412),ISBLANK(I412)),ISBLANK(J412))),"",IF(ISBLANK(J412),IF(ISBLANK(E412),(D412-F412)*I412*H412*INDIRECT(SUBSTITUTE(G412," ","_"))/1000000,(E412-F412)*I412*H412*INDIRECT(SUBSTITUTE(G412," ","_"))/1000000),IF(ISBLANK(E412),(D412-F412)*J412,(E412-F412)*J412)))</f>
         <v/>
       </c>
@@ -11614,7 +11611,7 @@
       <c r="H413" s="31"/>
       <c r="I413" s="31"/>
       <c r="J413" s="31"/>
-      <c r="K413" s="22" t="str">
+      <c r="K413" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D413), ISBLANK(E413)),AND(OR(ISBLANK(G413),ISBLANK(H413),ISBLANK(I413)),ISBLANK(J413))),"",IF(ISBLANK(J413),IF(ISBLANK(E413),(D413-F413)*I413*H413*INDIRECT(SUBSTITUTE(G413," ","_"))/1000000,(E413-F413)*I413*H413*INDIRECT(SUBSTITUTE(G413," ","_"))/1000000),IF(ISBLANK(E413),(D413-F413)*J413,(E413-F413)*J413)))</f>
         <v/>
       </c>
@@ -11637,7 +11634,7 @@
       <c r="H414" s="31"/>
       <c r="I414" s="31"/>
       <c r="J414" s="31"/>
-      <c r="K414" s="22" t="str">
+      <c r="K414" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D414), ISBLANK(E414)),AND(OR(ISBLANK(G414),ISBLANK(H414),ISBLANK(I414)),ISBLANK(J414))),"",IF(ISBLANK(J414),IF(ISBLANK(E414),(D414-F414)*I414*H414*INDIRECT(SUBSTITUTE(G414," ","_"))/1000000,(E414-F414)*I414*H414*INDIRECT(SUBSTITUTE(G414," ","_"))/1000000),IF(ISBLANK(E414),(D414-F414)*J414,(E414-F414)*J414)))</f>
         <v/>
       </c>
@@ -11660,7 +11657,7 @@
       <c r="H415" s="31"/>
       <c r="I415" s="31"/>
       <c r="J415" s="31"/>
-      <c r="K415" s="22" t="str">
+      <c r="K415" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D415), ISBLANK(E415)),AND(OR(ISBLANK(G415),ISBLANK(H415),ISBLANK(I415)),ISBLANK(J415))),"",IF(ISBLANK(J415),IF(ISBLANK(E415),(D415-F415)*I415*H415*INDIRECT(SUBSTITUTE(G415," ","_"))/1000000,(E415-F415)*I415*H415*INDIRECT(SUBSTITUTE(G415," ","_"))/1000000),IF(ISBLANK(E415),(D415-F415)*J415,(E415-F415)*J415)))</f>
         <v/>
       </c>
@@ -11683,7 +11680,7 @@
       <c r="H416" s="31"/>
       <c r="I416" s="31"/>
       <c r="J416" s="31"/>
-      <c r="K416" s="22" t="str">
+      <c r="K416" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D416), ISBLANK(E416)),AND(OR(ISBLANK(G416),ISBLANK(H416),ISBLANK(I416)),ISBLANK(J416))),"",IF(ISBLANK(J416),IF(ISBLANK(E416),(D416-F416)*I416*H416*INDIRECT(SUBSTITUTE(G416," ","_"))/1000000,(E416-F416)*I416*H416*INDIRECT(SUBSTITUTE(G416," ","_"))/1000000),IF(ISBLANK(E416),(D416-F416)*J416,(E416-F416)*J416)))</f>
         <v/>
       </c>
@@ -11706,7 +11703,7 @@
       <c r="H417" s="31"/>
       <c r="I417" s="31"/>
       <c r="J417" s="31"/>
-      <c r="K417" s="22" t="str">
+      <c r="K417" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D417), ISBLANK(E417)),AND(OR(ISBLANK(G417),ISBLANK(H417),ISBLANK(I417)),ISBLANK(J417))),"",IF(ISBLANK(J417),IF(ISBLANK(E417),(D417-F417)*I417*H417*INDIRECT(SUBSTITUTE(G417," ","_"))/1000000,(E417-F417)*I417*H417*INDIRECT(SUBSTITUTE(G417," ","_"))/1000000),IF(ISBLANK(E417),(D417-F417)*J417,(E417-F417)*J417)))</f>
         <v/>
       </c>
@@ -11729,7 +11726,7 @@
       <c r="H418" s="31"/>
       <c r="I418" s="31"/>
       <c r="J418" s="31"/>
-      <c r="K418" s="22" t="str">
+      <c r="K418" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D418), ISBLANK(E418)),AND(OR(ISBLANK(G418),ISBLANK(H418),ISBLANK(I418)),ISBLANK(J418))),"",IF(ISBLANK(J418),IF(ISBLANK(E418),(D418-F418)*I418*H418*INDIRECT(SUBSTITUTE(G418," ","_"))/1000000,(E418-F418)*I418*H418*INDIRECT(SUBSTITUTE(G418," ","_"))/1000000),IF(ISBLANK(E418),(D418-F418)*J418,(E418-F418)*J418)))</f>
         <v/>
       </c>
@@ -11752,7 +11749,7 @@
       <c r="H419" s="31"/>
       <c r="I419" s="31"/>
       <c r="J419" s="31"/>
-      <c r="K419" s="22" t="str">
+      <c r="K419" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D419), ISBLANK(E419)),AND(OR(ISBLANK(G419),ISBLANK(H419),ISBLANK(I419)),ISBLANK(J419))),"",IF(ISBLANK(J419),IF(ISBLANK(E419),(D419-F419)*I419*H419*INDIRECT(SUBSTITUTE(G419," ","_"))/1000000,(E419-F419)*I419*H419*INDIRECT(SUBSTITUTE(G419," ","_"))/1000000),IF(ISBLANK(E419),(D419-F419)*J419,(E419-F419)*J419)))</f>
         <v/>
       </c>
@@ -11775,7 +11772,7 @@
       <c r="H420" s="31"/>
       <c r="I420" s="31"/>
       <c r="J420" s="31"/>
-      <c r="K420" s="22" t="str">
+      <c r="K420" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D420), ISBLANK(E420)),AND(OR(ISBLANK(G420),ISBLANK(H420),ISBLANK(I420)),ISBLANK(J420))),"",IF(ISBLANK(J420),IF(ISBLANK(E420),(D420-F420)*I420*H420*INDIRECT(SUBSTITUTE(G420," ","_"))/1000000,(E420-F420)*I420*H420*INDIRECT(SUBSTITUTE(G420," ","_"))/1000000),IF(ISBLANK(E420),(D420-F420)*J420,(E420-F420)*J420)))</f>
         <v/>
       </c>
@@ -11798,7 +11795,7 @@
       <c r="H421" s="31"/>
       <c r="I421" s="31"/>
       <c r="J421" s="31"/>
-      <c r="K421" s="22" t="str">
+      <c r="K421" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D421), ISBLANK(E421)),AND(OR(ISBLANK(G421),ISBLANK(H421),ISBLANK(I421)),ISBLANK(J421))),"",IF(ISBLANK(J421),IF(ISBLANK(E421),(D421-F421)*I421*H421*INDIRECT(SUBSTITUTE(G421," ","_"))/1000000,(E421-F421)*I421*H421*INDIRECT(SUBSTITUTE(G421," ","_"))/1000000),IF(ISBLANK(E421),(D421-F421)*J421,(E421-F421)*J421)))</f>
         <v/>
       </c>
@@ -11821,7 +11818,7 @@
       <c r="H422" s="31"/>
       <c r="I422" s="31"/>
       <c r="J422" s="31"/>
-      <c r="K422" s="22" t="str">
+      <c r="K422" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D422), ISBLANK(E422)),AND(OR(ISBLANK(G422),ISBLANK(H422),ISBLANK(I422)),ISBLANK(J422))),"",IF(ISBLANK(J422),IF(ISBLANK(E422),(D422-F422)*I422*H422*INDIRECT(SUBSTITUTE(G422," ","_"))/1000000,(E422-F422)*I422*H422*INDIRECT(SUBSTITUTE(G422," ","_"))/1000000),IF(ISBLANK(E422),(D422-F422)*J422,(E422-F422)*J422)))</f>
         <v/>
       </c>
@@ -11844,7 +11841,7 @@
       <c r="H423" s="31"/>
       <c r="I423" s="31"/>
       <c r="J423" s="31"/>
-      <c r="K423" s="22" t="str">
+      <c r="K423" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D423), ISBLANK(E423)),AND(OR(ISBLANK(G423),ISBLANK(H423),ISBLANK(I423)),ISBLANK(J423))),"",IF(ISBLANK(J423),IF(ISBLANK(E423),(D423-F423)*I423*H423*INDIRECT(SUBSTITUTE(G423," ","_"))/1000000,(E423-F423)*I423*H423*INDIRECT(SUBSTITUTE(G423," ","_"))/1000000),IF(ISBLANK(E423),(D423-F423)*J423,(E423-F423)*J423)))</f>
         <v/>
       </c>
@@ -11867,7 +11864,7 @@
       <c r="H424" s="31"/>
       <c r="I424" s="31"/>
       <c r="J424" s="31"/>
-      <c r="K424" s="22" t="str">
+      <c r="K424" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D424), ISBLANK(E424)),AND(OR(ISBLANK(G424),ISBLANK(H424),ISBLANK(I424)),ISBLANK(J424))),"",IF(ISBLANK(J424),IF(ISBLANK(E424),(D424-F424)*I424*H424*INDIRECT(SUBSTITUTE(G424," ","_"))/1000000,(E424-F424)*I424*H424*INDIRECT(SUBSTITUTE(G424," ","_"))/1000000),IF(ISBLANK(E424),(D424-F424)*J424,(E424-F424)*J424)))</f>
         <v/>
       </c>
@@ -11890,7 +11887,7 @@
       <c r="H425" s="31"/>
       <c r="I425" s="31"/>
       <c r="J425" s="31"/>
-      <c r="K425" s="22" t="str">
+      <c r="K425" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D425), ISBLANK(E425)),AND(OR(ISBLANK(G425),ISBLANK(H425),ISBLANK(I425)),ISBLANK(J425))),"",IF(ISBLANK(J425),IF(ISBLANK(E425),(D425-F425)*I425*H425*INDIRECT(SUBSTITUTE(G425," ","_"))/1000000,(E425-F425)*I425*H425*INDIRECT(SUBSTITUTE(G425," ","_"))/1000000),IF(ISBLANK(E425),(D425-F425)*J425,(E425-F425)*J425)))</f>
         <v/>
       </c>
@@ -11913,7 +11910,7 @@
       <c r="H426" s="31"/>
       <c r="I426" s="31"/>
       <c r="J426" s="31"/>
-      <c r="K426" s="22" t="str">
+      <c r="K426" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D426), ISBLANK(E426)),AND(OR(ISBLANK(G426),ISBLANK(H426),ISBLANK(I426)),ISBLANK(J426))),"",IF(ISBLANK(J426),IF(ISBLANK(E426),(D426-F426)*I426*H426*INDIRECT(SUBSTITUTE(G426," ","_"))/1000000,(E426-F426)*I426*H426*INDIRECT(SUBSTITUTE(G426," ","_"))/1000000),IF(ISBLANK(E426),(D426-F426)*J426,(E426-F426)*J426)))</f>
         <v/>
       </c>
@@ -11936,7 +11933,7 @@
       <c r="H427" s="31"/>
       <c r="I427" s="31"/>
       <c r="J427" s="31"/>
-      <c r="K427" s="22" t="str">
+      <c r="K427" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D427), ISBLANK(E427)),AND(OR(ISBLANK(G427),ISBLANK(H427),ISBLANK(I427)),ISBLANK(J427))),"",IF(ISBLANK(J427),IF(ISBLANK(E427),(D427-F427)*I427*H427*INDIRECT(SUBSTITUTE(G427," ","_"))/1000000,(E427-F427)*I427*H427*INDIRECT(SUBSTITUTE(G427," ","_"))/1000000),IF(ISBLANK(E427),(D427-F427)*J427,(E427-F427)*J427)))</f>
         <v/>
       </c>
@@ -11959,7 +11956,7 @@
       <c r="H428" s="31"/>
       <c r="I428" s="31"/>
       <c r="J428" s="31"/>
-      <c r="K428" s="22" t="str">
+      <c r="K428" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D428), ISBLANK(E428)),AND(OR(ISBLANK(G428),ISBLANK(H428),ISBLANK(I428)),ISBLANK(J428))),"",IF(ISBLANK(J428),IF(ISBLANK(E428),(D428-F428)*I428*H428*INDIRECT(SUBSTITUTE(G428," ","_"))/1000000,(E428-F428)*I428*H428*INDIRECT(SUBSTITUTE(G428," ","_"))/1000000),IF(ISBLANK(E428),(D428-F428)*J428,(E428-F428)*J428)))</f>
         <v/>
       </c>
@@ -11982,7 +11979,7 @@
       <c r="H429" s="31"/>
       <c r="I429" s="31"/>
       <c r="J429" s="31"/>
-      <c r="K429" s="22" t="str">
+      <c r="K429" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D429), ISBLANK(E429)),AND(OR(ISBLANK(G429),ISBLANK(H429),ISBLANK(I429)),ISBLANK(J429))),"",IF(ISBLANK(J429),IF(ISBLANK(E429),(D429-F429)*I429*H429*INDIRECT(SUBSTITUTE(G429," ","_"))/1000000,(E429-F429)*I429*H429*INDIRECT(SUBSTITUTE(G429," ","_"))/1000000),IF(ISBLANK(E429),(D429-F429)*J429,(E429-F429)*J429)))</f>
         <v/>
       </c>
@@ -12005,7 +12002,7 @@
       <c r="H430" s="31"/>
       <c r="I430" s="31"/>
       <c r="J430" s="31"/>
-      <c r="K430" s="22" t="str">
+      <c r="K430" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D430), ISBLANK(E430)),AND(OR(ISBLANK(G430),ISBLANK(H430),ISBLANK(I430)),ISBLANK(J430))),"",IF(ISBLANK(J430),IF(ISBLANK(E430),(D430-F430)*I430*H430*INDIRECT(SUBSTITUTE(G430," ","_"))/1000000,(E430-F430)*I430*H430*INDIRECT(SUBSTITUTE(G430," ","_"))/1000000),IF(ISBLANK(E430),(D430-F430)*J430,(E430-F430)*J430)))</f>
         <v/>
       </c>
@@ -12028,7 +12025,7 @@
       <c r="H431" s="31"/>
       <c r="I431" s="31"/>
       <c r="J431" s="31"/>
-      <c r="K431" s="22" t="str">
+      <c r="K431" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D431), ISBLANK(E431)),AND(OR(ISBLANK(G431),ISBLANK(H431),ISBLANK(I431)),ISBLANK(J431))),"",IF(ISBLANK(J431),IF(ISBLANK(E431),(D431-F431)*I431*H431*INDIRECT(SUBSTITUTE(G431," ","_"))/1000000,(E431-F431)*I431*H431*INDIRECT(SUBSTITUTE(G431," ","_"))/1000000),IF(ISBLANK(E431),(D431-F431)*J431,(E431-F431)*J431)))</f>
         <v/>
       </c>
@@ -12051,7 +12048,7 @@
       <c r="H432" s="31"/>
       <c r="I432" s="31"/>
       <c r="J432" s="31"/>
-      <c r="K432" s="22" t="str">
+      <c r="K432" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D432), ISBLANK(E432)),AND(OR(ISBLANK(G432),ISBLANK(H432),ISBLANK(I432)),ISBLANK(J432))),"",IF(ISBLANK(J432),IF(ISBLANK(E432),(D432-F432)*I432*H432*INDIRECT(SUBSTITUTE(G432," ","_"))/1000000,(E432-F432)*I432*H432*INDIRECT(SUBSTITUTE(G432," ","_"))/1000000),IF(ISBLANK(E432),(D432-F432)*J432,(E432-F432)*J432)))</f>
         <v/>
       </c>
@@ -12074,7 +12071,7 @@
       <c r="H433" s="31"/>
       <c r="I433" s="31"/>
       <c r="J433" s="31"/>
-      <c r="K433" s="22" t="str">
+      <c r="K433" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D433), ISBLANK(E433)),AND(OR(ISBLANK(G433),ISBLANK(H433),ISBLANK(I433)),ISBLANK(J433))),"",IF(ISBLANK(J433),IF(ISBLANK(E433),(D433-F433)*I433*H433*INDIRECT(SUBSTITUTE(G433," ","_"))/1000000,(E433-F433)*I433*H433*INDIRECT(SUBSTITUTE(G433," ","_"))/1000000),IF(ISBLANK(E433),(D433-F433)*J433,(E433-F433)*J433)))</f>
         <v/>
       </c>
@@ -12097,7 +12094,7 @@
       <c r="H434" s="31"/>
       <c r="I434" s="31"/>
       <c r="J434" s="31"/>
-      <c r="K434" s="22" t="str">
+      <c r="K434" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D434), ISBLANK(E434)),AND(OR(ISBLANK(G434),ISBLANK(H434),ISBLANK(I434)),ISBLANK(J434))),"",IF(ISBLANK(J434),IF(ISBLANK(E434),(D434-F434)*I434*H434*INDIRECT(SUBSTITUTE(G434," ","_"))/1000000,(E434-F434)*I434*H434*INDIRECT(SUBSTITUTE(G434," ","_"))/1000000),IF(ISBLANK(E434),(D434-F434)*J434,(E434-F434)*J434)))</f>
         <v/>
       </c>
@@ -12120,7 +12117,7 @@
       <c r="H435" s="31"/>
       <c r="I435" s="31"/>
       <c r="J435" s="31"/>
-      <c r="K435" s="22" t="str">
+      <c r="K435" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D435), ISBLANK(E435)),AND(OR(ISBLANK(G435),ISBLANK(H435),ISBLANK(I435)),ISBLANK(J435))),"",IF(ISBLANK(J435),IF(ISBLANK(E435),(D435-F435)*I435*H435*INDIRECT(SUBSTITUTE(G435," ","_"))/1000000,(E435-F435)*I435*H435*INDIRECT(SUBSTITUTE(G435," ","_"))/1000000),IF(ISBLANK(E435),(D435-F435)*J435,(E435-F435)*J435)))</f>
         <v/>
       </c>
@@ -12143,7 +12140,7 @@
       <c r="H436" s="31"/>
       <c r="I436" s="31"/>
       <c r="J436" s="31"/>
-      <c r="K436" s="22" t="str">
+      <c r="K436" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D436), ISBLANK(E436)),AND(OR(ISBLANK(G436),ISBLANK(H436),ISBLANK(I436)),ISBLANK(J436))),"",IF(ISBLANK(J436),IF(ISBLANK(E436),(D436-F436)*I436*H436*INDIRECT(SUBSTITUTE(G436," ","_"))/1000000,(E436-F436)*I436*H436*INDIRECT(SUBSTITUTE(G436," ","_"))/1000000),IF(ISBLANK(E436),(D436-F436)*J436,(E436-F436)*J436)))</f>
         <v/>
       </c>
@@ -12166,7 +12163,7 @@
       <c r="H437" s="31"/>
       <c r="I437" s="31"/>
       <c r="J437" s="31"/>
-      <c r="K437" s="22" t="str">
+      <c r="K437" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D437), ISBLANK(E437)),AND(OR(ISBLANK(G437),ISBLANK(H437),ISBLANK(I437)),ISBLANK(J437))),"",IF(ISBLANK(J437),IF(ISBLANK(E437),(D437-F437)*I437*H437*INDIRECT(SUBSTITUTE(G437," ","_"))/1000000,(E437-F437)*I437*H437*INDIRECT(SUBSTITUTE(G437," ","_"))/1000000),IF(ISBLANK(E437),(D437-F437)*J437,(E437-F437)*J437)))</f>
         <v/>
       </c>
@@ -12189,7 +12186,7 @@
       <c r="H438" s="31"/>
       <c r="I438" s="31"/>
       <c r="J438" s="31"/>
-      <c r="K438" s="22" t="str">
+      <c r="K438" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D438), ISBLANK(E438)),AND(OR(ISBLANK(G438),ISBLANK(H438),ISBLANK(I438)),ISBLANK(J438))),"",IF(ISBLANK(J438),IF(ISBLANK(E438),(D438-F438)*I438*H438*INDIRECT(SUBSTITUTE(G438," ","_"))/1000000,(E438-F438)*I438*H438*INDIRECT(SUBSTITUTE(G438," ","_"))/1000000),IF(ISBLANK(E438),(D438-F438)*J438,(E438-F438)*J438)))</f>
         <v/>
       </c>
@@ -12212,7 +12209,7 @@
       <c r="H439" s="31"/>
       <c r="I439" s="31"/>
       <c r="J439" s="31"/>
-      <c r="K439" s="22" t="str">
+      <c r="K439" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D439), ISBLANK(E439)),AND(OR(ISBLANK(G439),ISBLANK(H439),ISBLANK(I439)),ISBLANK(J439))),"",IF(ISBLANK(J439),IF(ISBLANK(E439),(D439-F439)*I439*H439*INDIRECT(SUBSTITUTE(G439," ","_"))/1000000,(E439-F439)*I439*H439*INDIRECT(SUBSTITUTE(G439," ","_"))/1000000),IF(ISBLANK(E439),(D439-F439)*J439,(E439-F439)*J439)))</f>
         <v/>
       </c>
@@ -12235,7 +12232,7 @@
       <c r="H440" s="31"/>
       <c r="I440" s="31"/>
       <c r="J440" s="31"/>
-      <c r="K440" s="22" t="str">
+      <c r="K440" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D440), ISBLANK(E440)),AND(OR(ISBLANK(G440),ISBLANK(H440),ISBLANK(I440)),ISBLANK(J440))),"",IF(ISBLANK(J440),IF(ISBLANK(E440),(D440-F440)*I440*H440*INDIRECT(SUBSTITUTE(G440," ","_"))/1000000,(E440-F440)*I440*H440*INDIRECT(SUBSTITUTE(G440," ","_"))/1000000),IF(ISBLANK(E440),(D440-F440)*J440,(E440-F440)*J440)))</f>
         <v/>
       </c>
@@ -12258,7 +12255,7 @@
       <c r="H441" s="31"/>
       <c r="I441" s="31"/>
       <c r="J441" s="31"/>
-      <c r="K441" s="22" t="str">
+      <c r="K441" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D441), ISBLANK(E441)),AND(OR(ISBLANK(G441),ISBLANK(H441),ISBLANK(I441)),ISBLANK(J441))),"",IF(ISBLANK(J441),IF(ISBLANK(E441),(D441-F441)*I441*H441*INDIRECT(SUBSTITUTE(G441," ","_"))/1000000,(E441-F441)*I441*H441*INDIRECT(SUBSTITUTE(G441," ","_"))/1000000),IF(ISBLANK(E441),(D441-F441)*J441,(E441-F441)*J441)))</f>
         <v/>
       </c>
@@ -12281,7 +12278,7 @@
       <c r="H442" s="31"/>
       <c r="I442" s="31"/>
       <c r="J442" s="31"/>
-      <c r="K442" s="22" t="str">
+      <c r="K442" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D442), ISBLANK(E442)),AND(OR(ISBLANK(G442),ISBLANK(H442),ISBLANK(I442)),ISBLANK(J442))),"",IF(ISBLANK(J442),IF(ISBLANK(E442),(D442-F442)*I442*H442*INDIRECT(SUBSTITUTE(G442," ","_"))/1000000,(E442-F442)*I442*H442*INDIRECT(SUBSTITUTE(G442," ","_"))/1000000),IF(ISBLANK(E442),(D442-F442)*J442,(E442-F442)*J442)))</f>
         <v/>
       </c>
@@ -12304,7 +12301,7 @@
       <c r="H443" s="31"/>
       <c r="I443" s="31"/>
       <c r="J443" s="31"/>
-      <c r="K443" s="22" t="str">
+      <c r="K443" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D443), ISBLANK(E443)),AND(OR(ISBLANK(G443),ISBLANK(H443),ISBLANK(I443)),ISBLANK(J443))),"",IF(ISBLANK(J443),IF(ISBLANK(E443),(D443-F443)*I443*H443*INDIRECT(SUBSTITUTE(G443," ","_"))/1000000,(E443-F443)*I443*H443*INDIRECT(SUBSTITUTE(G443," ","_"))/1000000),IF(ISBLANK(E443),(D443-F443)*J443,(E443-F443)*J443)))</f>
         <v/>
       </c>
@@ -12327,7 +12324,7 @@
       <c r="H444" s="31"/>
       <c r="I444" s="31"/>
       <c r="J444" s="31"/>
-      <c r="K444" s="22" t="str">
+      <c r="K444" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D444), ISBLANK(E444)),AND(OR(ISBLANK(G444),ISBLANK(H444),ISBLANK(I444)),ISBLANK(J444))),"",IF(ISBLANK(J444),IF(ISBLANK(E444),(D444-F444)*I444*H444*INDIRECT(SUBSTITUTE(G444," ","_"))/1000000,(E444-F444)*I444*H444*INDIRECT(SUBSTITUTE(G444," ","_"))/1000000),IF(ISBLANK(E444),(D444-F444)*J444,(E444-F444)*J444)))</f>
         <v/>
       </c>
@@ -12350,7 +12347,7 @@
       <c r="H445" s="31"/>
       <c r="I445" s="31"/>
       <c r="J445" s="31"/>
-      <c r="K445" s="22" t="str">
+      <c r="K445" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D445), ISBLANK(E445)),AND(OR(ISBLANK(G445),ISBLANK(H445),ISBLANK(I445)),ISBLANK(J445))),"",IF(ISBLANK(J445),IF(ISBLANK(E445),(D445-F445)*I445*H445*INDIRECT(SUBSTITUTE(G445," ","_"))/1000000,(E445-F445)*I445*H445*INDIRECT(SUBSTITUTE(G445," ","_"))/1000000),IF(ISBLANK(E445),(D445-F445)*J445,(E445-F445)*J445)))</f>
         <v/>
       </c>
@@ -12373,7 +12370,7 @@
       <c r="H446" s="31"/>
       <c r="I446" s="31"/>
       <c r="J446" s="31"/>
-      <c r="K446" s="22" t="str">
+      <c r="K446" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D446), ISBLANK(E446)),AND(OR(ISBLANK(G446),ISBLANK(H446),ISBLANK(I446)),ISBLANK(J446))),"",IF(ISBLANK(J446),IF(ISBLANK(E446),(D446-F446)*I446*H446*INDIRECT(SUBSTITUTE(G446," ","_"))/1000000,(E446-F446)*I446*H446*INDIRECT(SUBSTITUTE(G446," ","_"))/1000000),IF(ISBLANK(E446),(D446-F446)*J446,(E446-F446)*J446)))</f>
         <v/>
       </c>
@@ -12396,7 +12393,7 @@
       <c r="H447" s="31"/>
       <c r="I447" s="31"/>
       <c r="J447" s="31"/>
-      <c r="K447" s="22" t="str">
+      <c r="K447" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D447), ISBLANK(E447)),AND(OR(ISBLANK(G447),ISBLANK(H447),ISBLANK(I447)),ISBLANK(J447))),"",IF(ISBLANK(J447),IF(ISBLANK(E447),(D447-F447)*I447*H447*INDIRECT(SUBSTITUTE(G447," ","_"))/1000000,(E447-F447)*I447*H447*INDIRECT(SUBSTITUTE(G447," ","_"))/1000000),IF(ISBLANK(E447),(D447-F447)*J447,(E447-F447)*J447)))</f>
         <v/>
       </c>
@@ -12419,7 +12416,7 @@
       <c r="H448" s="31"/>
       <c r="I448" s="31"/>
       <c r="J448" s="31"/>
-      <c r="K448" s="22" t="str">
+      <c r="K448" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D448), ISBLANK(E448)),AND(OR(ISBLANK(G448),ISBLANK(H448),ISBLANK(I448)),ISBLANK(J448))),"",IF(ISBLANK(J448),IF(ISBLANK(E448),(D448-F448)*I448*H448*INDIRECT(SUBSTITUTE(G448," ","_"))/1000000,(E448-F448)*I448*H448*INDIRECT(SUBSTITUTE(G448," ","_"))/1000000),IF(ISBLANK(E448),(D448-F448)*J448,(E448-F448)*J448)))</f>
         <v/>
       </c>
@@ -12442,7 +12439,7 @@
       <c r="H449" s="31"/>
       <c r="I449" s="31"/>
       <c r="J449" s="31"/>
-      <c r="K449" s="22" t="str">
+      <c r="K449" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D449), ISBLANK(E449)),AND(OR(ISBLANK(G449),ISBLANK(H449),ISBLANK(I449)),ISBLANK(J449))),"",IF(ISBLANK(J449),IF(ISBLANK(E449),(D449-F449)*I449*H449*INDIRECT(SUBSTITUTE(G449," ","_"))/1000000,(E449-F449)*I449*H449*INDIRECT(SUBSTITUTE(G449," ","_"))/1000000),IF(ISBLANK(E449),(D449-F449)*J449,(E449-F449)*J449)))</f>
         <v/>
       </c>
@@ -12465,7 +12462,7 @@
       <c r="H450" s="31"/>
       <c r="I450" s="31"/>
       <c r="J450" s="31"/>
-      <c r="K450" s="22" t="str">
+      <c r="K450" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D450), ISBLANK(E450)),AND(OR(ISBLANK(G450),ISBLANK(H450),ISBLANK(I450)),ISBLANK(J450))),"",IF(ISBLANK(J450),IF(ISBLANK(E450),(D450-F450)*I450*H450*INDIRECT(SUBSTITUTE(G450," ","_"))/1000000,(E450-F450)*I450*H450*INDIRECT(SUBSTITUTE(G450," ","_"))/1000000),IF(ISBLANK(E450),(D450-F450)*J450,(E450-F450)*J450)))</f>
         <v/>
       </c>
@@ -12488,7 +12485,7 @@
       <c r="H451" s="31"/>
       <c r="I451" s="31"/>
       <c r="J451" s="31"/>
-      <c r="K451" s="22" t="str">
+      <c r="K451" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D451), ISBLANK(E451)),AND(OR(ISBLANK(G451),ISBLANK(H451),ISBLANK(I451)),ISBLANK(J451))),"",IF(ISBLANK(J451),IF(ISBLANK(E451),(D451-F451)*I451*H451*INDIRECT(SUBSTITUTE(G451," ","_"))/1000000,(E451-F451)*I451*H451*INDIRECT(SUBSTITUTE(G451," ","_"))/1000000),IF(ISBLANK(E451),(D451-F451)*J451,(E451-F451)*J451)))</f>
         <v/>
       </c>
@@ -12511,7 +12508,7 @@
       <c r="H452" s="31"/>
       <c r="I452" s="31"/>
       <c r="J452" s="31"/>
-      <c r="K452" s="22" t="str">
+      <c r="K452" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D452), ISBLANK(E452)),AND(OR(ISBLANK(G452),ISBLANK(H452),ISBLANK(I452)),ISBLANK(J452))),"",IF(ISBLANK(J452),IF(ISBLANK(E452),(D452-F452)*I452*H452*INDIRECT(SUBSTITUTE(G452," ","_"))/1000000,(E452-F452)*I452*H452*INDIRECT(SUBSTITUTE(G452," ","_"))/1000000),IF(ISBLANK(E452),(D452-F452)*J452,(E452-F452)*J452)))</f>
         <v/>
       </c>
@@ -12534,7 +12531,7 @@
       <c r="H453" s="31"/>
       <c r="I453" s="31"/>
       <c r="J453" s="31"/>
-      <c r="K453" s="22" t="str">
+      <c r="K453" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D453), ISBLANK(E453)),AND(OR(ISBLANK(G453),ISBLANK(H453),ISBLANK(I453)),ISBLANK(J453))),"",IF(ISBLANK(J453),IF(ISBLANK(E453),(D453-F453)*I453*H453*INDIRECT(SUBSTITUTE(G453," ","_"))/1000000,(E453-F453)*I453*H453*INDIRECT(SUBSTITUTE(G453," ","_"))/1000000),IF(ISBLANK(E453),(D453-F453)*J453,(E453-F453)*J453)))</f>
         <v/>
       </c>
@@ -12557,7 +12554,7 @@
       <c r="H454" s="31"/>
       <c r="I454" s="31"/>
       <c r="J454" s="31"/>
-      <c r="K454" s="22" t="str">
+      <c r="K454" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D454), ISBLANK(E454)),AND(OR(ISBLANK(G454),ISBLANK(H454),ISBLANK(I454)),ISBLANK(J454))),"",IF(ISBLANK(J454),IF(ISBLANK(E454),(D454-F454)*I454*H454*INDIRECT(SUBSTITUTE(G454," ","_"))/1000000,(E454-F454)*I454*H454*INDIRECT(SUBSTITUTE(G454," ","_"))/1000000),IF(ISBLANK(E454),(D454-F454)*J454,(E454-F454)*J454)))</f>
         <v/>
       </c>
@@ -12580,7 +12577,7 @@
       <c r="H455" s="31"/>
       <c r="I455" s="31"/>
       <c r="J455" s="31"/>
-      <c r="K455" s="22" t="str">
+      <c r="K455" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D455), ISBLANK(E455)),AND(OR(ISBLANK(G455),ISBLANK(H455),ISBLANK(I455)),ISBLANK(J455))),"",IF(ISBLANK(J455),IF(ISBLANK(E455),(D455-F455)*I455*H455*INDIRECT(SUBSTITUTE(G455," ","_"))/1000000,(E455-F455)*I455*H455*INDIRECT(SUBSTITUTE(G455," ","_"))/1000000),IF(ISBLANK(E455),(D455-F455)*J455,(E455-F455)*J455)))</f>
         <v/>
       </c>
@@ -12603,7 +12600,7 @@
       <c r="H456" s="31"/>
       <c r="I456" s="31"/>
       <c r="J456" s="31"/>
-      <c r="K456" s="22" t="str">
+      <c r="K456" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D456), ISBLANK(E456)),AND(OR(ISBLANK(G456),ISBLANK(H456),ISBLANK(I456)),ISBLANK(J456))),"",IF(ISBLANK(J456),IF(ISBLANK(E456),(D456-F456)*I456*H456*INDIRECT(SUBSTITUTE(G456," ","_"))/1000000,(E456-F456)*I456*H456*INDIRECT(SUBSTITUTE(G456," ","_"))/1000000),IF(ISBLANK(E456),(D456-F456)*J456,(E456-F456)*J456)))</f>
         <v/>
       </c>
@@ -12626,7 +12623,7 @@
       <c r="H457" s="31"/>
       <c r="I457" s="31"/>
       <c r="J457" s="31"/>
-      <c r="K457" s="22" t="str">
+      <c r="K457" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D457), ISBLANK(E457)),AND(OR(ISBLANK(G457),ISBLANK(H457),ISBLANK(I457)),ISBLANK(J457))),"",IF(ISBLANK(J457),IF(ISBLANK(E457),(D457-F457)*I457*H457*INDIRECT(SUBSTITUTE(G457," ","_"))/1000000,(E457-F457)*I457*H457*INDIRECT(SUBSTITUTE(G457," ","_"))/1000000),IF(ISBLANK(E457),(D457-F457)*J457,(E457-F457)*J457)))</f>
         <v/>
       </c>
@@ -12649,7 +12646,7 @@
       <c r="H458" s="31"/>
       <c r="I458" s="31"/>
       <c r="J458" s="31"/>
-      <c r="K458" s="22" t="str">
+      <c r="K458" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D458), ISBLANK(E458)),AND(OR(ISBLANK(G458),ISBLANK(H458),ISBLANK(I458)),ISBLANK(J458))),"",IF(ISBLANK(J458),IF(ISBLANK(E458),(D458-F458)*I458*H458*INDIRECT(SUBSTITUTE(G458," ","_"))/1000000,(E458-F458)*I458*H458*INDIRECT(SUBSTITUTE(G458," ","_"))/1000000),IF(ISBLANK(E458),(D458-F458)*J458,(E458-F458)*J458)))</f>
         <v/>
       </c>
@@ -12672,7 +12669,7 @@
       <c r="H459" s="31"/>
       <c r="I459" s="31"/>
       <c r="J459" s="31"/>
-      <c r="K459" s="22" t="str">
+      <c r="K459" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D459), ISBLANK(E459)),AND(OR(ISBLANK(G459),ISBLANK(H459),ISBLANK(I459)),ISBLANK(J459))),"",IF(ISBLANK(J459),IF(ISBLANK(E459),(D459-F459)*I459*H459*INDIRECT(SUBSTITUTE(G459," ","_"))/1000000,(E459-F459)*I459*H459*INDIRECT(SUBSTITUTE(G459," ","_"))/1000000),IF(ISBLANK(E459),(D459-F459)*J459,(E459-F459)*J459)))</f>
         <v/>
       </c>
@@ -12695,7 +12692,7 @@
       <c r="H460" s="31"/>
       <c r="I460" s="31"/>
       <c r="J460" s="31"/>
-      <c r="K460" s="22" t="str">
+      <c r="K460" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D460), ISBLANK(E460)),AND(OR(ISBLANK(G460),ISBLANK(H460),ISBLANK(I460)),ISBLANK(J460))),"",IF(ISBLANK(J460),IF(ISBLANK(E460),(D460-F460)*I460*H460*INDIRECT(SUBSTITUTE(G460," ","_"))/1000000,(E460-F460)*I460*H460*INDIRECT(SUBSTITUTE(G460," ","_"))/1000000),IF(ISBLANK(E460),(D460-F460)*J460,(E460-F460)*J460)))</f>
         <v/>
       </c>
@@ -12718,7 +12715,7 @@
       <c r="H461" s="31"/>
       <c r="I461" s="31"/>
       <c r="J461" s="31"/>
-      <c r="K461" s="22" t="str">
+      <c r="K461" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D461), ISBLANK(E461)),AND(OR(ISBLANK(G461),ISBLANK(H461),ISBLANK(I461)),ISBLANK(J461))),"",IF(ISBLANK(J461),IF(ISBLANK(E461),(D461-F461)*I461*H461*INDIRECT(SUBSTITUTE(G461," ","_"))/1000000,(E461-F461)*I461*H461*INDIRECT(SUBSTITUTE(G461," ","_"))/1000000),IF(ISBLANK(E461),(D461-F461)*J461,(E461-F461)*J461)))</f>
         <v/>
       </c>
@@ -12741,7 +12738,7 @@
       <c r="H462" s="31"/>
       <c r="I462" s="31"/>
       <c r="J462" s="31"/>
-      <c r="K462" s="22" t="str">
+      <c r="K462" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D462), ISBLANK(E462)),AND(OR(ISBLANK(G462),ISBLANK(H462),ISBLANK(I462)),ISBLANK(J462))),"",IF(ISBLANK(J462),IF(ISBLANK(E462),(D462-F462)*I462*H462*INDIRECT(SUBSTITUTE(G462," ","_"))/1000000,(E462-F462)*I462*H462*INDIRECT(SUBSTITUTE(G462," ","_"))/1000000),IF(ISBLANK(E462),(D462-F462)*J462,(E462-F462)*J462)))</f>
         <v/>
       </c>
@@ -12764,7 +12761,7 @@
       <c r="H463" s="31"/>
       <c r="I463" s="31"/>
       <c r="J463" s="31"/>
-      <c r="K463" s="22" t="str">
+      <c r="K463" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D463), ISBLANK(E463)),AND(OR(ISBLANK(G463),ISBLANK(H463),ISBLANK(I463)),ISBLANK(J463))),"",IF(ISBLANK(J463),IF(ISBLANK(E463),(D463-F463)*I463*H463*INDIRECT(SUBSTITUTE(G463," ","_"))/1000000,(E463-F463)*I463*H463*INDIRECT(SUBSTITUTE(G463," ","_"))/1000000),IF(ISBLANK(E463),(D463-F463)*J463,(E463-F463)*J463)))</f>
         <v/>
       </c>
@@ -12787,7 +12784,7 @@
       <c r="H464" s="31"/>
       <c r="I464" s="31"/>
       <c r="J464" s="31"/>
-      <c r="K464" s="22" t="str">
+      <c r="K464" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D464), ISBLANK(E464)),AND(OR(ISBLANK(G464),ISBLANK(H464),ISBLANK(I464)),ISBLANK(J464))),"",IF(ISBLANK(J464),IF(ISBLANK(E464),(D464-F464)*I464*H464*INDIRECT(SUBSTITUTE(G464," ","_"))/1000000,(E464-F464)*I464*H464*INDIRECT(SUBSTITUTE(G464," ","_"))/1000000),IF(ISBLANK(E464),(D464-F464)*J464,(E464-F464)*J464)))</f>
         <v/>
       </c>
@@ -12810,7 +12807,7 @@
       <c r="H465" s="31"/>
       <c r="I465" s="31"/>
       <c r="J465" s="31"/>
-      <c r="K465" s="22" t="str">
+      <c r="K465" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D465), ISBLANK(E465)),AND(OR(ISBLANK(G465),ISBLANK(H465),ISBLANK(I465)),ISBLANK(J465))),"",IF(ISBLANK(J465),IF(ISBLANK(E465),(D465-F465)*I465*H465*INDIRECT(SUBSTITUTE(G465," ","_"))/1000000,(E465-F465)*I465*H465*INDIRECT(SUBSTITUTE(G465," ","_"))/1000000),IF(ISBLANK(E465),(D465-F465)*J465,(E465-F465)*J465)))</f>
         <v/>
       </c>
@@ -12833,7 +12830,7 @@
       <c r="H466" s="31"/>
       <c r="I466" s="31"/>
       <c r="J466" s="31"/>
-      <c r="K466" s="22" t="str">
+      <c r="K466" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D466), ISBLANK(E466)),AND(OR(ISBLANK(G466),ISBLANK(H466),ISBLANK(I466)),ISBLANK(J466))),"",IF(ISBLANK(J466),IF(ISBLANK(E466),(D466-F466)*I466*H466*INDIRECT(SUBSTITUTE(G466," ","_"))/1000000,(E466-F466)*I466*H466*INDIRECT(SUBSTITUTE(G466," ","_"))/1000000),IF(ISBLANK(E466),(D466-F466)*J466,(E466-F466)*J466)))</f>
         <v/>
       </c>
@@ -12856,7 +12853,7 @@
       <c r="H467" s="31"/>
       <c r="I467" s="31"/>
       <c r="J467" s="31"/>
-      <c r="K467" s="22" t="str">
+      <c r="K467" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D467), ISBLANK(E467)),AND(OR(ISBLANK(G467),ISBLANK(H467),ISBLANK(I467)),ISBLANK(J467))),"",IF(ISBLANK(J467),IF(ISBLANK(E467),(D467-F467)*I467*H467*INDIRECT(SUBSTITUTE(G467," ","_"))/1000000,(E467-F467)*I467*H467*INDIRECT(SUBSTITUTE(G467," ","_"))/1000000),IF(ISBLANK(E467),(D467-F467)*J467,(E467-F467)*J467)))</f>
         <v/>
       </c>
@@ -12879,7 +12876,7 @@
       <c r="H468" s="31"/>
       <c r="I468" s="31"/>
       <c r="J468" s="31"/>
-      <c r="K468" s="22" t="str">
+      <c r="K468" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D468), ISBLANK(E468)),AND(OR(ISBLANK(G468),ISBLANK(H468),ISBLANK(I468)),ISBLANK(J468))),"",IF(ISBLANK(J468),IF(ISBLANK(E468),(D468-F468)*I468*H468*INDIRECT(SUBSTITUTE(G468," ","_"))/1000000,(E468-F468)*I468*H468*INDIRECT(SUBSTITUTE(G468," ","_"))/1000000),IF(ISBLANK(E468),(D468-F468)*J468,(E468-F468)*J468)))</f>
         <v/>
       </c>
@@ -12902,7 +12899,7 @@
       <c r="H469" s="31"/>
       <c r="I469" s="31"/>
       <c r="J469" s="31"/>
-      <c r="K469" s="22" t="str">
+      <c r="K469" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D469), ISBLANK(E469)),AND(OR(ISBLANK(G469),ISBLANK(H469),ISBLANK(I469)),ISBLANK(J469))),"",IF(ISBLANK(J469),IF(ISBLANK(E469),(D469-F469)*I469*H469*INDIRECT(SUBSTITUTE(G469," ","_"))/1000000,(E469-F469)*I469*H469*INDIRECT(SUBSTITUTE(G469," ","_"))/1000000),IF(ISBLANK(E469),(D469-F469)*J469,(E469-F469)*J469)))</f>
         <v/>
       </c>
@@ -12925,7 +12922,7 @@
       <c r="H470" s="31"/>
       <c r="I470" s="31"/>
       <c r="J470" s="31"/>
-      <c r="K470" s="22" t="str">
+      <c r="K470" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D470), ISBLANK(E470)),AND(OR(ISBLANK(G470),ISBLANK(H470),ISBLANK(I470)),ISBLANK(J470))),"",IF(ISBLANK(J470),IF(ISBLANK(E470),(D470-F470)*I470*H470*INDIRECT(SUBSTITUTE(G470," ","_"))/1000000,(E470-F470)*I470*H470*INDIRECT(SUBSTITUTE(G470," ","_"))/1000000),IF(ISBLANK(E470),(D470-F470)*J470,(E470-F470)*J470)))</f>
         <v/>
       </c>
@@ -12948,7 +12945,7 @@
       <c r="H471" s="31"/>
       <c r="I471" s="31"/>
       <c r="J471" s="31"/>
-      <c r="K471" s="22" t="str">
+      <c r="K471" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D471), ISBLANK(E471)),AND(OR(ISBLANK(G471),ISBLANK(H471),ISBLANK(I471)),ISBLANK(J471))),"",IF(ISBLANK(J471),IF(ISBLANK(E471),(D471-F471)*I471*H471*INDIRECT(SUBSTITUTE(G471," ","_"))/1000000,(E471-F471)*I471*H471*INDIRECT(SUBSTITUTE(G471," ","_"))/1000000),IF(ISBLANK(E471),(D471-F471)*J471,(E471-F471)*J471)))</f>
         <v/>
       </c>
@@ -12971,7 +12968,7 @@
       <c r="H472" s="31"/>
       <c r="I472" s="31"/>
       <c r="J472" s="31"/>
-      <c r="K472" s="22" t="str">
+      <c r="K472" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D472), ISBLANK(E472)),AND(OR(ISBLANK(G472),ISBLANK(H472),ISBLANK(I472)),ISBLANK(J472))),"",IF(ISBLANK(J472),IF(ISBLANK(E472),(D472-F472)*I472*H472*INDIRECT(SUBSTITUTE(G472," ","_"))/1000000,(E472-F472)*I472*H472*INDIRECT(SUBSTITUTE(G472," ","_"))/1000000),IF(ISBLANK(E472),(D472-F472)*J472,(E472-F472)*J472)))</f>
         <v/>
       </c>
@@ -12994,7 +12991,7 @@
       <c r="H473" s="31"/>
       <c r="I473" s="31"/>
       <c r="J473" s="31"/>
-      <c r="K473" s="22" t="str">
+      <c r="K473" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D473), ISBLANK(E473)),AND(OR(ISBLANK(G473),ISBLANK(H473),ISBLANK(I473)),ISBLANK(J473))),"",IF(ISBLANK(J473),IF(ISBLANK(E473),(D473-F473)*I473*H473*INDIRECT(SUBSTITUTE(G473," ","_"))/1000000,(E473-F473)*I473*H473*INDIRECT(SUBSTITUTE(G473," ","_"))/1000000),IF(ISBLANK(E473),(D473-F473)*J473,(E473-F473)*J473)))</f>
         <v/>
       </c>
@@ -13017,7 +13014,7 @@
       <c r="H474" s="31"/>
       <c r="I474" s="31"/>
       <c r="J474" s="31"/>
-      <c r="K474" s="22" t="str">
+      <c r="K474" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D474), ISBLANK(E474)),AND(OR(ISBLANK(G474),ISBLANK(H474),ISBLANK(I474)),ISBLANK(J474))),"",IF(ISBLANK(J474),IF(ISBLANK(E474),(D474-F474)*I474*H474*INDIRECT(SUBSTITUTE(G474," ","_"))/1000000,(E474-F474)*I474*H474*INDIRECT(SUBSTITUTE(G474," ","_"))/1000000),IF(ISBLANK(E474),(D474-F474)*J474,(E474-F474)*J474)))</f>
         <v/>
       </c>
@@ -13040,7 +13037,7 @@
       <c r="H475" s="31"/>
       <c r="I475" s="31"/>
       <c r="J475" s="31"/>
-      <c r="K475" s="22" t="str">
+      <c r="K475" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D475), ISBLANK(E475)),AND(OR(ISBLANK(G475),ISBLANK(H475),ISBLANK(I475)),ISBLANK(J475))),"",IF(ISBLANK(J475),IF(ISBLANK(E475),(D475-F475)*I475*H475*INDIRECT(SUBSTITUTE(G475," ","_"))/1000000,(E475-F475)*I475*H475*INDIRECT(SUBSTITUTE(G475," ","_"))/1000000),IF(ISBLANK(E475),(D475-F475)*J475,(E475-F475)*J475)))</f>
         <v/>
       </c>
@@ -13063,7 +13060,7 @@
       <c r="H476" s="31"/>
       <c r="I476" s="31"/>
       <c r="J476" s="31"/>
-      <c r="K476" s="22" t="str">
+      <c r="K476" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D476), ISBLANK(E476)),AND(OR(ISBLANK(G476),ISBLANK(H476),ISBLANK(I476)),ISBLANK(J476))),"",IF(ISBLANK(J476),IF(ISBLANK(E476),(D476-F476)*I476*H476*INDIRECT(SUBSTITUTE(G476," ","_"))/1000000,(E476-F476)*I476*H476*INDIRECT(SUBSTITUTE(G476," ","_"))/1000000),IF(ISBLANK(E476),(D476-F476)*J476,(E476-F476)*J476)))</f>
         <v/>
       </c>
@@ -13086,7 +13083,7 @@
       <c r="H477" s="31"/>
       <c r="I477" s="31"/>
       <c r="J477" s="31"/>
-      <c r="K477" s="22" t="str">
+      <c r="K477" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D477), ISBLANK(E477)),AND(OR(ISBLANK(G477),ISBLANK(H477),ISBLANK(I477)),ISBLANK(J477))),"",IF(ISBLANK(J477),IF(ISBLANK(E477),(D477-F477)*I477*H477*INDIRECT(SUBSTITUTE(G477," ","_"))/1000000,(E477-F477)*I477*H477*INDIRECT(SUBSTITUTE(G477," ","_"))/1000000),IF(ISBLANK(E477),(D477-F477)*J477,(E477-F477)*J477)))</f>
         <v/>
       </c>
@@ -13109,7 +13106,7 @@
       <c r="H478" s="31"/>
       <c r="I478" s="31"/>
       <c r="J478" s="31"/>
-      <c r="K478" s="22" t="str">
+      <c r="K478" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D478), ISBLANK(E478)),AND(OR(ISBLANK(G478),ISBLANK(H478),ISBLANK(I478)),ISBLANK(J478))),"",IF(ISBLANK(J478),IF(ISBLANK(E478),(D478-F478)*I478*H478*INDIRECT(SUBSTITUTE(G478," ","_"))/1000000,(E478-F478)*I478*H478*INDIRECT(SUBSTITUTE(G478," ","_"))/1000000),IF(ISBLANK(E478),(D478-F478)*J478,(E478-F478)*J478)))</f>
         <v/>
       </c>
@@ -13132,7 +13129,7 @@
       <c r="H479" s="31"/>
       <c r="I479" s="31"/>
       <c r="J479" s="31"/>
-      <c r="K479" s="22" t="str">
+      <c r="K479" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D479), ISBLANK(E479)),AND(OR(ISBLANK(G479),ISBLANK(H479),ISBLANK(I479)),ISBLANK(J479))),"",IF(ISBLANK(J479),IF(ISBLANK(E479),(D479-F479)*I479*H479*INDIRECT(SUBSTITUTE(G479," ","_"))/1000000,(E479-F479)*I479*H479*INDIRECT(SUBSTITUTE(G479," ","_"))/1000000),IF(ISBLANK(E479),(D479-F479)*J479,(E479-F479)*J479)))</f>
         <v/>
       </c>
@@ -13155,7 +13152,7 @@
       <c r="H480" s="31"/>
       <c r="I480" s="31"/>
       <c r="J480" s="31"/>
-      <c r="K480" s="22" t="str">
+      <c r="K480" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D480), ISBLANK(E480)),AND(OR(ISBLANK(G480),ISBLANK(H480),ISBLANK(I480)),ISBLANK(J480))),"",IF(ISBLANK(J480),IF(ISBLANK(E480),(D480-F480)*I480*H480*INDIRECT(SUBSTITUTE(G480," ","_"))/1000000,(E480-F480)*I480*H480*INDIRECT(SUBSTITUTE(G480," ","_"))/1000000),IF(ISBLANK(E480),(D480-F480)*J480,(E480-F480)*J480)))</f>
         <v/>
       </c>
@@ -13178,7 +13175,7 @@
       <c r="H481" s="31"/>
       <c r="I481" s="31"/>
       <c r="J481" s="31"/>
-      <c r="K481" s="22" t="str">
+      <c r="K481" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D481), ISBLANK(E481)),AND(OR(ISBLANK(G481),ISBLANK(H481),ISBLANK(I481)),ISBLANK(J481))),"",IF(ISBLANK(J481),IF(ISBLANK(E481),(D481-F481)*I481*H481*INDIRECT(SUBSTITUTE(G481," ","_"))/1000000,(E481-F481)*I481*H481*INDIRECT(SUBSTITUTE(G481," ","_"))/1000000),IF(ISBLANK(E481),(D481-F481)*J481,(E481-F481)*J481)))</f>
         <v/>
       </c>
@@ -13201,7 +13198,7 @@
       <c r="H482" s="31"/>
       <c r="I482" s="31"/>
       <c r="J482" s="31"/>
-      <c r="K482" s="22" t="str">
+      <c r="K482" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D482), ISBLANK(E482)),AND(OR(ISBLANK(G482),ISBLANK(H482),ISBLANK(I482)),ISBLANK(J482))),"",IF(ISBLANK(J482),IF(ISBLANK(E482),(D482-F482)*I482*H482*INDIRECT(SUBSTITUTE(G482," ","_"))/1000000,(E482-F482)*I482*H482*INDIRECT(SUBSTITUTE(G482," ","_"))/1000000),IF(ISBLANK(E482),(D482-F482)*J482,(E482-F482)*J482)))</f>
         <v/>
       </c>
@@ -13224,7 +13221,7 @@
       <c r="H483" s="31"/>
       <c r="I483" s="31"/>
       <c r="J483" s="31"/>
-      <c r="K483" s="22" t="str">
+      <c r="K483" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D483), ISBLANK(E483)),AND(OR(ISBLANK(G483),ISBLANK(H483),ISBLANK(I483)),ISBLANK(J483))),"",IF(ISBLANK(J483),IF(ISBLANK(E483),(D483-F483)*I483*H483*INDIRECT(SUBSTITUTE(G483," ","_"))/1000000,(E483-F483)*I483*H483*INDIRECT(SUBSTITUTE(G483," ","_"))/1000000),IF(ISBLANK(E483),(D483-F483)*J483,(E483-F483)*J483)))</f>
         <v/>
       </c>
@@ -13247,7 +13244,7 @@
       <c r="H484" s="31"/>
       <c r="I484" s="31"/>
       <c r="J484" s="31"/>
-      <c r="K484" s="22" t="str">
+      <c r="K484" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D484), ISBLANK(E484)),AND(OR(ISBLANK(G484),ISBLANK(H484),ISBLANK(I484)),ISBLANK(J484))),"",IF(ISBLANK(J484),IF(ISBLANK(E484),(D484-F484)*I484*H484*INDIRECT(SUBSTITUTE(G484," ","_"))/1000000,(E484-F484)*I484*H484*INDIRECT(SUBSTITUTE(G484," ","_"))/1000000),IF(ISBLANK(E484),(D484-F484)*J484,(E484-F484)*J484)))</f>
         <v/>
       </c>
@@ -13270,7 +13267,7 @@
       <c r="H485" s="31"/>
       <c r="I485" s="31"/>
       <c r="J485" s="31"/>
-      <c r="K485" s="22" t="str">
+      <c r="K485" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D485), ISBLANK(E485)),AND(OR(ISBLANK(G485),ISBLANK(H485),ISBLANK(I485)),ISBLANK(J485))),"",IF(ISBLANK(J485),IF(ISBLANK(E485),(D485-F485)*I485*H485*INDIRECT(SUBSTITUTE(G485," ","_"))/1000000,(E485-F485)*I485*H485*INDIRECT(SUBSTITUTE(G485," ","_"))/1000000),IF(ISBLANK(E485),(D485-F485)*J485,(E485-F485)*J485)))</f>
         <v/>
       </c>
@@ -13293,7 +13290,7 @@
       <c r="H486" s="31"/>
       <c r="I486" s="31"/>
       <c r="J486" s="31"/>
-      <c r="K486" s="22" t="str">
+      <c r="K486" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D486), ISBLANK(E486)),AND(OR(ISBLANK(G486),ISBLANK(H486),ISBLANK(I486)),ISBLANK(J486))),"",IF(ISBLANK(J486),IF(ISBLANK(E486),(D486-F486)*I486*H486*INDIRECT(SUBSTITUTE(G486," ","_"))/1000000,(E486-F486)*I486*H486*INDIRECT(SUBSTITUTE(G486," ","_"))/1000000),IF(ISBLANK(E486),(D486-F486)*J486,(E486-F486)*J486)))</f>
         <v/>
       </c>
@@ -13316,7 +13313,7 @@
       <c r="H487" s="31"/>
       <c r="I487" s="31"/>
       <c r="J487" s="31"/>
-      <c r="K487" s="22" t="str">
+      <c r="K487" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D487), ISBLANK(E487)),AND(OR(ISBLANK(G487),ISBLANK(H487),ISBLANK(I487)),ISBLANK(J487))),"",IF(ISBLANK(J487),IF(ISBLANK(E487),(D487-F487)*I487*H487*INDIRECT(SUBSTITUTE(G487," ","_"))/1000000,(E487-F487)*I487*H487*INDIRECT(SUBSTITUTE(G487," ","_"))/1000000),IF(ISBLANK(E487),(D487-F487)*J487,(E487-F487)*J487)))</f>
         <v/>
       </c>
@@ -13339,7 +13336,7 @@
       <c r="H488" s="31"/>
       <c r="I488" s="31"/>
       <c r="J488" s="31"/>
-      <c r="K488" s="22" t="str">
+      <c r="K488" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D488), ISBLANK(E488)),AND(OR(ISBLANK(G488),ISBLANK(H488),ISBLANK(I488)),ISBLANK(J488))),"",IF(ISBLANK(J488),IF(ISBLANK(E488),(D488-F488)*I488*H488*INDIRECT(SUBSTITUTE(G488," ","_"))/1000000,(E488-F488)*I488*H488*INDIRECT(SUBSTITUTE(G488," ","_"))/1000000),IF(ISBLANK(E488),(D488-F488)*J488,(E488-F488)*J488)))</f>
         <v/>
       </c>
@@ -13362,7 +13359,7 @@
       <c r="H489" s="31"/>
       <c r="I489" s="31"/>
       <c r="J489" s="31"/>
-      <c r="K489" s="22" t="str">
+      <c r="K489" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D489), ISBLANK(E489)),AND(OR(ISBLANK(G489),ISBLANK(H489),ISBLANK(I489)),ISBLANK(J489))),"",IF(ISBLANK(J489),IF(ISBLANK(E489),(D489-F489)*I489*H489*INDIRECT(SUBSTITUTE(G489," ","_"))/1000000,(E489-F489)*I489*H489*INDIRECT(SUBSTITUTE(G489," ","_"))/1000000),IF(ISBLANK(E489),(D489-F489)*J489,(E489-F489)*J489)))</f>
         <v/>
       </c>
@@ -13385,7 +13382,7 @@
       <c r="H490" s="31"/>
       <c r="I490" s="31"/>
       <c r="J490" s="31"/>
-      <c r="K490" s="22" t="str">
+      <c r="K490" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D490), ISBLANK(E490)),AND(OR(ISBLANK(G490),ISBLANK(H490),ISBLANK(I490)),ISBLANK(J490))),"",IF(ISBLANK(J490),IF(ISBLANK(E490),(D490-F490)*I490*H490*INDIRECT(SUBSTITUTE(G490," ","_"))/1000000,(E490-F490)*I490*H490*INDIRECT(SUBSTITUTE(G490," ","_"))/1000000),IF(ISBLANK(E490),(D490-F490)*J490,(E490-F490)*J490)))</f>
         <v/>
       </c>
@@ -13408,7 +13405,7 @@
       <c r="H491" s="31"/>
       <c r="I491" s="31"/>
       <c r="J491" s="31"/>
-      <c r="K491" s="22" t="str">
+      <c r="K491" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D491), ISBLANK(E491)),AND(OR(ISBLANK(G491),ISBLANK(H491),ISBLANK(I491)),ISBLANK(J491))),"",IF(ISBLANK(J491),IF(ISBLANK(E491),(D491-F491)*I491*H491*INDIRECT(SUBSTITUTE(G491," ","_"))/1000000,(E491-F491)*I491*H491*INDIRECT(SUBSTITUTE(G491," ","_"))/1000000),IF(ISBLANK(E491),(D491-F491)*J491,(E491-F491)*J491)))</f>
         <v/>
       </c>
@@ -13431,7 +13428,7 @@
       <c r="H492" s="31"/>
       <c r="I492" s="31"/>
       <c r="J492" s="31"/>
-      <c r="K492" s="22" t="str">
+      <c r="K492" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D492), ISBLANK(E492)),AND(OR(ISBLANK(G492),ISBLANK(H492),ISBLANK(I492)),ISBLANK(J492))),"",IF(ISBLANK(J492),IF(ISBLANK(E492),(D492-F492)*I492*H492*INDIRECT(SUBSTITUTE(G492," ","_"))/1000000,(E492-F492)*I492*H492*INDIRECT(SUBSTITUTE(G492," ","_"))/1000000),IF(ISBLANK(E492),(D492-F492)*J492,(E492-F492)*J492)))</f>
         <v/>
       </c>
@@ -13454,7 +13451,7 @@
       <c r="H493" s="31"/>
       <c r="I493" s="31"/>
       <c r="J493" s="31"/>
-      <c r="K493" s="22" t="str">
+      <c r="K493" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D493), ISBLANK(E493)),AND(OR(ISBLANK(G493),ISBLANK(H493),ISBLANK(I493)),ISBLANK(J493))),"",IF(ISBLANK(J493),IF(ISBLANK(E493),(D493-F493)*I493*H493*INDIRECT(SUBSTITUTE(G493," ","_"))/1000000,(E493-F493)*I493*H493*INDIRECT(SUBSTITUTE(G493," ","_"))/1000000),IF(ISBLANK(E493),(D493-F493)*J493,(E493-F493)*J493)))</f>
         <v/>
       </c>
@@ -13477,7 +13474,7 @@
       <c r="H494" s="31"/>
       <c r="I494" s="31"/>
       <c r="J494" s="31"/>
-      <c r="K494" s="22" t="str">
+      <c r="K494" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D494), ISBLANK(E494)),AND(OR(ISBLANK(G494),ISBLANK(H494),ISBLANK(I494)),ISBLANK(J494))),"",IF(ISBLANK(J494),IF(ISBLANK(E494),(D494-F494)*I494*H494*INDIRECT(SUBSTITUTE(G494," ","_"))/1000000,(E494-F494)*I494*H494*INDIRECT(SUBSTITUTE(G494," ","_"))/1000000),IF(ISBLANK(E494),(D494-F494)*J494,(E494-F494)*J494)))</f>
         <v/>
       </c>
@@ -13500,7 +13497,7 @@
       <c r="H495" s="31"/>
       <c r="I495" s="31"/>
       <c r="J495" s="31"/>
-      <c r="K495" s="22" t="str">
+      <c r="K495" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D495), ISBLANK(E495)),AND(OR(ISBLANK(G495),ISBLANK(H495),ISBLANK(I495)),ISBLANK(J495))),"",IF(ISBLANK(J495),IF(ISBLANK(E495),(D495-F495)*I495*H495*INDIRECT(SUBSTITUTE(G495," ","_"))/1000000,(E495-F495)*I495*H495*INDIRECT(SUBSTITUTE(G495," ","_"))/1000000),IF(ISBLANK(E495),(D495-F495)*J495,(E495-F495)*J495)))</f>
         <v/>
       </c>
@@ -13523,7 +13520,7 @@
       <c r="H496" s="31"/>
       <c r="I496" s="31"/>
       <c r="J496" s="31"/>
-      <c r="K496" s="22" t="str">
+      <c r="K496" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D496), ISBLANK(E496)),AND(OR(ISBLANK(G496),ISBLANK(H496),ISBLANK(I496)),ISBLANK(J496))),"",IF(ISBLANK(J496),IF(ISBLANK(E496),(D496-F496)*I496*H496*INDIRECT(SUBSTITUTE(G496," ","_"))/1000000,(E496-F496)*I496*H496*INDIRECT(SUBSTITUTE(G496," ","_"))/1000000),IF(ISBLANK(E496),(D496-F496)*J496,(E496-F496)*J496)))</f>
         <v/>
       </c>
@@ -13546,7 +13543,7 @@
       <c r="H497" s="31"/>
       <c r="I497" s="31"/>
       <c r="J497" s="31"/>
-      <c r="K497" s="22" t="str">
+      <c r="K497" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D497), ISBLANK(E497)),AND(OR(ISBLANK(G497),ISBLANK(H497),ISBLANK(I497)),ISBLANK(J497))),"",IF(ISBLANK(J497),IF(ISBLANK(E497),(D497-F497)*I497*H497*INDIRECT(SUBSTITUTE(G497," ","_"))/1000000,(E497-F497)*I497*H497*INDIRECT(SUBSTITUTE(G497," ","_"))/1000000),IF(ISBLANK(E497),(D497-F497)*J497,(E497-F497)*J497)))</f>
         <v/>
       </c>
@@ -13569,7 +13566,7 @@
       <c r="H498" s="31"/>
       <c r="I498" s="31"/>
       <c r="J498" s="31"/>
-      <c r="K498" s="22" t="str">
+      <c r="K498" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D498), ISBLANK(E498)),AND(OR(ISBLANK(G498),ISBLANK(H498),ISBLANK(I498)),ISBLANK(J498))),"",IF(ISBLANK(J498),IF(ISBLANK(E498),(D498-F498)*I498*H498*INDIRECT(SUBSTITUTE(G498," ","_"))/1000000,(E498-F498)*I498*H498*INDIRECT(SUBSTITUTE(G498," ","_"))/1000000),IF(ISBLANK(E498),(D498-F498)*J498,(E498-F498)*J498)))</f>
         <v/>
       </c>
@@ -13592,7 +13589,7 @@
       <c r="H499" s="31"/>
       <c r="I499" s="31"/>
       <c r="J499" s="31"/>
-      <c r="K499" s="22" t="str">
+      <c r="K499" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D499), ISBLANK(E499)),AND(OR(ISBLANK(G499),ISBLANK(H499),ISBLANK(I499)),ISBLANK(J499))),"",IF(ISBLANK(J499),IF(ISBLANK(E499),(D499-F499)*I499*H499*INDIRECT(SUBSTITUTE(G499," ","_"))/1000000,(E499-F499)*I499*H499*INDIRECT(SUBSTITUTE(G499," ","_"))/1000000),IF(ISBLANK(E499),(D499-F499)*J499,(E499-F499)*J499)))</f>
         <v/>
       </c>
@@ -13615,7 +13612,7 @@
       <c r="H500" s="31"/>
       <c r="I500" s="31"/>
       <c r="J500" s="31"/>
-      <c r="K500" s="22" t="str">
+      <c r="K500" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D500), ISBLANK(E500)),AND(OR(ISBLANK(G500),ISBLANK(H500),ISBLANK(I500)),ISBLANK(J500))),"",IF(ISBLANK(J500),IF(ISBLANK(E500),(D500-F500)*I500*H500*INDIRECT(SUBSTITUTE(G500," ","_"))/1000000,(E500-F500)*I500*H500*INDIRECT(SUBSTITUTE(G500," ","_"))/1000000),IF(ISBLANK(E500),(D500-F500)*J500,(E500-F500)*J500)))</f>
         <v/>
       </c>
@@ -13638,7 +13635,7 @@
       <c r="H501" s="31"/>
       <c r="I501" s="31"/>
       <c r="J501" s="31"/>
-      <c r="K501" s="22" t="str">
+      <c r="K501" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D501), ISBLANK(E501)),AND(OR(ISBLANK(G501),ISBLANK(H501),ISBLANK(I501)),ISBLANK(J501))),"",IF(ISBLANK(J501),IF(ISBLANK(E501),(D501-F501)*I501*H501*INDIRECT(SUBSTITUTE(G501," ","_"))/1000000,(E501-F501)*I501*H501*INDIRECT(SUBSTITUTE(G501," ","_"))/1000000),IF(ISBLANK(E501),(D501-F501)*J501,(E501-F501)*J501)))</f>
         <v/>
       </c>
@@ -13661,7 +13658,7 @@
       <c r="H502" s="31"/>
       <c r="I502" s="31"/>
       <c r="J502" s="31"/>
-      <c r="K502" s="22" t="str">
+      <c r="K502" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D502), ISBLANK(E502)),AND(OR(ISBLANK(G502),ISBLANK(H502),ISBLANK(I502)),ISBLANK(J502))),"",IF(ISBLANK(J502),IF(ISBLANK(E502),(D502-F502)*I502*H502*INDIRECT(SUBSTITUTE(G502," ","_"))/1000000,(E502-F502)*I502*H502*INDIRECT(SUBSTITUTE(G502," ","_"))/1000000),IF(ISBLANK(E502),(D502-F502)*J502,(E502-F502)*J502)))</f>
         <v/>
       </c>
@@ -13684,7 +13681,7 @@
       <c r="H503" s="31"/>
       <c r="I503" s="31"/>
       <c r="J503" s="31"/>
-      <c r="K503" s="22" t="str">
+      <c r="K503" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D503), ISBLANK(E503)),AND(OR(ISBLANK(G503),ISBLANK(H503),ISBLANK(I503)),ISBLANK(J503))),"",IF(ISBLANK(J503),IF(ISBLANK(E503),(D503-F503)*I503*H503*INDIRECT(SUBSTITUTE(G503," ","_"))/1000000,(E503-F503)*I503*H503*INDIRECT(SUBSTITUTE(G503," ","_"))/1000000),IF(ISBLANK(E503),(D503-F503)*J503,(E503-F503)*J503)))</f>
         <v/>
       </c>
@@ -13707,7 +13704,7 @@
       <c r="H504" s="31"/>
       <c r="I504" s="31"/>
       <c r="J504" s="31"/>
-      <c r="K504" s="22" t="str">
+      <c r="K504" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D504), ISBLANK(E504)),AND(OR(ISBLANK(G504),ISBLANK(H504),ISBLANK(I504)),ISBLANK(J504))),"",IF(ISBLANK(J504),IF(ISBLANK(E504),(D504-F504)*I504*H504*INDIRECT(SUBSTITUTE(G504," ","_"))/1000000,(E504-F504)*I504*H504*INDIRECT(SUBSTITUTE(G504," ","_"))/1000000),IF(ISBLANK(E504),(D504-F504)*J504,(E504-F504)*J504)))</f>
         <v/>
       </c>
@@ -13730,7 +13727,7 @@
       <c r="H505" s="31"/>
       <c r="I505" s="31"/>
       <c r="J505" s="31"/>
-      <c r="K505" s="22" t="str">
+      <c r="K505" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D505), ISBLANK(E505)),AND(OR(ISBLANK(G505),ISBLANK(H505),ISBLANK(I505)),ISBLANK(J505))),"",IF(ISBLANK(J505),IF(ISBLANK(E505),(D505-F505)*I505*H505*INDIRECT(SUBSTITUTE(G505," ","_"))/1000000,(E505-F505)*I505*H505*INDIRECT(SUBSTITUTE(G505," ","_"))/1000000),IF(ISBLANK(E505),(D505-F505)*J505,(E505-F505)*J505)))</f>
         <v/>
       </c>
@@ -13753,7 +13750,7 @@
       <c r="H506" s="31"/>
       <c r="I506" s="31"/>
       <c r="J506" s="31"/>
-      <c r="K506" s="22" t="str">
+      <c r="K506" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D506), ISBLANK(E506)),AND(OR(ISBLANK(G506),ISBLANK(H506),ISBLANK(I506)),ISBLANK(J506))),"",IF(ISBLANK(J506),IF(ISBLANK(E506),(D506-F506)*I506*H506*INDIRECT(SUBSTITUTE(G506," ","_"))/1000000,(E506-F506)*I506*H506*INDIRECT(SUBSTITUTE(G506," ","_"))/1000000),IF(ISBLANK(E506),(D506-F506)*J506,(E506-F506)*J506)))</f>
         <v/>
       </c>
@@ -13776,7 +13773,7 @@
       <c r="H507" s="31"/>
       <c r="I507" s="31"/>
       <c r="J507" s="31"/>
-      <c r="K507" s="22" t="str">
+      <c r="K507" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D507), ISBLANK(E507)),AND(OR(ISBLANK(G507),ISBLANK(H507),ISBLANK(I507)),ISBLANK(J507))),"",IF(ISBLANK(J507),IF(ISBLANK(E507),(D507-F507)*I507*H507*INDIRECT(SUBSTITUTE(G507," ","_"))/1000000,(E507-F507)*I507*H507*INDIRECT(SUBSTITUTE(G507," ","_"))/1000000),IF(ISBLANK(E507),(D507-F507)*J507,(E507-F507)*J507)))</f>
         <v/>
       </c>
@@ -13799,7 +13796,7 @@
       <c r="H508" s="31"/>
       <c r="I508" s="31"/>
       <c r="J508" s="31"/>
-      <c r="K508" s="22" t="str">
+      <c r="K508" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D508), ISBLANK(E508)),AND(OR(ISBLANK(G508),ISBLANK(H508),ISBLANK(I508)),ISBLANK(J508))),"",IF(ISBLANK(J508),IF(ISBLANK(E508),(D508-F508)*I508*H508*INDIRECT(SUBSTITUTE(G508," ","_"))/1000000,(E508-F508)*I508*H508*INDIRECT(SUBSTITUTE(G508," ","_"))/1000000),IF(ISBLANK(E508),(D508-F508)*J508,(E508-F508)*J508)))</f>
         <v/>
       </c>
@@ -13822,7 +13819,7 @@
       <c r="H509" s="31"/>
       <c r="I509" s="31"/>
       <c r="J509" s="31"/>
-      <c r="K509" s="22" t="str">
+      <c r="K509" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D509), ISBLANK(E509)),AND(OR(ISBLANK(G509),ISBLANK(H509),ISBLANK(I509)),ISBLANK(J509))),"",IF(ISBLANK(J509),IF(ISBLANK(E509),(D509-F509)*I509*H509*INDIRECT(SUBSTITUTE(G509," ","_"))/1000000,(E509-F509)*I509*H509*INDIRECT(SUBSTITUTE(G509," ","_"))/1000000),IF(ISBLANK(E509),(D509-F509)*J509,(E509-F509)*J509)))</f>
         <v/>
       </c>
@@ -13845,7 +13842,7 @@
       <c r="H510" s="31"/>
       <c r="I510" s="31"/>
       <c r="J510" s="31"/>
-      <c r="K510" s="22" t="str">
+      <c r="K510" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D510), ISBLANK(E510)),AND(OR(ISBLANK(G510),ISBLANK(H510),ISBLANK(I510)),ISBLANK(J510))),"",IF(ISBLANK(J510),IF(ISBLANK(E510),(D510-F510)*I510*H510*INDIRECT(SUBSTITUTE(G510," ","_"))/1000000,(E510-F510)*I510*H510*INDIRECT(SUBSTITUTE(G510," ","_"))/1000000),IF(ISBLANK(E510),(D510-F510)*J510,(E510-F510)*J510)))</f>
         <v/>
       </c>
@@ -13868,7 +13865,7 @@
       <c r="H511" s="31"/>
       <c r="I511" s="31"/>
       <c r="J511" s="31"/>
-      <c r="K511" s="22" t="str">
+      <c r="K511" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D511), ISBLANK(E511)),AND(OR(ISBLANK(G511),ISBLANK(H511),ISBLANK(I511)),ISBLANK(J511))),"",IF(ISBLANK(J511),IF(ISBLANK(E511),(D511-F511)*I511*H511*INDIRECT(SUBSTITUTE(G511," ","_"))/1000000,(E511-F511)*I511*H511*INDIRECT(SUBSTITUTE(G511," ","_"))/1000000),IF(ISBLANK(E511),(D511-F511)*J511,(E511-F511)*J511)))</f>
         <v/>
       </c>
@@ -13891,7 +13888,7 @@
       <c r="H512" s="31"/>
       <c r="I512" s="31"/>
       <c r="J512" s="31"/>
-      <c r="K512" s="22" t="str">
+      <c r="K512" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D512), ISBLANK(E512)),AND(OR(ISBLANK(G512),ISBLANK(H512),ISBLANK(I512)),ISBLANK(J512))),"",IF(ISBLANK(J512),IF(ISBLANK(E512),(D512-F512)*I512*H512*INDIRECT(SUBSTITUTE(G512," ","_"))/1000000,(E512-F512)*I512*H512*INDIRECT(SUBSTITUTE(G512," ","_"))/1000000),IF(ISBLANK(E512),(D512-F512)*J512,(E512-F512)*J512)))</f>
         <v/>
       </c>
@@ -13914,7 +13911,7 @@
       <c r="H513" s="31"/>
       <c r="I513" s="31"/>
       <c r="J513" s="31"/>
-      <c r="K513" s="22" t="str">
+      <c r="K513" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D513), ISBLANK(E513)),AND(OR(ISBLANK(G513),ISBLANK(H513),ISBLANK(I513)),ISBLANK(J513))),"",IF(ISBLANK(J513),IF(ISBLANK(E513),(D513-F513)*I513*H513*INDIRECT(SUBSTITUTE(G513," ","_"))/1000000,(E513-F513)*I513*H513*INDIRECT(SUBSTITUTE(G513," ","_"))/1000000),IF(ISBLANK(E513),(D513-F513)*J513,(E513-F513)*J513)))</f>
         <v/>
       </c>
@@ -13937,7 +13934,7 @@
       <c r="H514" s="31"/>
       <c r="I514" s="31"/>
       <c r="J514" s="31"/>
-      <c r="K514" s="22" t="str">
+      <c r="K514" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D514), ISBLANK(E514)),AND(OR(ISBLANK(G514),ISBLANK(H514),ISBLANK(I514)),ISBLANK(J514))),"",IF(ISBLANK(J514),IF(ISBLANK(E514),(D514-F514)*I514*H514*INDIRECT(SUBSTITUTE(G514," ","_"))/1000000,(E514-F514)*I514*H514*INDIRECT(SUBSTITUTE(G514," ","_"))/1000000),IF(ISBLANK(E514),(D514-F514)*J514,(E514-F514)*J514)))</f>
         <v/>
       </c>
@@ -13960,7 +13957,7 @@
       <c r="H515" s="31"/>
       <c r="I515" s="31"/>
       <c r="J515" s="31"/>
-      <c r="K515" s="22" t="str">
+      <c r="K515" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D515), ISBLANK(E515)),AND(OR(ISBLANK(G515),ISBLANK(H515),ISBLANK(I515)),ISBLANK(J515))),"",IF(ISBLANK(J515),IF(ISBLANK(E515),(D515-F515)*I515*H515*INDIRECT(SUBSTITUTE(G515," ","_"))/1000000,(E515-F515)*I515*H515*INDIRECT(SUBSTITUTE(G515," ","_"))/1000000),IF(ISBLANK(E515),(D515-F515)*J515,(E515-F515)*J515)))</f>
         <v/>
       </c>
@@ -13983,7 +13980,7 @@
       <c r="H516" s="31"/>
       <c r="I516" s="31"/>
       <c r="J516" s="31"/>
-      <c r="K516" s="22" t="str">
+      <c r="K516" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D516), ISBLANK(E516)),AND(OR(ISBLANK(G516),ISBLANK(H516),ISBLANK(I516)),ISBLANK(J516))),"",IF(ISBLANK(J516),IF(ISBLANK(E516),(D516-F516)*I516*H516*INDIRECT(SUBSTITUTE(G516," ","_"))/1000000,(E516-F516)*I516*H516*INDIRECT(SUBSTITUTE(G516," ","_"))/1000000),IF(ISBLANK(E516),(D516-F516)*J516,(E516-F516)*J516)))</f>
         <v/>
       </c>
@@ -14006,7 +14003,7 @@
       <c r="H517" s="31"/>
       <c r="I517" s="31"/>
       <c r="J517" s="31"/>
-      <c r="K517" s="22" t="str">
+      <c r="K517" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D517), ISBLANK(E517)),AND(OR(ISBLANK(G517),ISBLANK(H517),ISBLANK(I517)),ISBLANK(J517))),"",IF(ISBLANK(J517),IF(ISBLANK(E517),(D517-F517)*I517*H517*INDIRECT(SUBSTITUTE(G517," ","_"))/1000000,(E517-F517)*I517*H517*INDIRECT(SUBSTITUTE(G517," ","_"))/1000000),IF(ISBLANK(E517),(D517-F517)*J517,(E517-F517)*J517)))</f>
         <v/>
       </c>
@@ -14029,7 +14026,7 @@
       <c r="H518" s="31"/>
       <c r="I518" s="31"/>
       <c r="J518" s="31"/>
-      <c r="K518" s="22" t="str">
+      <c r="K518" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D518), ISBLANK(E518)),AND(OR(ISBLANK(G518),ISBLANK(H518),ISBLANK(I518)),ISBLANK(J518))),"",IF(ISBLANK(J518),IF(ISBLANK(E518),(D518-F518)*I518*H518*INDIRECT(SUBSTITUTE(G518," ","_"))/1000000,(E518-F518)*I518*H518*INDIRECT(SUBSTITUTE(G518," ","_"))/1000000),IF(ISBLANK(E518),(D518-F518)*J518,(E518-F518)*J518)))</f>
         <v/>
       </c>
@@ -14052,7 +14049,7 @@
       <c r="H519" s="31"/>
       <c r="I519" s="31"/>
       <c r="J519" s="31"/>
-      <c r="K519" s="22" t="str">
+      <c r="K519" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D519), ISBLANK(E519)),AND(OR(ISBLANK(G519),ISBLANK(H519),ISBLANK(I519)),ISBLANK(J519))),"",IF(ISBLANK(J519),IF(ISBLANK(E519),(D519-F519)*I519*H519*INDIRECT(SUBSTITUTE(G519," ","_"))/1000000,(E519-F519)*I519*H519*INDIRECT(SUBSTITUTE(G519," ","_"))/1000000),IF(ISBLANK(E519),(D519-F519)*J519,(E519-F519)*J519)))</f>
         <v/>
       </c>
@@ -14075,7 +14072,7 @@
       <c r="H520" s="31"/>
       <c r="I520" s="31"/>
       <c r="J520" s="31"/>
-      <c r="K520" s="22" t="str">
+      <c r="K520" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D520), ISBLANK(E520)),AND(OR(ISBLANK(G520),ISBLANK(H520),ISBLANK(I520)),ISBLANK(J520))),"",IF(ISBLANK(J520),IF(ISBLANK(E520),(D520-F520)*I520*H520*INDIRECT(SUBSTITUTE(G520," ","_"))/1000000,(E520-F520)*I520*H520*INDIRECT(SUBSTITUTE(G520," ","_"))/1000000),IF(ISBLANK(E520),(D520-F520)*J520,(E520-F520)*J520)))</f>
         <v/>
       </c>
@@ -14098,7 +14095,7 @@
       <c r="H521" s="31"/>
       <c r="I521" s="31"/>
       <c r="J521" s="31"/>
-      <c r="K521" s="22" t="str">
+      <c r="K521" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D521), ISBLANK(E521)),AND(OR(ISBLANK(G521),ISBLANK(H521),ISBLANK(I521)),ISBLANK(J521))),"",IF(ISBLANK(J521),IF(ISBLANK(E521),(D521-F521)*I521*H521*INDIRECT(SUBSTITUTE(G521," ","_"))/1000000,(E521-F521)*I521*H521*INDIRECT(SUBSTITUTE(G521," ","_"))/1000000),IF(ISBLANK(E521),(D521-F521)*J521,(E521-F521)*J521)))</f>
         <v/>
       </c>
@@ -14121,7 +14118,7 @@
       <c r="H522" s="31"/>
       <c r="I522" s="31"/>
       <c r="J522" s="31"/>
-      <c r="K522" s="22" t="str">
+      <c r="K522" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D522), ISBLANK(E522)),AND(OR(ISBLANK(G522),ISBLANK(H522),ISBLANK(I522)),ISBLANK(J522))),"",IF(ISBLANK(J522),IF(ISBLANK(E522),(D522-F522)*I522*H522*INDIRECT(SUBSTITUTE(G522," ","_"))/1000000,(E522-F522)*I522*H522*INDIRECT(SUBSTITUTE(G522," ","_"))/1000000),IF(ISBLANK(E522),(D522-F522)*J522,(E522-F522)*J522)))</f>
         <v/>
       </c>
@@ -14144,7 +14141,7 @@
       <c r="H523" s="31"/>
       <c r="I523" s="31"/>
       <c r="J523" s="31"/>
-      <c r="K523" s="22" t="str">
+      <c r="K523" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D523), ISBLANK(E523)),AND(OR(ISBLANK(G523),ISBLANK(H523),ISBLANK(I523)),ISBLANK(J523))),"",IF(ISBLANK(J523),IF(ISBLANK(E523),(D523-F523)*I523*H523*INDIRECT(SUBSTITUTE(G523," ","_"))/1000000,(E523-F523)*I523*H523*INDIRECT(SUBSTITUTE(G523," ","_"))/1000000),IF(ISBLANK(E523),(D523-F523)*J523,(E523-F523)*J523)))</f>
         <v/>
       </c>
@@ -14167,7 +14164,7 @@
       <c r="H524" s="31"/>
       <c r="I524" s="31"/>
       <c r="J524" s="31"/>
-      <c r="K524" s="22" t="str">
+      <c r="K524" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D524), ISBLANK(E524)),AND(OR(ISBLANK(G524),ISBLANK(H524),ISBLANK(I524)),ISBLANK(J524))),"",IF(ISBLANK(J524),IF(ISBLANK(E524),(D524-F524)*I524*H524*INDIRECT(SUBSTITUTE(G524," ","_"))/1000000,(E524-F524)*I524*H524*INDIRECT(SUBSTITUTE(G524," ","_"))/1000000),IF(ISBLANK(E524),(D524-F524)*J524,(E524-F524)*J524)))</f>
         <v/>
       </c>
@@ -14190,7 +14187,7 @@
       <c r="H525" s="31"/>
       <c r="I525" s="31"/>
       <c r="J525" s="31"/>
-      <c r="K525" s="22" t="str">
+      <c r="K525" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D525), ISBLANK(E525)),AND(OR(ISBLANK(G525),ISBLANK(H525),ISBLANK(I525)),ISBLANK(J525))),"",IF(ISBLANK(J525),IF(ISBLANK(E525),(D525-F525)*I525*H525*INDIRECT(SUBSTITUTE(G525," ","_"))/1000000,(E525-F525)*I525*H525*INDIRECT(SUBSTITUTE(G525," ","_"))/1000000),IF(ISBLANK(E525),(D525-F525)*J525,(E525-F525)*J525)))</f>
         <v/>
       </c>
@@ -14213,7 +14210,7 @@
       <c r="H526" s="31"/>
       <c r="I526" s="31"/>
       <c r="J526" s="31"/>
-      <c r="K526" s="22" t="str">
+      <c r="K526" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D526), ISBLANK(E526)),AND(OR(ISBLANK(G526),ISBLANK(H526),ISBLANK(I526)),ISBLANK(J526))),"",IF(ISBLANK(J526),IF(ISBLANK(E526),(D526-F526)*I526*H526*INDIRECT(SUBSTITUTE(G526," ","_"))/1000000,(E526-F526)*I526*H526*INDIRECT(SUBSTITUTE(G526," ","_"))/1000000),IF(ISBLANK(E526),(D526-F526)*J526,(E526-F526)*J526)))</f>
         <v/>
       </c>
@@ -14236,7 +14233,7 @@
       <c r="H527" s="31"/>
       <c r="I527" s="31"/>
       <c r="J527" s="31"/>
-      <c r="K527" s="22" t="str">
+      <c r="K527" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D527), ISBLANK(E527)),AND(OR(ISBLANK(G527),ISBLANK(H527),ISBLANK(I527)),ISBLANK(J527))),"",IF(ISBLANK(J527),IF(ISBLANK(E527),(D527-F527)*I527*H527*INDIRECT(SUBSTITUTE(G527," ","_"))/1000000,(E527-F527)*I527*H527*INDIRECT(SUBSTITUTE(G527," ","_"))/1000000),IF(ISBLANK(E527),(D527-F527)*J527,(E527-F527)*J527)))</f>
         <v/>
       </c>
@@ -14259,7 +14256,7 @@
       <c r="H528" s="31"/>
       <c r="I528" s="31"/>
       <c r="J528" s="31"/>
-      <c r="K528" s="22" t="str">
+      <c r="K528" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D528), ISBLANK(E528)),AND(OR(ISBLANK(G528),ISBLANK(H528),ISBLANK(I528)),ISBLANK(J528))),"",IF(ISBLANK(J528),IF(ISBLANK(E528),(D528-F528)*I528*H528*INDIRECT(SUBSTITUTE(G528," ","_"))/1000000,(E528-F528)*I528*H528*INDIRECT(SUBSTITUTE(G528," ","_"))/1000000),IF(ISBLANK(E528),(D528-F528)*J528,(E528-F528)*J528)))</f>
         <v/>
       </c>
@@ -14282,7 +14279,7 @@
       <c r="H529" s="31"/>
       <c r="I529" s="31"/>
       <c r="J529" s="31"/>
-      <c r="K529" s="22" t="str">
+      <c r="K529" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D529), ISBLANK(E529)),AND(OR(ISBLANK(G529),ISBLANK(H529),ISBLANK(I529)),ISBLANK(J529))),"",IF(ISBLANK(J529),IF(ISBLANK(E529),(D529-F529)*I529*H529*INDIRECT(SUBSTITUTE(G529," ","_"))/1000000,(E529-F529)*I529*H529*INDIRECT(SUBSTITUTE(G529," ","_"))/1000000),IF(ISBLANK(E529),(D529-F529)*J529,(E529-F529)*J529)))</f>
         <v/>
       </c>
@@ -14305,7 +14302,7 @@
       <c r="H530" s="31"/>
       <c r="I530" s="31"/>
       <c r="J530" s="31"/>
-      <c r="K530" s="22" t="str">
+      <c r="K530" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D530), ISBLANK(E530)),AND(OR(ISBLANK(G530),ISBLANK(H530),ISBLANK(I530)),ISBLANK(J530))),"",IF(ISBLANK(J530),IF(ISBLANK(E530),(D530-F530)*I530*H530*INDIRECT(SUBSTITUTE(G530," ","_"))/1000000,(E530-F530)*I530*H530*INDIRECT(SUBSTITUTE(G530," ","_"))/1000000),IF(ISBLANK(E530),(D530-F530)*J530,(E530-F530)*J530)))</f>
         <v/>
       </c>
@@ -14328,7 +14325,7 @@
       <c r="H531" s="31"/>
       <c r="I531" s="31"/>
       <c r="J531" s="31"/>
-      <c r="K531" s="22" t="str">
+      <c r="K531" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D531), ISBLANK(E531)),AND(OR(ISBLANK(G531),ISBLANK(H531),ISBLANK(I531)),ISBLANK(J531))),"",IF(ISBLANK(J531),IF(ISBLANK(E531),(D531-F531)*I531*H531*INDIRECT(SUBSTITUTE(G531," ","_"))/1000000,(E531-F531)*I531*H531*INDIRECT(SUBSTITUTE(G531," ","_"))/1000000),IF(ISBLANK(E531),(D531-F531)*J531,(E531-F531)*J531)))</f>
         <v/>
       </c>
@@ -14351,7 +14348,7 @@
       <c r="H532" s="31"/>
       <c r="I532" s="31"/>
       <c r="J532" s="31"/>
-      <c r="K532" s="22" t="str">
+      <c r="K532" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D532), ISBLANK(E532)),AND(OR(ISBLANK(G532),ISBLANK(H532),ISBLANK(I532)),ISBLANK(J532))),"",IF(ISBLANK(J532),IF(ISBLANK(E532),(D532-F532)*I532*H532*INDIRECT(SUBSTITUTE(G532," ","_"))/1000000,(E532-F532)*I532*H532*INDIRECT(SUBSTITUTE(G532," ","_"))/1000000),IF(ISBLANK(E532),(D532-F532)*J532,(E532-F532)*J532)))</f>
         <v/>
       </c>
@@ -14374,7 +14371,7 @@
       <c r="H533" s="31"/>
       <c r="I533" s="31"/>
       <c r="J533" s="31"/>
-      <c r="K533" s="22" t="str">
+      <c r="K533" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D533), ISBLANK(E533)),AND(OR(ISBLANK(G533),ISBLANK(H533),ISBLANK(I533)),ISBLANK(J533))),"",IF(ISBLANK(J533),IF(ISBLANK(E533),(D533-F533)*I533*H533*INDIRECT(SUBSTITUTE(G533," ","_"))/1000000,(E533-F533)*I533*H533*INDIRECT(SUBSTITUTE(G533," ","_"))/1000000),IF(ISBLANK(E533),(D533-F533)*J533,(E533-F533)*J533)))</f>
         <v/>
       </c>
@@ -14397,7 +14394,7 @@
       <c r="H534" s="31"/>
       <c r="I534" s="31"/>
       <c r="J534" s="31"/>
-      <c r="K534" s="22" t="str">
+      <c r="K534" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D534), ISBLANK(E534)),AND(OR(ISBLANK(G534),ISBLANK(H534),ISBLANK(I534)),ISBLANK(J534))),"",IF(ISBLANK(J534),IF(ISBLANK(E534),(D534-F534)*I534*H534*INDIRECT(SUBSTITUTE(G534," ","_"))/1000000,(E534-F534)*I534*H534*INDIRECT(SUBSTITUTE(G534," ","_"))/1000000),IF(ISBLANK(E534),(D534-F534)*J534,(E534-F534)*J534)))</f>
         <v/>
       </c>
@@ -14420,7 +14417,7 @@
       <c r="H535" s="31"/>
       <c r="I535" s="31"/>
       <c r="J535" s="31"/>
-      <c r="K535" s="22" t="str">
+      <c r="K535" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D535), ISBLANK(E535)),AND(OR(ISBLANK(G535),ISBLANK(H535),ISBLANK(I535)),ISBLANK(J535))),"",IF(ISBLANK(J535),IF(ISBLANK(E535),(D535-F535)*I535*H535*INDIRECT(SUBSTITUTE(G535," ","_"))/1000000,(E535-F535)*I535*H535*INDIRECT(SUBSTITUTE(G535," ","_"))/1000000),IF(ISBLANK(E535),(D535-F535)*J535,(E535-F535)*J535)))</f>
         <v/>
       </c>
@@ -14443,7 +14440,7 @@
       <c r="H536" s="31"/>
       <c r="I536" s="31"/>
       <c r="J536" s="31"/>
-      <c r="K536" s="22" t="str">
+      <c r="K536" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D536), ISBLANK(E536)),AND(OR(ISBLANK(G536),ISBLANK(H536),ISBLANK(I536)),ISBLANK(J536))),"",IF(ISBLANK(J536),IF(ISBLANK(E536),(D536-F536)*I536*H536*INDIRECT(SUBSTITUTE(G536," ","_"))/1000000,(E536-F536)*I536*H536*INDIRECT(SUBSTITUTE(G536," ","_"))/1000000),IF(ISBLANK(E536),(D536-F536)*J536,(E536-F536)*J536)))</f>
         <v/>
       </c>
@@ -14466,7 +14463,7 @@
       <c r="H537" s="31"/>
       <c r="I537" s="31"/>
       <c r="J537" s="31"/>
-      <c r="K537" s="22" t="str">
+      <c r="K537" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D537), ISBLANK(E537)),AND(OR(ISBLANK(G537),ISBLANK(H537),ISBLANK(I537)),ISBLANK(J537))),"",IF(ISBLANK(J537),IF(ISBLANK(E537),(D537-F537)*I537*H537*INDIRECT(SUBSTITUTE(G537," ","_"))/1000000,(E537-F537)*I537*H537*INDIRECT(SUBSTITUTE(G537," ","_"))/1000000),IF(ISBLANK(E537),(D537-F537)*J537,(E537-F537)*J537)))</f>
         <v/>
       </c>
@@ -14489,7 +14486,7 @@
       <c r="H538" s="31"/>
       <c r="I538" s="31"/>
       <c r="J538" s="31"/>
-      <c r="K538" s="22" t="str">
+      <c r="K538" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D538), ISBLANK(E538)),AND(OR(ISBLANK(G538),ISBLANK(H538),ISBLANK(I538)),ISBLANK(J538))),"",IF(ISBLANK(J538),IF(ISBLANK(E538),(D538-F538)*I538*H538*INDIRECT(SUBSTITUTE(G538," ","_"))/1000000,(E538-F538)*I538*H538*INDIRECT(SUBSTITUTE(G538," ","_"))/1000000),IF(ISBLANK(E538),(D538-F538)*J538,(E538-F538)*J538)))</f>
         <v/>
       </c>
@@ -14512,7 +14509,7 @@
       <c r="H539" s="31"/>
       <c r="I539" s="31"/>
       <c r="J539" s="31"/>
-      <c r="K539" s="22" t="str">
+      <c r="K539" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D539), ISBLANK(E539)),AND(OR(ISBLANK(G539),ISBLANK(H539),ISBLANK(I539)),ISBLANK(J539))),"",IF(ISBLANK(J539),IF(ISBLANK(E539),(D539-F539)*I539*H539*INDIRECT(SUBSTITUTE(G539," ","_"))/1000000,(E539-F539)*I539*H539*INDIRECT(SUBSTITUTE(G539," ","_"))/1000000),IF(ISBLANK(E539),(D539-F539)*J539,(E539-F539)*J539)))</f>
         <v/>
       </c>
@@ -14535,7 +14532,7 @@
       <c r="H540" s="31"/>
       <c r="I540" s="31"/>
       <c r="J540" s="31"/>
-      <c r="K540" s="22" t="str">
+      <c r="K540" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D540), ISBLANK(E540)),AND(OR(ISBLANK(G540),ISBLANK(H540),ISBLANK(I540)),ISBLANK(J540))),"",IF(ISBLANK(J540),IF(ISBLANK(E540),(D540-F540)*I540*H540*INDIRECT(SUBSTITUTE(G540," ","_"))/1000000,(E540-F540)*I540*H540*INDIRECT(SUBSTITUTE(G540," ","_"))/1000000),IF(ISBLANK(E540),(D540-F540)*J540,(E540-F540)*J540)))</f>
         <v/>
       </c>
@@ -14558,7 +14555,7 @@
       <c r="H541" s="31"/>
       <c r="I541" s="31"/>
       <c r="J541" s="31"/>
-      <c r="K541" s="22" t="str">
+      <c r="K541" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D541), ISBLANK(E541)),AND(OR(ISBLANK(G541),ISBLANK(H541),ISBLANK(I541)),ISBLANK(J541))),"",IF(ISBLANK(J541),IF(ISBLANK(E541),(D541-F541)*I541*H541*INDIRECT(SUBSTITUTE(G541," ","_"))/1000000,(E541-F541)*I541*H541*INDIRECT(SUBSTITUTE(G541," ","_"))/1000000),IF(ISBLANK(E541),(D541-F541)*J541,(E541-F541)*J541)))</f>
         <v/>
       </c>
@@ -14581,7 +14578,7 @@
       <c r="H542" s="31"/>
       <c r="I542" s="31"/>
       <c r="J542" s="31"/>
-      <c r="K542" s="22" t="str">
+      <c r="K542" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D542), ISBLANK(E542)),AND(OR(ISBLANK(G542),ISBLANK(H542),ISBLANK(I542)),ISBLANK(J542))),"",IF(ISBLANK(J542),IF(ISBLANK(E542),(D542-F542)*I542*H542*INDIRECT(SUBSTITUTE(G542," ","_"))/1000000,(E542-F542)*I542*H542*INDIRECT(SUBSTITUTE(G542," ","_"))/1000000),IF(ISBLANK(E542),(D542-F542)*J542,(E542-F542)*J542)))</f>
         <v/>
       </c>
@@ -14604,7 +14601,7 @@
       <c r="H543" s="31"/>
       <c r="I543" s="31"/>
       <c r="J543" s="31"/>
-      <c r="K543" s="22" t="str">
+      <c r="K543" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D543), ISBLANK(E543)),AND(OR(ISBLANK(G543),ISBLANK(H543),ISBLANK(I543)),ISBLANK(J543))),"",IF(ISBLANK(J543),IF(ISBLANK(E543),(D543-F543)*I543*H543*INDIRECT(SUBSTITUTE(G543," ","_"))/1000000,(E543-F543)*I543*H543*INDIRECT(SUBSTITUTE(G543," ","_"))/1000000),IF(ISBLANK(E543),(D543-F543)*J543,(E543-F543)*J543)))</f>
         <v/>
       </c>
@@ -14627,7 +14624,7 @@
       <c r="H544" s="31"/>
       <c r="I544" s="31"/>
       <c r="J544" s="31"/>
-      <c r="K544" s="22" t="str">
+      <c r="K544" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D544), ISBLANK(E544)),AND(OR(ISBLANK(G544),ISBLANK(H544),ISBLANK(I544)),ISBLANK(J544))),"",IF(ISBLANK(J544),IF(ISBLANK(E544),(D544-F544)*I544*H544*INDIRECT(SUBSTITUTE(G544," ","_"))/1000000,(E544-F544)*I544*H544*INDIRECT(SUBSTITUTE(G544," ","_"))/1000000),IF(ISBLANK(E544),(D544-F544)*J544,(E544-F544)*J544)))</f>
         <v/>
       </c>
@@ -14650,7 +14647,7 @@
       <c r="H545" s="31"/>
       <c r="I545" s="31"/>
       <c r="J545" s="31"/>
-      <c r="K545" s="22" t="str">
+      <c r="K545" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D545), ISBLANK(E545)),AND(OR(ISBLANK(G545),ISBLANK(H545),ISBLANK(I545)),ISBLANK(J545))),"",IF(ISBLANK(J545),IF(ISBLANK(E545),(D545-F545)*I545*H545*INDIRECT(SUBSTITUTE(G545," ","_"))/1000000,(E545-F545)*I545*H545*INDIRECT(SUBSTITUTE(G545," ","_"))/1000000),IF(ISBLANK(E545),(D545-F545)*J545,(E545-F545)*J545)))</f>
         <v/>
       </c>
@@ -14673,7 +14670,7 @@
       <c r="H546" s="31"/>
       <c r="I546" s="31"/>
       <c r="J546" s="31"/>
-      <c r="K546" s="22" t="str">
+      <c r="K546" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D546), ISBLANK(E546)),AND(OR(ISBLANK(G546),ISBLANK(H546),ISBLANK(I546)),ISBLANK(J546))),"",IF(ISBLANK(J546),IF(ISBLANK(E546),(D546-F546)*I546*H546*INDIRECT(SUBSTITUTE(G546," ","_"))/1000000,(E546-F546)*I546*H546*INDIRECT(SUBSTITUTE(G546," ","_"))/1000000),IF(ISBLANK(E546),(D546-F546)*J546,(E546-F546)*J546)))</f>
         <v/>
       </c>
@@ -14696,7 +14693,7 @@
       <c r="H547" s="31"/>
       <c r="I547" s="31"/>
       <c r="J547" s="31"/>
-      <c r="K547" s="22" t="str">
+      <c r="K547" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D547), ISBLANK(E547)),AND(OR(ISBLANK(G547),ISBLANK(H547),ISBLANK(I547)),ISBLANK(J547))),"",IF(ISBLANK(J547),IF(ISBLANK(E547),(D547-F547)*I547*H547*INDIRECT(SUBSTITUTE(G547," ","_"))/1000000,(E547-F547)*I547*H547*INDIRECT(SUBSTITUTE(G547," ","_"))/1000000),IF(ISBLANK(E547),(D547-F547)*J547,(E547-F547)*J547)))</f>
         <v/>
       </c>
@@ -14719,7 +14716,7 @@
       <c r="H548" s="31"/>
       <c r="I548" s="31"/>
       <c r="J548" s="31"/>
-      <c r="K548" s="22" t="str">
+      <c r="K548" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D548), ISBLANK(E548)),AND(OR(ISBLANK(G548),ISBLANK(H548),ISBLANK(I548)),ISBLANK(J548))),"",IF(ISBLANK(J548),IF(ISBLANK(E548),(D548-F548)*I548*H548*INDIRECT(SUBSTITUTE(G548," ","_"))/1000000,(E548-F548)*I548*H548*INDIRECT(SUBSTITUTE(G548," ","_"))/1000000),IF(ISBLANK(E548),(D548-F548)*J548,(E548-F548)*J548)))</f>
         <v/>
       </c>
@@ -14742,7 +14739,7 @@
       <c r="H549" s="31"/>
       <c r="I549" s="31"/>
       <c r="J549" s="31"/>
-      <c r="K549" s="22" t="str">
+      <c r="K549" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D549), ISBLANK(E549)),AND(OR(ISBLANK(G549),ISBLANK(H549),ISBLANK(I549)),ISBLANK(J549))),"",IF(ISBLANK(J549),IF(ISBLANK(E549),(D549-F549)*I549*H549*INDIRECT(SUBSTITUTE(G549," ","_"))/1000000,(E549-F549)*I549*H549*INDIRECT(SUBSTITUTE(G549," ","_"))/1000000),IF(ISBLANK(E549),(D549-F549)*J549,(E549-F549)*J549)))</f>
         <v/>
       </c>
@@ -14765,7 +14762,7 @@
       <c r="H550" s="31"/>
       <c r="I550" s="31"/>
       <c r="J550" s="31"/>
-      <c r="K550" s="22" t="str">
+      <c r="K550" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D550), ISBLANK(E550)),AND(OR(ISBLANK(G550),ISBLANK(H550),ISBLANK(I550)),ISBLANK(J550))),"",IF(ISBLANK(J550),IF(ISBLANK(E550),(D550-F550)*I550*H550*INDIRECT(SUBSTITUTE(G550," ","_"))/1000000,(E550-F550)*I550*H550*INDIRECT(SUBSTITUTE(G550," ","_"))/1000000),IF(ISBLANK(E550),(D550-F550)*J550,(E550-F550)*J550)))</f>
         <v/>
       </c>
@@ -14788,7 +14785,7 @@
       <c r="H551" s="31"/>
       <c r="I551" s="31"/>
       <c r="J551" s="31"/>
-      <c r="K551" s="22" t="str">
+      <c r="K551" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D551), ISBLANK(E551)),AND(OR(ISBLANK(G551),ISBLANK(H551),ISBLANK(I551)),ISBLANK(J551))),"",IF(ISBLANK(J551),IF(ISBLANK(E551),(D551-F551)*I551*H551*INDIRECT(SUBSTITUTE(G551," ","_"))/1000000,(E551-F551)*I551*H551*INDIRECT(SUBSTITUTE(G551," ","_"))/1000000),IF(ISBLANK(E551),(D551-F551)*J551,(E551-F551)*J551)))</f>
         <v/>
       </c>
@@ -14811,7 +14808,7 @@
       <c r="H552" s="31"/>
       <c r="I552" s="31"/>
       <c r="J552" s="31"/>
-      <c r="K552" s="22" t="str">
+      <c r="K552" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D552), ISBLANK(E552)),AND(OR(ISBLANK(G552),ISBLANK(H552),ISBLANK(I552)),ISBLANK(J552))),"",IF(ISBLANK(J552),IF(ISBLANK(E552),(D552-F552)*I552*H552*INDIRECT(SUBSTITUTE(G552," ","_"))/1000000,(E552-F552)*I552*H552*INDIRECT(SUBSTITUTE(G552," ","_"))/1000000),IF(ISBLANK(E552),(D552-F552)*J552,(E552-F552)*J552)))</f>
         <v/>
       </c>
@@ -14834,7 +14831,7 @@
       <c r="H553" s="31"/>
       <c r="I553" s="31"/>
       <c r="J553" s="31"/>
-      <c r="K553" s="22" t="str">
+      <c r="K553" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D553), ISBLANK(E553)),AND(OR(ISBLANK(G553),ISBLANK(H553),ISBLANK(I553)),ISBLANK(J553))),"",IF(ISBLANK(J553),IF(ISBLANK(E553),(D553-F553)*I553*H553*INDIRECT(SUBSTITUTE(G553," ","_"))/1000000,(E553-F553)*I553*H553*INDIRECT(SUBSTITUTE(G553," ","_"))/1000000),IF(ISBLANK(E553),(D553-F553)*J553,(E553-F553)*J553)))</f>
         <v/>
       </c>
@@ -14857,7 +14854,7 @@
       <c r="H554" s="31"/>
       <c r="I554" s="31"/>
       <c r="J554" s="31"/>
-      <c r="K554" s="22" t="str">
+      <c r="K554" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D554), ISBLANK(E554)),AND(OR(ISBLANK(G554),ISBLANK(H554),ISBLANK(I554)),ISBLANK(J554))),"",IF(ISBLANK(J554),IF(ISBLANK(E554),(D554-F554)*I554*H554*INDIRECT(SUBSTITUTE(G554," ","_"))/1000000,(E554-F554)*I554*H554*INDIRECT(SUBSTITUTE(G554," ","_"))/1000000),IF(ISBLANK(E554),(D554-F554)*J554,(E554-F554)*J554)))</f>
         <v/>
       </c>
@@ -14880,7 +14877,7 @@
       <c r="H555" s="31"/>
       <c r="I555" s="31"/>
       <c r="J555" s="31"/>
-      <c r="K555" s="22" t="str">
+      <c r="K555" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D555), ISBLANK(E555)),AND(OR(ISBLANK(G555),ISBLANK(H555),ISBLANK(I555)),ISBLANK(J555))),"",IF(ISBLANK(J555),IF(ISBLANK(E555),(D555-F555)*I555*H555*INDIRECT(SUBSTITUTE(G555," ","_"))/1000000,(E555-F555)*I555*H555*INDIRECT(SUBSTITUTE(G555," ","_"))/1000000),IF(ISBLANK(E555),(D555-F555)*J555,(E555-F555)*J555)))</f>
         <v/>
       </c>
@@ -14903,7 +14900,7 @@
       <c r="H556" s="31"/>
       <c r="I556" s="31"/>
       <c r="J556" s="31"/>
-      <c r="K556" s="22" t="str">
+      <c r="K556" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D556), ISBLANK(E556)),AND(OR(ISBLANK(G556),ISBLANK(H556),ISBLANK(I556)),ISBLANK(J556))),"",IF(ISBLANK(J556),IF(ISBLANK(E556),(D556-F556)*I556*H556*INDIRECT(SUBSTITUTE(G556," ","_"))/1000000,(E556-F556)*I556*H556*INDIRECT(SUBSTITUTE(G556," ","_"))/1000000),IF(ISBLANK(E556),(D556-F556)*J556,(E556-F556)*J556)))</f>
         <v/>
       </c>
@@ -14926,7 +14923,7 @@
       <c r="H557" s="31"/>
       <c r="I557" s="31"/>
       <c r="J557" s="31"/>
-      <c r="K557" s="22" t="str">
+      <c r="K557" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D557), ISBLANK(E557)),AND(OR(ISBLANK(G557),ISBLANK(H557),ISBLANK(I557)),ISBLANK(J557))),"",IF(ISBLANK(J557),IF(ISBLANK(E557),(D557-F557)*I557*H557*INDIRECT(SUBSTITUTE(G557," ","_"))/1000000,(E557-F557)*I557*H557*INDIRECT(SUBSTITUTE(G557," ","_"))/1000000),IF(ISBLANK(E557),(D557-F557)*J557,(E557-F557)*J557)))</f>
         <v/>
       </c>
@@ -14949,7 +14946,7 @@
       <c r="H558" s="31"/>
       <c r="I558" s="31"/>
       <c r="J558" s="31"/>
-      <c r="K558" s="22" t="str">
+      <c r="K558" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D558), ISBLANK(E558)),AND(OR(ISBLANK(G558),ISBLANK(H558),ISBLANK(I558)),ISBLANK(J558))),"",IF(ISBLANK(J558),IF(ISBLANK(E558),(D558-F558)*I558*H558*INDIRECT(SUBSTITUTE(G558," ","_"))/1000000,(E558-F558)*I558*H558*INDIRECT(SUBSTITUTE(G558," ","_"))/1000000),IF(ISBLANK(E558),(D558-F558)*J558,(E558-F558)*J558)))</f>
         <v/>
       </c>
@@ -14972,7 +14969,7 @@
       <c r="H559" s="31"/>
       <c r="I559" s="31"/>
       <c r="J559" s="31"/>
-      <c r="K559" s="22" t="str">
+      <c r="K559" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D559), ISBLANK(E559)),AND(OR(ISBLANK(G559),ISBLANK(H559),ISBLANK(I559)),ISBLANK(J559))),"",IF(ISBLANK(J559),IF(ISBLANK(E559),(D559-F559)*I559*H559*INDIRECT(SUBSTITUTE(G559," ","_"))/1000000,(E559-F559)*I559*H559*INDIRECT(SUBSTITUTE(G559," ","_"))/1000000),IF(ISBLANK(E559),(D559-F559)*J559,(E559-F559)*J559)))</f>
         <v/>
       </c>
@@ -14995,7 +14992,7 @@
       <c r="H560" s="31"/>
       <c r="I560" s="31"/>
       <c r="J560" s="31"/>
-      <c r="K560" s="22" t="str">
+      <c r="K560" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D560), ISBLANK(E560)),AND(OR(ISBLANK(G560),ISBLANK(H560),ISBLANK(I560)),ISBLANK(J560))),"",IF(ISBLANK(J560),IF(ISBLANK(E560),(D560-F560)*I560*H560*INDIRECT(SUBSTITUTE(G560," ","_"))/1000000,(E560-F560)*I560*H560*INDIRECT(SUBSTITUTE(G560," ","_"))/1000000),IF(ISBLANK(E560),(D560-F560)*J560,(E560-F560)*J560)))</f>
         <v/>
       </c>
@@ -15018,7 +15015,7 @@
       <c r="H561" s="31"/>
       <c r="I561" s="31"/>
       <c r="J561" s="31"/>
-      <c r="K561" s="22" t="str">
+      <c r="K561" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D561), ISBLANK(E561)),AND(OR(ISBLANK(G561),ISBLANK(H561),ISBLANK(I561)),ISBLANK(J561))),"",IF(ISBLANK(J561),IF(ISBLANK(E561),(D561-F561)*I561*H561*INDIRECT(SUBSTITUTE(G561," ","_"))/1000000,(E561-F561)*I561*H561*INDIRECT(SUBSTITUTE(G561," ","_"))/1000000),IF(ISBLANK(E561),(D561-F561)*J561,(E561-F561)*J561)))</f>
         <v/>
       </c>
@@ -15041,7 +15038,7 @@
       <c r="H562" s="31"/>
       <c r="I562" s="31"/>
       <c r="J562" s="31"/>
-      <c r="K562" s="22" t="str">
+      <c r="K562" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D562), ISBLANK(E562)),AND(OR(ISBLANK(G562),ISBLANK(H562),ISBLANK(I562)),ISBLANK(J562))),"",IF(ISBLANK(J562),IF(ISBLANK(E562),(D562-F562)*I562*H562*INDIRECT(SUBSTITUTE(G562," ","_"))/1000000,(E562-F562)*I562*H562*INDIRECT(SUBSTITUTE(G562," ","_"))/1000000),IF(ISBLANK(E562),(D562-F562)*J562,(E562-F562)*J562)))</f>
         <v/>
       </c>
@@ -15064,7 +15061,7 @@
       <c r="H563" s="31"/>
       <c r="I563" s="31"/>
       <c r="J563" s="31"/>
-      <c r="K563" s="22" t="str">
+      <c r="K563" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D563), ISBLANK(E563)),AND(OR(ISBLANK(G563),ISBLANK(H563),ISBLANK(I563)),ISBLANK(J563))),"",IF(ISBLANK(J563),IF(ISBLANK(E563),(D563-F563)*I563*H563*INDIRECT(SUBSTITUTE(G563," ","_"))/1000000,(E563-F563)*I563*H563*INDIRECT(SUBSTITUTE(G563," ","_"))/1000000),IF(ISBLANK(E563),(D563-F563)*J563,(E563-F563)*J563)))</f>
         <v/>
       </c>
@@ -15087,7 +15084,7 @@
       <c r="H564" s="31"/>
       <c r="I564" s="31"/>
       <c r="J564" s="31"/>
-      <c r="K564" s="22" t="str">
+      <c r="K564" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D564), ISBLANK(E564)),AND(OR(ISBLANK(G564),ISBLANK(H564),ISBLANK(I564)),ISBLANK(J564))),"",IF(ISBLANK(J564),IF(ISBLANK(E564),(D564-F564)*I564*H564*INDIRECT(SUBSTITUTE(G564," ","_"))/1000000,(E564-F564)*I564*H564*INDIRECT(SUBSTITUTE(G564," ","_"))/1000000),IF(ISBLANK(E564),(D564-F564)*J564,(E564-F564)*J564)))</f>
         <v/>
       </c>
@@ -15110,7 +15107,7 @@
       <c r="H565" s="31"/>
       <c r="I565" s="31"/>
       <c r="J565" s="31"/>
-      <c r="K565" s="22" t="str">
+      <c r="K565" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D565), ISBLANK(E565)),AND(OR(ISBLANK(G565),ISBLANK(H565),ISBLANK(I565)),ISBLANK(J565))),"",IF(ISBLANK(J565),IF(ISBLANK(E565),(D565-F565)*I565*H565*INDIRECT(SUBSTITUTE(G565," ","_"))/1000000,(E565-F565)*I565*H565*INDIRECT(SUBSTITUTE(G565," ","_"))/1000000),IF(ISBLANK(E565),(D565-F565)*J565,(E565-F565)*J565)))</f>
         <v/>
       </c>
@@ -15133,7 +15130,7 @@
       <c r="H566" s="31"/>
       <c r="I566" s="31"/>
       <c r="J566" s="31"/>
-      <c r="K566" s="22" t="str">
+      <c r="K566" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D566), ISBLANK(E566)),AND(OR(ISBLANK(G566),ISBLANK(H566),ISBLANK(I566)),ISBLANK(J566))),"",IF(ISBLANK(J566),IF(ISBLANK(E566),(D566-F566)*I566*H566*INDIRECT(SUBSTITUTE(G566," ","_"))/1000000,(E566-F566)*I566*H566*INDIRECT(SUBSTITUTE(G566," ","_"))/1000000),IF(ISBLANK(E566),(D566-F566)*J566,(E566-F566)*J566)))</f>
         <v/>
       </c>
@@ -15156,7 +15153,7 @@
       <c r="H567" s="31"/>
       <c r="I567" s="31"/>
       <c r="J567" s="31"/>
-      <c r="K567" s="22" t="str">
+      <c r="K567" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D567), ISBLANK(E567)),AND(OR(ISBLANK(G567),ISBLANK(H567),ISBLANK(I567)),ISBLANK(J567))),"",IF(ISBLANK(J567),IF(ISBLANK(E567),(D567-F567)*I567*H567*INDIRECT(SUBSTITUTE(G567," ","_"))/1000000,(E567-F567)*I567*H567*INDIRECT(SUBSTITUTE(G567," ","_"))/1000000),IF(ISBLANK(E567),(D567-F567)*J567,(E567-F567)*J567)))</f>
         <v/>
       </c>
@@ -15179,7 +15176,7 @@
       <c r="H568" s="31"/>
       <c r="I568" s="31"/>
       <c r="J568" s="31"/>
-      <c r="K568" s="22" t="str">
+      <c r="K568" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D568), ISBLANK(E568)),AND(OR(ISBLANK(G568),ISBLANK(H568),ISBLANK(I568)),ISBLANK(J568))),"",IF(ISBLANK(J568),IF(ISBLANK(E568),(D568-F568)*I568*H568*INDIRECT(SUBSTITUTE(G568," ","_"))/1000000,(E568-F568)*I568*H568*INDIRECT(SUBSTITUTE(G568," ","_"))/1000000),IF(ISBLANK(E568),(D568-F568)*J568,(E568-F568)*J568)))</f>
         <v/>
       </c>
@@ -15202,7 +15199,7 @@
       <c r="H569" s="31"/>
       <c r="I569" s="31"/>
       <c r="J569" s="31"/>
-      <c r="K569" s="22" t="str">
+      <c r="K569" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D569), ISBLANK(E569)),AND(OR(ISBLANK(G569),ISBLANK(H569),ISBLANK(I569)),ISBLANK(J569))),"",IF(ISBLANK(J569),IF(ISBLANK(E569),(D569-F569)*I569*H569*INDIRECT(SUBSTITUTE(G569," ","_"))/1000000,(E569-F569)*I569*H569*INDIRECT(SUBSTITUTE(G569," ","_"))/1000000),IF(ISBLANK(E569),(D569-F569)*J569,(E569-F569)*J569)))</f>
         <v/>
       </c>
@@ -15225,7 +15222,7 @@
       <c r="H570" s="31"/>
       <c r="I570" s="31"/>
       <c r="J570" s="31"/>
-      <c r="K570" s="22" t="str">
+      <c r="K570" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D570), ISBLANK(E570)),AND(OR(ISBLANK(G570),ISBLANK(H570),ISBLANK(I570)),ISBLANK(J570))),"",IF(ISBLANK(J570),IF(ISBLANK(E570),(D570-F570)*I570*H570*INDIRECT(SUBSTITUTE(G570," ","_"))/1000000,(E570-F570)*I570*H570*INDIRECT(SUBSTITUTE(G570," ","_"))/1000000),IF(ISBLANK(E570),(D570-F570)*J570,(E570-F570)*J570)))</f>
         <v/>
       </c>
@@ -15248,7 +15245,7 @@
       <c r="H571" s="31"/>
       <c r="I571" s="31"/>
       <c r="J571" s="31"/>
-      <c r="K571" s="22" t="str">
+      <c r="K571" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D571), ISBLANK(E571)),AND(OR(ISBLANK(G571),ISBLANK(H571),ISBLANK(I571)),ISBLANK(J571))),"",IF(ISBLANK(J571),IF(ISBLANK(E571),(D571-F571)*I571*H571*INDIRECT(SUBSTITUTE(G571," ","_"))/1000000,(E571-F571)*I571*H571*INDIRECT(SUBSTITUTE(G571," ","_"))/1000000),IF(ISBLANK(E571),(D571-F571)*J571,(E571-F571)*J571)))</f>
         <v/>
       </c>
@@ -15271,7 +15268,7 @@
       <c r="H572" s="31"/>
       <c r="I572" s="31"/>
       <c r="J572" s="31"/>
-      <c r="K572" s="22" t="str">
+      <c r="K572" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D572), ISBLANK(E572)),AND(OR(ISBLANK(G572),ISBLANK(H572),ISBLANK(I572)),ISBLANK(J572))),"",IF(ISBLANK(J572),IF(ISBLANK(E572),(D572-F572)*I572*H572*INDIRECT(SUBSTITUTE(G572," ","_"))/1000000,(E572-F572)*I572*H572*INDIRECT(SUBSTITUTE(G572," ","_"))/1000000),IF(ISBLANK(E572),(D572-F572)*J572,(E572-F572)*J572)))</f>
         <v/>
       </c>
@@ -15294,7 +15291,7 @@
       <c r="H573" s="31"/>
       <c r="I573" s="31"/>
       <c r="J573" s="31"/>
-      <c r="K573" s="22" t="str">
+      <c r="K573" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D573), ISBLANK(E573)),AND(OR(ISBLANK(G573),ISBLANK(H573),ISBLANK(I573)),ISBLANK(J573))),"",IF(ISBLANK(J573),IF(ISBLANK(E573),(D573-F573)*I573*H573*INDIRECT(SUBSTITUTE(G573," ","_"))/1000000,(E573-F573)*I573*H573*INDIRECT(SUBSTITUTE(G573," ","_"))/1000000),IF(ISBLANK(E573),(D573-F573)*J573,(E573-F573)*J573)))</f>
         <v/>
       </c>
@@ -15317,7 +15314,7 @@
       <c r="H574" s="31"/>
       <c r="I574" s="31"/>
       <c r="J574" s="31"/>
-      <c r="K574" s="22" t="str">
+      <c r="K574" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D574), ISBLANK(E574)),AND(OR(ISBLANK(G574),ISBLANK(H574),ISBLANK(I574)),ISBLANK(J574))),"",IF(ISBLANK(J574),IF(ISBLANK(E574),(D574-F574)*I574*H574*INDIRECT(SUBSTITUTE(G574," ","_"))/1000000,(E574-F574)*I574*H574*INDIRECT(SUBSTITUTE(G574," ","_"))/1000000),IF(ISBLANK(E574),(D574-F574)*J574,(E574-F574)*J574)))</f>
         <v/>
       </c>
@@ -15340,7 +15337,7 @@
       <c r="H575" s="31"/>
       <c r="I575" s="31"/>
       <c r="J575" s="31"/>
-      <c r="K575" s="22" t="str">
+      <c r="K575" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D575), ISBLANK(E575)),AND(OR(ISBLANK(G575),ISBLANK(H575),ISBLANK(I575)),ISBLANK(J575))),"",IF(ISBLANK(J575),IF(ISBLANK(E575),(D575-F575)*I575*H575*INDIRECT(SUBSTITUTE(G575," ","_"))/1000000,(E575-F575)*I575*H575*INDIRECT(SUBSTITUTE(G575," ","_"))/1000000),IF(ISBLANK(E575),(D575-F575)*J575,(E575-F575)*J575)))</f>
         <v/>
       </c>
@@ -15363,7 +15360,7 @@
       <c r="H576" s="31"/>
       <c r="I576" s="31"/>
       <c r="J576" s="31"/>
-      <c r="K576" s="22" t="str">
+      <c r="K576" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D576), ISBLANK(E576)),AND(OR(ISBLANK(G576),ISBLANK(H576),ISBLANK(I576)),ISBLANK(J576))),"",IF(ISBLANK(J576),IF(ISBLANK(E576),(D576-F576)*I576*H576*INDIRECT(SUBSTITUTE(G576," ","_"))/1000000,(E576-F576)*I576*H576*INDIRECT(SUBSTITUTE(G576," ","_"))/1000000),IF(ISBLANK(E576),(D576-F576)*J576,(E576-F576)*J576)))</f>
         <v/>
       </c>
@@ -15386,7 +15383,7 @@
       <c r="H577" s="31"/>
       <c r="I577" s="31"/>
       <c r="J577" s="31"/>
-      <c r="K577" s="22" t="str">
+      <c r="K577" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D577), ISBLANK(E577)),AND(OR(ISBLANK(G577),ISBLANK(H577),ISBLANK(I577)),ISBLANK(J577))),"",IF(ISBLANK(J577),IF(ISBLANK(E577),(D577-F577)*I577*H577*INDIRECT(SUBSTITUTE(G577," ","_"))/1000000,(E577-F577)*I577*H577*INDIRECT(SUBSTITUTE(G577," ","_"))/1000000),IF(ISBLANK(E577),(D577-F577)*J577,(E577-F577)*J577)))</f>
         <v/>
       </c>
@@ -15409,7 +15406,7 @@
       <c r="H578" s="31"/>
       <c r="I578" s="31"/>
       <c r="J578" s="31"/>
-      <c r="K578" s="22" t="str">
+      <c r="K578" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D578), ISBLANK(E578)),AND(OR(ISBLANK(G578),ISBLANK(H578),ISBLANK(I578)),ISBLANK(J578))),"",IF(ISBLANK(J578),IF(ISBLANK(E578),(D578-F578)*I578*H578*INDIRECT(SUBSTITUTE(G578," ","_"))/1000000,(E578-F578)*I578*H578*INDIRECT(SUBSTITUTE(G578," ","_"))/1000000),IF(ISBLANK(E578),(D578-F578)*J578,(E578-F578)*J578)))</f>
         <v/>
       </c>
@@ -15432,7 +15429,7 @@
       <c r="H579" s="31"/>
       <c r="I579" s="31"/>
       <c r="J579" s="31"/>
-      <c r="K579" s="22" t="str">
+      <c r="K579" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D579), ISBLANK(E579)),AND(OR(ISBLANK(G579),ISBLANK(H579),ISBLANK(I579)),ISBLANK(J579))),"",IF(ISBLANK(J579),IF(ISBLANK(E579),(D579-F579)*I579*H579*INDIRECT(SUBSTITUTE(G579," ","_"))/1000000,(E579-F579)*I579*H579*INDIRECT(SUBSTITUTE(G579," ","_"))/1000000),IF(ISBLANK(E579),(D579-F579)*J579,(E579-F579)*J579)))</f>
         <v/>
       </c>
@@ -15455,7 +15452,7 @@
       <c r="H580" s="31"/>
       <c r="I580" s="31"/>
       <c r="J580" s="31"/>
-      <c r="K580" s="22" t="str">
+      <c r="K580" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D580), ISBLANK(E580)),AND(OR(ISBLANK(G580),ISBLANK(H580),ISBLANK(I580)),ISBLANK(J580))),"",IF(ISBLANK(J580),IF(ISBLANK(E580),(D580-F580)*I580*H580*INDIRECT(SUBSTITUTE(G580," ","_"))/1000000,(E580-F580)*I580*H580*INDIRECT(SUBSTITUTE(G580," ","_"))/1000000),IF(ISBLANK(E580),(D580-F580)*J580,(E580-F580)*J580)))</f>
         <v/>
       </c>
@@ -15478,7 +15475,7 @@
       <c r="H581" s="31"/>
       <c r="I581" s="31"/>
       <c r="J581" s="31"/>
-      <c r="K581" s="22" t="str">
+      <c r="K581" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D581), ISBLANK(E581)),AND(OR(ISBLANK(G581),ISBLANK(H581),ISBLANK(I581)),ISBLANK(J581))),"",IF(ISBLANK(J581),IF(ISBLANK(E581),(D581-F581)*I581*H581*INDIRECT(SUBSTITUTE(G581," ","_"))/1000000,(E581-F581)*I581*H581*INDIRECT(SUBSTITUTE(G581," ","_"))/1000000),IF(ISBLANK(E581),(D581-F581)*J581,(E581-F581)*J581)))</f>
         <v/>
       </c>
@@ -15501,7 +15498,7 @@
       <c r="H582" s="31"/>
       <c r="I582" s="31"/>
       <c r="J582" s="31"/>
-      <c r="K582" s="22" t="str">
+      <c r="K582" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D582), ISBLANK(E582)),AND(OR(ISBLANK(G582),ISBLANK(H582),ISBLANK(I582)),ISBLANK(J582))),"",IF(ISBLANK(J582),IF(ISBLANK(E582),(D582-F582)*I582*H582*INDIRECT(SUBSTITUTE(G582," ","_"))/1000000,(E582-F582)*I582*H582*INDIRECT(SUBSTITUTE(G582," ","_"))/1000000),IF(ISBLANK(E582),(D582-F582)*J582,(E582-F582)*J582)))</f>
         <v/>
       </c>
@@ -15524,7 +15521,7 @@
       <c r="H583" s="31"/>
       <c r="I583" s="31"/>
       <c r="J583" s="31"/>
-      <c r="K583" s="22" t="str">
+      <c r="K583" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D583), ISBLANK(E583)),AND(OR(ISBLANK(G583),ISBLANK(H583),ISBLANK(I583)),ISBLANK(J583))),"",IF(ISBLANK(J583),IF(ISBLANK(E583),(D583-F583)*I583*H583*INDIRECT(SUBSTITUTE(G583," ","_"))/1000000,(E583-F583)*I583*H583*INDIRECT(SUBSTITUTE(G583," ","_"))/1000000),IF(ISBLANK(E583),(D583-F583)*J583,(E583-F583)*J583)))</f>
         <v/>
       </c>
@@ -15547,7 +15544,7 @@
       <c r="H584" s="31"/>
       <c r="I584" s="31"/>
       <c r="J584" s="31"/>
-      <c r="K584" s="22" t="str">
+      <c r="K584" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D584), ISBLANK(E584)),AND(OR(ISBLANK(G584),ISBLANK(H584),ISBLANK(I584)),ISBLANK(J584))),"",IF(ISBLANK(J584),IF(ISBLANK(E584),(D584-F584)*I584*H584*INDIRECT(SUBSTITUTE(G584," ","_"))/1000000,(E584-F584)*I584*H584*INDIRECT(SUBSTITUTE(G584," ","_"))/1000000),IF(ISBLANK(E584),(D584-F584)*J584,(E584-F584)*J584)))</f>
         <v/>
       </c>
@@ -15570,7 +15567,7 @@
       <c r="H585" s="31"/>
       <c r="I585" s="31"/>
       <c r="J585" s="31"/>
-      <c r="K585" s="22" t="str">
+      <c r="K585" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D585), ISBLANK(E585)),AND(OR(ISBLANK(G585),ISBLANK(H585),ISBLANK(I585)),ISBLANK(J585))),"",IF(ISBLANK(J585),IF(ISBLANK(E585),(D585-F585)*I585*H585*INDIRECT(SUBSTITUTE(G585," ","_"))/1000000,(E585-F585)*I585*H585*INDIRECT(SUBSTITUTE(G585," ","_"))/1000000),IF(ISBLANK(E585),(D585-F585)*J585,(E585-F585)*J585)))</f>
         <v/>
       </c>
@@ -15593,7 +15590,7 @@
       <c r="H586" s="31"/>
       <c r="I586" s="31"/>
       <c r="J586" s="31"/>
-      <c r="K586" s="22" t="str">
+      <c r="K586" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D586), ISBLANK(E586)),AND(OR(ISBLANK(G586),ISBLANK(H586),ISBLANK(I586)),ISBLANK(J586))),"",IF(ISBLANK(J586),IF(ISBLANK(E586),(D586-F586)*I586*H586*INDIRECT(SUBSTITUTE(G586," ","_"))/1000000,(E586-F586)*I586*H586*INDIRECT(SUBSTITUTE(G586," ","_"))/1000000),IF(ISBLANK(E586),(D586-F586)*J586,(E586-F586)*J586)))</f>
         <v/>
       </c>
@@ -15616,7 +15613,7 @@
       <c r="H587" s="31"/>
       <c r="I587" s="31"/>
       <c r="J587" s="31"/>
-      <c r="K587" s="22" t="str">
+      <c r="K587" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D587), ISBLANK(E587)),AND(OR(ISBLANK(G587),ISBLANK(H587),ISBLANK(I587)),ISBLANK(J587))),"",IF(ISBLANK(J587),IF(ISBLANK(E587),(D587-F587)*I587*H587*INDIRECT(SUBSTITUTE(G587," ","_"))/1000000,(E587-F587)*I587*H587*INDIRECT(SUBSTITUTE(G587," ","_"))/1000000),IF(ISBLANK(E587),(D587-F587)*J587,(E587-F587)*J587)))</f>
         <v/>
       </c>
@@ -15639,7 +15636,7 @@
       <c r="H588" s="31"/>
       <c r="I588" s="31"/>
       <c r="J588" s="31"/>
-      <c r="K588" s="22" t="str">
+      <c r="K588" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D588), ISBLANK(E588)),AND(OR(ISBLANK(G588),ISBLANK(H588),ISBLANK(I588)),ISBLANK(J588))),"",IF(ISBLANK(J588),IF(ISBLANK(E588),(D588-F588)*I588*H588*INDIRECT(SUBSTITUTE(G588," ","_"))/1000000,(E588-F588)*I588*H588*INDIRECT(SUBSTITUTE(G588," ","_"))/1000000),IF(ISBLANK(E588),(D588-F588)*J588,(E588-F588)*J588)))</f>
         <v/>
       </c>
@@ -15662,7 +15659,7 @@
       <c r="H589" s="31"/>
       <c r="I589" s="31"/>
       <c r="J589" s="31"/>
-      <c r="K589" s="22" t="str">
+      <c r="K589" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D589), ISBLANK(E589)),AND(OR(ISBLANK(G589),ISBLANK(H589),ISBLANK(I589)),ISBLANK(J589))),"",IF(ISBLANK(J589),IF(ISBLANK(E589),(D589-F589)*I589*H589*INDIRECT(SUBSTITUTE(G589," ","_"))/1000000,(E589-F589)*I589*H589*INDIRECT(SUBSTITUTE(G589," ","_"))/1000000),IF(ISBLANK(E589),(D589-F589)*J589,(E589-F589)*J589)))</f>
         <v/>
       </c>
@@ -15685,7 +15682,7 @@
       <c r="H590" s="31"/>
       <c r="I590" s="31"/>
       <c r="J590" s="31"/>
-      <c r="K590" s="22" t="str">
+      <c r="K590" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D590), ISBLANK(E590)),AND(OR(ISBLANK(G590),ISBLANK(H590),ISBLANK(I590)),ISBLANK(J590))),"",IF(ISBLANK(J590),IF(ISBLANK(E590),(D590-F590)*I590*H590*INDIRECT(SUBSTITUTE(G590," ","_"))/1000000,(E590-F590)*I590*H590*INDIRECT(SUBSTITUTE(G590," ","_"))/1000000),IF(ISBLANK(E590),(D590-F590)*J590,(E590-F590)*J590)))</f>
         <v/>
       </c>
@@ -15708,7 +15705,7 @@
       <c r="H591" s="31"/>
       <c r="I591" s="31"/>
       <c r="J591" s="31"/>
-      <c r="K591" s="22" t="str">
+      <c r="K591" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D591), ISBLANK(E591)),AND(OR(ISBLANK(G591),ISBLANK(H591),ISBLANK(I591)),ISBLANK(J591))),"",IF(ISBLANK(J591),IF(ISBLANK(E591),(D591-F591)*I591*H591*INDIRECT(SUBSTITUTE(G591," ","_"))/1000000,(E591-F591)*I591*H591*INDIRECT(SUBSTITUTE(G591," ","_"))/1000000),IF(ISBLANK(E591),(D591-F591)*J591,(E591-F591)*J591)))</f>
         <v/>
       </c>
@@ -15731,7 +15728,7 @@
       <c r="H592" s="31"/>
       <c r="I592" s="31"/>
       <c r="J592" s="31"/>
-      <c r="K592" s="22" t="str">
+      <c r="K592" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D592), ISBLANK(E592)),AND(OR(ISBLANK(G592),ISBLANK(H592),ISBLANK(I592)),ISBLANK(J592))),"",IF(ISBLANK(J592),IF(ISBLANK(E592),(D592-F592)*I592*H592*INDIRECT(SUBSTITUTE(G592," ","_"))/1000000,(E592-F592)*I592*H592*INDIRECT(SUBSTITUTE(G592," ","_"))/1000000),IF(ISBLANK(E592),(D592-F592)*J592,(E592-F592)*J592)))</f>
         <v/>
       </c>
@@ -15754,7 +15751,7 @@
       <c r="H593" s="31"/>
       <c r="I593" s="31"/>
       <c r="J593" s="31"/>
-      <c r="K593" s="22" t="str">
+      <c r="K593" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D593), ISBLANK(E593)),AND(OR(ISBLANK(G593),ISBLANK(H593),ISBLANK(I593)),ISBLANK(J593))),"",IF(ISBLANK(J593),IF(ISBLANK(E593),(D593-F593)*I593*H593*INDIRECT(SUBSTITUTE(G593," ","_"))/1000000,(E593-F593)*I593*H593*INDIRECT(SUBSTITUTE(G593," ","_"))/1000000),IF(ISBLANK(E593),(D593-F593)*J593,(E593-F593)*J593)))</f>
         <v/>
       </c>
@@ -15777,7 +15774,7 @@
       <c r="H594" s="31"/>
       <c r="I594" s="31"/>
       <c r="J594" s="31"/>
-      <c r="K594" s="22" t="str">
+      <c r="K594" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D594), ISBLANK(E594)),AND(OR(ISBLANK(G594),ISBLANK(H594),ISBLANK(I594)),ISBLANK(J594))),"",IF(ISBLANK(J594),IF(ISBLANK(E594),(D594-F594)*I594*H594*INDIRECT(SUBSTITUTE(G594," ","_"))/1000000,(E594-F594)*I594*H594*INDIRECT(SUBSTITUTE(G594," ","_"))/1000000),IF(ISBLANK(E594),(D594-F594)*J594,(E594-F594)*J594)))</f>
         <v/>
       </c>
@@ -15800,7 +15797,7 @@
       <c r="H595" s="31"/>
       <c r="I595" s="31"/>
       <c r="J595" s="31"/>
-      <c r="K595" s="22" t="str">
+      <c r="K595" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D595), ISBLANK(E595)),AND(OR(ISBLANK(G595),ISBLANK(H595),ISBLANK(I595)),ISBLANK(J595))),"",IF(ISBLANK(J595),IF(ISBLANK(E595),(D595-F595)*I595*H595*INDIRECT(SUBSTITUTE(G595," ","_"))/1000000,(E595-F595)*I595*H595*INDIRECT(SUBSTITUTE(G595," ","_"))/1000000),IF(ISBLANK(E595),(D595-F595)*J595,(E595-F595)*J595)))</f>
         <v/>
       </c>
@@ -15823,7 +15820,7 @@
       <c r="H596" s="31"/>
       <c r="I596" s="31"/>
       <c r="J596" s="31"/>
-      <c r="K596" s="22" t="str">
+      <c r="K596" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D596), ISBLANK(E596)),AND(OR(ISBLANK(G596),ISBLANK(H596),ISBLANK(I596)),ISBLANK(J596))),"",IF(ISBLANK(J596),IF(ISBLANK(E596),(D596-F596)*I596*H596*INDIRECT(SUBSTITUTE(G596," ","_"))/1000000,(E596-F596)*I596*H596*INDIRECT(SUBSTITUTE(G596," ","_"))/1000000),IF(ISBLANK(E596),(D596-F596)*J596,(E596-F596)*J596)))</f>
         <v/>
       </c>
@@ -15846,7 +15843,7 @@
       <c r="H597" s="31"/>
       <c r="I597" s="31"/>
       <c r="J597" s="31"/>
-      <c r="K597" s="22" t="str">
+      <c r="K597" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D597), ISBLANK(E597)),AND(OR(ISBLANK(G597),ISBLANK(H597),ISBLANK(I597)),ISBLANK(J597))),"",IF(ISBLANK(J597),IF(ISBLANK(E597),(D597-F597)*I597*H597*INDIRECT(SUBSTITUTE(G597," ","_"))/1000000,(E597-F597)*I597*H597*INDIRECT(SUBSTITUTE(G597," ","_"))/1000000),IF(ISBLANK(E597),(D597-F597)*J597,(E597-F597)*J597)))</f>
         <v/>
       </c>
@@ -15869,7 +15866,7 @@
       <c r="H598" s="31"/>
       <c r="I598" s="31"/>
       <c r="J598" s="31"/>
-      <c r="K598" s="22" t="str">
+      <c r="K598" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D598), ISBLANK(E598)),AND(OR(ISBLANK(G598),ISBLANK(H598),ISBLANK(I598)),ISBLANK(J598))),"",IF(ISBLANK(J598),IF(ISBLANK(E598),(D598-F598)*I598*H598*INDIRECT(SUBSTITUTE(G598," ","_"))/1000000,(E598-F598)*I598*H598*INDIRECT(SUBSTITUTE(G598," ","_"))/1000000),IF(ISBLANK(E598),(D598-F598)*J598,(E598-F598)*J598)))</f>
         <v/>
       </c>
@@ -15892,7 +15889,7 @@
       <c r="H599" s="31"/>
       <c r="I599" s="31"/>
       <c r="J599" s="31"/>
-      <c r="K599" s="22" t="str">
+      <c r="K599" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D599), ISBLANK(E599)),AND(OR(ISBLANK(G599),ISBLANK(H599),ISBLANK(I599)),ISBLANK(J599))),"",IF(ISBLANK(J599),IF(ISBLANK(E599),(D599-F599)*I599*H599*INDIRECT(SUBSTITUTE(G599," ","_"))/1000000,(E599-F599)*I599*H599*INDIRECT(SUBSTITUTE(G599," ","_"))/1000000),IF(ISBLANK(E599),(D599-F599)*J599,(E599-F599)*J599)))</f>
         <v/>
       </c>
@@ -15915,7 +15912,7 @@
       <c r="H600" s="31"/>
       <c r="I600" s="31"/>
       <c r="J600" s="31"/>
-      <c r="K600" s="22" t="str">
+      <c r="K600" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D600), ISBLANK(E600)),AND(OR(ISBLANK(G600),ISBLANK(H600),ISBLANK(I600)),ISBLANK(J600))),"",IF(ISBLANK(J600),IF(ISBLANK(E600),(D600-F600)*I600*H600*INDIRECT(SUBSTITUTE(G600," ","_"))/1000000,(E600-F600)*I600*H600*INDIRECT(SUBSTITUTE(G600," ","_"))/1000000),IF(ISBLANK(E600),(D600-F600)*J600,(E600-F600)*J600)))</f>
         <v/>
       </c>
@@ -15938,7 +15935,7 @@
       <c r="H601" s="31"/>
       <c r="I601" s="31"/>
       <c r="J601" s="31"/>
-      <c r="K601" s="22" t="str">
+      <c r="K601" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D601), ISBLANK(E601)),AND(OR(ISBLANK(G601),ISBLANK(H601),ISBLANK(I601)),ISBLANK(J601))),"",IF(ISBLANK(J601),IF(ISBLANK(E601),(D601-F601)*I601*H601*INDIRECT(SUBSTITUTE(G601," ","_"))/1000000,(E601-F601)*I601*H601*INDIRECT(SUBSTITUTE(G601," ","_"))/1000000),IF(ISBLANK(E601),(D601-F601)*J601,(E601-F601)*J601)))</f>
         <v/>
       </c>
@@ -15961,7 +15958,7 @@
       <c r="H602" s="31"/>
       <c r="I602" s="31"/>
       <c r="J602" s="31"/>
-      <c r="K602" s="22" t="str">
+      <c r="K602" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D602), ISBLANK(E602)),AND(OR(ISBLANK(G602),ISBLANK(H602),ISBLANK(I602)),ISBLANK(J602))),"",IF(ISBLANK(J602),IF(ISBLANK(E602),(D602-F602)*I602*H602*INDIRECT(SUBSTITUTE(G602," ","_"))/1000000,(E602-F602)*I602*H602*INDIRECT(SUBSTITUTE(G602," ","_"))/1000000),IF(ISBLANK(E602),(D602-F602)*J602,(E602-F602)*J602)))</f>
         <v/>
       </c>
@@ -15984,7 +15981,7 @@
       <c r="H603" s="31"/>
       <c r="I603" s="31"/>
       <c r="J603" s="31"/>
-      <c r="K603" s="22" t="str">
+      <c r="K603" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D603), ISBLANK(E603)),AND(OR(ISBLANK(G603),ISBLANK(H603),ISBLANK(I603)),ISBLANK(J603))),"",IF(ISBLANK(J603),IF(ISBLANK(E603),(D603-F603)*I603*H603*INDIRECT(SUBSTITUTE(G603," ","_"))/1000000,(E603-F603)*I603*H603*INDIRECT(SUBSTITUTE(G603," ","_"))/1000000),IF(ISBLANK(E603),(D603-F603)*J603,(E603-F603)*J603)))</f>
         <v/>
       </c>
@@ -16007,7 +16004,7 @@
       <c r="H604" s="31"/>
       <c r="I604" s="31"/>
       <c r="J604" s="31"/>
-      <c r="K604" s="22" t="str">
+      <c r="K604" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D604), ISBLANK(E604)),AND(OR(ISBLANK(G604),ISBLANK(H604),ISBLANK(I604)),ISBLANK(J604))),"",IF(ISBLANK(J604),IF(ISBLANK(E604),(D604-F604)*I604*H604*INDIRECT(SUBSTITUTE(G604," ","_"))/1000000,(E604-F604)*I604*H604*INDIRECT(SUBSTITUTE(G604," ","_"))/1000000),IF(ISBLANK(E604),(D604-F604)*J604,(E604-F604)*J604)))</f>
         <v/>
       </c>
@@ -16030,7 +16027,7 @@
       <c r="H605" s="31"/>
       <c r="I605" s="31"/>
       <c r="J605" s="31"/>
-      <c r="K605" s="22" t="str">
+      <c r="K605" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D605), ISBLANK(E605)),AND(OR(ISBLANK(G605),ISBLANK(H605),ISBLANK(I605)),ISBLANK(J605))),"",IF(ISBLANK(J605),IF(ISBLANK(E605),(D605-F605)*I605*H605*INDIRECT(SUBSTITUTE(G605," ","_"))/1000000,(E605-F605)*I605*H605*INDIRECT(SUBSTITUTE(G605," ","_"))/1000000),IF(ISBLANK(E605),(D605-F605)*J605,(E605-F605)*J605)))</f>
         <v/>
       </c>
@@ -16053,7 +16050,7 @@
       <c r="H606" s="31"/>
       <c r="I606" s="31"/>
       <c r="J606" s="31"/>
-      <c r="K606" s="22" t="str">
+      <c r="K606" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D606), ISBLANK(E606)),AND(OR(ISBLANK(G606),ISBLANK(H606),ISBLANK(I606)),ISBLANK(J606))),"",IF(ISBLANK(J606),IF(ISBLANK(E606),(D606-F606)*I606*H606*INDIRECT(SUBSTITUTE(G606," ","_"))/1000000,(E606-F606)*I606*H606*INDIRECT(SUBSTITUTE(G606," ","_"))/1000000),IF(ISBLANK(E606),(D606-F606)*J606,(E606-F606)*J606)))</f>
         <v/>
       </c>
@@ -16076,7 +16073,7 @@
       <c r="H607" s="31"/>
       <c r="I607" s="31"/>
       <c r="J607" s="31"/>
-      <c r="K607" s="22" t="str">
+      <c r="K607" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D607), ISBLANK(E607)),AND(OR(ISBLANK(G607),ISBLANK(H607),ISBLANK(I607)),ISBLANK(J607))),"",IF(ISBLANK(J607),IF(ISBLANK(E607),(D607-F607)*I607*H607*INDIRECT(SUBSTITUTE(G607," ","_"))/1000000,(E607-F607)*I607*H607*INDIRECT(SUBSTITUTE(G607," ","_"))/1000000),IF(ISBLANK(E607),(D607-F607)*J607,(E607-F607)*J607)))</f>
         <v/>
       </c>
@@ -16099,7 +16096,7 @@
       <c r="H608" s="31"/>
       <c r="I608" s="31"/>
       <c r="J608" s="31"/>
-      <c r="K608" s="22" t="str">
+      <c r="K608" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D608), ISBLANK(E608)),AND(OR(ISBLANK(G608),ISBLANK(H608),ISBLANK(I608)),ISBLANK(J608))),"",IF(ISBLANK(J608),IF(ISBLANK(E608),(D608-F608)*I608*H608*INDIRECT(SUBSTITUTE(G608," ","_"))/1000000,(E608-F608)*I608*H608*INDIRECT(SUBSTITUTE(G608," ","_"))/1000000),IF(ISBLANK(E608),(D608-F608)*J608,(E608-F608)*J608)))</f>
         <v/>
       </c>
@@ -16122,7 +16119,7 @@
       <c r="H609" s="31"/>
       <c r="I609" s="31"/>
       <c r="J609" s="31"/>
-      <c r="K609" s="22" t="str">
+      <c r="K609" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D609), ISBLANK(E609)),AND(OR(ISBLANK(G609),ISBLANK(H609),ISBLANK(I609)),ISBLANK(J609))),"",IF(ISBLANK(J609),IF(ISBLANK(E609),(D609-F609)*I609*H609*INDIRECT(SUBSTITUTE(G609," ","_"))/1000000,(E609-F609)*I609*H609*INDIRECT(SUBSTITUTE(G609," ","_"))/1000000),IF(ISBLANK(E609),(D609-F609)*J609,(E609-F609)*J609)))</f>
         <v/>
       </c>
@@ -16145,7 +16142,7 @@
       <c r="H610" s="31"/>
       <c r="I610" s="31"/>
       <c r="J610" s="31"/>
-      <c r="K610" s="22" t="str">
+      <c r="K610" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D610), ISBLANK(E610)),AND(OR(ISBLANK(G610),ISBLANK(H610),ISBLANK(I610)),ISBLANK(J610))),"",IF(ISBLANK(J610),IF(ISBLANK(E610),(D610-F610)*I610*H610*INDIRECT(SUBSTITUTE(G610," ","_"))/1000000,(E610-F610)*I610*H610*INDIRECT(SUBSTITUTE(G610," ","_"))/1000000),IF(ISBLANK(E610),(D610-F610)*J610,(E610-F610)*J610)))</f>
         <v/>
       </c>
@@ -16168,7 +16165,7 @@
       <c r="H611" s="31"/>
       <c r="I611" s="31"/>
       <c r="J611" s="31"/>
-      <c r="K611" s="22" t="str">
+      <c r="K611" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D611), ISBLANK(E611)),AND(OR(ISBLANK(G611),ISBLANK(H611),ISBLANK(I611)),ISBLANK(J611))),"",IF(ISBLANK(J611),IF(ISBLANK(E611),(D611-F611)*I611*H611*INDIRECT(SUBSTITUTE(G611," ","_"))/1000000,(E611-F611)*I611*H611*INDIRECT(SUBSTITUTE(G611," ","_"))/1000000),IF(ISBLANK(E611),(D611-F611)*J611,(E611-F611)*J611)))</f>
         <v/>
       </c>
@@ -16191,7 +16188,7 @@
       <c r="H612" s="31"/>
       <c r="I612" s="31"/>
       <c r="J612" s="31"/>
-      <c r="K612" s="22" t="str">
+      <c r="K612" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D612), ISBLANK(E612)),AND(OR(ISBLANK(G612),ISBLANK(H612),ISBLANK(I612)),ISBLANK(J612))),"",IF(ISBLANK(J612),IF(ISBLANK(E612),(D612-F612)*I612*H612*INDIRECT(SUBSTITUTE(G612," ","_"))/1000000,(E612-F612)*I612*H612*INDIRECT(SUBSTITUTE(G612," ","_"))/1000000),IF(ISBLANK(E612),(D612-F612)*J612,(E612-F612)*J612)))</f>
         <v/>
       </c>
@@ -16214,7 +16211,7 @@
       <c r="H613" s="31"/>
       <c r="I613" s="31"/>
       <c r="J613" s="31"/>
-      <c r="K613" s="22" t="str">
+      <c r="K613" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D613), ISBLANK(E613)),AND(OR(ISBLANK(G613),ISBLANK(H613),ISBLANK(I613)),ISBLANK(J613))),"",IF(ISBLANK(J613),IF(ISBLANK(E613),(D613-F613)*I613*H613*INDIRECT(SUBSTITUTE(G613," ","_"))/1000000,(E613-F613)*I613*H613*INDIRECT(SUBSTITUTE(G613," ","_"))/1000000),IF(ISBLANK(E613),(D613-F613)*J613,(E613-F613)*J613)))</f>
         <v/>
       </c>
@@ -16237,7 +16234,7 @@
       <c r="H614" s="31"/>
       <c r="I614" s="31"/>
       <c r="J614" s="31"/>
-      <c r="K614" s="22" t="str">
+      <c r="K614" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D614), ISBLANK(E614)),AND(OR(ISBLANK(G614),ISBLANK(H614),ISBLANK(I614)),ISBLANK(J614))),"",IF(ISBLANK(J614),IF(ISBLANK(E614),(D614-F614)*I614*H614*INDIRECT(SUBSTITUTE(G614," ","_"))/1000000,(E614-F614)*I614*H614*INDIRECT(SUBSTITUTE(G614," ","_"))/1000000),IF(ISBLANK(E614),(D614-F614)*J614,(E614-F614)*J614)))</f>
         <v/>
       </c>
@@ -16260,7 +16257,7 @@
       <c r="H615" s="31"/>
       <c r="I615" s="31"/>
       <c r="J615" s="31"/>
-      <c r="K615" s="22" t="str">
+      <c r="K615" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D615), ISBLANK(E615)),AND(OR(ISBLANK(G615),ISBLANK(H615),ISBLANK(I615)),ISBLANK(J615))),"",IF(ISBLANK(J615),IF(ISBLANK(E615),(D615-F615)*I615*H615*INDIRECT(SUBSTITUTE(G615," ","_"))/1000000,(E615-F615)*I615*H615*INDIRECT(SUBSTITUTE(G615," ","_"))/1000000),IF(ISBLANK(E615),(D615-F615)*J615,(E615-F615)*J615)))</f>
         <v/>
       </c>
@@ -16283,7 +16280,7 @@
       <c r="H616" s="31"/>
       <c r="I616" s="31"/>
       <c r="J616" s="31"/>
-      <c r="K616" s="22" t="str">
+      <c r="K616" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D616), ISBLANK(E616)),AND(OR(ISBLANK(G616),ISBLANK(H616),ISBLANK(I616)),ISBLANK(J616))),"",IF(ISBLANK(J616),IF(ISBLANK(E616),(D616-F616)*I616*H616*INDIRECT(SUBSTITUTE(G616," ","_"))/1000000,(E616-F616)*I616*H616*INDIRECT(SUBSTITUTE(G616," ","_"))/1000000),IF(ISBLANK(E616),(D616-F616)*J616,(E616-F616)*J616)))</f>
         <v/>
       </c>
@@ -16306,7 +16303,7 @@
       <c r="H617" s="31"/>
       <c r="I617" s="31"/>
       <c r="J617" s="31"/>
-      <c r="K617" s="22" t="str">
+      <c r="K617" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D617), ISBLANK(E617)),AND(OR(ISBLANK(G617),ISBLANK(H617),ISBLANK(I617)),ISBLANK(J617))),"",IF(ISBLANK(J617),IF(ISBLANK(E617),(D617-F617)*I617*H617*INDIRECT(SUBSTITUTE(G617," ","_"))/1000000,(E617-F617)*I617*H617*INDIRECT(SUBSTITUTE(G617," ","_"))/1000000),IF(ISBLANK(E617),(D617-F617)*J617,(E617-F617)*J617)))</f>
         <v/>
       </c>
@@ -16329,7 +16326,7 @@
       <c r="H618" s="31"/>
       <c r="I618" s="31"/>
       <c r="J618" s="31"/>
-      <c r="K618" s="22" t="str">
+      <c r="K618" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D618), ISBLANK(E618)),AND(OR(ISBLANK(G618),ISBLANK(H618),ISBLANK(I618)),ISBLANK(J618))),"",IF(ISBLANK(J618),IF(ISBLANK(E618),(D618-F618)*I618*H618*INDIRECT(SUBSTITUTE(G618," ","_"))/1000000,(E618-F618)*I618*H618*INDIRECT(SUBSTITUTE(G618," ","_"))/1000000),IF(ISBLANK(E618),(D618-F618)*J618,(E618-F618)*J618)))</f>
         <v/>
       </c>
@@ -16352,7 +16349,7 @@
       <c r="H619" s="31"/>
       <c r="I619" s="31"/>
       <c r="J619" s="31"/>
-      <c r="K619" s="22" t="str">
+      <c r="K619" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D619), ISBLANK(E619)),AND(OR(ISBLANK(G619),ISBLANK(H619),ISBLANK(I619)),ISBLANK(J619))),"",IF(ISBLANK(J619),IF(ISBLANK(E619),(D619-F619)*I619*H619*INDIRECT(SUBSTITUTE(G619," ","_"))/1000000,(E619-F619)*I619*H619*INDIRECT(SUBSTITUTE(G619," ","_"))/1000000),IF(ISBLANK(E619),(D619-F619)*J619,(E619-F619)*J619)))</f>
         <v/>
       </c>
@@ -16375,7 +16372,7 @@
       <c r="H620" s="31"/>
       <c r="I620" s="31"/>
       <c r="J620" s="31"/>
-      <c r="K620" s="22" t="str">
+      <c r="K620" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D620), ISBLANK(E620)),AND(OR(ISBLANK(G620),ISBLANK(H620),ISBLANK(I620)),ISBLANK(J620))),"",IF(ISBLANK(J620),IF(ISBLANK(E620),(D620-F620)*I620*H620*INDIRECT(SUBSTITUTE(G620," ","_"))/1000000,(E620-F620)*I620*H620*INDIRECT(SUBSTITUTE(G620," ","_"))/1000000),IF(ISBLANK(E620),(D620-F620)*J620,(E620-F620)*J620)))</f>
         <v/>
       </c>
@@ -16398,7 +16395,7 @@
       <c r="H621" s="31"/>
       <c r="I621" s="31"/>
       <c r="J621" s="31"/>
-      <c r="K621" s="22" t="str">
+      <c r="K621" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D621), ISBLANK(E621)),AND(OR(ISBLANK(G621),ISBLANK(H621),ISBLANK(I621)),ISBLANK(J621))),"",IF(ISBLANK(J621),IF(ISBLANK(E621),(D621-F621)*I621*H621*INDIRECT(SUBSTITUTE(G621," ","_"))/1000000,(E621-F621)*I621*H621*INDIRECT(SUBSTITUTE(G621," ","_"))/1000000),IF(ISBLANK(E621),(D621-F621)*J621,(E621-F621)*J621)))</f>
         <v/>
       </c>
@@ -16421,7 +16418,7 @@
       <c r="H622" s="31"/>
       <c r="I622" s="31"/>
       <c r="J622" s="31"/>
-      <c r="K622" s="22" t="str">
+      <c r="K622" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D622), ISBLANK(E622)),AND(OR(ISBLANK(G622),ISBLANK(H622),ISBLANK(I622)),ISBLANK(J622))),"",IF(ISBLANK(J622),IF(ISBLANK(E622),(D622-F622)*I622*H622*INDIRECT(SUBSTITUTE(G622," ","_"))/1000000,(E622-F622)*I622*H622*INDIRECT(SUBSTITUTE(G622," ","_"))/1000000),IF(ISBLANK(E622),(D622-F622)*J622,(E622-F622)*J622)))</f>
         <v/>
       </c>
@@ -16444,7 +16441,7 @@
       <c r="H623" s="31"/>
       <c r="I623" s="31"/>
       <c r="J623" s="31"/>
-      <c r="K623" s="22" t="str">
+      <c r="K623" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D623), ISBLANK(E623)),AND(OR(ISBLANK(G623),ISBLANK(H623),ISBLANK(I623)),ISBLANK(J623))),"",IF(ISBLANK(J623),IF(ISBLANK(E623),(D623-F623)*I623*H623*INDIRECT(SUBSTITUTE(G623," ","_"))/1000000,(E623-F623)*I623*H623*INDIRECT(SUBSTITUTE(G623," ","_"))/1000000),IF(ISBLANK(E623),(D623-F623)*J623,(E623-F623)*J623)))</f>
         <v/>
       </c>
@@ -16467,7 +16464,7 @@
       <c r="H624" s="31"/>
       <c r="I624" s="31"/>
       <c r="J624" s="31"/>
-      <c r="K624" s="22" t="str">
+      <c r="K624" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D624), ISBLANK(E624)),AND(OR(ISBLANK(G624),ISBLANK(H624),ISBLANK(I624)),ISBLANK(J624))),"",IF(ISBLANK(J624),IF(ISBLANK(E624),(D624-F624)*I624*H624*INDIRECT(SUBSTITUTE(G624," ","_"))/1000000,(E624-F624)*I624*H624*INDIRECT(SUBSTITUTE(G624," ","_"))/1000000),IF(ISBLANK(E624),(D624-F624)*J624,(E624-F624)*J624)))</f>
         <v/>
       </c>
@@ -16490,7 +16487,7 @@
       <c r="H625" s="31"/>
       <c r="I625" s="31"/>
       <c r="J625" s="31"/>
-      <c r="K625" s="22" t="str">
+      <c r="K625" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D625), ISBLANK(E625)),AND(OR(ISBLANK(G625),ISBLANK(H625),ISBLANK(I625)),ISBLANK(J625))),"",IF(ISBLANK(J625),IF(ISBLANK(E625),(D625-F625)*I625*H625*INDIRECT(SUBSTITUTE(G625," ","_"))/1000000,(E625-F625)*I625*H625*INDIRECT(SUBSTITUTE(G625," ","_"))/1000000),IF(ISBLANK(E625),(D625-F625)*J625,(E625-F625)*J625)))</f>
         <v/>
       </c>
@@ -16513,7 +16510,7 @@
       <c r="H626" s="31"/>
       <c r="I626" s="31"/>
       <c r="J626" s="31"/>
-      <c r="K626" s="22" t="str">
+      <c r="K626" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D626), ISBLANK(E626)),AND(OR(ISBLANK(G626),ISBLANK(H626),ISBLANK(I626)),ISBLANK(J626))),"",IF(ISBLANK(J626),IF(ISBLANK(E626),(D626-F626)*I626*H626*INDIRECT(SUBSTITUTE(G626," ","_"))/1000000,(E626-F626)*I626*H626*INDIRECT(SUBSTITUTE(G626," ","_"))/1000000),IF(ISBLANK(E626),(D626-F626)*J626,(E626-F626)*J626)))</f>
         <v/>
       </c>
@@ -16536,7 +16533,7 @@
       <c r="H627" s="31"/>
       <c r="I627" s="31"/>
       <c r="J627" s="31"/>
-      <c r="K627" s="22" t="str">
+      <c r="K627" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D627), ISBLANK(E627)),AND(OR(ISBLANK(G627),ISBLANK(H627),ISBLANK(I627)),ISBLANK(J627))),"",IF(ISBLANK(J627),IF(ISBLANK(E627),(D627-F627)*I627*H627*INDIRECT(SUBSTITUTE(G627," ","_"))/1000000,(E627-F627)*I627*H627*INDIRECT(SUBSTITUTE(G627," ","_"))/1000000),IF(ISBLANK(E627),(D627-F627)*J627,(E627-F627)*J627)))</f>
         <v/>
       </c>
@@ -16559,7 +16556,7 @@
       <c r="H628" s="31"/>
       <c r="I628" s="31"/>
       <c r="J628" s="31"/>
-      <c r="K628" s="22" t="str">
+      <c r="K628" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D628), ISBLANK(E628)),AND(OR(ISBLANK(G628),ISBLANK(H628),ISBLANK(I628)),ISBLANK(J628))),"",IF(ISBLANK(J628),IF(ISBLANK(E628),(D628-F628)*I628*H628*INDIRECT(SUBSTITUTE(G628," ","_"))/1000000,(E628-F628)*I628*H628*INDIRECT(SUBSTITUTE(G628," ","_"))/1000000),IF(ISBLANK(E628),(D628-F628)*J628,(E628-F628)*J628)))</f>
         <v/>
       </c>
@@ -16582,7 +16579,7 @@
       <c r="H629" s="31"/>
       <c r="I629" s="31"/>
       <c r="J629" s="31"/>
-      <c r="K629" s="22" t="str">
+      <c r="K629" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D629), ISBLANK(E629)),AND(OR(ISBLANK(G629),ISBLANK(H629),ISBLANK(I629)),ISBLANK(J629))),"",IF(ISBLANK(J629),IF(ISBLANK(E629),(D629-F629)*I629*H629*INDIRECT(SUBSTITUTE(G629," ","_"))/1000000,(E629-F629)*I629*H629*INDIRECT(SUBSTITUTE(G629," ","_"))/1000000),IF(ISBLANK(E629),(D629-F629)*J629,(E629-F629)*J629)))</f>
         <v/>
       </c>
@@ -16605,7 +16602,7 @@
       <c r="H630" s="31"/>
       <c r="I630" s="31"/>
       <c r="J630" s="31"/>
-      <c r="K630" s="22" t="str">
+      <c r="K630" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D630), ISBLANK(E630)),AND(OR(ISBLANK(G630),ISBLANK(H630),ISBLANK(I630)),ISBLANK(J630))),"",IF(ISBLANK(J630),IF(ISBLANK(E630),(D630-F630)*I630*H630*INDIRECT(SUBSTITUTE(G630," ","_"))/1000000,(E630-F630)*I630*H630*INDIRECT(SUBSTITUTE(G630," ","_"))/1000000),IF(ISBLANK(E630),(D630-F630)*J630,(E630-F630)*J630)))</f>
         <v/>
       </c>
@@ -16628,7 +16625,7 @@
       <c r="H631" s="31"/>
       <c r="I631" s="31"/>
       <c r="J631" s="31"/>
-      <c r="K631" s="22" t="str">
+      <c r="K631" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D631), ISBLANK(E631)),AND(OR(ISBLANK(G631),ISBLANK(H631),ISBLANK(I631)),ISBLANK(J631))),"",IF(ISBLANK(J631),IF(ISBLANK(E631),(D631-F631)*I631*H631*INDIRECT(SUBSTITUTE(G631," ","_"))/1000000,(E631-F631)*I631*H631*INDIRECT(SUBSTITUTE(G631," ","_"))/1000000),IF(ISBLANK(E631),(D631-F631)*J631,(E631-F631)*J631)))</f>
         <v/>
       </c>
@@ -16651,7 +16648,7 @@
       <c r="H632" s="31"/>
       <c r="I632" s="31"/>
       <c r="J632" s="31"/>
-      <c r="K632" s="22" t="str">
+      <c r="K632" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D632), ISBLANK(E632)),AND(OR(ISBLANK(G632),ISBLANK(H632),ISBLANK(I632)),ISBLANK(J632))),"",IF(ISBLANK(J632),IF(ISBLANK(E632),(D632-F632)*I632*H632*INDIRECT(SUBSTITUTE(G632," ","_"))/1000000,(E632-F632)*I632*H632*INDIRECT(SUBSTITUTE(G632," ","_"))/1000000),IF(ISBLANK(E632),(D632-F632)*J632,(E632-F632)*J632)))</f>
         <v/>
       </c>
@@ -16674,7 +16671,7 @@
       <c r="H633" s="31"/>
       <c r="I633" s="31"/>
       <c r="J633" s="31"/>
-      <c r="K633" s="22" t="str">
+      <c r="K633" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D633), ISBLANK(E633)),AND(OR(ISBLANK(G633),ISBLANK(H633),ISBLANK(I633)),ISBLANK(J633))),"",IF(ISBLANK(J633),IF(ISBLANK(E633),(D633-F633)*I633*H633*INDIRECT(SUBSTITUTE(G633," ","_"))/1000000,(E633-F633)*I633*H633*INDIRECT(SUBSTITUTE(G633," ","_"))/1000000),IF(ISBLANK(E633),(D633-F633)*J633,(E633-F633)*J633)))</f>
         <v/>
       </c>
@@ -16697,7 +16694,7 @@
       <c r="H634" s="31"/>
       <c r="I634" s="31"/>
       <c r="J634" s="31"/>
-      <c r="K634" s="22" t="str">
+      <c r="K634" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D634), ISBLANK(E634)),AND(OR(ISBLANK(G634),ISBLANK(H634),ISBLANK(I634)),ISBLANK(J634))),"",IF(ISBLANK(J634),IF(ISBLANK(E634),(D634-F634)*I634*H634*INDIRECT(SUBSTITUTE(G634," ","_"))/1000000,(E634-F634)*I634*H634*INDIRECT(SUBSTITUTE(G634," ","_"))/1000000),IF(ISBLANK(E634),(D634-F634)*J634,(E634-F634)*J634)))</f>
         <v/>
       </c>
@@ -16720,7 +16717,7 @@
       <c r="H635" s="31"/>
       <c r="I635" s="31"/>
       <c r="J635" s="31"/>
-      <c r="K635" s="22" t="str">
+      <c r="K635" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D635), ISBLANK(E635)),AND(OR(ISBLANK(G635),ISBLANK(H635),ISBLANK(I635)),ISBLANK(J635))),"",IF(ISBLANK(J635),IF(ISBLANK(E635),(D635-F635)*I635*H635*INDIRECT(SUBSTITUTE(G635," ","_"))/1000000,(E635-F635)*I635*H635*INDIRECT(SUBSTITUTE(G635," ","_"))/1000000),IF(ISBLANK(E635),(D635-F635)*J635,(E635-F635)*J635)))</f>
         <v/>
       </c>
@@ -16743,7 +16740,7 @@
       <c r="H636" s="31"/>
       <c r="I636" s="31"/>
       <c r="J636" s="31"/>
-      <c r="K636" s="22" t="str">
+      <c r="K636" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D636), ISBLANK(E636)),AND(OR(ISBLANK(G636),ISBLANK(H636),ISBLANK(I636)),ISBLANK(J636))),"",IF(ISBLANK(J636),IF(ISBLANK(E636),(D636-F636)*I636*H636*INDIRECT(SUBSTITUTE(G636," ","_"))/1000000,(E636-F636)*I636*H636*INDIRECT(SUBSTITUTE(G636," ","_"))/1000000),IF(ISBLANK(E636),(D636-F636)*J636,(E636-F636)*J636)))</f>
         <v/>
       </c>
@@ -16766,7 +16763,7 @@
       <c r="H637" s="31"/>
       <c r="I637" s="31"/>
       <c r="J637" s="31"/>
-      <c r="K637" s="22" t="str">
+      <c r="K637" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D637), ISBLANK(E637)),AND(OR(ISBLANK(G637),ISBLANK(H637),ISBLANK(I637)),ISBLANK(J637))),"",IF(ISBLANK(J637),IF(ISBLANK(E637),(D637-F637)*I637*H637*INDIRECT(SUBSTITUTE(G637," ","_"))/1000000,(E637-F637)*I637*H637*INDIRECT(SUBSTITUTE(G637," ","_"))/1000000),IF(ISBLANK(E637),(D637-F637)*J637,(E637-F637)*J637)))</f>
         <v/>
       </c>
@@ -16789,7 +16786,7 @@
       <c r="H638" s="31"/>
       <c r="I638" s="31"/>
       <c r="J638" s="31"/>
-      <c r="K638" s="22" t="str">
+      <c r="K638" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D638), ISBLANK(E638)),AND(OR(ISBLANK(G638),ISBLANK(H638),ISBLANK(I638)),ISBLANK(J638))),"",IF(ISBLANK(J638),IF(ISBLANK(E638),(D638-F638)*I638*H638*INDIRECT(SUBSTITUTE(G638," ","_"))/1000000,(E638-F638)*I638*H638*INDIRECT(SUBSTITUTE(G638," ","_"))/1000000),IF(ISBLANK(E638),(D638-F638)*J638,(E638-F638)*J638)))</f>
         <v/>
       </c>
@@ -16812,7 +16809,7 @@
       <c r="H639" s="31"/>
       <c r="I639" s="31"/>
       <c r="J639" s="31"/>
-      <c r="K639" s="22" t="str">
+      <c r="K639" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D639), ISBLANK(E639)),AND(OR(ISBLANK(G639),ISBLANK(H639),ISBLANK(I639)),ISBLANK(J639))),"",IF(ISBLANK(J639),IF(ISBLANK(E639),(D639-F639)*I639*H639*INDIRECT(SUBSTITUTE(G639," ","_"))/1000000,(E639-F639)*I639*H639*INDIRECT(SUBSTITUTE(G639," ","_"))/1000000),IF(ISBLANK(E639),(D639-F639)*J639,(E639-F639)*J639)))</f>
         <v/>
       </c>
@@ -16835,7 +16832,7 @@
       <c r="H640" s="31"/>
       <c r="I640" s="31"/>
       <c r="J640" s="31"/>
-      <c r="K640" s="22" t="str">
+      <c r="K640" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D640), ISBLANK(E640)),AND(OR(ISBLANK(G640),ISBLANK(H640),ISBLANK(I640)),ISBLANK(J640))),"",IF(ISBLANK(J640),IF(ISBLANK(E640),(D640-F640)*I640*H640*INDIRECT(SUBSTITUTE(G640," ","_"))/1000000,(E640-F640)*I640*H640*INDIRECT(SUBSTITUTE(G640," ","_"))/1000000),IF(ISBLANK(E640),(D640-F640)*J640,(E640-F640)*J640)))</f>
         <v/>
       </c>
@@ -16858,7 +16855,7 @@
       <c r="H641" s="31"/>
       <c r="I641" s="31"/>
       <c r="J641" s="31"/>
-      <c r="K641" s="22" t="str">
+      <c r="K641" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D641), ISBLANK(E641)),AND(OR(ISBLANK(G641),ISBLANK(H641),ISBLANK(I641)),ISBLANK(J641))),"",IF(ISBLANK(J641),IF(ISBLANK(E641),(D641-F641)*I641*H641*INDIRECT(SUBSTITUTE(G641," ","_"))/1000000,(E641-F641)*I641*H641*INDIRECT(SUBSTITUTE(G641," ","_"))/1000000),IF(ISBLANK(E641),(D641-F641)*J641,(E641-F641)*J641)))</f>
         <v/>
       </c>
@@ -16881,7 +16878,7 @@
       <c r="H642" s="31"/>
       <c r="I642" s="31"/>
       <c r="J642" s="31"/>
-      <c r="K642" s="22" t="str">
+      <c r="K642" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D642), ISBLANK(E642)),AND(OR(ISBLANK(G642),ISBLANK(H642),ISBLANK(I642)),ISBLANK(J642))),"",IF(ISBLANK(J642),IF(ISBLANK(E642),(D642-F642)*I642*H642*INDIRECT(SUBSTITUTE(G642," ","_"))/1000000,(E642-F642)*I642*H642*INDIRECT(SUBSTITUTE(G642," ","_"))/1000000),IF(ISBLANK(E642),(D642-F642)*J642,(E642-F642)*J642)))</f>
         <v/>
       </c>
@@ -16904,7 +16901,7 @@
       <c r="H643" s="31"/>
       <c r="I643" s="31"/>
       <c r="J643" s="31"/>
-      <c r="K643" s="22" t="str">
+      <c r="K643" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D643), ISBLANK(E643)),AND(OR(ISBLANK(G643),ISBLANK(H643),ISBLANK(I643)),ISBLANK(J643))),"",IF(ISBLANK(J643),IF(ISBLANK(E643),(D643-F643)*I643*H643*INDIRECT(SUBSTITUTE(G643," ","_"))/1000000,(E643-F643)*I643*H643*INDIRECT(SUBSTITUTE(G643," ","_"))/1000000),IF(ISBLANK(E643),(D643-F643)*J643,(E643-F643)*J643)))</f>
         <v/>
       </c>
@@ -16927,7 +16924,7 @@
       <c r="H644" s="31"/>
       <c r="I644" s="31"/>
       <c r="J644" s="31"/>
-      <c r="K644" s="22" t="str">
+      <c r="K644" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D644), ISBLANK(E644)),AND(OR(ISBLANK(G644),ISBLANK(H644),ISBLANK(I644)),ISBLANK(J644))),"",IF(ISBLANK(J644),IF(ISBLANK(E644),(D644-F644)*I644*H644*INDIRECT(SUBSTITUTE(G644," ","_"))/1000000,(E644-F644)*I644*H644*INDIRECT(SUBSTITUTE(G644," ","_"))/1000000),IF(ISBLANK(E644),(D644-F644)*J644,(E644-F644)*J644)))</f>
         <v/>
       </c>
@@ -16950,7 +16947,7 @@
       <c r="H645" s="31"/>
       <c r="I645" s="31"/>
       <c r="J645" s="31"/>
-      <c r="K645" s="22" t="str">
+      <c r="K645" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D645), ISBLANK(E645)),AND(OR(ISBLANK(G645),ISBLANK(H645),ISBLANK(I645)),ISBLANK(J645))),"",IF(ISBLANK(J645),IF(ISBLANK(E645),(D645-F645)*I645*H645*INDIRECT(SUBSTITUTE(G645," ","_"))/1000000,(E645-F645)*I645*H645*INDIRECT(SUBSTITUTE(G645," ","_"))/1000000),IF(ISBLANK(E645),(D645-F645)*J645,(E645-F645)*J645)))</f>
         <v/>
       </c>
@@ -16973,7 +16970,7 @@
       <c r="H646" s="31"/>
       <c r="I646" s="31"/>
       <c r="J646" s="31"/>
-      <c r="K646" s="22" t="str">
+      <c r="K646" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D646), ISBLANK(E646)),AND(OR(ISBLANK(G646),ISBLANK(H646),ISBLANK(I646)),ISBLANK(J646))),"",IF(ISBLANK(J646),IF(ISBLANK(E646),(D646-F646)*I646*H646*INDIRECT(SUBSTITUTE(G646," ","_"))/1000000,(E646-F646)*I646*H646*INDIRECT(SUBSTITUTE(G646," ","_"))/1000000),IF(ISBLANK(E646),(D646-F646)*J646,(E646-F646)*J646)))</f>
         <v/>
       </c>
@@ -16996,7 +16993,7 @@
       <c r="H647" s="31"/>
       <c r="I647" s="31"/>
       <c r="J647" s="31"/>
-      <c r="K647" s="22" t="str">
+      <c r="K647" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D647), ISBLANK(E647)),AND(OR(ISBLANK(G647),ISBLANK(H647),ISBLANK(I647)),ISBLANK(J647))),"",IF(ISBLANK(J647),IF(ISBLANK(E647),(D647-F647)*I647*H647*INDIRECT(SUBSTITUTE(G647," ","_"))/1000000,(E647-F647)*I647*H647*INDIRECT(SUBSTITUTE(G647," ","_"))/1000000),IF(ISBLANK(E647),(D647-F647)*J647,(E647-F647)*J647)))</f>
         <v/>
       </c>
@@ -17019,7 +17016,7 @@
       <c r="H648" s="31"/>
       <c r="I648" s="31"/>
       <c r="J648" s="31"/>
-      <c r="K648" s="22" t="str">
+      <c r="K648" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D648), ISBLANK(E648)),AND(OR(ISBLANK(G648),ISBLANK(H648),ISBLANK(I648)),ISBLANK(J648))),"",IF(ISBLANK(J648),IF(ISBLANK(E648),(D648-F648)*I648*H648*INDIRECT(SUBSTITUTE(G648," ","_"))/1000000,(E648-F648)*I648*H648*INDIRECT(SUBSTITUTE(G648," ","_"))/1000000),IF(ISBLANK(E648),(D648-F648)*J648,(E648-F648)*J648)))</f>
         <v/>
       </c>
@@ -17042,7 +17039,7 @@
       <c r="H649" s="31"/>
       <c r="I649" s="31"/>
       <c r="J649" s="31"/>
-      <c r="K649" s="22" t="str">
+      <c r="K649" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D649), ISBLANK(E649)),AND(OR(ISBLANK(G649),ISBLANK(H649),ISBLANK(I649)),ISBLANK(J649))),"",IF(ISBLANK(J649),IF(ISBLANK(E649),(D649-F649)*I649*H649*INDIRECT(SUBSTITUTE(G649," ","_"))/1000000,(E649-F649)*I649*H649*INDIRECT(SUBSTITUTE(G649," ","_"))/1000000),IF(ISBLANK(E649),(D649-F649)*J649,(E649-F649)*J649)))</f>
         <v/>
       </c>
@@ -17065,7 +17062,7 @@
       <c r="H650" s="31"/>
       <c r="I650" s="31"/>
       <c r="J650" s="31"/>
-      <c r="K650" s="22" t="str">
+      <c r="K650" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D650), ISBLANK(E650)),AND(OR(ISBLANK(G650),ISBLANK(H650),ISBLANK(I650)),ISBLANK(J650))),"",IF(ISBLANK(J650),IF(ISBLANK(E650),(D650-F650)*I650*H650*INDIRECT(SUBSTITUTE(G650," ","_"))/1000000,(E650-F650)*I650*H650*INDIRECT(SUBSTITUTE(G650," ","_"))/1000000),IF(ISBLANK(E650),(D650-F650)*J650,(E650-F650)*J650)))</f>
         <v/>
       </c>
@@ -17088,7 +17085,7 @@
       <c r="H651" s="31"/>
       <c r="I651" s="31"/>
       <c r="J651" s="31"/>
-      <c r="K651" s="22" t="str">
+      <c r="K651" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D651), ISBLANK(E651)),AND(OR(ISBLANK(G651),ISBLANK(H651),ISBLANK(I651)),ISBLANK(J651))),"",IF(ISBLANK(J651),IF(ISBLANK(E651),(D651-F651)*I651*H651*INDIRECT(SUBSTITUTE(G651," ","_"))/1000000,(E651-F651)*I651*H651*INDIRECT(SUBSTITUTE(G651," ","_"))/1000000),IF(ISBLANK(E651),(D651-F651)*J651,(E651-F651)*J651)))</f>
         <v/>
       </c>
@@ -17111,7 +17108,7 @@
       <c r="H652" s="31"/>
       <c r="I652" s="31"/>
       <c r="J652" s="31"/>
-      <c r="K652" s="22" t="str">
+      <c r="K652" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D652), ISBLANK(E652)),AND(OR(ISBLANK(G652),ISBLANK(H652),ISBLANK(I652)),ISBLANK(J652))),"",IF(ISBLANK(J652),IF(ISBLANK(E652),(D652-F652)*I652*H652*INDIRECT(SUBSTITUTE(G652," ","_"))/1000000,(E652-F652)*I652*H652*INDIRECT(SUBSTITUTE(G652," ","_"))/1000000),IF(ISBLANK(E652),(D652-F652)*J652,(E652-F652)*J652)))</f>
         <v/>
       </c>
@@ -17134,7 +17131,7 @@
       <c r="H653" s="31"/>
       <c r="I653" s="31"/>
       <c r="J653" s="31"/>
-      <c r="K653" s="22" t="str">
+      <c r="K653" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D653), ISBLANK(E653)),AND(OR(ISBLANK(G653),ISBLANK(H653),ISBLANK(I653)),ISBLANK(J653))),"",IF(ISBLANK(J653),IF(ISBLANK(E653),(D653-F653)*I653*H653*INDIRECT(SUBSTITUTE(G653," ","_"))/1000000,(E653-F653)*I653*H653*INDIRECT(SUBSTITUTE(G653," ","_"))/1000000),IF(ISBLANK(E653),(D653-F653)*J653,(E653-F653)*J653)))</f>
         <v/>
       </c>
@@ -17157,7 +17154,7 @@
       <c r="H654" s="31"/>
       <c r="I654" s="31"/>
       <c r="J654" s="31"/>
-      <c r="K654" s="22" t="str">
+      <c r="K654" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D654), ISBLANK(E654)),AND(OR(ISBLANK(G654),ISBLANK(H654),ISBLANK(I654)),ISBLANK(J654))),"",IF(ISBLANK(J654),IF(ISBLANK(E654),(D654-F654)*I654*H654*INDIRECT(SUBSTITUTE(G654," ","_"))/1000000,(E654-F654)*I654*H654*INDIRECT(SUBSTITUTE(G654," ","_"))/1000000),IF(ISBLANK(E654),(D654-F654)*J654,(E654-F654)*J654)))</f>
         <v/>
       </c>
@@ -17180,7 +17177,7 @@
       <c r="H655" s="31"/>
       <c r="I655" s="31"/>
       <c r="J655" s="31"/>
-      <c r="K655" s="22" t="str">
+      <c r="K655" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D655), ISBLANK(E655)),AND(OR(ISBLANK(G655),ISBLANK(H655),ISBLANK(I655)),ISBLANK(J655))),"",IF(ISBLANK(J655),IF(ISBLANK(E655),(D655-F655)*I655*H655*INDIRECT(SUBSTITUTE(G655," ","_"))/1000000,(E655-F655)*I655*H655*INDIRECT(SUBSTITUTE(G655," ","_"))/1000000),IF(ISBLANK(E655),(D655-F655)*J655,(E655-F655)*J655)))</f>
         <v/>
       </c>
@@ -17203,7 +17200,7 @@
       <c r="H656" s="31"/>
       <c r="I656" s="31"/>
       <c r="J656" s="31"/>
-      <c r="K656" s="22" t="str">
+      <c r="K656" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D656), ISBLANK(E656)),AND(OR(ISBLANK(G656),ISBLANK(H656),ISBLANK(I656)),ISBLANK(J656))),"",IF(ISBLANK(J656),IF(ISBLANK(E656),(D656-F656)*I656*H656*INDIRECT(SUBSTITUTE(G656," ","_"))/1000000,(E656-F656)*I656*H656*INDIRECT(SUBSTITUTE(G656," ","_"))/1000000),IF(ISBLANK(E656),(D656-F656)*J656,(E656-F656)*J656)))</f>
         <v/>
       </c>
@@ -17226,7 +17223,7 @@
       <c r="H657" s="31"/>
       <c r="I657" s="31"/>
       <c r="J657" s="31"/>
-      <c r="K657" s="22" t="str">
+      <c r="K657" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D657), ISBLANK(E657)),AND(OR(ISBLANK(G657),ISBLANK(H657),ISBLANK(I657)),ISBLANK(J657))),"",IF(ISBLANK(J657),IF(ISBLANK(E657),(D657-F657)*I657*H657*INDIRECT(SUBSTITUTE(G657," ","_"))/1000000,(E657-F657)*I657*H657*INDIRECT(SUBSTITUTE(G657," ","_"))/1000000),IF(ISBLANK(E657),(D657-F657)*J657,(E657-F657)*J657)))</f>
         <v/>
       </c>
@@ -17249,7 +17246,7 @@
       <c r="H658" s="31"/>
       <c r="I658" s="31"/>
       <c r="J658" s="31"/>
-      <c r="K658" s="22" t="str">
+      <c r="K658" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D658), ISBLANK(E658)),AND(OR(ISBLANK(G658),ISBLANK(H658),ISBLANK(I658)),ISBLANK(J658))),"",IF(ISBLANK(J658),IF(ISBLANK(E658),(D658-F658)*I658*H658*INDIRECT(SUBSTITUTE(G658," ","_"))/1000000,(E658-F658)*I658*H658*INDIRECT(SUBSTITUTE(G658," ","_"))/1000000),IF(ISBLANK(E658),(D658-F658)*J658,(E658-F658)*J658)))</f>
         <v/>
       </c>
@@ -17272,7 +17269,7 @@
       <c r="H659" s="31"/>
       <c r="I659" s="31"/>
       <c r="J659" s="31"/>
-      <c r="K659" s="22" t="str">
+      <c r="K659" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D659), ISBLANK(E659)),AND(OR(ISBLANK(G659),ISBLANK(H659),ISBLANK(I659)),ISBLANK(J659))),"",IF(ISBLANK(J659),IF(ISBLANK(E659),(D659-F659)*I659*H659*INDIRECT(SUBSTITUTE(G659," ","_"))/1000000,(E659-F659)*I659*H659*INDIRECT(SUBSTITUTE(G659," ","_"))/1000000),IF(ISBLANK(E659),(D659-F659)*J659,(E659-F659)*J659)))</f>
         <v/>
       </c>
@@ -17295,7 +17292,7 @@
       <c r="H660" s="31"/>
       <c r="I660" s="31"/>
       <c r="J660" s="31"/>
-      <c r="K660" s="22" t="str">
+      <c r="K660" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D660), ISBLANK(E660)),AND(OR(ISBLANK(G660),ISBLANK(H660),ISBLANK(I660)),ISBLANK(J660))),"",IF(ISBLANK(J660),IF(ISBLANK(E660),(D660-F660)*I660*H660*INDIRECT(SUBSTITUTE(G660," ","_"))/1000000,(E660-F660)*I660*H660*INDIRECT(SUBSTITUTE(G660," ","_"))/1000000),IF(ISBLANK(E660),(D660-F660)*J660,(E660-F660)*J660)))</f>
         <v/>
       </c>
@@ -17318,7 +17315,7 @@
       <c r="H661" s="31"/>
       <c r="I661" s="31"/>
       <c r="J661" s="31"/>
-      <c r="K661" s="22" t="str">
+      <c r="K661" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D661), ISBLANK(E661)),AND(OR(ISBLANK(G661),ISBLANK(H661),ISBLANK(I661)),ISBLANK(J661))),"",IF(ISBLANK(J661),IF(ISBLANK(E661),(D661-F661)*I661*H661*INDIRECT(SUBSTITUTE(G661," ","_"))/1000000,(E661-F661)*I661*H661*INDIRECT(SUBSTITUTE(G661," ","_"))/1000000),IF(ISBLANK(E661),(D661-F661)*J661,(E661-F661)*J661)))</f>
         <v/>
       </c>
@@ -17341,7 +17338,7 @@
       <c r="H662" s="31"/>
       <c r="I662" s="31"/>
       <c r="J662" s="31"/>
-      <c r="K662" s="22" t="str">
+      <c r="K662" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D662), ISBLANK(E662)),AND(OR(ISBLANK(G662),ISBLANK(H662),ISBLANK(I662)),ISBLANK(J662))),"",IF(ISBLANK(J662),IF(ISBLANK(E662),(D662-F662)*I662*H662*INDIRECT(SUBSTITUTE(G662," ","_"))/1000000,(E662-F662)*I662*H662*INDIRECT(SUBSTITUTE(G662," ","_"))/1000000),IF(ISBLANK(E662),(D662-F662)*J662,(E662-F662)*J662)))</f>
         <v/>
       </c>
@@ -17364,7 +17361,7 @@
       <c r="H663" s="31"/>
       <c r="I663" s="31"/>
       <c r="J663" s="31"/>
-      <c r="K663" s="22" t="str">
+      <c r="K663" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D663), ISBLANK(E663)),AND(OR(ISBLANK(G663),ISBLANK(H663),ISBLANK(I663)),ISBLANK(J663))),"",IF(ISBLANK(J663),IF(ISBLANK(E663),(D663-F663)*I663*H663*INDIRECT(SUBSTITUTE(G663," ","_"))/1000000,(E663-F663)*I663*H663*INDIRECT(SUBSTITUTE(G663," ","_"))/1000000),IF(ISBLANK(E663),(D663-F663)*J663,(E663-F663)*J663)))</f>
         <v/>
       </c>
@@ -17387,7 +17384,7 @@
       <c r="H664" s="31"/>
       <c r="I664" s="31"/>
       <c r="J664" s="31"/>
-      <c r="K664" s="22" t="str">
+      <c r="K664" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D664), ISBLANK(E664)),AND(OR(ISBLANK(G664),ISBLANK(H664),ISBLANK(I664)),ISBLANK(J664))),"",IF(ISBLANK(J664),IF(ISBLANK(E664),(D664-F664)*I664*H664*INDIRECT(SUBSTITUTE(G664," ","_"))/1000000,(E664-F664)*I664*H664*INDIRECT(SUBSTITUTE(G664," ","_"))/1000000),IF(ISBLANK(E664),(D664-F664)*J664,(E664-F664)*J664)))</f>
         <v/>
       </c>
@@ -17410,7 +17407,7 @@
       <c r="H665" s="31"/>
       <c r="I665" s="31"/>
       <c r="J665" s="31"/>
-      <c r="K665" s="22" t="str">
+      <c r="K665" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D665), ISBLANK(E665)),AND(OR(ISBLANK(G665),ISBLANK(H665),ISBLANK(I665)),ISBLANK(J665))),"",IF(ISBLANK(J665),IF(ISBLANK(E665),(D665-F665)*I665*H665*INDIRECT(SUBSTITUTE(G665," ","_"))/1000000,(E665-F665)*I665*H665*INDIRECT(SUBSTITUTE(G665," ","_"))/1000000),IF(ISBLANK(E665),(D665-F665)*J665,(E665-F665)*J665)))</f>
         <v/>
       </c>
@@ -17433,7 +17430,7 @@
       <c r="H666" s="31"/>
       <c r="I666" s="31"/>
       <c r="J666" s="31"/>
-      <c r="K666" s="22" t="str">
+      <c r="K666" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D666), ISBLANK(E666)),AND(OR(ISBLANK(G666),ISBLANK(H666),ISBLANK(I666)),ISBLANK(J666))),"",IF(ISBLANK(J666),IF(ISBLANK(E666),(D666-F666)*I666*H666*INDIRECT(SUBSTITUTE(G666," ","_"))/1000000,(E666-F666)*I666*H666*INDIRECT(SUBSTITUTE(G666," ","_"))/1000000),IF(ISBLANK(E666),(D666-F666)*J666,(E666-F666)*J666)))</f>
         <v/>
       </c>
@@ -17456,7 +17453,7 @@
       <c r="H667" s="31"/>
       <c r="I667" s="31"/>
       <c r="J667" s="31"/>
-      <c r="K667" s="22" t="str">
+      <c r="K667" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D667), ISBLANK(E667)),AND(OR(ISBLANK(G667),ISBLANK(H667),ISBLANK(I667)),ISBLANK(J667))),"",IF(ISBLANK(J667),IF(ISBLANK(E667),(D667-F667)*I667*H667*INDIRECT(SUBSTITUTE(G667," ","_"))/1000000,(E667-F667)*I667*H667*INDIRECT(SUBSTITUTE(G667," ","_"))/1000000),IF(ISBLANK(E667),(D667-F667)*J667,(E667-F667)*J667)))</f>
         <v/>
       </c>
@@ -17479,7 +17476,7 @@
       <c r="H668" s="31"/>
       <c r="I668" s="31"/>
       <c r="J668" s="31"/>
-      <c r="K668" s="22" t="str">
+      <c r="K668" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D668), ISBLANK(E668)),AND(OR(ISBLANK(G668),ISBLANK(H668),ISBLANK(I668)),ISBLANK(J668))),"",IF(ISBLANK(J668),IF(ISBLANK(E668),(D668-F668)*I668*H668*INDIRECT(SUBSTITUTE(G668," ","_"))/1000000,(E668-F668)*I668*H668*INDIRECT(SUBSTITUTE(G668," ","_"))/1000000),IF(ISBLANK(E668),(D668-F668)*J668,(E668-F668)*J668)))</f>
         <v/>
       </c>
@@ -17502,7 +17499,7 @@
       <c r="H669" s="31"/>
       <c r="I669" s="31"/>
       <c r="J669" s="31"/>
-      <c r="K669" s="22" t="str">
+      <c r="K669" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D669), ISBLANK(E669)),AND(OR(ISBLANK(G669),ISBLANK(H669),ISBLANK(I669)),ISBLANK(J669))),"",IF(ISBLANK(J669),IF(ISBLANK(E669),(D669-F669)*I669*H669*INDIRECT(SUBSTITUTE(G669," ","_"))/1000000,(E669-F669)*I669*H669*INDIRECT(SUBSTITUTE(G669," ","_"))/1000000),IF(ISBLANK(E669),(D669-F669)*J669,(E669-F669)*J669)))</f>
         <v/>
       </c>
@@ -17525,7 +17522,7 @@
       <c r="H670" s="31"/>
       <c r="I670" s="31"/>
       <c r="J670" s="31"/>
-      <c r="K670" s="22" t="str">
+      <c r="K670" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D670), ISBLANK(E670)),AND(OR(ISBLANK(G670),ISBLANK(H670),ISBLANK(I670)),ISBLANK(J670))),"",IF(ISBLANK(J670),IF(ISBLANK(E670),(D670-F670)*I670*H670*INDIRECT(SUBSTITUTE(G670," ","_"))/1000000,(E670-F670)*I670*H670*INDIRECT(SUBSTITUTE(G670," ","_"))/1000000),IF(ISBLANK(E670),(D670-F670)*J670,(E670-F670)*J670)))</f>
         <v/>
       </c>
@@ -17548,7 +17545,7 @@
       <c r="H671" s="31"/>
       <c r="I671" s="31"/>
       <c r="J671" s="31"/>
-      <c r="K671" s="22" t="str">
+      <c r="K671" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D671), ISBLANK(E671)),AND(OR(ISBLANK(G671),ISBLANK(H671),ISBLANK(I671)),ISBLANK(J671))),"",IF(ISBLANK(J671),IF(ISBLANK(E671),(D671-F671)*I671*H671*INDIRECT(SUBSTITUTE(G671," ","_"))/1000000,(E671-F671)*I671*H671*INDIRECT(SUBSTITUTE(G671," ","_"))/1000000),IF(ISBLANK(E671),(D671-F671)*J671,(E671-F671)*J671)))</f>
         <v/>
       </c>
@@ -17571,7 +17568,7 @@
       <c r="H672" s="31"/>
       <c r="I672" s="31"/>
       <c r="J672" s="31"/>
-      <c r="K672" s="22" t="str">
+      <c r="K672" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D672), ISBLANK(E672)),AND(OR(ISBLANK(G672),ISBLANK(H672),ISBLANK(I672)),ISBLANK(J672))),"",IF(ISBLANK(J672),IF(ISBLANK(E672),(D672-F672)*I672*H672*INDIRECT(SUBSTITUTE(G672," ","_"))/1000000,(E672-F672)*I672*H672*INDIRECT(SUBSTITUTE(G672," ","_"))/1000000),IF(ISBLANK(E672),(D672-F672)*J672,(E672-F672)*J672)))</f>
         <v/>
       </c>
@@ -17594,7 +17591,7 @@
       <c r="H673" s="31"/>
       <c r="I673" s="31"/>
       <c r="J673" s="31"/>
-      <c r="K673" s="22" t="str">
+      <c r="K673" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D673), ISBLANK(E673)),AND(OR(ISBLANK(G673),ISBLANK(H673),ISBLANK(I673)),ISBLANK(J673))),"",IF(ISBLANK(J673),IF(ISBLANK(E673),(D673-F673)*I673*H673*INDIRECT(SUBSTITUTE(G673," ","_"))/1000000,(E673-F673)*I673*H673*INDIRECT(SUBSTITUTE(G673," ","_"))/1000000),IF(ISBLANK(E673),(D673-F673)*J673,(E673-F673)*J673)))</f>
         <v/>
       </c>
@@ -17617,7 +17614,7 @@
       <c r="H674" s="31"/>
       <c r="I674" s="31"/>
       <c r="J674" s="31"/>
-      <c r="K674" s="22" t="str">
+      <c r="K674" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D674), ISBLANK(E674)),AND(OR(ISBLANK(G674),ISBLANK(H674),ISBLANK(I674)),ISBLANK(J674))),"",IF(ISBLANK(J674),IF(ISBLANK(E674),(D674-F674)*I674*H674*INDIRECT(SUBSTITUTE(G674," ","_"))/1000000,(E674-F674)*I674*H674*INDIRECT(SUBSTITUTE(G674," ","_"))/1000000),IF(ISBLANK(E674),(D674-F674)*J674,(E674-F674)*J674)))</f>
         <v/>
       </c>
@@ -17640,7 +17637,7 @@
       <c r="H675" s="31"/>
       <c r="I675" s="31"/>
       <c r="J675" s="31"/>
-      <c r="K675" s="22" t="str">
+      <c r="K675" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D675), ISBLANK(E675)),AND(OR(ISBLANK(G675),ISBLANK(H675),ISBLANK(I675)),ISBLANK(J675))),"",IF(ISBLANK(J675),IF(ISBLANK(E675),(D675-F675)*I675*H675*INDIRECT(SUBSTITUTE(G675," ","_"))/1000000,(E675-F675)*I675*H675*INDIRECT(SUBSTITUTE(G675," ","_"))/1000000),IF(ISBLANK(E675),(D675-F675)*J675,(E675-F675)*J675)))</f>
         <v/>
       </c>
@@ -17663,7 +17660,7 @@
       <c r="H676" s="31"/>
       <c r="I676" s="31"/>
       <c r="J676" s="31"/>
-      <c r="K676" s="22" t="str">
+      <c r="K676" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D676), ISBLANK(E676)),AND(OR(ISBLANK(G676),ISBLANK(H676),ISBLANK(I676)),ISBLANK(J676))),"",IF(ISBLANK(J676),IF(ISBLANK(E676),(D676-F676)*I676*H676*INDIRECT(SUBSTITUTE(G676," ","_"))/1000000,(E676-F676)*I676*H676*INDIRECT(SUBSTITUTE(G676," ","_"))/1000000),IF(ISBLANK(E676),(D676-F676)*J676,(E676-F676)*J676)))</f>
         <v/>
       </c>
@@ -17686,7 +17683,7 @@
       <c r="H677" s="31"/>
       <c r="I677" s="31"/>
       <c r="J677" s="31"/>
-      <c r="K677" s="22" t="str">
+      <c r="K677" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D677), ISBLANK(E677)),AND(OR(ISBLANK(G677),ISBLANK(H677),ISBLANK(I677)),ISBLANK(J677))),"",IF(ISBLANK(J677),IF(ISBLANK(E677),(D677-F677)*I677*H677*INDIRECT(SUBSTITUTE(G677," ","_"))/1000000,(E677-F677)*I677*H677*INDIRECT(SUBSTITUTE(G677," ","_"))/1000000),IF(ISBLANK(E677),(D677-F677)*J677,(E677-F677)*J677)))</f>
         <v/>
       </c>
@@ -17709,7 +17706,7 @@
       <c r="H678" s="31"/>
       <c r="I678" s="31"/>
       <c r="J678" s="31"/>
-      <c r="K678" s="22" t="str">
+      <c r="K678" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D678), ISBLANK(E678)),AND(OR(ISBLANK(G678),ISBLANK(H678),ISBLANK(I678)),ISBLANK(J678))),"",IF(ISBLANK(J678),IF(ISBLANK(E678),(D678-F678)*I678*H678*INDIRECT(SUBSTITUTE(G678," ","_"))/1000000,(E678-F678)*I678*H678*INDIRECT(SUBSTITUTE(G678," ","_"))/1000000),IF(ISBLANK(E678),(D678-F678)*J678,(E678-F678)*J678)))</f>
         <v/>
       </c>
@@ -17732,7 +17729,7 @@
       <c r="H679" s="31"/>
       <c r="I679" s="31"/>
       <c r="J679" s="31"/>
-      <c r="K679" s="22" t="str">
+      <c r="K679" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D679), ISBLANK(E679)),AND(OR(ISBLANK(G679),ISBLANK(H679),ISBLANK(I679)),ISBLANK(J679))),"",IF(ISBLANK(J679),IF(ISBLANK(E679),(D679-F679)*I679*H679*INDIRECT(SUBSTITUTE(G679," ","_"))/1000000,(E679-F679)*I679*H679*INDIRECT(SUBSTITUTE(G679," ","_"))/1000000),IF(ISBLANK(E679),(D679-F679)*J679,(E679-F679)*J679)))</f>
         <v/>
       </c>
@@ -17755,7 +17752,7 @@
       <c r="H680" s="31"/>
       <c r="I680" s="31"/>
       <c r="J680" s="31"/>
-      <c r="K680" s="22" t="str">
+      <c r="K680" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D680), ISBLANK(E680)),AND(OR(ISBLANK(G680),ISBLANK(H680),ISBLANK(I680)),ISBLANK(J680))),"",IF(ISBLANK(J680),IF(ISBLANK(E680),(D680-F680)*I680*H680*INDIRECT(SUBSTITUTE(G680," ","_"))/1000000,(E680-F680)*I680*H680*INDIRECT(SUBSTITUTE(G680," ","_"))/1000000),IF(ISBLANK(E680),(D680-F680)*J680,(E680-F680)*J680)))</f>
         <v/>
       </c>
@@ -17778,7 +17775,7 @@
       <c r="H681" s="31"/>
       <c r="I681" s="31"/>
       <c r="J681" s="31"/>
-      <c r="K681" s="22" t="str">
+      <c r="K681" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D681), ISBLANK(E681)),AND(OR(ISBLANK(G681),ISBLANK(H681),ISBLANK(I681)),ISBLANK(J681))),"",IF(ISBLANK(J681),IF(ISBLANK(E681),(D681-F681)*I681*H681*INDIRECT(SUBSTITUTE(G681," ","_"))/1000000,(E681-F681)*I681*H681*INDIRECT(SUBSTITUTE(G681," ","_"))/1000000),IF(ISBLANK(E681),(D681-F681)*J681,(E681-F681)*J681)))</f>
         <v/>
       </c>
@@ -17801,7 +17798,7 @@
       <c r="H682" s="31"/>
       <c r="I682" s="31"/>
       <c r="J682" s="31"/>
-      <c r="K682" s="22" t="str">
+      <c r="K682" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D682), ISBLANK(E682)),AND(OR(ISBLANK(G682),ISBLANK(H682),ISBLANK(I682)),ISBLANK(J682))),"",IF(ISBLANK(J682),IF(ISBLANK(E682),(D682-F682)*I682*H682*INDIRECT(SUBSTITUTE(G682," ","_"))/1000000,(E682-F682)*I682*H682*INDIRECT(SUBSTITUTE(G682," ","_"))/1000000),IF(ISBLANK(E682),(D682-F682)*J682,(E682-F682)*J682)))</f>
         <v/>
       </c>
@@ -17824,7 +17821,7 @@
       <c r="H683" s="31"/>
       <c r="I683" s="31"/>
       <c r="J683" s="31"/>
-      <c r="K683" s="22" t="str">
+      <c r="K683" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D683), ISBLANK(E683)),AND(OR(ISBLANK(G683),ISBLANK(H683),ISBLANK(I683)),ISBLANK(J683))),"",IF(ISBLANK(J683),IF(ISBLANK(E683),(D683-F683)*I683*H683*INDIRECT(SUBSTITUTE(G683," ","_"))/1000000,(E683-F683)*I683*H683*INDIRECT(SUBSTITUTE(G683," ","_"))/1000000),IF(ISBLANK(E683),(D683-F683)*J683,(E683-F683)*J683)))</f>
         <v/>
       </c>
@@ -17847,7 +17844,7 @@
       <c r="H684" s="31"/>
       <c r="I684" s="31"/>
       <c r="J684" s="31"/>
-      <c r="K684" s="22" t="str">
+      <c r="K684" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D684), ISBLANK(E684)),AND(OR(ISBLANK(G684),ISBLANK(H684),ISBLANK(I684)),ISBLANK(J684))),"",IF(ISBLANK(J684),IF(ISBLANK(E684),(D684-F684)*I684*H684*INDIRECT(SUBSTITUTE(G684," ","_"))/1000000,(E684-F684)*I684*H684*INDIRECT(SUBSTITUTE(G684," ","_"))/1000000),IF(ISBLANK(E684),(D684-F684)*J684,(E684-F684)*J684)))</f>
         <v/>
       </c>
@@ -17870,7 +17867,7 @@
       <c r="H685" s="31"/>
       <c r="I685" s="31"/>
       <c r="J685" s="31"/>
-      <c r="K685" s="22" t="str">
+      <c r="K685" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D685), ISBLANK(E685)),AND(OR(ISBLANK(G685),ISBLANK(H685),ISBLANK(I685)),ISBLANK(J685))),"",IF(ISBLANK(J685),IF(ISBLANK(E685),(D685-F685)*I685*H685*INDIRECT(SUBSTITUTE(G685," ","_"))/1000000,(E685-F685)*I685*H685*INDIRECT(SUBSTITUTE(G685," ","_"))/1000000),IF(ISBLANK(E685),(D685-F685)*J685,(E685-F685)*J685)))</f>
         <v/>
       </c>
@@ -17893,7 +17890,7 @@
       <c r="H686" s="31"/>
       <c r="I686" s="31"/>
       <c r="J686" s="31"/>
-      <c r="K686" s="22" t="str">
+      <c r="K686" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D686), ISBLANK(E686)),AND(OR(ISBLANK(G686),ISBLANK(H686),ISBLANK(I686)),ISBLANK(J686))),"",IF(ISBLANK(J686),IF(ISBLANK(E686),(D686-F686)*I686*H686*INDIRECT(SUBSTITUTE(G686," ","_"))/1000000,(E686-F686)*I686*H686*INDIRECT(SUBSTITUTE(G686," ","_"))/1000000),IF(ISBLANK(E686),(D686-F686)*J686,(E686-F686)*J686)))</f>
         <v/>
       </c>
@@ -17916,7 +17913,7 @@
       <c r="H687" s="31"/>
       <c r="I687" s="31"/>
       <c r="J687" s="31"/>
-      <c r="K687" s="22" t="str">
+      <c r="K687" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D687), ISBLANK(E687)),AND(OR(ISBLANK(G687),ISBLANK(H687),ISBLANK(I687)),ISBLANK(J687))),"",IF(ISBLANK(J687),IF(ISBLANK(E687),(D687-F687)*I687*H687*INDIRECT(SUBSTITUTE(G687," ","_"))/1000000,(E687-F687)*I687*H687*INDIRECT(SUBSTITUTE(G687," ","_"))/1000000),IF(ISBLANK(E687),(D687-F687)*J687,(E687-F687)*J687)))</f>
         <v/>
       </c>
@@ -17939,7 +17936,7 @@
       <c r="H688" s="31"/>
       <c r="I688" s="31"/>
       <c r="J688" s="31"/>
-      <c r="K688" s="22" t="str">
+      <c r="K688" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D688), ISBLANK(E688)),AND(OR(ISBLANK(G688),ISBLANK(H688),ISBLANK(I688)),ISBLANK(J688))),"",IF(ISBLANK(J688),IF(ISBLANK(E688),(D688-F688)*I688*H688*INDIRECT(SUBSTITUTE(G688," ","_"))/1000000,(E688-F688)*I688*H688*INDIRECT(SUBSTITUTE(G688," ","_"))/1000000),IF(ISBLANK(E688),(D688-F688)*J688,(E688-F688)*J688)))</f>
         <v/>
       </c>
@@ -17962,7 +17959,7 @@
       <c r="H689" s="31"/>
       <c r="I689" s="31"/>
       <c r="J689" s="31"/>
-      <c r="K689" s="22" t="str">
+      <c r="K689" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D689), ISBLANK(E689)),AND(OR(ISBLANK(G689),ISBLANK(H689),ISBLANK(I689)),ISBLANK(J689))),"",IF(ISBLANK(J689),IF(ISBLANK(E689),(D689-F689)*I689*H689*INDIRECT(SUBSTITUTE(G689," ","_"))/1000000,(E689-F689)*I689*H689*INDIRECT(SUBSTITUTE(G689," ","_"))/1000000),IF(ISBLANK(E689),(D689-F689)*J689,(E689-F689)*J689)))</f>
         <v/>
       </c>
@@ -17985,7 +17982,7 @@
       <c r="H690" s="31"/>
       <c r="I690" s="31"/>
       <c r="J690" s="31"/>
-      <c r="K690" s="22" t="str">
+      <c r="K690" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D690), ISBLANK(E690)),AND(OR(ISBLANK(G690),ISBLANK(H690),ISBLANK(I690)),ISBLANK(J690))),"",IF(ISBLANK(J690),IF(ISBLANK(E690),(D690-F690)*I690*H690*INDIRECT(SUBSTITUTE(G690," ","_"))/1000000,(E690-F690)*I690*H690*INDIRECT(SUBSTITUTE(G690," ","_"))/1000000),IF(ISBLANK(E690),(D690-F690)*J690,(E690-F690)*J690)))</f>
         <v/>
       </c>
@@ -18008,7 +18005,7 @@
       <c r="H691" s="31"/>
       <c r="I691" s="31"/>
       <c r="J691" s="31"/>
-      <c r="K691" s="22" t="str">
+      <c r="K691" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D691), ISBLANK(E691)),AND(OR(ISBLANK(G691),ISBLANK(H691),ISBLANK(I691)),ISBLANK(J691))),"",IF(ISBLANK(J691),IF(ISBLANK(E691),(D691-F691)*I691*H691*INDIRECT(SUBSTITUTE(G691," ","_"))/1000000,(E691-F691)*I691*H691*INDIRECT(SUBSTITUTE(G691," ","_"))/1000000),IF(ISBLANK(E691),(D691-F691)*J691,(E691-F691)*J691)))</f>
         <v/>
       </c>
@@ -18031,7 +18028,7 @@
       <c r="H692" s="31"/>
       <c r="I692" s="31"/>
       <c r="J692" s="31"/>
-      <c r="K692" s="22" t="str">
+      <c r="K692" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D692), ISBLANK(E692)),AND(OR(ISBLANK(G692),ISBLANK(H692),ISBLANK(I692)),ISBLANK(J692))),"",IF(ISBLANK(J692),IF(ISBLANK(E692),(D692-F692)*I692*H692*INDIRECT(SUBSTITUTE(G692," ","_"))/1000000,(E692-F692)*I692*H692*INDIRECT(SUBSTITUTE(G692," ","_"))/1000000),IF(ISBLANK(E692),(D692-F692)*J692,(E692-F692)*J692)))</f>
         <v/>
       </c>
@@ -18054,7 +18051,7 @@
       <c r="H693" s="31"/>
       <c r="I693" s="31"/>
       <c r="J693" s="31"/>
-      <c r="K693" s="22" t="str">
+      <c r="K693" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D693), ISBLANK(E693)),AND(OR(ISBLANK(G693),ISBLANK(H693),ISBLANK(I693)),ISBLANK(J693))),"",IF(ISBLANK(J693),IF(ISBLANK(E693),(D693-F693)*I693*H693*INDIRECT(SUBSTITUTE(G693," ","_"))/1000000,(E693-F693)*I693*H693*INDIRECT(SUBSTITUTE(G693," ","_"))/1000000),IF(ISBLANK(E693),(D693-F693)*J693,(E693-F693)*J693)))</f>
         <v/>
       </c>
@@ -18077,7 +18074,7 @@
       <c r="H694" s="31"/>
       <c r="I694" s="31"/>
       <c r="J694" s="31"/>
-      <c r="K694" s="22" t="str">
+      <c r="K694" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D694), ISBLANK(E694)),AND(OR(ISBLANK(G694),ISBLANK(H694),ISBLANK(I694)),ISBLANK(J694))),"",IF(ISBLANK(J694),IF(ISBLANK(E694),(D694-F694)*I694*H694*INDIRECT(SUBSTITUTE(G694," ","_"))/1000000,(E694-F694)*I694*H694*INDIRECT(SUBSTITUTE(G694," ","_"))/1000000),IF(ISBLANK(E694),(D694-F694)*J694,(E694-F694)*J694)))</f>
         <v/>
       </c>
@@ -18100,7 +18097,7 @@
       <c r="H695" s="31"/>
       <c r="I695" s="31"/>
       <c r="J695" s="31"/>
-      <c r="K695" s="22" t="str">
+      <c r="K695" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D695), ISBLANK(E695)),AND(OR(ISBLANK(G695),ISBLANK(H695),ISBLANK(I695)),ISBLANK(J695))),"",IF(ISBLANK(J695),IF(ISBLANK(E695),(D695-F695)*I695*H695*INDIRECT(SUBSTITUTE(G695," ","_"))/1000000,(E695-F695)*I695*H695*INDIRECT(SUBSTITUTE(G695," ","_"))/1000000),IF(ISBLANK(E695),(D695-F695)*J695,(E695-F695)*J695)))</f>
         <v/>
       </c>
@@ -18123,7 +18120,7 @@
       <c r="H696" s="31"/>
       <c r="I696" s="31"/>
       <c r="J696" s="31"/>
-      <c r="K696" s="22" t="str">
+      <c r="K696" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D696), ISBLANK(E696)),AND(OR(ISBLANK(G696),ISBLANK(H696),ISBLANK(I696)),ISBLANK(J696))),"",IF(ISBLANK(J696),IF(ISBLANK(E696),(D696-F696)*I696*H696*INDIRECT(SUBSTITUTE(G696," ","_"))/1000000,(E696-F696)*I696*H696*INDIRECT(SUBSTITUTE(G696," ","_"))/1000000),IF(ISBLANK(E696),(D696-F696)*J696,(E696-F696)*J696)))</f>
         <v/>
       </c>
@@ -18146,7 +18143,7 @@
       <c r="H697" s="31"/>
       <c r="I697" s="31"/>
       <c r="J697" s="31"/>
-      <c r="K697" s="22" t="str">
+      <c r="K697" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D697), ISBLANK(E697)),AND(OR(ISBLANK(G697),ISBLANK(H697),ISBLANK(I697)),ISBLANK(J697))),"",IF(ISBLANK(J697),IF(ISBLANK(E697),(D697-F697)*I697*H697*INDIRECT(SUBSTITUTE(G697," ","_"))/1000000,(E697-F697)*I697*H697*INDIRECT(SUBSTITUTE(G697," ","_"))/1000000),IF(ISBLANK(E697),(D697-F697)*J697,(E697-F697)*J697)))</f>
         <v/>
       </c>
@@ -18169,7 +18166,7 @@
       <c r="H698" s="31"/>
       <c r="I698" s="31"/>
       <c r="J698" s="31"/>
-      <c r="K698" s="22" t="str">
+      <c r="K698" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D698), ISBLANK(E698)),AND(OR(ISBLANK(G698),ISBLANK(H698),ISBLANK(I698)),ISBLANK(J698))),"",IF(ISBLANK(J698),IF(ISBLANK(E698),(D698-F698)*I698*H698*INDIRECT(SUBSTITUTE(G698," ","_"))/1000000,(E698-F698)*I698*H698*INDIRECT(SUBSTITUTE(G698," ","_"))/1000000),IF(ISBLANK(E698),(D698-F698)*J698,(E698-F698)*J698)))</f>
         <v/>
       </c>
@@ -18192,7 +18189,7 @@
       <c r="H699" s="31"/>
       <c r="I699" s="31"/>
       <c r="J699" s="31"/>
-      <c r="K699" s="22" t="str">
+      <c r="K699" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D699), ISBLANK(E699)),AND(OR(ISBLANK(G699),ISBLANK(H699),ISBLANK(I699)),ISBLANK(J699))),"",IF(ISBLANK(J699),IF(ISBLANK(E699),(D699-F699)*I699*H699*INDIRECT(SUBSTITUTE(G699," ","_"))/1000000,(E699-F699)*I699*H699*INDIRECT(SUBSTITUTE(G699," ","_"))/1000000),IF(ISBLANK(E699),(D699-F699)*J699,(E699-F699)*J699)))</f>
         <v/>
       </c>
@@ -18215,7 +18212,7 @@
       <c r="H700" s="31"/>
       <c r="I700" s="31"/>
       <c r="J700" s="31"/>
-      <c r="K700" s="22" t="str">
+      <c r="K700" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D700), ISBLANK(E700)),AND(OR(ISBLANK(G700),ISBLANK(H700),ISBLANK(I700)),ISBLANK(J700))),"",IF(ISBLANK(J700),IF(ISBLANK(E700),(D700-F700)*I700*H700*INDIRECT(SUBSTITUTE(G700," ","_"))/1000000,(E700-F700)*I700*H700*INDIRECT(SUBSTITUTE(G700," ","_"))/1000000),IF(ISBLANK(E700),(D700-F700)*J700,(E700-F700)*J700)))</f>
         <v/>
       </c>
@@ -18238,7 +18235,7 @@
       <c r="H701" s="31"/>
       <c r="I701" s="31"/>
       <c r="J701" s="31"/>
-      <c r="K701" s="22" t="str">
+      <c r="K701" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D701), ISBLANK(E701)),AND(OR(ISBLANK(G701),ISBLANK(H701),ISBLANK(I701)),ISBLANK(J701))),"",IF(ISBLANK(J701),IF(ISBLANK(E701),(D701-F701)*I701*H701*INDIRECT(SUBSTITUTE(G701," ","_"))/1000000,(E701-F701)*I701*H701*INDIRECT(SUBSTITUTE(G701," ","_"))/1000000),IF(ISBLANK(E701),(D701-F701)*J701,(E701-F701)*J701)))</f>
         <v/>
       </c>
@@ -18261,7 +18258,7 @@
       <c r="H702" s="31"/>
       <c r="I702" s="31"/>
       <c r="J702" s="31"/>
-      <c r="K702" s="22" t="str">
+      <c r="K702" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D702), ISBLANK(E702)),AND(OR(ISBLANK(G702),ISBLANK(H702),ISBLANK(I702)),ISBLANK(J702))),"",IF(ISBLANK(J702),IF(ISBLANK(E702),(D702-F702)*I702*H702*INDIRECT(SUBSTITUTE(G702," ","_"))/1000000,(E702-F702)*I702*H702*INDIRECT(SUBSTITUTE(G702," ","_"))/1000000),IF(ISBLANK(E702),(D702-F702)*J702,(E702-F702)*J702)))</f>
         <v/>
       </c>
@@ -18284,7 +18281,7 @@
       <c r="H703" s="31"/>
       <c r="I703" s="31"/>
       <c r="J703" s="31"/>
-      <c r="K703" s="22" t="str">
+      <c r="K703" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D703), ISBLANK(E703)),AND(OR(ISBLANK(G703),ISBLANK(H703),ISBLANK(I703)),ISBLANK(J703))),"",IF(ISBLANK(J703),IF(ISBLANK(E703),(D703-F703)*I703*H703*INDIRECT(SUBSTITUTE(G703," ","_"))/1000000,(E703-F703)*I703*H703*INDIRECT(SUBSTITUTE(G703," ","_"))/1000000),IF(ISBLANK(E703),(D703-F703)*J703,(E703-F703)*J703)))</f>
         <v/>
       </c>
@@ -18307,7 +18304,7 @@
       <c r="H704" s="31"/>
       <c r="I704" s="31"/>
       <c r="J704" s="31"/>
-      <c r="K704" s="22" t="str">
+      <c r="K704" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D704), ISBLANK(E704)),AND(OR(ISBLANK(G704),ISBLANK(H704),ISBLANK(I704)),ISBLANK(J704))),"",IF(ISBLANK(J704),IF(ISBLANK(E704),(D704-F704)*I704*H704*INDIRECT(SUBSTITUTE(G704," ","_"))/1000000,(E704-F704)*I704*H704*INDIRECT(SUBSTITUTE(G704," ","_"))/1000000),IF(ISBLANK(E704),(D704-F704)*J704,(E704-F704)*J704)))</f>
         <v/>
       </c>
@@ -18330,7 +18327,7 @@
       <c r="H705" s="31"/>
       <c r="I705" s="31"/>
       <c r="J705" s="31"/>
-      <c r="K705" s="22" t="str">
+      <c r="K705" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D705), ISBLANK(E705)),AND(OR(ISBLANK(G705),ISBLANK(H705),ISBLANK(I705)),ISBLANK(J705))),"",IF(ISBLANK(J705),IF(ISBLANK(E705),(D705-F705)*I705*H705*INDIRECT(SUBSTITUTE(G705," ","_"))/1000000,(E705-F705)*I705*H705*INDIRECT(SUBSTITUTE(G705," ","_"))/1000000),IF(ISBLANK(E705),(D705-F705)*J705,(E705-F705)*J705)))</f>
         <v/>
       </c>
@@ -18353,7 +18350,7 @@
       <c r="H706" s="31"/>
       <c r="I706" s="31"/>
       <c r="J706" s="31"/>
-      <c r="K706" s="22" t="str">
+      <c r="K706" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D706), ISBLANK(E706)),AND(OR(ISBLANK(G706),ISBLANK(H706),ISBLANK(I706)),ISBLANK(J706))),"",IF(ISBLANK(J706),IF(ISBLANK(E706),(D706-F706)*I706*H706*INDIRECT(SUBSTITUTE(G706," ","_"))/1000000,(E706-F706)*I706*H706*INDIRECT(SUBSTITUTE(G706," ","_"))/1000000),IF(ISBLANK(E706),(D706-F706)*J706,(E706-F706)*J706)))</f>
         <v/>
       </c>
@@ -18376,7 +18373,7 @@
       <c r="H707" s="31"/>
       <c r="I707" s="31"/>
       <c r="J707" s="31"/>
-      <c r="K707" s="22" t="str">
+      <c r="K707" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D707), ISBLANK(E707)),AND(OR(ISBLANK(G707),ISBLANK(H707),ISBLANK(I707)),ISBLANK(J707))),"",IF(ISBLANK(J707),IF(ISBLANK(E707),(D707-F707)*I707*H707*INDIRECT(SUBSTITUTE(G707," ","_"))/1000000,(E707-F707)*I707*H707*INDIRECT(SUBSTITUTE(G707," ","_"))/1000000),IF(ISBLANK(E707),(D707-F707)*J707,(E707-F707)*J707)))</f>
         <v/>
       </c>
@@ -18399,7 +18396,7 @@
       <c r="H708" s="31"/>
       <c r="I708" s="31"/>
       <c r="J708" s="31"/>
-      <c r="K708" s="22" t="str">
+      <c r="K708" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D708), ISBLANK(E708)),AND(OR(ISBLANK(G708),ISBLANK(H708),ISBLANK(I708)),ISBLANK(J708))),"",IF(ISBLANK(J708),IF(ISBLANK(E708),(D708-F708)*I708*H708*INDIRECT(SUBSTITUTE(G708," ","_"))/1000000,(E708-F708)*I708*H708*INDIRECT(SUBSTITUTE(G708," ","_"))/1000000),IF(ISBLANK(E708),(D708-F708)*J708,(E708-F708)*J708)))</f>
         <v/>
       </c>
@@ -18422,7 +18419,7 @@
       <c r="H709" s="31"/>
       <c r="I709" s="31"/>
       <c r="J709" s="31"/>
-      <c r="K709" s="22" t="str">
+      <c r="K709" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D709), ISBLANK(E709)),AND(OR(ISBLANK(G709),ISBLANK(H709),ISBLANK(I709)),ISBLANK(J709))),"",IF(ISBLANK(J709),IF(ISBLANK(E709),(D709-F709)*I709*H709*INDIRECT(SUBSTITUTE(G709," ","_"))/1000000,(E709-F709)*I709*H709*INDIRECT(SUBSTITUTE(G709," ","_"))/1000000),IF(ISBLANK(E709),(D709-F709)*J709,(E709-F709)*J709)))</f>
         <v/>
       </c>
@@ -18445,7 +18442,7 @@
       <c r="H710" s="31"/>
       <c r="I710" s="31"/>
       <c r="J710" s="31"/>
-      <c r="K710" s="22" t="str">
+      <c r="K710" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D710), ISBLANK(E710)),AND(OR(ISBLANK(G710),ISBLANK(H710),ISBLANK(I710)),ISBLANK(J710))),"",IF(ISBLANK(J710),IF(ISBLANK(E710),(D710-F710)*I710*H710*INDIRECT(SUBSTITUTE(G710," ","_"))/1000000,(E710-F710)*I710*H710*INDIRECT(SUBSTITUTE(G710," ","_"))/1000000),IF(ISBLANK(E710),(D710-F710)*J710,(E710-F710)*J710)))</f>
         <v/>
       </c>
@@ -18468,7 +18465,7 @@
       <c r="H711" s="31"/>
       <c r="I711" s="31"/>
       <c r="J711" s="31"/>
-      <c r="K711" s="22" t="str">
+      <c r="K711" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D711), ISBLANK(E711)),AND(OR(ISBLANK(G711),ISBLANK(H711),ISBLANK(I711)),ISBLANK(J711))),"",IF(ISBLANK(J711),IF(ISBLANK(E711),(D711-F711)*I711*H711*INDIRECT(SUBSTITUTE(G711," ","_"))/1000000,(E711-F711)*I711*H711*INDIRECT(SUBSTITUTE(G711," ","_"))/1000000),IF(ISBLANK(E711),(D711-F711)*J711,(E711-F711)*J711)))</f>
         <v/>
       </c>
@@ -18491,7 +18488,7 @@
       <c r="H712" s="31"/>
       <c r="I712" s="31"/>
       <c r="J712" s="31"/>
-      <c r="K712" s="22" t="str">
+      <c r="K712" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D712), ISBLANK(E712)),AND(OR(ISBLANK(G712),ISBLANK(H712),ISBLANK(I712)),ISBLANK(J712))),"",IF(ISBLANK(J712),IF(ISBLANK(E712),(D712-F712)*I712*H712*INDIRECT(SUBSTITUTE(G712," ","_"))/1000000,(E712-F712)*I712*H712*INDIRECT(SUBSTITUTE(G712," ","_"))/1000000),IF(ISBLANK(E712),(D712-F712)*J712,(E712-F712)*J712)))</f>
         <v/>
       </c>
@@ -18514,7 +18511,7 @@
       <c r="H713" s="31"/>
       <c r="I713" s="31"/>
       <c r="J713" s="31"/>
-      <c r="K713" s="22" t="str">
+      <c r="K713" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D713), ISBLANK(E713)),AND(OR(ISBLANK(G713),ISBLANK(H713),ISBLANK(I713)),ISBLANK(J713))),"",IF(ISBLANK(J713),IF(ISBLANK(E713),(D713-F713)*I713*H713*INDIRECT(SUBSTITUTE(G713," ","_"))/1000000,(E713-F713)*I713*H713*INDIRECT(SUBSTITUTE(G713," ","_"))/1000000),IF(ISBLANK(E713),(D713-F713)*J713,(E713-F713)*J713)))</f>
         <v/>
       </c>
@@ -18537,7 +18534,7 @@
       <c r="H714" s="31"/>
       <c r="I714" s="31"/>
       <c r="J714" s="31"/>
-      <c r="K714" s="22" t="str">
+      <c r="K714" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D714), ISBLANK(E714)),AND(OR(ISBLANK(G714),ISBLANK(H714),ISBLANK(I714)),ISBLANK(J714))),"",IF(ISBLANK(J714),IF(ISBLANK(E714),(D714-F714)*I714*H714*INDIRECT(SUBSTITUTE(G714," ","_"))/1000000,(E714-F714)*I714*H714*INDIRECT(SUBSTITUTE(G714," ","_"))/1000000),IF(ISBLANK(E714),(D714-F714)*J714,(E714-F714)*J714)))</f>
         <v/>
       </c>
@@ -18560,7 +18557,7 @@
       <c r="H715" s="31"/>
       <c r="I715" s="31"/>
       <c r="J715" s="31"/>
-      <c r="K715" s="22" t="str">
+      <c r="K715" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D715), ISBLANK(E715)),AND(OR(ISBLANK(G715),ISBLANK(H715),ISBLANK(I715)),ISBLANK(J715))),"",IF(ISBLANK(J715),IF(ISBLANK(E715),(D715-F715)*I715*H715*INDIRECT(SUBSTITUTE(G715," ","_"))/1000000,(E715-F715)*I715*H715*INDIRECT(SUBSTITUTE(G715," ","_"))/1000000),IF(ISBLANK(E715),(D715-F715)*J715,(E715-F715)*J715)))</f>
         <v/>
       </c>
@@ -18583,7 +18580,7 @@
       <c r="H716" s="31"/>
       <c r="I716" s="31"/>
       <c r="J716" s="31"/>
-      <c r="K716" s="22" t="str">
+      <c r="K716" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D716), ISBLANK(E716)),AND(OR(ISBLANK(G716),ISBLANK(H716),ISBLANK(I716)),ISBLANK(J716))),"",IF(ISBLANK(J716),IF(ISBLANK(E716),(D716-F716)*I716*H716*INDIRECT(SUBSTITUTE(G716," ","_"))/1000000,(E716-F716)*I716*H716*INDIRECT(SUBSTITUTE(G716," ","_"))/1000000),IF(ISBLANK(E716),(D716-F716)*J716,(E716-F716)*J716)))</f>
         <v/>
       </c>
@@ -18606,7 +18603,7 @@
       <c r="H717" s="31"/>
       <c r="I717" s="31"/>
       <c r="J717" s="31"/>
-      <c r="K717" s="22" t="str">
+      <c r="K717" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D717), ISBLANK(E717)),AND(OR(ISBLANK(G717),ISBLANK(H717),ISBLANK(I717)),ISBLANK(J717))),"",IF(ISBLANK(J717),IF(ISBLANK(E717),(D717-F717)*I717*H717*INDIRECT(SUBSTITUTE(G717," ","_"))/1000000,(E717-F717)*I717*H717*INDIRECT(SUBSTITUTE(G717," ","_"))/1000000),IF(ISBLANK(E717),(D717-F717)*J717,(E717-F717)*J717)))</f>
         <v/>
       </c>
@@ -18629,7 +18626,7 @@
       <c r="H718" s="31"/>
       <c r="I718" s="31"/>
       <c r="J718" s="31"/>
-      <c r="K718" s="22" t="str">
+      <c r="K718" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D718), ISBLANK(E718)),AND(OR(ISBLANK(G718),ISBLANK(H718),ISBLANK(I718)),ISBLANK(J718))),"",IF(ISBLANK(J718),IF(ISBLANK(E718),(D718-F718)*I718*H718*INDIRECT(SUBSTITUTE(G718," ","_"))/1000000,(E718-F718)*I718*H718*INDIRECT(SUBSTITUTE(G718," ","_"))/1000000),IF(ISBLANK(E718),(D718-F718)*J718,(E718-F718)*J718)))</f>
         <v/>
       </c>
@@ -18652,7 +18649,7 @@
       <c r="H719" s="31"/>
       <c r="I719" s="31"/>
       <c r="J719" s="31"/>
-      <c r="K719" s="22" t="str">
+      <c r="K719" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D719), ISBLANK(E719)),AND(OR(ISBLANK(G719),ISBLANK(H719),ISBLANK(I719)),ISBLANK(J719))),"",IF(ISBLANK(J719),IF(ISBLANK(E719),(D719-F719)*I719*H719*INDIRECT(SUBSTITUTE(G719," ","_"))/1000000,(E719-F719)*I719*H719*INDIRECT(SUBSTITUTE(G719," ","_"))/1000000),IF(ISBLANK(E719),(D719-F719)*J719,(E719-F719)*J719)))</f>
         <v/>
       </c>
@@ -18675,7 +18672,7 @@
       <c r="H720" s="31"/>
       <c r="I720" s="31"/>
       <c r="J720" s="31"/>
-      <c r="K720" s="22" t="str">
+      <c r="K720" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D720), ISBLANK(E720)),AND(OR(ISBLANK(G720),ISBLANK(H720),ISBLANK(I720)),ISBLANK(J720))),"",IF(ISBLANK(J720),IF(ISBLANK(E720),(D720-F720)*I720*H720*INDIRECT(SUBSTITUTE(G720," ","_"))/1000000,(E720-F720)*I720*H720*INDIRECT(SUBSTITUTE(G720," ","_"))/1000000),IF(ISBLANK(E720),(D720-F720)*J720,(E720-F720)*J720)))</f>
         <v/>
       </c>
@@ -18698,7 +18695,7 @@
       <c r="H721" s="31"/>
       <c r="I721" s="31"/>
       <c r="J721" s="31"/>
-      <c r="K721" s="22" t="str">
+      <c r="K721" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D721), ISBLANK(E721)),AND(OR(ISBLANK(G721),ISBLANK(H721),ISBLANK(I721)),ISBLANK(J721))),"",IF(ISBLANK(J721),IF(ISBLANK(E721),(D721-F721)*I721*H721*INDIRECT(SUBSTITUTE(G721," ","_"))/1000000,(E721-F721)*I721*H721*INDIRECT(SUBSTITUTE(G721," ","_"))/1000000),IF(ISBLANK(E721),(D721-F721)*J721,(E721-F721)*J721)))</f>
         <v/>
       </c>
@@ -18721,7 +18718,7 @@
       <c r="H722" s="31"/>
       <c r="I722" s="31"/>
       <c r="J722" s="31"/>
-      <c r="K722" s="22" t="str">
+      <c r="K722" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D722), ISBLANK(E722)),AND(OR(ISBLANK(G722),ISBLANK(H722),ISBLANK(I722)),ISBLANK(J722))),"",IF(ISBLANK(J722),IF(ISBLANK(E722),(D722-F722)*I722*H722*INDIRECT(SUBSTITUTE(G722," ","_"))/1000000,(E722-F722)*I722*H722*INDIRECT(SUBSTITUTE(G722," ","_"))/1000000),IF(ISBLANK(E722),(D722-F722)*J722,(E722-F722)*J722)))</f>
         <v/>
       </c>
@@ -18744,7 +18741,7 @@
       <c r="H723" s="31"/>
       <c r="I723" s="31"/>
       <c r="J723" s="31"/>
-      <c r="K723" s="22" t="str">
+      <c r="K723" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D723), ISBLANK(E723)),AND(OR(ISBLANK(G723),ISBLANK(H723),ISBLANK(I723)),ISBLANK(J723))),"",IF(ISBLANK(J723),IF(ISBLANK(E723),(D723-F723)*I723*H723*INDIRECT(SUBSTITUTE(G723," ","_"))/1000000,(E723-F723)*I723*H723*INDIRECT(SUBSTITUTE(G723," ","_"))/1000000),IF(ISBLANK(E723),(D723-F723)*J723,(E723-F723)*J723)))</f>
         <v/>
       </c>
@@ -18767,7 +18764,7 @@
       <c r="H724" s="31"/>
       <c r="I724" s="31"/>
       <c r="J724" s="31"/>
-      <c r="K724" s="22" t="str">
+      <c r="K724" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D724), ISBLANK(E724)),AND(OR(ISBLANK(G724),ISBLANK(H724),ISBLANK(I724)),ISBLANK(J724))),"",IF(ISBLANK(J724),IF(ISBLANK(E724),(D724-F724)*I724*H724*INDIRECT(SUBSTITUTE(G724," ","_"))/1000000,(E724-F724)*I724*H724*INDIRECT(SUBSTITUTE(G724," ","_"))/1000000),IF(ISBLANK(E724),(D724-F724)*J724,(E724-F724)*J724)))</f>
         <v/>
       </c>
@@ -18790,7 +18787,7 @@
       <c r="H725" s="31"/>
       <c r="I725" s="31"/>
       <c r="J725" s="31"/>
-      <c r="K725" s="22" t="str">
+      <c r="K725" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D725), ISBLANK(E725)),AND(OR(ISBLANK(G725),ISBLANK(H725),ISBLANK(I725)),ISBLANK(J725))),"",IF(ISBLANK(J725),IF(ISBLANK(E725),(D725-F725)*I725*H725*INDIRECT(SUBSTITUTE(G725," ","_"))/1000000,(E725-F725)*I725*H725*INDIRECT(SUBSTITUTE(G725," ","_"))/1000000),IF(ISBLANK(E725),(D725-F725)*J725,(E725-F725)*J725)))</f>
         <v/>
       </c>
@@ -18813,7 +18810,7 @@
       <c r="H726" s="31"/>
       <c r="I726" s="31"/>
       <c r="J726" s="31"/>
-      <c r="K726" s="22" t="str">
+      <c r="K726" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D726), ISBLANK(E726)),AND(OR(ISBLANK(G726),ISBLANK(H726),ISBLANK(I726)),ISBLANK(J726))),"",IF(ISBLANK(J726),IF(ISBLANK(E726),(D726-F726)*I726*H726*INDIRECT(SUBSTITUTE(G726," ","_"))/1000000,(E726-F726)*I726*H726*INDIRECT(SUBSTITUTE(G726," ","_"))/1000000),IF(ISBLANK(E726),(D726-F726)*J726,(E726-F726)*J726)))</f>
         <v/>
       </c>
@@ -18836,7 +18833,7 @@
       <c r="H727" s="31"/>
       <c r="I727" s="31"/>
       <c r="J727" s="31"/>
-      <c r="K727" s="22" t="str">
+      <c r="K727" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D727), ISBLANK(E727)),AND(OR(ISBLANK(G727),ISBLANK(H727),ISBLANK(I727)),ISBLANK(J727))),"",IF(ISBLANK(J727),IF(ISBLANK(E727),(D727-F727)*I727*H727*INDIRECT(SUBSTITUTE(G727," ","_"))/1000000,(E727-F727)*I727*H727*INDIRECT(SUBSTITUTE(G727," ","_"))/1000000),IF(ISBLANK(E727),(D727-F727)*J727,(E727-F727)*J727)))</f>
         <v/>
       </c>
@@ -18859,7 +18856,7 @@
       <c r="H728" s="31"/>
       <c r="I728" s="31"/>
       <c r="J728" s="31"/>
-      <c r="K728" s="22" t="str">
+      <c r="K728" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D728), ISBLANK(E728)),AND(OR(ISBLANK(G728),ISBLANK(H728),ISBLANK(I728)),ISBLANK(J728))),"",IF(ISBLANK(J728),IF(ISBLANK(E728),(D728-F728)*I728*H728*INDIRECT(SUBSTITUTE(G728," ","_"))/1000000,(E728-F728)*I728*H728*INDIRECT(SUBSTITUTE(G728," ","_"))/1000000),IF(ISBLANK(E728),(D728-F728)*J728,(E728-F728)*J728)))</f>
         <v/>
       </c>
@@ -18882,7 +18879,7 @@
       <c r="H729" s="31"/>
       <c r="I729" s="31"/>
       <c r="J729" s="31"/>
-      <c r="K729" s="22" t="str">
+      <c r="K729" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D729), ISBLANK(E729)),AND(OR(ISBLANK(G729),ISBLANK(H729),ISBLANK(I729)),ISBLANK(J729))),"",IF(ISBLANK(J729),IF(ISBLANK(E729),(D729-F729)*I729*H729*INDIRECT(SUBSTITUTE(G729," ","_"))/1000000,(E729-F729)*I729*H729*INDIRECT(SUBSTITUTE(G729," ","_"))/1000000),IF(ISBLANK(E729),(D729-F729)*J729,(E729-F729)*J729)))</f>
         <v/>
       </c>
@@ -18905,7 +18902,7 @@
       <c r="H730" s="31"/>
       <c r="I730" s="31"/>
       <c r="J730" s="31"/>
-      <c r="K730" s="22" t="str">
+      <c r="K730" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D730), ISBLANK(E730)),AND(OR(ISBLANK(G730),ISBLANK(H730),ISBLANK(I730)),ISBLANK(J730))),"",IF(ISBLANK(J730),IF(ISBLANK(E730),(D730-F730)*I730*H730*INDIRECT(SUBSTITUTE(G730," ","_"))/1000000,(E730-F730)*I730*H730*INDIRECT(SUBSTITUTE(G730," ","_"))/1000000),IF(ISBLANK(E730),(D730-F730)*J730,(E730-F730)*J730)))</f>
         <v/>
       </c>
@@ -18928,7 +18925,7 @@
       <c r="H731" s="31"/>
       <c r="I731" s="31"/>
       <c r="J731" s="31"/>
-      <c r="K731" s="22" t="str">
+      <c r="K731" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D731), ISBLANK(E731)),AND(OR(ISBLANK(G731),ISBLANK(H731),ISBLANK(I731)),ISBLANK(J731))),"",IF(ISBLANK(J731),IF(ISBLANK(E731),(D731-F731)*I731*H731*INDIRECT(SUBSTITUTE(G731," ","_"))/1000000,(E731-F731)*I731*H731*INDIRECT(SUBSTITUTE(G731," ","_"))/1000000),IF(ISBLANK(E731),(D731-F731)*J731,(E731-F731)*J731)))</f>
         <v/>
       </c>
@@ -18951,7 +18948,7 @@
       <c r="H732" s="31"/>
       <c r="I732" s="31"/>
       <c r="J732" s="31"/>
-      <c r="K732" s="22" t="str">
+      <c r="K732" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D732), ISBLANK(E732)),AND(OR(ISBLANK(G732),ISBLANK(H732),ISBLANK(I732)),ISBLANK(J732))),"",IF(ISBLANK(J732),IF(ISBLANK(E732),(D732-F732)*I732*H732*INDIRECT(SUBSTITUTE(G732," ","_"))/1000000,(E732-F732)*I732*H732*INDIRECT(SUBSTITUTE(G732," ","_"))/1000000),IF(ISBLANK(E732),(D732-F732)*J732,(E732-F732)*J732)))</f>
         <v/>
       </c>
@@ -18974,7 +18971,7 @@
       <c r="H733" s="31"/>
       <c r="I733" s="31"/>
       <c r="J733" s="31"/>
-      <c r="K733" s="22" t="str">
+      <c r="K733" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D733), ISBLANK(E733)),AND(OR(ISBLANK(G733),ISBLANK(H733),ISBLANK(I733)),ISBLANK(J733))),"",IF(ISBLANK(J733),IF(ISBLANK(E733),(D733-F733)*I733*H733*INDIRECT(SUBSTITUTE(G733," ","_"))/1000000,(E733-F733)*I733*H733*INDIRECT(SUBSTITUTE(G733," ","_"))/1000000),IF(ISBLANK(E733),(D733-F733)*J733,(E733-F733)*J733)))</f>
         <v/>
       </c>
@@ -18997,7 +18994,7 @@
       <c r="H734" s="31"/>
       <c r="I734" s="31"/>
       <c r="J734" s="31"/>
-      <c r="K734" s="22" t="str">
+      <c r="K734" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D734), ISBLANK(E734)),AND(OR(ISBLANK(G734),ISBLANK(H734),ISBLANK(I734)),ISBLANK(J734))),"",IF(ISBLANK(J734),IF(ISBLANK(E734),(D734-F734)*I734*H734*INDIRECT(SUBSTITUTE(G734," ","_"))/1000000,(E734-F734)*I734*H734*INDIRECT(SUBSTITUTE(G734," ","_"))/1000000),IF(ISBLANK(E734),(D734-F734)*J734,(E734-F734)*J734)))</f>
         <v/>
       </c>
@@ -19020,7 +19017,7 @@
       <c r="H735" s="31"/>
       <c r="I735" s="31"/>
       <c r="J735" s="31"/>
-      <c r="K735" s="22" t="str">
+      <c r="K735" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D735), ISBLANK(E735)),AND(OR(ISBLANK(G735),ISBLANK(H735),ISBLANK(I735)),ISBLANK(J735))),"",IF(ISBLANK(J735),IF(ISBLANK(E735),(D735-F735)*I735*H735*INDIRECT(SUBSTITUTE(G735," ","_"))/1000000,(E735-F735)*I735*H735*INDIRECT(SUBSTITUTE(G735," ","_"))/1000000),IF(ISBLANK(E735),(D735-F735)*J735,(E735-F735)*J735)))</f>
         <v/>
       </c>
@@ -19043,7 +19040,7 @@
       <c r="H736" s="31"/>
       <c r="I736" s="31"/>
       <c r="J736" s="31"/>
-      <c r="K736" s="22" t="str">
+      <c r="K736" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D736), ISBLANK(E736)),AND(OR(ISBLANK(G736),ISBLANK(H736),ISBLANK(I736)),ISBLANK(J736))),"",IF(ISBLANK(J736),IF(ISBLANK(E736),(D736-F736)*I736*H736*INDIRECT(SUBSTITUTE(G736," ","_"))/1000000,(E736-F736)*I736*H736*INDIRECT(SUBSTITUTE(G736," ","_"))/1000000),IF(ISBLANK(E736),(D736-F736)*J736,(E736-F736)*J736)))</f>
         <v/>
       </c>
@@ -19066,7 +19063,7 @@
       <c r="H737" s="31"/>
       <c r="I737" s="31"/>
       <c r="J737" s="31"/>
-      <c r="K737" s="22" t="str">
+      <c r="K737" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D737), ISBLANK(E737)),AND(OR(ISBLANK(G737),ISBLANK(H737),ISBLANK(I737)),ISBLANK(J737))),"",IF(ISBLANK(J737),IF(ISBLANK(E737),(D737-F737)*I737*H737*INDIRECT(SUBSTITUTE(G737," ","_"))/1000000,(E737-F737)*I737*H737*INDIRECT(SUBSTITUTE(G737," ","_"))/1000000),IF(ISBLANK(E737),(D737-F737)*J737,(E737-F737)*J737)))</f>
         <v/>
       </c>
@@ -19089,7 +19086,7 @@
       <c r="H738" s="31"/>
       <c r="I738" s="31"/>
       <c r="J738" s="31"/>
-      <c r="K738" s="22" t="str">
+      <c r="K738" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D738), ISBLANK(E738)),AND(OR(ISBLANK(G738),ISBLANK(H738),ISBLANK(I738)),ISBLANK(J738))),"",IF(ISBLANK(J738),IF(ISBLANK(E738),(D738-F738)*I738*H738*INDIRECT(SUBSTITUTE(G738," ","_"))/1000000,(E738-F738)*I738*H738*INDIRECT(SUBSTITUTE(G738," ","_"))/1000000),IF(ISBLANK(E738),(D738-F738)*J738,(E738-F738)*J738)))</f>
         <v/>
       </c>
@@ -19112,7 +19109,7 @@
       <c r="H739" s="31"/>
       <c r="I739" s="31"/>
       <c r="J739" s="31"/>
-      <c r="K739" s="22" t="str">
+      <c r="K739" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D739), ISBLANK(E739)),AND(OR(ISBLANK(G739),ISBLANK(H739),ISBLANK(I739)),ISBLANK(J739))),"",IF(ISBLANK(J739),IF(ISBLANK(E739),(D739-F739)*I739*H739*INDIRECT(SUBSTITUTE(G739," ","_"))/1000000,(E739-F739)*I739*H739*INDIRECT(SUBSTITUTE(G739," ","_"))/1000000),IF(ISBLANK(E739),(D739-F739)*J739,(E739-F739)*J739)))</f>
         <v/>
       </c>
@@ -19135,7 +19132,7 @@
       <c r="H740" s="31"/>
       <c r="I740" s="31"/>
       <c r="J740" s="31"/>
-      <c r="K740" s="22" t="str">
+      <c r="K740" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D740), ISBLANK(E740)),AND(OR(ISBLANK(G740),ISBLANK(H740),ISBLANK(I740)),ISBLANK(J740))),"",IF(ISBLANK(J740),IF(ISBLANK(E740),(D740-F740)*I740*H740*INDIRECT(SUBSTITUTE(G740," ","_"))/1000000,(E740-F740)*I740*H740*INDIRECT(SUBSTITUTE(G740," ","_"))/1000000),IF(ISBLANK(E740),(D740-F740)*J740,(E740-F740)*J740)))</f>
         <v/>
       </c>
@@ -19158,7 +19155,7 @@
       <c r="H741" s="31"/>
       <c r="I741" s="31"/>
       <c r="J741" s="31"/>
-      <c r="K741" s="22" t="str">
+      <c r="K741" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D741), ISBLANK(E741)),AND(OR(ISBLANK(G741),ISBLANK(H741),ISBLANK(I741)),ISBLANK(J741))),"",IF(ISBLANK(J741),IF(ISBLANK(E741),(D741-F741)*I741*H741*INDIRECT(SUBSTITUTE(G741," ","_"))/1000000,(E741-F741)*I741*H741*INDIRECT(SUBSTITUTE(G741," ","_"))/1000000),IF(ISBLANK(E741),(D741-F741)*J741,(E741-F741)*J741)))</f>
         <v/>
       </c>
@@ -19181,7 +19178,7 @@
       <c r="H742" s="31"/>
       <c r="I742" s="31"/>
       <c r="J742" s="31"/>
-      <c r="K742" s="22" t="str">
+      <c r="K742" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D742), ISBLANK(E742)),AND(OR(ISBLANK(G742),ISBLANK(H742),ISBLANK(I742)),ISBLANK(J742))),"",IF(ISBLANK(J742),IF(ISBLANK(E742),(D742-F742)*I742*H742*INDIRECT(SUBSTITUTE(G742," ","_"))/1000000,(E742-F742)*I742*H742*INDIRECT(SUBSTITUTE(G742," ","_"))/1000000),IF(ISBLANK(E742),(D742-F742)*J742,(E742-F742)*J742)))</f>
         <v/>
       </c>
@@ -19204,7 +19201,7 @@
       <c r="H743" s="31"/>
       <c r="I743" s="31"/>
       <c r="J743" s="31"/>
-      <c r="K743" s="22" t="str">
+      <c r="K743" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D743), ISBLANK(E743)),AND(OR(ISBLANK(G743),ISBLANK(H743),ISBLANK(I743)),ISBLANK(J743))),"",IF(ISBLANK(J743),IF(ISBLANK(E743),(D743-F743)*I743*H743*INDIRECT(SUBSTITUTE(G743," ","_"))/1000000,(E743-F743)*I743*H743*INDIRECT(SUBSTITUTE(G743," ","_"))/1000000),IF(ISBLANK(E743),(D743-F743)*J743,(E743-F743)*J743)))</f>
         <v/>
       </c>
@@ -19227,7 +19224,7 @@
       <c r="H744" s="31"/>
       <c r="I744" s="31"/>
       <c r="J744" s="31"/>
-      <c r="K744" s="22" t="str">
+      <c r="K744" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D744), ISBLANK(E744)),AND(OR(ISBLANK(G744),ISBLANK(H744),ISBLANK(I744)),ISBLANK(J744))),"",IF(ISBLANK(J744),IF(ISBLANK(E744),(D744-F744)*I744*H744*INDIRECT(SUBSTITUTE(G744," ","_"))/1000000,(E744-F744)*I744*H744*INDIRECT(SUBSTITUTE(G744," ","_"))/1000000),IF(ISBLANK(E744),(D744-F744)*J744,(E744-F744)*J744)))</f>
         <v/>
       </c>
@@ -19250,7 +19247,7 @@
       <c r="H745" s="31"/>
       <c r="I745" s="31"/>
       <c r="J745" s="31"/>
-      <c r="K745" s="22" t="str">
+      <c r="K745" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D745), ISBLANK(E745)),AND(OR(ISBLANK(G745),ISBLANK(H745),ISBLANK(I745)),ISBLANK(J745))),"",IF(ISBLANK(J745),IF(ISBLANK(E745),(D745-F745)*I745*H745*INDIRECT(SUBSTITUTE(G745," ","_"))/1000000,(E745-F745)*I745*H745*INDIRECT(SUBSTITUTE(G745," ","_"))/1000000),IF(ISBLANK(E745),(D745-F745)*J745,(E745-F745)*J745)))</f>
         <v/>
       </c>
@@ -19273,7 +19270,7 @@
       <c r="H746" s="31"/>
       <c r="I746" s="31"/>
       <c r="J746" s="31"/>
-      <c r="K746" s="22" t="str">
+      <c r="K746" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D746), ISBLANK(E746)),AND(OR(ISBLANK(G746),ISBLANK(H746),ISBLANK(I746)),ISBLANK(J746))),"",IF(ISBLANK(J746),IF(ISBLANK(E746),(D746-F746)*I746*H746*INDIRECT(SUBSTITUTE(G746," ","_"))/1000000,(E746-F746)*I746*H746*INDIRECT(SUBSTITUTE(G746," ","_"))/1000000),IF(ISBLANK(E746),(D746-F746)*J746,(E746-F746)*J746)))</f>
         <v/>
       </c>
@@ -19296,7 +19293,7 @@
       <c r="H747" s="31"/>
       <c r="I747" s="31"/>
       <c r="J747" s="31"/>
-      <c r="K747" s="22" t="str">
+      <c r="K747" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D747), ISBLANK(E747)),AND(OR(ISBLANK(G747),ISBLANK(H747),ISBLANK(I747)),ISBLANK(J747))),"",IF(ISBLANK(J747),IF(ISBLANK(E747),(D747-F747)*I747*H747*INDIRECT(SUBSTITUTE(G747," ","_"))/1000000,(E747-F747)*I747*H747*INDIRECT(SUBSTITUTE(G747," ","_"))/1000000),IF(ISBLANK(E747),(D747-F747)*J747,(E747-F747)*J747)))</f>
         <v/>
       </c>
@@ -19319,7 +19316,7 @@
       <c r="H748" s="31"/>
       <c r="I748" s="31"/>
       <c r="J748" s="31"/>
-      <c r="K748" s="22" t="str">
+      <c r="K748" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D748), ISBLANK(E748)),AND(OR(ISBLANK(G748),ISBLANK(H748),ISBLANK(I748)),ISBLANK(J748))),"",IF(ISBLANK(J748),IF(ISBLANK(E748),(D748-F748)*I748*H748*INDIRECT(SUBSTITUTE(G748," ","_"))/1000000,(E748-F748)*I748*H748*INDIRECT(SUBSTITUTE(G748," ","_"))/1000000),IF(ISBLANK(E748),(D748-F748)*J748,(E748-F748)*J748)))</f>
         <v/>
       </c>
@@ -19342,7 +19339,7 @@
       <c r="H749" s="31"/>
       <c r="I749" s="31"/>
       <c r="J749" s="31"/>
-      <c r="K749" s="22" t="str">
+      <c r="K749" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D749), ISBLANK(E749)),AND(OR(ISBLANK(G749),ISBLANK(H749),ISBLANK(I749)),ISBLANK(J749))),"",IF(ISBLANK(J749),IF(ISBLANK(E749),(D749-F749)*I749*H749*INDIRECT(SUBSTITUTE(G749," ","_"))/1000000,(E749-F749)*I749*H749*INDIRECT(SUBSTITUTE(G749," ","_"))/1000000),IF(ISBLANK(E749),(D749-F749)*J749,(E749-F749)*J749)))</f>
         <v/>
       </c>
@@ -19365,7 +19362,7 @@
       <c r="H750" s="31"/>
       <c r="I750" s="31"/>
       <c r="J750" s="31"/>
-      <c r="K750" s="22" t="str">
+      <c r="K750" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D750), ISBLANK(E750)),AND(OR(ISBLANK(G750),ISBLANK(H750),ISBLANK(I750)),ISBLANK(J750))),"",IF(ISBLANK(J750),IF(ISBLANK(E750),(D750-F750)*I750*H750*INDIRECT(SUBSTITUTE(G750," ","_"))/1000000,(E750-F750)*I750*H750*INDIRECT(SUBSTITUTE(G750," ","_"))/1000000),IF(ISBLANK(E750),(D750-F750)*J750,(E750-F750)*J750)))</f>
         <v/>
       </c>
@@ -19388,7 +19385,7 @@
       <c r="H751" s="31"/>
       <c r="I751" s="31"/>
       <c r="J751" s="31"/>
-      <c r="K751" s="22" t="str">
+      <c r="K751" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D751), ISBLANK(E751)),AND(OR(ISBLANK(G751),ISBLANK(H751),ISBLANK(I751)),ISBLANK(J751))),"",IF(ISBLANK(J751),IF(ISBLANK(E751),(D751-F751)*I751*H751*INDIRECT(SUBSTITUTE(G751," ","_"))/1000000,(E751-F751)*I751*H751*INDIRECT(SUBSTITUTE(G751," ","_"))/1000000),IF(ISBLANK(E751),(D751-F751)*J751,(E751-F751)*J751)))</f>
         <v/>
       </c>
@@ -19411,7 +19408,7 @@
       <c r="H752" s="31"/>
       <c r="I752" s="31"/>
       <c r="J752" s="31"/>
-      <c r="K752" s="22" t="str">
+      <c r="K752" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D752), ISBLANK(E752)),AND(OR(ISBLANK(G752),ISBLANK(H752),ISBLANK(I752)),ISBLANK(J752))),"",IF(ISBLANK(J752),IF(ISBLANK(E752),(D752-F752)*I752*H752*INDIRECT(SUBSTITUTE(G752," ","_"))/1000000,(E752-F752)*I752*H752*INDIRECT(SUBSTITUTE(G752," ","_"))/1000000),IF(ISBLANK(E752),(D752-F752)*J752,(E752-F752)*J752)))</f>
         <v/>
       </c>
@@ -19434,7 +19431,7 @@
       <c r="H753" s="31"/>
       <c r="I753" s="31"/>
       <c r="J753" s="31"/>
-      <c r="K753" s="22" t="str">
+      <c r="K753" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D753), ISBLANK(E753)),AND(OR(ISBLANK(G753),ISBLANK(H753),ISBLANK(I753)),ISBLANK(J753))),"",IF(ISBLANK(J753),IF(ISBLANK(E753),(D753-F753)*I753*H753*INDIRECT(SUBSTITUTE(G753," ","_"))/1000000,(E753-F753)*I753*H753*INDIRECT(SUBSTITUTE(G753," ","_"))/1000000),IF(ISBLANK(E753),(D753-F753)*J753,(E753-F753)*J753)))</f>
         <v/>
       </c>
@@ -19457,7 +19454,7 @@
       <c r="H754" s="31"/>
       <c r="I754" s="31"/>
       <c r="J754" s="31"/>
-      <c r="K754" s="22" t="str">
+      <c r="K754" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D754), ISBLANK(E754)),AND(OR(ISBLANK(G754),ISBLANK(H754),ISBLANK(I754)),ISBLANK(J754))),"",IF(ISBLANK(J754),IF(ISBLANK(E754),(D754-F754)*I754*H754*INDIRECT(SUBSTITUTE(G754," ","_"))/1000000,(E754-F754)*I754*H754*INDIRECT(SUBSTITUTE(G754," ","_"))/1000000),IF(ISBLANK(E754),(D754-F754)*J754,(E754-F754)*J754)))</f>
         <v/>
       </c>
@@ -19480,7 +19477,7 @@
       <c r="H755" s="31"/>
       <c r="I755" s="31"/>
       <c r="J755" s="31"/>
-      <c r="K755" s="22" t="str">
+      <c r="K755" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D755), ISBLANK(E755)),AND(OR(ISBLANK(G755),ISBLANK(H755),ISBLANK(I755)),ISBLANK(J755))),"",IF(ISBLANK(J755),IF(ISBLANK(E755),(D755-F755)*I755*H755*INDIRECT(SUBSTITUTE(G755," ","_"))/1000000,(E755-F755)*I755*H755*INDIRECT(SUBSTITUTE(G755," ","_"))/1000000),IF(ISBLANK(E755),(D755-F755)*J755,(E755-F755)*J755)))</f>
         <v/>
       </c>
@@ -19503,7 +19500,7 @@
       <c r="H756" s="31"/>
       <c r="I756" s="31"/>
       <c r="J756" s="31"/>
-      <c r="K756" s="22" t="str">
+      <c r="K756" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D756), ISBLANK(E756)),AND(OR(ISBLANK(G756),ISBLANK(H756),ISBLANK(I756)),ISBLANK(J756))),"",IF(ISBLANK(J756),IF(ISBLANK(E756),(D756-F756)*I756*H756*INDIRECT(SUBSTITUTE(G756," ","_"))/1000000,(E756-F756)*I756*H756*INDIRECT(SUBSTITUTE(G756," ","_"))/1000000),IF(ISBLANK(E756),(D756-F756)*J756,(E756-F756)*J756)))</f>
         <v/>
       </c>
@@ -19526,7 +19523,7 @@
       <c r="H757" s="31"/>
       <c r="I757" s="31"/>
       <c r="J757" s="31"/>
-      <c r="K757" s="22" t="str">
+      <c r="K757" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D757), ISBLANK(E757)),AND(OR(ISBLANK(G757),ISBLANK(H757),ISBLANK(I757)),ISBLANK(J757))),"",IF(ISBLANK(J757),IF(ISBLANK(E757),(D757-F757)*I757*H757*INDIRECT(SUBSTITUTE(G757," ","_"))/1000000,(E757-F757)*I757*H757*INDIRECT(SUBSTITUTE(G757," ","_"))/1000000),IF(ISBLANK(E757),(D757-F757)*J757,(E757-F757)*J757)))</f>
         <v/>
       </c>
@@ -19549,7 +19546,7 @@
       <c r="H758" s="31"/>
       <c r="I758" s="31"/>
       <c r="J758" s="31"/>
-      <c r="K758" s="22" t="str">
+      <c r="K758" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D758), ISBLANK(E758)),AND(OR(ISBLANK(G758),ISBLANK(H758),ISBLANK(I758)),ISBLANK(J758))),"",IF(ISBLANK(J758),IF(ISBLANK(E758),(D758-F758)*I758*H758*INDIRECT(SUBSTITUTE(G758," ","_"))/1000000,(E758-F758)*I758*H758*INDIRECT(SUBSTITUTE(G758," ","_"))/1000000),IF(ISBLANK(E758),(D758-F758)*J758,(E758-F758)*J758)))</f>
         <v/>
       </c>
@@ -19572,7 +19569,7 @@
       <c r="H759" s="31"/>
       <c r="I759" s="31"/>
       <c r="J759" s="31"/>
-      <c r="K759" s="22" t="str">
+      <c r="K759" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D759), ISBLANK(E759)),AND(OR(ISBLANK(G759),ISBLANK(H759),ISBLANK(I759)),ISBLANK(J759))),"",IF(ISBLANK(J759),IF(ISBLANK(E759),(D759-F759)*I759*H759*INDIRECT(SUBSTITUTE(G759," ","_"))/1000000,(E759-F759)*I759*H759*INDIRECT(SUBSTITUTE(G759," ","_"))/1000000),IF(ISBLANK(E759),(D759-F759)*J759,(E759-F759)*J759)))</f>
         <v/>
       </c>
@@ -19595,7 +19592,7 @@
       <c r="H760" s="31"/>
       <c r="I760" s="31"/>
       <c r="J760" s="31"/>
-      <c r="K760" s="22" t="str">
+      <c r="K760" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D760), ISBLANK(E760)),AND(OR(ISBLANK(G760),ISBLANK(H760),ISBLANK(I760)),ISBLANK(J760))),"",IF(ISBLANK(J760),IF(ISBLANK(E760),(D760-F760)*I760*H760*INDIRECT(SUBSTITUTE(G760," ","_"))/1000000,(E760-F760)*I760*H760*INDIRECT(SUBSTITUTE(G760," ","_"))/1000000),IF(ISBLANK(E760),(D760-F760)*J760,(E760-F760)*J760)))</f>
         <v/>
       </c>
@@ -19618,7 +19615,7 @@
       <c r="H761" s="31"/>
       <c r="I761" s="31"/>
       <c r="J761" s="31"/>
-      <c r="K761" s="22" t="str">
+      <c r="K761" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D761), ISBLANK(E761)),AND(OR(ISBLANK(G761),ISBLANK(H761),ISBLANK(I761)),ISBLANK(J761))),"",IF(ISBLANK(J761),IF(ISBLANK(E761),(D761-F761)*I761*H761*INDIRECT(SUBSTITUTE(G761," ","_"))/1000000,(E761-F761)*I761*H761*INDIRECT(SUBSTITUTE(G761," ","_"))/1000000),IF(ISBLANK(E761),(D761-F761)*J761,(E761-F761)*J761)))</f>
         <v/>
       </c>
@@ -19641,7 +19638,7 @@
       <c r="H762" s="31"/>
       <c r="I762" s="31"/>
       <c r="J762" s="31"/>
-      <c r="K762" s="22" t="str">
+      <c r="K762" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D762), ISBLANK(E762)),AND(OR(ISBLANK(G762),ISBLANK(H762),ISBLANK(I762)),ISBLANK(J762))),"",IF(ISBLANK(J762),IF(ISBLANK(E762),(D762-F762)*I762*H762*INDIRECT(SUBSTITUTE(G762," ","_"))/1000000,(E762-F762)*I762*H762*INDIRECT(SUBSTITUTE(G762," ","_"))/1000000),IF(ISBLANK(E762),(D762-F762)*J762,(E762-F762)*J762)))</f>
         <v/>
       </c>
@@ -19664,7 +19661,7 @@
       <c r="H763" s="31"/>
       <c r="I763" s="31"/>
       <c r="J763" s="31"/>
-      <c r="K763" s="22" t="str">
+      <c r="K763" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D763), ISBLANK(E763)),AND(OR(ISBLANK(G763),ISBLANK(H763),ISBLANK(I763)),ISBLANK(J763))),"",IF(ISBLANK(J763),IF(ISBLANK(E763),(D763-F763)*I763*H763*INDIRECT(SUBSTITUTE(G763," ","_"))/1000000,(E763-F763)*I763*H763*INDIRECT(SUBSTITUTE(G763," ","_"))/1000000),IF(ISBLANK(E763),(D763-F763)*J763,(E763-F763)*J763)))</f>
         <v/>
       </c>
@@ -19687,7 +19684,7 @@
       <c r="H764" s="31"/>
       <c r="I764" s="31"/>
       <c r="J764" s="31"/>
-      <c r="K764" s="22" t="str">
+      <c r="K764" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D764), ISBLANK(E764)),AND(OR(ISBLANK(G764),ISBLANK(H764),ISBLANK(I764)),ISBLANK(J764))),"",IF(ISBLANK(J764),IF(ISBLANK(E764),(D764-F764)*I764*H764*INDIRECT(SUBSTITUTE(G764," ","_"))/1000000,(E764-F764)*I764*H764*INDIRECT(SUBSTITUTE(G764," ","_"))/1000000),IF(ISBLANK(E764),(D764-F764)*J764,(E764-F764)*J764)))</f>
         <v/>
       </c>
@@ -19710,7 +19707,7 @@
       <c r="H765" s="31"/>
       <c r="I765" s="31"/>
       <c r="J765" s="31"/>
-      <c r="K765" s="22" t="str">
+      <c r="K765" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D765), ISBLANK(E765)),AND(OR(ISBLANK(G765),ISBLANK(H765),ISBLANK(I765)),ISBLANK(J765))),"",IF(ISBLANK(J765),IF(ISBLANK(E765),(D765-F765)*I765*H765*INDIRECT(SUBSTITUTE(G765," ","_"))/1000000,(E765-F765)*I765*H765*INDIRECT(SUBSTITUTE(G765," ","_"))/1000000),IF(ISBLANK(E765),(D765-F765)*J765,(E765-F765)*J765)))</f>
         <v/>
       </c>
@@ -19733,7 +19730,7 @@
       <c r="H766" s="31"/>
       <c r="I766" s="31"/>
       <c r="J766" s="31"/>
-      <c r="K766" s="22" t="str">
+      <c r="K766" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D766), ISBLANK(E766)),AND(OR(ISBLANK(G766),ISBLANK(H766),ISBLANK(I766)),ISBLANK(J766))),"",IF(ISBLANK(J766),IF(ISBLANK(E766),(D766-F766)*I766*H766*INDIRECT(SUBSTITUTE(G766," ","_"))/1000000,(E766-F766)*I766*H766*INDIRECT(SUBSTITUTE(G766," ","_"))/1000000),IF(ISBLANK(E766),(D766-F766)*J766,(E766-F766)*J766)))</f>
         <v/>
       </c>
@@ -19756,7 +19753,7 @@
       <c r="H767" s="31"/>
       <c r="I767" s="31"/>
       <c r="J767" s="31"/>
-      <c r="K767" s="22" t="str">
+      <c r="K767" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D767), ISBLANK(E767)),AND(OR(ISBLANK(G767),ISBLANK(H767),ISBLANK(I767)),ISBLANK(J767))),"",IF(ISBLANK(J767),IF(ISBLANK(E767),(D767-F767)*I767*H767*INDIRECT(SUBSTITUTE(G767," ","_"))/1000000,(E767-F767)*I767*H767*INDIRECT(SUBSTITUTE(G767," ","_"))/1000000),IF(ISBLANK(E767),(D767-F767)*J767,(E767-F767)*J767)))</f>
         <v/>
       </c>
@@ -19779,7 +19776,7 @@
       <c r="H768" s="31"/>
       <c r="I768" s="31"/>
       <c r="J768" s="31"/>
-      <c r="K768" s="22" t="str">
+      <c r="K768" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D768), ISBLANK(E768)),AND(OR(ISBLANK(G768),ISBLANK(H768),ISBLANK(I768)),ISBLANK(J768))),"",IF(ISBLANK(J768),IF(ISBLANK(E768),(D768-F768)*I768*H768*INDIRECT(SUBSTITUTE(G768," ","_"))/1000000,(E768-F768)*I768*H768*INDIRECT(SUBSTITUTE(G768," ","_"))/1000000),IF(ISBLANK(E768),(D768-F768)*J768,(E768-F768)*J768)))</f>
         <v/>
       </c>
@@ -19802,7 +19799,7 @@
       <c r="H769" s="31"/>
       <c r="I769" s="31"/>
       <c r="J769" s="31"/>
-      <c r="K769" s="22" t="str">
+      <c r="K769" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D769), ISBLANK(E769)),AND(OR(ISBLANK(G769),ISBLANK(H769),ISBLANK(I769)),ISBLANK(J769))),"",IF(ISBLANK(J769),IF(ISBLANK(E769),(D769-F769)*I769*H769*INDIRECT(SUBSTITUTE(G769," ","_"))/1000000,(E769-F769)*I769*H769*INDIRECT(SUBSTITUTE(G769," ","_"))/1000000),IF(ISBLANK(E769),(D769-F769)*J769,(E769-F769)*J769)))</f>
         <v/>
       </c>
@@ -19825,7 +19822,7 @@
       <c r="H770" s="31"/>
       <c r="I770" s="31"/>
       <c r="J770" s="31"/>
-      <c r="K770" s="22" t="str">
+      <c r="K770" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D770), ISBLANK(E770)),AND(OR(ISBLANK(G770),ISBLANK(H770),ISBLANK(I770)),ISBLANK(J770))),"",IF(ISBLANK(J770),IF(ISBLANK(E770),(D770-F770)*I770*H770*INDIRECT(SUBSTITUTE(G770," ","_"))/1000000,(E770-F770)*I770*H770*INDIRECT(SUBSTITUTE(G770," ","_"))/1000000),IF(ISBLANK(E770),(D770-F770)*J770,(E770-F770)*J770)))</f>
         <v/>
       </c>
@@ -19848,7 +19845,7 @@
       <c r="H771" s="31"/>
       <c r="I771" s="31"/>
       <c r="J771" s="31"/>
-      <c r="K771" s="22" t="str">
+      <c r="K771" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D771), ISBLANK(E771)),AND(OR(ISBLANK(G771),ISBLANK(H771),ISBLANK(I771)),ISBLANK(J771))),"",IF(ISBLANK(J771),IF(ISBLANK(E771),(D771-F771)*I771*H771*INDIRECT(SUBSTITUTE(G771," ","_"))/1000000,(E771-F771)*I771*H771*INDIRECT(SUBSTITUTE(G771," ","_"))/1000000),IF(ISBLANK(E771),(D771-F771)*J771,(E771-F771)*J771)))</f>
         <v/>
       </c>
@@ -19871,7 +19868,7 @@
       <c r="H772" s="31"/>
       <c r="I772" s="31"/>
       <c r="J772" s="31"/>
-      <c r="K772" s="22" t="str">
+      <c r="K772" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D772), ISBLANK(E772)),AND(OR(ISBLANK(G772),ISBLANK(H772),ISBLANK(I772)),ISBLANK(J772))),"",IF(ISBLANK(J772),IF(ISBLANK(E772),(D772-F772)*I772*H772*INDIRECT(SUBSTITUTE(G772," ","_"))/1000000,(E772-F772)*I772*H772*INDIRECT(SUBSTITUTE(G772," ","_"))/1000000),IF(ISBLANK(E772),(D772-F772)*J772,(E772-F772)*J772)))</f>
         <v/>
       </c>
@@ -19894,7 +19891,7 @@
       <c r="H773" s="31"/>
       <c r="I773" s="31"/>
       <c r="J773" s="31"/>
-      <c r="K773" s="22" t="str">
+      <c r="K773" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D773), ISBLANK(E773)),AND(OR(ISBLANK(G773),ISBLANK(H773),ISBLANK(I773)),ISBLANK(J773))),"",IF(ISBLANK(J773),IF(ISBLANK(E773),(D773-F773)*I773*H773*INDIRECT(SUBSTITUTE(G773," ","_"))/1000000,(E773-F773)*I773*H773*INDIRECT(SUBSTITUTE(G773," ","_"))/1000000),IF(ISBLANK(E773),(D773-F773)*J773,(E773-F773)*J773)))</f>
         <v/>
       </c>
@@ -19917,7 +19914,7 @@
       <c r="H774" s="31"/>
       <c r="I774" s="31"/>
       <c r="J774" s="31"/>
-      <c r="K774" s="22" t="str">
+      <c r="K774" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D774), ISBLANK(E774)),AND(OR(ISBLANK(G774),ISBLANK(H774),ISBLANK(I774)),ISBLANK(J774))),"",IF(ISBLANK(J774),IF(ISBLANK(E774),(D774-F774)*I774*H774*INDIRECT(SUBSTITUTE(G774," ","_"))/1000000,(E774-F774)*I774*H774*INDIRECT(SUBSTITUTE(G774," ","_"))/1000000),IF(ISBLANK(E774),(D774-F774)*J774,(E774-F774)*J774)))</f>
         <v/>
       </c>
@@ -19940,7 +19937,7 @@
       <c r="H775" s="31"/>
       <c r="I775" s="31"/>
       <c r="J775" s="31"/>
-      <c r="K775" s="22" t="str">
+      <c r="K775" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D775), ISBLANK(E775)),AND(OR(ISBLANK(G775),ISBLANK(H775),ISBLANK(I775)),ISBLANK(J775))),"",IF(ISBLANK(J775),IF(ISBLANK(E775),(D775-F775)*I775*H775*INDIRECT(SUBSTITUTE(G775," ","_"))/1000000,(E775-F775)*I775*H775*INDIRECT(SUBSTITUTE(G775," ","_"))/1000000),IF(ISBLANK(E775),(D775-F775)*J775,(E775-F775)*J775)))</f>
         <v/>
       </c>
@@ -19963,7 +19960,7 @@
       <c r="H776" s="31"/>
       <c r="I776" s="31"/>
       <c r="J776" s="31"/>
-      <c r="K776" s="22" t="str">
+      <c r="K776" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D776), ISBLANK(E776)),AND(OR(ISBLANK(G776),ISBLANK(H776),ISBLANK(I776)),ISBLANK(J776))),"",IF(ISBLANK(J776),IF(ISBLANK(E776),(D776-F776)*I776*H776*INDIRECT(SUBSTITUTE(G776," ","_"))/1000000,(E776-F776)*I776*H776*INDIRECT(SUBSTITUTE(G776," ","_"))/1000000),IF(ISBLANK(E776),(D776-F776)*J776,(E776-F776)*J776)))</f>
         <v/>
       </c>
@@ -19986,7 +19983,7 @@
       <c r="H777" s="31"/>
       <c r="I777" s="31"/>
       <c r="J777" s="31"/>
-      <c r="K777" s="22" t="str">
+      <c r="K777" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D777), ISBLANK(E777)),AND(OR(ISBLANK(G777),ISBLANK(H777),ISBLANK(I777)),ISBLANK(J777))),"",IF(ISBLANK(J777),IF(ISBLANK(E777),(D777-F777)*I777*H777*INDIRECT(SUBSTITUTE(G777," ","_"))/1000000,(E777-F777)*I777*H777*INDIRECT(SUBSTITUTE(G777," ","_"))/1000000),IF(ISBLANK(E777),(D777-F777)*J777,(E777-F777)*J777)))</f>
         <v/>
       </c>
@@ -20009,7 +20006,7 @@
       <c r="H778" s="31"/>
       <c r="I778" s="31"/>
       <c r="J778" s="31"/>
-      <c r="K778" s="22" t="str">
+      <c r="K778" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D778), ISBLANK(E778)),AND(OR(ISBLANK(G778),ISBLANK(H778),ISBLANK(I778)),ISBLANK(J778))),"",IF(ISBLANK(J778),IF(ISBLANK(E778),(D778-F778)*I778*H778*INDIRECT(SUBSTITUTE(G778," ","_"))/1000000,(E778-F778)*I778*H778*INDIRECT(SUBSTITUTE(G778," ","_"))/1000000),IF(ISBLANK(E778),(D778-F778)*J778,(E778-F778)*J778)))</f>
         <v/>
       </c>
@@ -20032,7 +20029,7 @@
       <c r="H779" s="31"/>
       <c r="I779" s="31"/>
       <c r="J779" s="31"/>
-      <c r="K779" s="22" t="str">
+      <c r="K779" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D779), ISBLANK(E779)),AND(OR(ISBLANK(G779),ISBLANK(H779),ISBLANK(I779)),ISBLANK(J779))),"",IF(ISBLANK(J779),IF(ISBLANK(E779),(D779-F779)*I779*H779*INDIRECT(SUBSTITUTE(G779," ","_"))/1000000,(E779-F779)*I779*H779*INDIRECT(SUBSTITUTE(G779," ","_"))/1000000),IF(ISBLANK(E779),(D779-F779)*J779,(E779-F779)*J779)))</f>
         <v/>
       </c>
@@ -20055,7 +20052,7 @@
       <c r="H780" s="31"/>
       <c r="I780" s="31"/>
       <c r="J780" s="31"/>
-      <c r="K780" s="22" t="str">
+      <c r="K780" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D780), ISBLANK(E780)),AND(OR(ISBLANK(G780),ISBLANK(H780),ISBLANK(I780)),ISBLANK(J780))),"",IF(ISBLANK(J780),IF(ISBLANK(E780),(D780-F780)*I780*H780*INDIRECT(SUBSTITUTE(G780," ","_"))/1000000,(E780-F780)*I780*H780*INDIRECT(SUBSTITUTE(G780," ","_"))/1000000),IF(ISBLANK(E780),(D780-F780)*J780,(E780-F780)*J780)))</f>
         <v/>
       </c>
@@ -20078,7 +20075,7 @@
       <c r="H781" s="31"/>
       <c r="I781" s="31"/>
       <c r="J781" s="31"/>
-      <c r="K781" s="22" t="str">
+      <c r="K781" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D781), ISBLANK(E781)),AND(OR(ISBLANK(G781),ISBLANK(H781),ISBLANK(I781)),ISBLANK(J781))),"",IF(ISBLANK(J781),IF(ISBLANK(E781),(D781-F781)*I781*H781*INDIRECT(SUBSTITUTE(G781," ","_"))/1000000,(E781-F781)*I781*H781*INDIRECT(SUBSTITUTE(G781," ","_"))/1000000),IF(ISBLANK(E781),(D781-F781)*J781,(E781-F781)*J781)))</f>
         <v/>
       </c>
@@ -20101,7 +20098,7 @@
       <c r="H782" s="31"/>
       <c r="I782" s="31"/>
       <c r="J782" s="31"/>
-      <c r="K782" s="22" t="str">
+      <c r="K782" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D782), ISBLANK(E782)),AND(OR(ISBLANK(G782),ISBLANK(H782),ISBLANK(I782)),ISBLANK(J782))),"",IF(ISBLANK(J782),IF(ISBLANK(E782),(D782-F782)*I782*H782*INDIRECT(SUBSTITUTE(G782," ","_"))/1000000,(E782-F782)*I782*H782*INDIRECT(SUBSTITUTE(G782," ","_"))/1000000),IF(ISBLANK(E782),(D782-F782)*J782,(E782-F782)*J782)))</f>
         <v/>
       </c>
@@ -20124,7 +20121,7 @@
       <c r="H783" s="31"/>
       <c r="I783" s="31"/>
       <c r="J783" s="31"/>
-      <c r="K783" s="22" t="str">
+      <c r="K783" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D783), ISBLANK(E783)),AND(OR(ISBLANK(G783),ISBLANK(H783),ISBLANK(I783)),ISBLANK(J783))),"",IF(ISBLANK(J783),IF(ISBLANK(E783),(D783-F783)*I783*H783*INDIRECT(SUBSTITUTE(G783," ","_"))/1000000,(E783-F783)*I783*H783*INDIRECT(SUBSTITUTE(G783," ","_"))/1000000),IF(ISBLANK(E783),(D783-F783)*J783,(E783-F783)*J783)))</f>
         <v/>
       </c>
@@ -20147,7 +20144,7 @@
       <c r="H784" s="31"/>
       <c r="I784" s="31"/>
       <c r="J784" s="31"/>
-      <c r="K784" s="22" t="str">
+      <c r="K784" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D784), ISBLANK(E784)),AND(OR(ISBLANK(G784),ISBLANK(H784),ISBLANK(I784)),ISBLANK(J784))),"",IF(ISBLANK(J784),IF(ISBLANK(E784),(D784-F784)*I784*H784*INDIRECT(SUBSTITUTE(G784," ","_"))/1000000,(E784-F784)*I784*H784*INDIRECT(SUBSTITUTE(G784," ","_"))/1000000),IF(ISBLANK(E784),(D784-F784)*J784,(E784-F784)*J784)))</f>
         <v/>
       </c>
@@ -20170,7 +20167,7 @@
       <c r="H785" s="31"/>
       <c r="I785" s="31"/>
       <c r="J785" s="31"/>
-      <c r="K785" s="22" t="str">
+      <c r="K785" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D785), ISBLANK(E785)),AND(OR(ISBLANK(G785),ISBLANK(H785),ISBLANK(I785)),ISBLANK(J785))),"",IF(ISBLANK(J785),IF(ISBLANK(E785),(D785-F785)*I785*H785*INDIRECT(SUBSTITUTE(G785," ","_"))/1000000,(E785-F785)*I785*H785*INDIRECT(SUBSTITUTE(G785," ","_"))/1000000),IF(ISBLANK(E785),(D785-F785)*J785,(E785-F785)*J785)))</f>
         <v/>
       </c>
@@ -20193,7 +20190,7 @@
       <c r="H786" s="31"/>
       <c r="I786" s="31"/>
       <c r="J786" s="31"/>
-      <c r="K786" s="22" t="str">
+      <c r="K786" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D786), ISBLANK(E786)),AND(OR(ISBLANK(G786),ISBLANK(H786),ISBLANK(I786)),ISBLANK(J786))),"",IF(ISBLANK(J786),IF(ISBLANK(E786),(D786-F786)*I786*H786*INDIRECT(SUBSTITUTE(G786," ","_"))/1000000,(E786-F786)*I786*H786*INDIRECT(SUBSTITUTE(G786," ","_"))/1000000),IF(ISBLANK(E786),(D786-F786)*J786,(E786-F786)*J786)))</f>
         <v/>
       </c>
@@ -20216,7 +20213,7 @@
       <c r="H787" s="31"/>
       <c r="I787" s="31"/>
       <c r="J787" s="31"/>
-      <c r="K787" s="22" t="str">
+      <c r="K787" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D787), ISBLANK(E787)),AND(OR(ISBLANK(G787),ISBLANK(H787),ISBLANK(I787)),ISBLANK(J787))),"",IF(ISBLANK(J787),IF(ISBLANK(E787),(D787-F787)*I787*H787*INDIRECT(SUBSTITUTE(G787," ","_"))/1000000,(E787-F787)*I787*H787*INDIRECT(SUBSTITUTE(G787," ","_"))/1000000),IF(ISBLANK(E787),(D787-F787)*J787,(E787-F787)*J787)))</f>
         <v/>
       </c>
@@ -20239,7 +20236,7 @@
       <c r="H788" s="31"/>
       <c r="I788" s="31"/>
       <c r="J788" s="31"/>
-      <c r="K788" s="22" t="str">
+      <c r="K788" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D788), ISBLANK(E788)),AND(OR(ISBLANK(G788),ISBLANK(H788),ISBLANK(I788)),ISBLANK(J788))),"",IF(ISBLANK(J788),IF(ISBLANK(E788),(D788-F788)*I788*H788*INDIRECT(SUBSTITUTE(G788," ","_"))/1000000,(E788-F788)*I788*H788*INDIRECT(SUBSTITUTE(G788," ","_"))/1000000),IF(ISBLANK(E788),(D788-F788)*J788,(E788-F788)*J788)))</f>
         <v/>
       </c>
@@ -20262,7 +20259,7 @@
       <c r="H789" s="31"/>
       <c r="I789" s="31"/>
       <c r="J789" s="31"/>
-      <c r="K789" s="22" t="str">
+      <c r="K789" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D789), ISBLANK(E789)),AND(OR(ISBLANK(G789),ISBLANK(H789),ISBLANK(I789)),ISBLANK(J789))),"",IF(ISBLANK(J789),IF(ISBLANK(E789),(D789-F789)*I789*H789*INDIRECT(SUBSTITUTE(G789," ","_"))/1000000,(E789-F789)*I789*H789*INDIRECT(SUBSTITUTE(G789," ","_"))/1000000),IF(ISBLANK(E789),(D789-F789)*J789,(E789-F789)*J789)))</f>
         <v/>
       </c>
@@ -20285,7 +20282,7 @@
       <c r="H790" s="31"/>
       <c r="I790" s="31"/>
       <c r="J790" s="31"/>
-      <c r="K790" s="22" t="str">
+      <c r="K790" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D790), ISBLANK(E790)),AND(OR(ISBLANK(G790),ISBLANK(H790),ISBLANK(I790)),ISBLANK(J790))),"",IF(ISBLANK(J790),IF(ISBLANK(E790),(D790-F790)*I790*H790*INDIRECT(SUBSTITUTE(G790," ","_"))/1000000,(E790-F790)*I790*H790*INDIRECT(SUBSTITUTE(G790," ","_"))/1000000),IF(ISBLANK(E790),(D790-F790)*J790,(E790-F790)*J790)))</f>
         <v/>
       </c>
@@ -20308,7 +20305,7 @@
       <c r="H791" s="31"/>
       <c r="I791" s="31"/>
       <c r="J791" s="31"/>
-      <c r="K791" s="22" t="str">
+      <c r="K791" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D791), ISBLANK(E791)),AND(OR(ISBLANK(G791),ISBLANK(H791),ISBLANK(I791)),ISBLANK(J791))),"",IF(ISBLANK(J791),IF(ISBLANK(E791),(D791-F791)*I791*H791*INDIRECT(SUBSTITUTE(G791," ","_"))/1000000,(E791-F791)*I791*H791*INDIRECT(SUBSTITUTE(G791," ","_"))/1000000),IF(ISBLANK(E791),(D791-F791)*J791,(E791-F791)*J791)))</f>
         <v/>
       </c>
@@ -20331,7 +20328,7 @@
       <c r="H792" s="31"/>
       <c r="I792" s="31"/>
       <c r="J792" s="31"/>
-      <c r="K792" s="22" t="str">
+      <c r="K792" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D792), ISBLANK(E792)),AND(OR(ISBLANK(G792),ISBLANK(H792),ISBLANK(I792)),ISBLANK(J792))),"",IF(ISBLANK(J792),IF(ISBLANK(E792),(D792-F792)*I792*H792*INDIRECT(SUBSTITUTE(G792," ","_"))/1000000,(E792-F792)*I792*H792*INDIRECT(SUBSTITUTE(G792," ","_"))/1000000),IF(ISBLANK(E792),(D792-F792)*J792,(E792-F792)*J792)))</f>
         <v/>
       </c>
@@ -20354,7 +20351,7 @@
       <c r="H793" s="31"/>
       <c r="I793" s="31"/>
       <c r="J793" s="31"/>
-      <c r="K793" s="22" t="str">
+      <c r="K793" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D793), ISBLANK(E793)),AND(OR(ISBLANK(G793),ISBLANK(H793),ISBLANK(I793)),ISBLANK(J793))),"",IF(ISBLANK(J793),IF(ISBLANK(E793),(D793-F793)*I793*H793*INDIRECT(SUBSTITUTE(G793," ","_"))/1000000,(E793-F793)*I793*H793*INDIRECT(SUBSTITUTE(G793," ","_"))/1000000),IF(ISBLANK(E793),(D793-F793)*J793,(E793-F793)*J793)))</f>
         <v/>
       </c>
@@ -20377,7 +20374,7 @@
       <c r="H794" s="31"/>
       <c r="I794" s="31"/>
       <c r="J794" s="31"/>
-      <c r="K794" s="22" t="str">
+      <c r="K794" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D794), ISBLANK(E794)),AND(OR(ISBLANK(G794),ISBLANK(H794),ISBLANK(I794)),ISBLANK(J794))),"",IF(ISBLANK(J794),IF(ISBLANK(E794),(D794-F794)*I794*H794*INDIRECT(SUBSTITUTE(G794," ","_"))/1000000,(E794-F794)*I794*H794*INDIRECT(SUBSTITUTE(G794," ","_"))/1000000),IF(ISBLANK(E794),(D794-F794)*J794,(E794-F794)*J794)))</f>
         <v/>
       </c>
@@ -20400,7 +20397,7 @@
       <c r="H795" s="31"/>
       <c r="I795" s="31"/>
       <c r="J795" s="31"/>
-      <c r="K795" s="22" t="str">
+      <c r="K795" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D795), ISBLANK(E795)),AND(OR(ISBLANK(G795),ISBLANK(H795),ISBLANK(I795)),ISBLANK(J795))),"",IF(ISBLANK(J795),IF(ISBLANK(E795),(D795-F795)*I795*H795*INDIRECT(SUBSTITUTE(G795," ","_"))/1000000,(E795-F795)*I795*H795*INDIRECT(SUBSTITUTE(G795," ","_"))/1000000),IF(ISBLANK(E795),(D795-F795)*J795,(E795-F795)*J795)))</f>
         <v/>
       </c>
@@ -20423,7 +20420,7 @@
       <c r="H796" s="31"/>
       <c r="I796" s="31"/>
       <c r="J796" s="31"/>
-      <c r="K796" s="22" t="str">
+      <c r="K796" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D796), ISBLANK(E796)),AND(OR(ISBLANK(G796),ISBLANK(H796),ISBLANK(I796)),ISBLANK(J796))),"",IF(ISBLANK(J796),IF(ISBLANK(E796),(D796-F796)*I796*H796*INDIRECT(SUBSTITUTE(G796," ","_"))/1000000,(E796-F796)*I796*H796*INDIRECT(SUBSTITUTE(G796," ","_"))/1000000),IF(ISBLANK(E796),(D796-F796)*J796,(E796-F796)*J796)))</f>
         <v/>
       </c>
@@ -20446,7 +20443,7 @@
       <c r="H797" s="31"/>
       <c r="I797" s="31"/>
       <c r="J797" s="31"/>
-      <c r="K797" s="22" t="str">
+      <c r="K797" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D797), ISBLANK(E797)),AND(OR(ISBLANK(G797),ISBLANK(H797),ISBLANK(I797)),ISBLANK(J797))),"",IF(ISBLANK(J797),IF(ISBLANK(E797),(D797-F797)*I797*H797*INDIRECT(SUBSTITUTE(G797," ","_"))/1000000,(E797-F797)*I797*H797*INDIRECT(SUBSTITUTE(G797," ","_"))/1000000),IF(ISBLANK(E797),(D797-F797)*J797,(E797-F797)*J797)))</f>
         <v/>
       </c>
@@ -20469,7 +20466,7 @@
       <c r="H798" s="31"/>
       <c r="I798" s="31"/>
       <c r="J798" s="31"/>
-      <c r="K798" s="22" t="str">
+      <c r="K798" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D798), ISBLANK(E798)),AND(OR(ISBLANK(G798),ISBLANK(H798),ISBLANK(I798)),ISBLANK(J798))),"",IF(ISBLANK(J798),IF(ISBLANK(E798),(D798-F798)*I798*H798*INDIRECT(SUBSTITUTE(G798," ","_"))/1000000,(E798-F798)*I798*H798*INDIRECT(SUBSTITUTE(G798," ","_"))/1000000),IF(ISBLANK(E798),(D798-F798)*J798,(E798-F798)*J798)))</f>
         <v/>
       </c>
@@ -20492,7 +20489,7 @@
       <c r="H799" s="31"/>
       <c r="I799" s="31"/>
       <c r="J799" s="31"/>
-      <c r="K799" s="22" t="str">
+      <c r="K799" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D799), ISBLANK(E799)),AND(OR(ISBLANK(G799),ISBLANK(H799),ISBLANK(I799)),ISBLANK(J799))),"",IF(ISBLANK(J799),IF(ISBLANK(E799),(D799-F799)*I799*H799*INDIRECT(SUBSTITUTE(G799," ","_"))/1000000,(E799-F799)*I799*H799*INDIRECT(SUBSTITUTE(G799," ","_"))/1000000),IF(ISBLANK(E799),(D799-F799)*J799,(E799-F799)*J799)))</f>
         <v/>
       </c>
@@ -20515,7 +20512,7 @@
       <c r="H800" s="31"/>
       <c r="I800" s="31"/>
       <c r="J800" s="31"/>
-      <c r="K800" s="22" t="str">
+      <c r="K800" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D800), ISBLANK(E800)),AND(OR(ISBLANK(G800),ISBLANK(H800),ISBLANK(I800)),ISBLANK(J800))),"",IF(ISBLANK(J800),IF(ISBLANK(E800),(D800-F800)*I800*H800*INDIRECT(SUBSTITUTE(G800," ","_"))/1000000,(E800-F800)*I800*H800*INDIRECT(SUBSTITUTE(G800," ","_"))/1000000),IF(ISBLANK(E800),(D800-F800)*J800,(E800-F800)*J800)))</f>
         <v/>
       </c>
@@ -20538,7 +20535,7 @@
       <c r="H801" s="31"/>
       <c r="I801" s="31"/>
       <c r="J801" s="31"/>
-      <c r="K801" s="22" t="str">
+      <c r="K801" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D801), ISBLANK(E801)),AND(OR(ISBLANK(G801),ISBLANK(H801),ISBLANK(I801)),ISBLANK(J801))),"",IF(ISBLANK(J801),IF(ISBLANK(E801),(D801-F801)*I801*H801*INDIRECT(SUBSTITUTE(G801," ","_"))/1000000,(E801-F801)*I801*H801*INDIRECT(SUBSTITUTE(G801," ","_"))/1000000),IF(ISBLANK(E801),(D801-F801)*J801,(E801-F801)*J801)))</f>
         <v/>
       </c>
@@ -20561,7 +20558,7 @@
       <c r="H802" s="31"/>
       <c r="I802" s="31"/>
       <c r="J802" s="31"/>
-      <c r="K802" s="22" t="str">
+      <c r="K802" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D802), ISBLANK(E802)),AND(OR(ISBLANK(G802),ISBLANK(H802),ISBLANK(I802)),ISBLANK(J802))),"",IF(ISBLANK(J802),IF(ISBLANK(E802),(D802-F802)*I802*H802*INDIRECT(SUBSTITUTE(G802," ","_"))/1000000,(E802-F802)*I802*H802*INDIRECT(SUBSTITUTE(G802," ","_"))/1000000),IF(ISBLANK(E802),(D802-F802)*J802,(E802-F802)*J802)))</f>
         <v/>
       </c>
@@ -20584,7 +20581,7 @@
       <c r="H803" s="31"/>
       <c r="I803" s="31"/>
       <c r="J803" s="31"/>
-      <c r="K803" s="22" t="str">
+      <c r="K803" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D803), ISBLANK(E803)),AND(OR(ISBLANK(G803),ISBLANK(H803),ISBLANK(I803)),ISBLANK(J803))),"",IF(ISBLANK(J803),IF(ISBLANK(E803),(D803-F803)*I803*H803*INDIRECT(SUBSTITUTE(G803," ","_"))/1000000,(E803-F803)*I803*H803*INDIRECT(SUBSTITUTE(G803," ","_"))/1000000),IF(ISBLANK(E803),(D803-F803)*J803,(E803-F803)*J803)))</f>
         <v/>
       </c>
@@ -20607,7 +20604,7 @@
       <c r="H804" s="31"/>
       <c r="I804" s="31"/>
       <c r="J804" s="31"/>
-      <c r="K804" s="22" t="str">
+      <c r="K804" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D804), ISBLANK(E804)),AND(OR(ISBLANK(G804),ISBLANK(H804),ISBLANK(I804)),ISBLANK(J804))),"",IF(ISBLANK(J804),IF(ISBLANK(E804),(D804-F804)*I804*H804*INDIRECT(SUBSTITUTE(G804," ","_"))/1000000,(E804-F804)*I804*H804*INDIRECT(SUBSTITUTE(G804," ","_"))/1000000),IF(ISBLANK(E804),(D804-F804)*J804,(E804-F804)*J804)))</f>
         <v/>
       </c>
@@ -20630,7 +20627,7 @@
       <c r="H805" s="31"/>
       <c r="I805" s="31"/>
       <c r="J805" s="31"/>
-      <c r="K805" s="22" t="str">
+      <c r="K805" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D805), ISBLANK(E805)),AND(OR(ISBLANK(G805),ISBLANK(H805),ISBLANK(I805)),ISBLANK(J805))),"",IF(ISBLANK(J805),IF(ISBLANK(E805),(D805-F805)*I805*H805*INDIRECT(SUBSTITUTE(G805," ","_"))/1000000,(E805-F805)*I805*H805*INDIRECT(SUBSTITUTE(G805," ","_"))/1000000),IF(ISBLANK(E805),(D805-F805)*J805,(E805-F805)*J805)))</f>
         <v/>
       </c>
@@ -20653,7 +20650,7 @@
       <c r="H806" s="31"/>
       <c r="I806" s="31"/>
       <c r="J806" s="31"/>
-      <c r="K806" s="22" t="str">
+      <c r="K806" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D806), ISBLANK(E806)),AND(OR(ISBLANK(G806),ISBLANK(H806),ISBLANK(I806)),ISBLANK(J806))),"",IF(ISBLANK(J806),IF(ISBLANK(E806),(D806-F806)*I806*H806*INDIRECT(SUBSTITUTE(G806," ","_"))/1000000,(E806-F806)*I806*H806*INDIRECT(SUBSTITUTE(G806," ","_"))/1000000),IF(ISBLANK(E806),(D806-F806)*J806,(E806-F806)*J806)))</f>
         <v/>
       </c>
@@ -20676,7 +20673,7 @@
       <c r="H807" s="31"/>
       <c r="I807" s="31"/>
       <c r="J807" s="31"/>
-      <c r="K807" s="22" t="str">
+      <c r="K807" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D807), ISBLANK(E807)),AND(OR(ISBLANK(G807),ISBLANK(H807),ISBLANK(I807)),ISBLANK(J807))),"",IF(ISBLANK(J807),IF(ISBLANK(E807),(D807-F807)*I807*H807*INDIRECT(SUBSTITUTE(G807," ","_"))/1000000,(E807-F807)*I807*H807*INDIRECT(SUBSTITUTE(G807," ","_"))/1000000),IF(ISBLANK(E807),(D807-F807)*J807,(E807-F807)*J807)))</f>
         <v/>
       </c>
@@ -20699,7 +20696,7 @@
       <c r="H808" s="31"/>
       <c r="I808" s="31"/>
       <c r="J808" s="31"/>
-      <c r="K808" s="22" t="str">
+      <c r="K808" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D808), ISBLANK(E808)),AND(OR(ISBLANK(G808),ISBLANK(H808),ISBLANK(I808)),ISBLANK(J808))),"",IF(ISBLANK(J808),IF(ISBLANK(E808),(D808-F808)*I808*H808*INDIRECT(SUBSTITUTE(G808," ","_"))/1000000,(E808-F808)*I808*H808*INDIRECT(SUBSTITUTE(G808," ","_"))/1000000),IF(ISBLANK(E808),(D808-F808)*J808,(E808-F808)*J808)))</f>
         <v/>
       </c>
@@ -20722,7 +20719,7 @@
       <c r="H809" s="31"/>
       <c r="I809" s="31"/>
       <c r="J809" s="31"/>
-      <c r="K809" s="22" t="str">
+      <c r="K809" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D809), ISBLANK(E809)),AND(OR(ISBLANK(G809),ISBLANK(H809),ISBLANK(I809)),ISBLANK(J809))),"",IF(ISBLANK(J809),IF(ISBLANK(E809),(D809-F809)*I809*H809*INDIRECT(SUBSTITUTE(G809," ","_"))/1000000,(E809-F809)*I809*H809*INDIRECT(SUBSTITUTE(G809," ","_"))/1000000),IF(ISBLANK(E809),(D809-F809)*J809,(E809-F809)*J809)))</f>
         <v/>
       </c>
@@ -20745,7 +20742,7 @@
       <c r="H810" s="31"/>
       <c r="I810" s="31"/>
       <c r="J810" s="31"/>
-      <c r="K810" s="22" t="str">
+      <c r="K810" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D810), ISBLANK(E810)),AND(OR(ISBLANK(G810),ISBLANK(H810),ISBLANK(I810)),ISBLANK(J810))),"",IF(ISBLANK(J810),IF(ISBLANK(E810),(D810-F810)*I810*H810*INDIRECT(SUBSTITUTE(G810," ","_"))/1000000,(E810-F810)*I810*H810*INDIRECT(SUBSTITUTE(G810," ","_"))/1000000),IF(ISBLANK(E810),(D810-F810)*J810,(E810-F810)*J810)))</f>
         <v/>
       </c>
@@ -20768,7 +20765,7 @@
       <c r="H811" s="31"/>
       <c r="I811" s="31"/>
       <c r="J811" s="31"/>
-      <c r="K811" s="22" t="str">
+      <c r="K811" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D811), ISBLANK(E811)),AND(OR(ISBLANK(G811),ISBLANK(H811),ISBLANK(I811)),ISBLANK(J811))),"",IF(ISBLANK(J811),IF(ISBLANK(E811),(D811-F811)*I811*H811*INDIRECT(SUBSTITUTE(G811," ","_"))/1000000,(E811-F811)*I811*H811*INDIRECT(SUBSTITUTE(G811," ","_"))/1000000),IF(ISBLANK(E811),(D811-F811)*J811,(E811-F811)*J811)))</f>
         <v/>
       </c>
@@ -20791,7 +20788,7 @@
       <c r="H812" s="31"/>
       <c r="I812" s="31"/>
       <c r="J812" s="31"/>
-      <c r="K812" s="22" t="str">
+      <c r="K812" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D812), ISBLANK(E812)),AND(OR(ISBLANK(G812),ISBLANK(H812),ISBLANK(I812)),ISBLANK(J812))),"",IF(ISBLANK(J812),IF(ISBLANK(E812),(D812-F812)*I812*H812*INDIRECT(SUBSTITUTE(G812," ","_"))/1000000,(E812-F812)*I812*H812*INDIRECT(SUBSTITUTE(G812," ","_"))/1000000),IF(ISBLANK(E812),(D812-F812)*J812,(E812-F812)*J812)))</f>
         <v/>
       </c>
@@ -20814,7 +20811,7 @@
       <c r="H813" s="31"/>
       <c r="I813" s="31"/>
       <c r="J813" s="31"/>
-      <c r="K813" s="22" t="str">
+      <c r="K813" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D813), ISBLANK(E813)),AND(OR(ISBLANK(G813),ISBLANK(H813),ISBLANK(I813)),ISBLANK(J813))),"",IF(ISBLANK(J813),IF(ISBLANK(E813),(D813-F813)*I813*H813*INDIRECT(SUBSTITUTE(G813," ","_"))/1000000,(E813-F813)*I813*H813*INDIRECT(SUBSTITUTE(G813," ","_"))/1000000),IF(ISBLANK(E813),(D813-F813)*J813,(E813-F813)*J813)))</f>
         <v/>
       </c>
@@ -20837,7 +20834,7 @@
       <c r="H814" s="31"/>
       <c r="I814" s="31"/>
       <c r="J814" s="31"/>
-      <c r="K814" s="22" t="str">
+      <c r="K814" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D814), ISBLANK(E814)),AND(OR(ISBLANK(G814),ISBLANK(H814),ISBLANK(I814)),ISBLANK(J814))),"",IF(ISBLANK(J814),IF(ISBLANK(E814),(D814-F814)*I814*H814*INDIRECT(SUBSTITUTE(G814," ","_"))/1000000,(E814-F814)*I814*H814*INDIRECT(SUBSTITUTE(G814," ","_"))/1000000),IF(ISBLANK(E814),(D814-F814)*J814,(E814-F814)*J814)))</f>
         <v/>
       </c>
@@ -20860,7 +20857,7 @@
       <c r="H815" s="31"/>
       <c r="I815" s="31"/>
       <c r="J815" s="31"/>
-      <c r="K815" s="22" t="str">
+      <c r="K815" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D815), ISBLANK(E815)),AND(OR(ISBLANK(G815),ISBLANK(H815),ISBLANK(I815)),ISBLANK(J815))),"",IF(ISBLANK(J815),IF(ISBLANK(E815),(D815-F815)*I815*H815*INDIRECT(SUBSTITUTE(G815," ","_"))/1000000,(E815-F815)*I815*H815*INDIRECT(SUBSTITUTE(G815," ","_"))/1000000),IF(ISBLANK(E815),(D815-F815)*J815,(E815-F815)*J815)))</f>
         <v/>
       </c>
@@ -20883,7 +20880,7 @@
       <c r="H816" s="31"/>
       <c r="I816" s="31"/>
       <c r="J816" s="31"/>
-      <c r="K816" s="22" t="str">
+      <c r="K816" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D816), ISBLANK(E816)),AND(OR(ISBLANK(G816),ISBLANK(H816),ISBLANK(I816)),ISBLANK(J816))),"",IF(ISBLANK(J816),IF(ISBLANK(E816),(D816-F816)*I816*H816*INDIRECT(SUBSTITUTE(G816," ","_"))/1000000,(E816-F816)*I816*H816*INDIRECT(SUBSTITUTE(G816," ","_"))/1000000),IF(ISBLANK(E816),(D816-F816)*J816,(E816-F816)*J816)))</f>
         <v/>
       </c>
@@ -20906,7 +20903,7 @@
       <c r="H817" s="31"/>
       <c r="I817" s="31"/>
       <c r="J817" s="31"/>
-      <c r="K817" s="22" t="str">
+      <c r="K817" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D817), ISBLANK(E817)),AND(OR(ISBLANK(G817),ISBLANK(H817),ISBLANK(I817)),ISBLANK(J817))),"",IF(ISBLANK(J817),IF(ISBLANK(E817),(D817-F817)*I817*H817*INDIRECT(SUBSTITUTE(G817," ","_"))/1000000,(E817-F817)*I817*H817*INDIRECT(SUBSTITUTE(G817," ","_"))/1000000),IF(ISBLANK(E817),(D817-F817)*J817,(E817-F817)*J817)))</f>
         <v/>
       </c>
@@ -20929,7 +20926,7 @@
       <c r="H818" s="31"/>
       <c r="I818" s="31"/>
       <c r="J818" s="31"/>
-      <c r="K818" s="22" t="str">
+      <c r="K818" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D818), ISBLANK(E818)),AND(OR(ISBLANK(G818),ISBLANK(H818),ISBLANK(I818)),ISBLANK(J818))),"",IF(ISBLANK(J818),IF(ISBLANK(E818),(D818-F818)*I818*H818*INDIRECT(SUBSTITUTE(G818," ","_"))/1000000,(E818-F818)*I818*H818*INDIRECT(SUBSTITUTE(G818," ","_"))/1000000),IF(ISBLANK(E818),(D818-F818)*J818,(E818-F818)*J818)))</f>
         <v/>
       </c>
@@ -20952,7 +20949,7 @@
       <c r="H819" s="31"/>
       <c r="I819" s="31"/>
       <c r="J819" s="31"/>
-      <c r="K819" s="22" t="str">
+      <c r="K819" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D819), ISBLANK(E819)),AND(OR(ISBLANK(G819),ISBLANK(H819),ISBLANK(I819)),ISBLANK(J819))),"",IF(ISBLANK(J819),IF(ISBLANK(E819),(D819-F819)*I819*H819*INDIRECT(SUBSTITUTE(G819," ","_"))/1000000,(E819-F819)*I819*H819*INDIRECT(SUBSTITUTE(G819," ","_"))/1000000),IF(ISBLANK(E819),(D819-F819)*J819,(E819-F819)*J819)))</f>
         <v/>
       </c>
@@ -20975,7 +20972,7 @@
       <c r="H820" s="31"/>
       <c r="I820" s="31"/>
       <c r="J820" s="31"/>
-      <c r="K820" s="22" t="str">
+      <c r="K820" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D820), ISBLANK(E820)),AND(OR(ISBLANK(G820),ISBLANK(H820),ISBLANK(I820)),ISBLANK(J820))),"",IF(ISBLANK(J820),IF(ISBLANK(E820),(D820-F820)*I820*H820*INDIRECT(SUBSTITUTE(G820," ","_"))/1000000,(E820-F820)*I820*H820*INDIRECT(SUBSTITUTE(G820," ","_"))/1000000),IF(ISBLANK(E820),(D820-F820)*J820,(E820-F820)*J820)))</f>
         <v/>
       </c>
@@ -20998,7 +20995,7 @@
       <c r="H821" s="31"/>
       <c r="I821" s="31"/>
       <c r="J821" s="31"/>
-      <c r="K821" s="22" t="str">
+      <c r="K821" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D821), ISBLANK(E821)),AND(OR(ISBLANK(G821),ISBLANK(H821),ISBLANK(I821)),ISBLANK(J821))),"",IF(ISBLANK(J821),IF(ISBLANK(E821),(D821-F821)*I821*H821*INDIRECT(SUBSTITUTE(G821," ","_"))/1000000,(E821-F821)*I821*H821*INDIRECT(SUBSTITUTE(G821," ","_"))/1000000),IF(ISBLANK(E821),(D821-F821)*J821,(E821-F821)*J821)))</f>
         <v/>
       </c>
@@ -21021,7 +21018,7 @@
       <c r="H822" s="31"/>
       <c r="I822" s="31"/>
       <c r="J822" s="31"/>
-      <c r="K822" s="22" t="str">
+      <c r="K822" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D822), ISBLANK(E822)),AND(OR(ISBLANK(G822),ISBLANK(H822),ISBLANK(I822)),ISBLANK(J822))),"",IF(ISBLANK(J822),IF(ISBLANK(E822),(D822-F822)*I822*H822*INDIRECT(SUBSTITUTE(G822," ","_"))/1000000,(E822-F822)*I822*H822*INDIRECT(SUBSTITUTE(G822," ","_"))/1000000),IF(ISBLANK(E822),(D822-F822)*J822,(E822-F822)*J822)))</f>
         <v/>
       </c>
@@ -21044,7 +21041,7 @@
       <c r="H823" s="31"/>
       <c r="I823" s="31"/>
       <c r="J823" s="31"/>
-      <c r="K823" s="22" t="str">
+      <c r="K823" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D823), ISBLANK(E823)),AND(OR(ISBLANK(G823),ISBLANK(H823),ISBLANK(I823)),ISBLANK(J823))),"",IF(ISBLANK(J823),IF(ISBLANK(E823),(D823-F823)*I823*H823*INDIRECT(SUBSTITUTE(G823," ","_"))/1000000,(E823-F823)*I823*H823*INDIRECT(SUBSTITUTE(G823," ","_"))/1000000),IF(ISBLANK(E823),(D823-F823)*J823,(E823-F823)*J823)))</f>
         <v/>
       </c>
@@ -21067,7 +21064,7 @@
       <c r="H824" s="31"/>
       <c r="I824" s="31"/>
       <c r="J824" s="31"/>
-      <c r="K824" s="22" t="str">
+      <c r="K824" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D824), ISBLANK(E824)),AND(OR(ISBLANK(G824),ISBLANK(H824),ISBLANK(I824)),ISBLANK(J824))),"",IF(ISBLANK(J824),IF(ISBLANK(E824),(D824-F824)*I824*H824*INDIRECT(SUBSTITUTE(G824," ","_"))/1000000,(E824-F824)*I824*H824*INDIRECT(SUBSTITUTE(G824," ","_"))/1000000),IF(ISBLANK(E824),(D824-F824)*J824,(E824-F824)*J824)))</f>
         <v/>
       </c>
@@ -21090,7 +21087,7 @@
       <c r="H825" s="31"/>
       <c r="I825" s="31"/>
       <c r="J825" s="31"/>
-      <c r="K825" s="22" t="str">
+      <c r="K825" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D825), ISBLANK(E825)),AND(OR(ISBLANK(G825),ISBLANK(H825),ISBLANK(I825)),ISBLANK(J825))),"",IF(ISBLANK(J825),IF(ISBLANK(E825),(D825-F825)*I825*H825*INDIRECT(SUBSTITUTE(G825," ","_"))/1000000,(E825-F825)*I825*H825*INDIRECT(SUBSTITUTE(G825," ","_"))/1000000),IF(ISBLANK(E825),(D825-F825)*J825,(E825-F825)*J825)))</f>
         <v/>
       </c>
@@ -21113,7 +21110,7 @@
       <c r="H826" s="31"/>
       <c r="I826" s="31"/>
       <c r="J826" s="31"/>
-      <c r="K826" s="22" t="str">
+      <c r="K826" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D826), ISBLANK(E826)),AND(OR(ISBLANK(G826),ISBLANK(H826),ISBLANK(I826)),ISBLANK(J826))),"",IF(ISBLANK(J826),IF(ISBLANK(E826),(D826-F826)*I826*H826*INDIRECT(SUBSTITUTE(G826," ","_"))/1000000,(E826-F826)*I826*H826*INDIRECT(SUBSTITUTE(G826," ","_"))/1000000),IF(ISBLANK(E826),(D826-F826)*J826,(E826-F826)*J826)))</f>
         <v/>
       </c>
@@ -21136,7 +21133,7 @@
       <c r="H827" s="31"/>
       <c r="I827" s="31"/>
       <c r="J827" s="31"/>
-      <c r="K827" s="22" t="str">
+      <c r="K827" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D827), ISBLANK(E827)),AND(OR(ISBLANK(G827),ISBLANK(H827),ISBLANK(I827)),ISBLANK(J827))),"",IF(ISBLANK(J827),IF(ISBLANK(E827),(D827-F827)*I827*H827*INDIRECT(SUBSTITUTE(G827," ","_"))/1000000,(E827-F827)*I827*H827*INDIRECT(SUBSTITUTE(G827," ","_"))/1000000),IF(ISBLANK(E827),(D827-F827)*J827,(E827-F827)*J827)))</f>
         <v/>
       </c>
@@ -21159,7 +21156,7 @@
       <c r="H828" s="31"/>
       <c r="I828" s="31"/>
       <c r="J828" s="31"/>
-      <c r="K828" s="22" t="str">
+      <c r="K828" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D828), ISBLANK(E828)),AND(OR(ISBLANK(G828),ISBLANK(H828),ISBLANK(I828)),ISBLANK(J828))),"",IF(ISBLANK(J828),IF(ISBLANK(E828),(D828-F828)*I828*H828*INDIRECT(SUBSTITUTE(G828," ","_"))/1000000,(E828-F828)*I828*H828*INDIRECT(SUBSTITUTE(G828," ","_"))/1000000),IF(ISBLANK(E828),(D828-F828)*J828,(E828-F828)*J828)))</f>
         <v/>
       </c>
@@ -21182,7 +21179,7 @@
       <c r="H829" s="31"/>
       <c r="I829" s="31"/>
       <c r="J829" s="31"/>
-      <c r="K829" s="22" t="str">
+      <c r="K829" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D829), ISBLANK(E829)),AND(OR(ISBLANK(G829),ISBLANK(H829),ISBLANK(I829)),ISBLANK(J829))),"",IF(ISBLANK(J829),IF(ISBLANK(E829),(D829-F829)*I829*H829*INDIRECT(SUBSTITUTE(G829," ","_"))/1000000,(E829-F829)*I829*H829*INDIRECT(SUBSTITUTE(G829," ","_"))/1000000),IF(ISBLANK(E829),(D829-F829)*J829,(E829-F829)*J829)))</f>
         <v/>
       </c>
@@ -21205,7 +21202,7 @@
       <c r="H830" s="31"/>
       <c r="I830" s="31"/>
       <c r="J830" s="31"/>
-      <c r="K830" s="22" t="str">
+      <c r="K830" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D830), ISBLANK(E830)),AND(OR(ISBLANK(G830),ISBLANK(H830),ISBLANK(I830)),ISBLANK(J830))),"",IF(ISBLANK(J830),IF(ISBLANK(E830),(D830-F830)*I830*H830*INDIRECT(SUBSTITUTE(G830," ","_"))/1000000,(E830-F830)*I830*H830*INDIRECT(SUBSTITUTE(G830," ","_"))/1000000),IF(ISBLANK(E830),(D830-F830)*J830,(E830-F830)*J830)))</f>
         <v/>
       </c>
@@ -21228,7 +21225,7 @@
       <c r="H831" s="31"/>
       <c r="I831" s="31"/>
       <c r="J831" s="31"/>
-      <c r="K831" s="22" t="str">
+      <c r="K831" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D831), ISBLANK(E831)),AND(OR(ISBLANK(G831),ISBLANK(H831),ISBLANK(I831)),ISBLANK(J831))),"",IF(ISBLANK(J831),IF(ISBLANK(E831),(D831-F831)*I831*H831*INDIRECT(SUBSTITUTE(G831," ","_"))/1000000,(E831-F831)*I831*H831*INDIRECT(SUBSTITUTE(G831," ","_"))/1000000),IF(ISBLANK(E831),(D831-F831)*J831,(E831-F831)*J831)))</f>
         <v/>
       </c>
@@ -21251,7 +21248,7 @@
       <c r="H832" s="31"/>
       <c r="I832" s="31"/>
       <c r="J832" s="31"/>
-      <c r="K832" s="22" t="str">
+      <c r="K832" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D832), ISBLANK(E832)),AND(OR(ISBLANK(G832),ISBLANK(H832),ISBLANK(I832)),ISBLANK(J832))),"",IF(ISBLANK(J832),IF(ISBLANK(E832),(D832-F832)*I832*H832*INDIRECT(SUBSTITUTE(G832," ","_"))/1000000,(E832-F832)*I832*H832*INDIRECT(SUBSTITUTE(G832," ","_"))/1000000),IF(ISBLANK(E832),(D832-F832)*J832,(E832-F832)*J832)))</f>
         <v/>
       </c>
@@ -21274,7 +21271,7 @@
       <c r="H833" s="31"/>
       <c r="I833" s="31"/>
       <c r="J833" s="31"/>
-      <c r="K833" s="22" t="str">
+      <c r="K833" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D833), ISBLANK(E833)),AND(OR(ISBLANK(G833),ISBLANK(H833),ISBLANK(I833)),ISBLANK(J833))),"",IF(ISBLANK(J833),IF(ISBLANK(E833),(D833-F833)*I833*H833*INDIRECT(SUBSTITUTE(G833," ","_"))/1000000,(E833-F833)*I833*H833*INDIRECT(SUBSTITUTE(G833," ","_"))/1000000),IF(ISBLANK(E833),(D833-F833)*J833,(E833-F833)*J833)))</f>
         <v/>
       </c>
@@ -21297,7 +21294,7 @@
       <c r="H834" s="31"/>
       <c r="I834" s="31"/>
       <c r="J834" s="31"/>
-      <c r="K834" s="22" t="str">
+      <c r="K834" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D834), ISBLANK(E834)),AND(OR(ISBLANK(G834),ISBLANK(H834),ISBLANK(I834)),ISBLANK(J834))),"",IF(ISBLANK(J834),IF(ISBLANK(E834),(D834-F834)*I834*H834*INDIRECT(SUBSTITUTE(G834," ","_"))/1000000,(E834-F834)*I834*H834*INDIRECT(SUBSTITUTE(G834," ","_"))/1000000),IF(ISBLANK(E834),(D834-F834)*J834,(E834-F834)*J834)))</f>
         <v/>
       </c>
@@ -21320,7 +21317,7 @@
       <c r="H835" s="31"/>
       <c r="I835" s="31"/>
       <c r="J835" s="31"/>
-      <c r="K835" s="22" t="str">
+      <c r="K835" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D835), ISBLANK(E835)),AND(OR(ISBLANK(G835),ISBLANK(H835),ISBLANK(I835)),ISBLANK(J835))),"",IF(ISBLANK(J835),IF(ISBLANK(E835),(D835-F835)*I835*H835*INDIRECT(SUBSTITUTE(G835," ","_"))/1000000,(E835-F835)*I835*H835*INDIRECT(SUBSTITUTE(G835," ","_"))/1000000),IF(ISBLANK(E835),(D835-F835)*J835,(E835-F835)*J835)))</f>
         <v/>
       </c>
@@ -21343,7 +21340,7 @@
       <c r="H836" s="31"/>
       <c r="I836" s="31"/>
       <c r="J836" s="31"/>
-      <c r="K836" s="22" t="str">
+      <c r="K836" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D836), ISBLANK(E836)),AND(OR(ISBLANK(G836),ISBLANK(H836),ISBLANK(I836)),ISBLANK(J836))),"",IF(ISBLANK(J836),IF(ISBLANK(E836),(D836-F836)*I836*H836*INDIRECT(SUBSTITUTE(G836," ","_"))/1000000,(E836-F836)*I836*H836*INDIRECT(SUBSTITUTE(G836," ","_"))/1000000),IF(ISBLANK(E836),(D836-F836)*J836,(E836-F836)*J836)))</f>
         <v/>
       </c>
@@ -21366,7 +21363,7 @@
       <c r="H837" s="31"/>
       <c r="I837" s="31"/>
       <c r="J837" s="31"/>
-      <c r="K837" s="22" t="str">
+      <c r="K837" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D837), ISBLANK(E837)),AND(OR(ISBLANK(G837),ISBLANK(H837),ISBLANK(I837)),ISBLANK(J837))),"",IF(ISBLANK(J837),IF(ISBLANK(E837),(D837-F837)*I837*H837*INDIRECT(SUBSTITUTE(G837," ","_"))/1000000,(E837-F837)*I837*H837*INDIRECT(SUBSTITUTE(G837," ","_"))/1000000),IF(ISBLANK(E837),(D837-F837)*J837,(E837-F837)*J837)))</f>
         <v/>
       </c>
@@ -21389,7 +21386,7 @@
       <c r="H838" s="31"/>
       <c r="I838" s="31"/>
       <c r="J838" s="31"/>
-      <c r="K838" s="22" t="str">
+      <c r="K838" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D838), ISBLANK(E838)),AND(OR(ISBLANK(G838),ISBLANK(H838),ISBLANK(I838)),ISBLANK(J838))),"",IF(ISBLANK(J838),IF(ISBLANK(E838),(D838-F838)*I838*H838*INDIRECT(SUBSTITUTE(G838," ","_"))/1000000,(E838-F838)*I838*H838*INDIRECT(SUBSTITUTE(G838," ","_"))/1000000),IF(ISBLANK(E838),(D838-F838)*J838,(E838-F838)*J838)))</f>
         <v/>
       </c>
@@ -21412,7 +21409,7 @@
       <c r="H839" s="31"/>
       <c r="I839" s="31"/>
       <c r="J839" s="31"/>
-      <c r="K839" s="22" t="str">
+      <c r="K839" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D839), ISBLANK(E839)),AND(OR(ISBLANK(G839),ISBLANK(H839),ISBLANK(I839)),ISBLANK(J839))),"",IF(ISBLANK(J839),IF(ISBLANK(E839),(D839-F839)*I839*H839*INDIRECT(SUBSTITUTE(G839," ","_"))/1000000,(E839-F839)*I839*H839*INDIRECT(SUBSTITUTE(G839," ","_"))/1000000),IF(ISBLANK(E839),(D839-F839)*J839,(E839-F839)*J839)))</f>
         <v/>
       </c>
@@ -21435,7 +21432,7 @@
       <c r="H840" s="31"/>
       <c r="I840" s="31"/>
       <c r="J840" s="31"/>
-      <c r="K840" s="22" t="str">
+      <c r="K840" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D840), ISBLANK(E840)),AND(OR(ISBLANK(G840),ISBLANK(H840),ISBLANK(I840)),ISBLANK(J840))),"",IF(ISBLANK(J840),IF(ISBLANK(E840),(D840-F840)*I840*H840*INDIRECT(SUBSTITUTE(G840," ","_"))/1000000,(E840-F840)*I840*H840*INDIRECT(SUBSTITUTE(G840," ","_"))/1000000),IF(ISBLANK(E840),(D840-F840)*J840,(E840-F840)*J840)))</f>
         <v/>
       </c>
@@ -21458,7 +21455,7 @@
       <c r="H841" s="31"/>
       <c r="I841" s="31"/>
       <c r="J841" s="31"/>
-      <c r="K841" s="22" t="str">
+      <c r="K841" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D841), ISBLANK(E841)),AND(OR(ISBLANK(G841),ISBLANK(H841),ISBLANK(I841)),ISBLANK(J841))),"",IF(ISBLANK(J841),IF(ISBLANK(E841),(D841-F841)*I841*H841*INDIRECT(SUBSTITUTE(G841," ","_"))/1000000,(E841-F841)*I841*H841*INDIRECT(SUBSTITUTE(G841," ","_"))/1000000),IF(ISBLANK(E841),(D841-F841)*J841,(E841-F841)*J841)))</f>
         <v/>
       </c>
@@ -21481,7 +21478,7 @@
       <c r="H842" s="31"/>
       <c r="I842" s="31"/>
       <c r="J842" s="31"/>
-      <c r="K842" s="22" t="str">
+      <c r="K842" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D842), ISBLANK(E842)),AND(OR(ISBLANK(G842),ISBLANK(H842),ISBLANK(I842)),ISBLANK(J842))),"",IF(ISBLANK(J842),IF(ISBLANK(E842),(D842-F842)*I842*H842*INDIRECT(SUBSTITUTE(G842," ","_"))/1000000,(E842-F842)*I842*H842*INDIRECT(SUBSTITUTE(G842," ","_"))/1000000),IF(ISBLANK(E842),(D842-F842)*J842,(E842-F842)*J842)))</f>
         <v/>
       </c>
@@ -21504,7 +21501,7 @@
       <c r="H843" s="31"/>
       <c r="I843" s="31"/>
       <c r="J843" s="31"/>
-      <c r="K843" s="22" t="str">
+      <c r="K843" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D843), ISBLANK(E843)),AND(OR(ISBLANK(G843),ISBLANK(H843),ISBLANK(I843)),ISBLANK(J843))),"",IF(ISBLANK(J843),IF(ISBLANK(E843),(D843-F843)*I843*H843*INDIRECT(SUBSTITUTE(G843," ","_"))/1000000,(E843-F843)*I843*H843*INDIRECT(SUBSTITUTE(G843," ","_"))/1000000),IF(ISBLANK(E843),(D843-F843)*J843,(E843-F843)*J843)))</f>
         <v/>
       </c>
@@ -21527,7 +21524,7 @@
       <c r="H844" s="31"/>
       <c r="I844" s="31"/>
       <c r="J844" s="31"/>
-      <c r="K844" s="22" t="str">
+      <c r="K844" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D844), ISBLANK(E844)),AND(OR(ISBLANK(G844),ISBLANK(H844),ISBLANK(I844)),ISBLANK(J844))),"",IF(ISBLANK(J844),IF(ISBLANK(E844),(D844-F844)*I844*H844*INDIRECT(SUBSTITUTE(G844," ","_"))/1000000,(E844-F844)*I844*H844*INDIRECT(SUBSTITUTE(G844," ","_"))/1000000),IF(ISBLANK(E844),(D844-F844)*J844,(E844-F844)*J844)))</f>
         <v/>
       </c>
@@ -21550,7 +21547,7 @@
       <c r="H845" s="31"/>
       <c r="I845" s="31"/>
       <c r="J845" s="31"/>
-      <c r="K845" s="22" t="str">
+      <c r="K845" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D845), ISBLANK(E845)),AND(OR(ISBLANK(G845),ISBLANK(H845),ISBLANK(I845)),ISBLANK(J845))),"",IF(ISBLANK(J845),IF(ISBLANK(E845),(D845-F845)*I845*H845*INDIRECT(SUBSTITUTE(G845," ","_"))/1000000,(E845-F845)*I845*H845*INDIRECT(SUBSTITUTE(G845," ","_"))/1000000),IF(ISBLANK(E845),(D845-F845)*J845,(E845-F845)*J845)))</f>
         <v/>
       </c>
@@ -21573,7 +21570,7 @@
       <c r="H846" s="31"/>
       <c r="I846" s="31"/>
       <c r="J846" s="31"/>
-      <c r="K846" s="22" t="str">
+      <c r="K846" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D846), ISBLANK(E846)),AND(OR(ISBLANK(G846),ISBLANK(H846),ISBLANK(I846)),ISBLANK(J846))),"",IF(ISBLANK(J846),IF(ISBLANK(E846),(D846-F846)*I846*H846*INDIRECT(SUBSTITUTE(G846," ","_"))/1000000,(E846-F846)*I846*H846*INDIRECT(SUBSTITUTE(G846," ","_"))/1000000),IF(ISBLANK(E846),(D846-F846)*J846,(E846-F846)*J846)))</f>
         <v/>
       </c>
@@ -21596,7 +21593,7 @@
       <c r="H847" s="31"/>
       <c r="I847" s="31"/>
       <c r="J847" s="31"/>
-      <c r="K847" s="22" t="str">
+      <c r="K847" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D847), ISBLANK(E847)),AND(OR(ISBLANK(G847),ISBLANK(H847),ISBLANK(I847)),ISBLANK(J847))),"",IF(ISBLANK(J847),IF(ISBLANK(E847),(D847-F847)*I847*H847*INDIRECT(SUBSTITUTE(G847," ","_"))/1000000,(E847-F847)*I847*H847*INDIRECT(SUBSTITUTE(G847," ","_"))/1000000),IF(ISBLANK(E847),(D847-F847)*J847,(E847-F847)*J847)))</f>
         <v/>
       </c>
@@ -21619,7 +21616,7 @@
       <c r="H848" s="31"/>
       <c r="I848" s="31"/>
       <c r="J848" s="31"/>
-      <c r="K848" s="22" t="str">
+      <c r="K848" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D848), ISBLANK(E848)),AND(OR(ISBLANK(G848),ISBLANK(H848),ISBLANK(I848)),ISBLANK(J848))),"",IF(ISBLANK(J848),IF(ISBLANK(E848),(D848-F848)*I848*H848*INDIRECT(SUBSTITUTE(G848," ","_"))/1000000,(E848-F848)*I848*H848*INDIRECT(SUBSTITUTE(G848," ","_"))/1000000),IF(ISBLANK(E848),(D848-F848)*J848,(E848-F848)*J848)))</f>
         <v/>
       </c>
@@ -21642,7 +21639,7 @@
       <c r="H849" s="31"/>
       <c r="I849" s="31"/>
       <c r="J849" s="31"/>
-      <c r="K849" s="22" t="str">
+      <c r="K849" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D849), ISBLANK(E849)),AND(OR(ISBLANK(G849),ISBLANK(H849),ISBLANK(I849)),ISBLANK(J849))),"",IF(ISBLANK(J849),IF(ISBLANK(E849),(D849-F849)*I849*H849*INDIRECT(SUBSTITUTE(G849," ","_"))/1000000,(E849-F849)*I849*H849*INDIRECT(SUBSTITUTE(G849," ","_"))/1000000),IF(ISBLANK(E849),(D849-F849)*J849,(E849-F849)*J849)))</f>
         <v/>
       </c>
@@ -21665,7 +21662,7 @@
       <c r="H850" s="31"/>
       <c r="I850" s="31"/>
       <c r="J850" s="31"/>
-      <c r="K850" s="22" t="str">
+      <c r="K850" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D850), ISBLANK(E850)),AND(OR(ISBLANK(G850),ISBLANK(H850),ISBLANK(I850)),ISBLANK(J850))),"",IF(ISBLANK(J850),IF(ISBLANK(E850),(D850-F850)*I850*H850*INDIRECT(SUBSTITUTE(G850," ","_"))/1000000,(E850-F850)*I850*H850*INDIRECT(SUBSTITUTE(G850," ","_"))/1000000),IF(ISBLANK(E850),(D850-F850)*J850,(E850-F850)*J850)))</f>
         <v/>
       </c>
@@ -21688,7 +21685,7 @@
       <c r="H851" s="31"/>
       <c r="I851" s="31"/>
       <c r="J851" s="31"/>
-      <c r="K851" s="22" t="str">
+      <c r="K851" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D851), ISBLANK(E851)),AND(OR(ISBLANK(G851),ISBLANK(H851),ISBLANK(I851)),ISBLANK(J851))),"",IF(ISBLANK(J851),IF(ISBLANK(E851),(D851-F851)*I851*H851*INDIRECT(SUBSTITUTE(G851," ","_"))/1000000,(E851-F851)*I851*H851*INDIRECT(SUBSTITUTE(G851," ","_"))/1000000),IF(ISBLANK(E851),(D851-F851)*J851,(E851-F851)*J851)))</f>
         <v/>
       </c>
@@ -21711,7 +21708,7 @@
       <c r="H852" s="31"/>
       <c r="I852" s="31"/>
       <c r="J852" s="31"/>
-      <c r="K852" s="22" t="str">
+      <c r="K852" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D852), ISBLANK(E852)),AND(OR(ISBLANK(G852),ISBLANK(H852),ISBLANK(I852)),ISBLANK(J852))),"",IF(ISBLANK(J852),IF(ISBLANK(E852),(D852-F852)*I852*H852*INDIRECT(SUBSTITUTE(G852," ","_"))/1000000,(E852-F852)*I852*H852*INDIRECT(SUBSTITUTE(G852," ","_"))/1000000),IF(ISBLANK(E852),(D852-F852)*J852,(E852-F852)*J852)))</f>
         <v/>
       </c>
@@ -21734,7 +21731,7 @@
       <c r="H853" s="31"/>
       <c r="I853" s="31"/>
       <c r="J853" s="31"/>
-      <c r="K853" s="22" t="str">
+      <c r="K853" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D853), ISBLANK(E853)),AND(OR(ISBLANK(G853),ISBLANK(H853),ISBLANK(I853)),ISBLANK(J853))),"",IF(ISBLANK(J853),IF(ISBLANK(E853),(D853-F853)*I853*H853*INDIRECT(SUBSTITUTE(G853," ","_"))/1000000,(E853-F853)*I853*H853*INDIRECT(SUBSTITUTE(G853," ","_"))/1000000),IF(ISBLANK(E853),(D853-F853)*J853,(E853-F853)*J853)))</f>
         <v/>
       </c>
@@ -21757,7 +21754,7 @@
       <c r="H854" s="31"/>
       <c r="I854" s="31"/>
       <c r="J854" s="31"/>
-      <c r="K854" s="22" t="str">
+      <c r="K854" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D854), ISBLANK(E854)),AND(OR(ISBLANK(G854),ISBLANK(H854),ISBLANK(I854)),ISBLANK(J854))),"",IF(ISBLANK(J854),IF(ISBLANK(E854),(D854-F854)*I854*H854*INDIRECT(SUBSTITUTE(G854," ","_"))/1000000,(E854-F854)*I854*H854*INDIRECT(SUBSTITUTE(G854," ","_"))/1000000),IF(ISBLANK(E854),(D854-F854)*J854,(E854-F854)*J854)))</f>
         <v/>
       </c>
@@ -21780,7 +21777,7 @@
       <c r="H855" s="31"/>
       <c r="I855" s="31"/>
       <c r="J855" s="31"/>
-      <c r="K855" s="22" t="str">
+      <c r="K855" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D855), ISBLANK(E855)),AND(OR(ISBLANK(G855),ISBLANK(H855),ISBLANK(I855)),ISBLANK(J855))),"",IF(ISBLANK(J855),IF(ISBLANK(E855),(D855-F855)*I855*H855*INDIRECT(SUBSTITUTE(G855," ","_"))/1000000,(E855-F855)*I855*H855*INDIRECT(SUBSTITUTE(G855," ","_"))/1000000),IF(ISBLANK(E855),(D855-F855)*J855,(E855-F855)*J855)))</f>
         <v/>
       </c>
@@ -21803,7 +21800,7 @@
       <c r="H856" s="31"/>
       <c r="I856" s="31"/>
       <c r="J856" s="31"/>
-      <c r="K856" s="22" t="str">
+      <c r="K856" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D856), ISBLANK(E856)),AND(OR(ISBLANK(G856),ISBLANK(H856),ISBLANK(I856)),ISBLANK(J856))),"",IF(ISBLANK(J856),IF(ISBLANK(E856),(D856-F856)*I856*H856*INDIRECT(SUBSTITUTE(G856," ","_"))/1000000,(E856-F856)*I856*H856*INDIRECT(SUBSTITUTE(G856," ","_"))/1000000),IF(ISBLANK(E856),(D856-F856)*J856,(E856-F856)*J856)))</f>
         <v/>
       </c>
@@ -21826,7 +21823,7 @@
       <c r="H857" s="31"/>
       <c r="I857" s="31"/>
       <c r="J857" s="31"/>
-      <c r="K857" s="22" t="str">
+      <c r="K857" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D857), ISBLANK(E857)),AND(OR(ISBLANK(G857),ISBLANK(H857),ISBLANK(I857)),ISBLANK(J857))),"",IF(ISBLANK(J857),IF(ISBLANK(E857),(D857-F857)*I857*H857*INDIRECT(SUBSTITUTE(G857," ","_"))/1000000,(E857-F857)*I857*H857*INDIRECT(SUBSTITUTE(G857," ","_"))/1000000),IF(ISBLANK(E857),(D857-F857)*J857,(E857-F857)*J857)))</f>
         <v/>
       </c>
@@ -21849,7 +21846,7 @@
       <c r="H858" s="31"/>
       <c r="I858" s="31"/>
       <c r="J858" s="31"/>
-      <c r="K858" s="22" t="str">
+      <c r="K858" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D858), ISBLANK(E858)),AND(OR(ISBLANK(G858),ISBLANK(H858),ISBLANK(I858)),ISBLANK(J858))),"",IF(ISBLANK(J858),IF(ISBLANK(E858),(D858-F858)*I858*H858*INDIRECT(SUBSTITUTE(G858," ","_"))/1000000,(E858-F858)*I858*H858*INDIRECT(SUBSTITUTE(G858," ","_"))/1000000),IF(ISBLANK(E858),(D858-F858)*J858,(E858-F858)*J858)))</f>
         <v/>
       </c>
@@ -21872,7 +21869,7 @@
       <c r="H859" s="31"/>
       <c r="I859" s="31"/>
       <c r="J859" s="31"/>
-      <c r="K859" s="22" t="str">
+      <c r="K859" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D859), ISBLANK(E859)),AND(OR(ISBLANK(G859),ISBLANK(H859),ISBLANK(I859)),ISBLANK(J859))),"",IF(ISBLANK(J859),IF(ISBLANK(E859),(D859-F859)*I859*H859*INDIRECT(SUBSTITUTE(G859," ","_"))/1000000,(E859-F859)*I859*H859*INDIRECT(SUBSTITUTE(G859," ","_"))/1000000),IF(ISBLANK(E859),(D859-F859)*J859,(E859-F859)*J859)))</f>
         <v/>
       </c>
@@ -21895,7 +21892,7 @@
       <c r="H860" s="31"/>
       <c r="I860" s="31"/>
       <c r="J860" s="31"/>
-      <c r="K860" s="22" t="str">
+      <c r="K860" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D860), ISBLANK(E860)),AND(OR(ISBLANK(G860),ISBLANK(H860),ISBLANK(I860)),ISBLANK(J860))),"",IF(ISBLANK(J860),IF(ISBLANK(E860),(D860-F860)*I860*H860*INDIRECT(SUBSTITUTE(G860," ","_"))/1000000,(E860-F860)*I860*H860*INDIRECT(SUBSTITUTE(G860," ","_"))/1000000),IF(ISBLANK(E860),(D860-F860)*J860,(E860-F860)*J860)))</f>
         <v/>
       </c>
@@ -21918,7 +21915,7 @@
       <c r="H861" s="31"/>
       <c r="I861" s="31"/>
       <c r="J861" s="31"/>
-      <c r="K861" s="22" t="str">
+      <c r="K861" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D861), ISBLANK(E861)),AND(OR(ISBLANK(G861),ISBLANK(H861),ISBLANK(I861)),ISBLANK(J861))),"",IF(ISBLANK(J861),IF(ISBLANK(E861),(D861-F861)*I861*H861*INDIRECT(SUBSTITUTE(G861," ","_"))/1000000,(E861-F861)*I861*H861*INDIRECT(SUBSTITUTE(G861," ","_"))/1000000),IF(ISBLANK(E861),(D861-F861)*J861,(E861-F861)*J861)))</f>
         <v/>
       </c>
@@ -21941,7 +21938,7 @@
       <c r="H862" s="31"/>
       <c r="I862" s="31"/>
       <c r="J862" s="31"/>
-      <c r="K862" s="22" t="str">
+      <c r="K862" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D862), ISBLANK(E862)),AND(OR(ISBLANK(G862),ISBLANK(H862),ISBLANK(I862)),ISBLANK(J862))),"",IF(ISBLANK(J862),IF(ISBLANK(E862),(D862-F862)*I862*H862*INDIRECT(SUBSTITUTE(G862," ","_"))/1000000,(E862-F862)*I862*H862*INDIRECT(SUBSTITUTE(G862," ","_"))/1000000),IF(ISBLANK(E862),(D862-F862)*J862,(E862-F862)*J862)))</f>
         <v/>
       </c>
@@ -21964,7 +21961,7 @@
       <c r="H863" s="31"/>
       <c r="I863" s="31"/>
       <c r="J863" s="31"/>
-      <c r="K863" s="22" t="str">
+      <c r="K863" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D863), ISBLANK(E863)),AND(OR(ISBLANK(G863),ISBLANK(H863),ISBLANK(I863)),ISBLANK(J863))),"",IF(ISBLANK(J863),IF(ISBLANK(E863),(D863-F863)*I863*H863*INDIRECT(SUBSTITUTE(G863," ","_"))/1000000,(E863-F863)*I863*H863*INDIRECT(SUBSTITUTE(G863," ","_"))/1000000),IF(ISBLANK(E863),(D863-F863)*J863,(E863-F863)*J863)))</f>
         <v/>
       </c>
@@ -21987,7 +21984,7 @@
       <c r="H864" s="31"/>
       <c r="I864" s="31"/>
       <c r="J864" s="31"/>
-      <c r="K864" s="22" t="str">
+      <c r="K864" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D864), ISBLANK(E864)),AND(OR(ISBLANK(G864),ISBLANK(H864),ISBLANK(I864)),ISBLANK(J864))),"",IF(ISBLANK(J864),IF(ISBLANK(E864),(D864-F864)*I864*H864*INDIRECT(SUBSTITUTE(G864," ","_"))/1000000,(E864-F864)*I864*H864*INDIRECT(SUBSTITUTE(G864," ","_"))/1000000),IF(ISBLANK(E864),(D864-F864)*J864,(E864-F864)*J864)))</f>
         <v/>
       </c>
@@ -22010,7 +22007,7 @@
       <c r="H865" s="31"/>
       <c r="I865" s="31"/>
       <c r="J865" s="31"/>
-      <c r="K865" s="22" t="str">
+      <c r="K865" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D865), ISBLANK(E865)),AND(OR(ISBLANK(G865),ISBLANK(H865),ISBLANK(I865)),ISBLANK(J865))),"",IF(ISBLANK(J865),IF(ISBLANK(E865),(D865-F865)*I865*H865*INDIRECT(SUBSTITUTE(G865," ","_"))/1000000,(E865-F865)*I865*H865*INDIRECT(SUBSTITUTE(G865," ","_"))/1000000),IF(ISBLANK(E865),(D865-F865)*J865,(E865-F865)*J865)))</f>
         <v/>
       </c>
@@ -22033,7 +22030,7 @@
       <c r="H866" s="31"/>
       <c r="I866" s="31"/>
       <c r="J866" s="31"/>
-      <c r="K866" s="22" t="str">
+      <c r="K866" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D866), ISBLANK(E866)),AND(OR(ISBLANK(G866),ISBLANK(H866),ISBLANK(I866)),ISBLANK(J866))),"",IF(ISBLANK(J866),IF(ISBLANK(E866),(D866-F866)*I866*H866*INDIRECT(SUBSTITUTE(G866," ","_"))/1000000,(E866-F866)*I866*H866*INDIRECT(SUBSTITUTE(G866," ","_"))/1000000),IF(ISBLANK(E866),(D866-F866)*J866,(E866-F866)*J866)))</f>
         <v/>
       </c>
@@ -22056,7 +22053,7 @@
       <c r="H867" s="31"/>
       <c r="I867" s="31"/>
       <c r="J867" s="31"/>
-      <c r="K867" s="22" t="str">
+      <c r="K867" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D867), ISBLANK(E867)),AND(OR(ISBLANK(G867),ISBLANK(H867),ISBLANK(I867)),ISBLANK(J867))),"",IF(ISBLANK(J867),IF(ISBLANK(E867),(D867-F867)*I867*H867*INDIRECT(SUBSTITUTE(G867," ","_"))/1000000,(E867-F867)*I867*H867*INDIRECT(SUBSTITUTE(G867," ","_"))/1000000),IF(ISBLANK(E867),(D867-F867)*J867,(E867-F867)*J867)))</f>
         <v/>
       </c>
@@ -22079,7 +22076,7 @@
       <c r="H868" s="31"/>
       <c r="I868" s="31"/>
       <c r="J868" s="31"/>
-      <c r="K868" s="22" t="str">
+      <c r="K868" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D868), ISBLANK(E868)),AND(OR(ISBLANK(G868),ISBLANK(H868),ISBLANK(I868)),ISBLANK(J868))),"",IF(ISBLANK(J868),IF(ISBLANK(E868),(D868-F868)*I868*H868*INDIRECT(SUBSTITUTE(G868," ","_"))/1000000,(E868-F868)*I868*H868*INDIRECT(SUBSTITUTE(G868," ","_"))/1000000),IF(ISBLANK(E868),(D868-F868)*J868,(E868-F868)*J868)))</f>
         <v/>
       </c>
@@ -22102,7 +22099,7 @@
       <c r="H869" s="31"/>
       <c r="I869" s="31"/>
       <c r="J869" s="31"/>
-      <c r="K869" s="22" t="str">
+      <c r="K869" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D869), ISBLANK(E869)),AND(OR(ISBLANK(G869),ISBLANK(H869),ISBLANK(I869)),ISBLANK(J869))),"",IF(ISBLANK(J869),IF(ISBLANK(E869),(D869-F869)*I869*H869*INDIRECT(SUBSTITUTE(G869," ","_"))/1000000,(E869-F869)*I869*H869*INDIRECT(SUBSTITUTE(G869," ","_"))/1000000),IF(ISBLANK(E869),(D869-F869)*J869,(E869-F869)*J869)))</f>
         <v/>
       </c>
@@ -22125,7 +22122,7 @@
       <c r="H870" s="31"/>
       <c r="I870" s="31"/>
       <c r="J870" s="31"/>
-      <c r="K870" s="22" t="str">
+      <c r="K870" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D870), ISBLANK(E870)),AND(OR(ISBLANK(G870),ISBLANK(H870),ISBLANK(I870)),ISBLANK(J870))),"",IF(ISBLANK(J870),IF(ISBLANK(E870),(D870-F870)*I870*H870*INDIRECT(SUBSTITUTE(G870," ","_"))/1000000,(E870-F870)*I870*H870*INDIRECT(SUBSTITUTE(G870," ","_"))/1000000),IF(ISBLANK(E870),(D870-F870)*J870,(E870-F870)*J870)))</f>
         <v/>
       </c>
@@ -22148,7 +22145,7 @@
       <c r="H871" s="31"/>
       <c r="I871" s="31"/>
       <c r="J871" s="31"/>
-      <c r="K871" s="22" t="str">
+      <c r="K871" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D871), ISBLANK(E871)),AND(OR(ISBLANK(G871),ISBLANK(H871),ISBLANK(I871)),ISBLANK(J871))),"",IF(ISBLANK(J871),IF(ISBLANK(E871),(D871-F871)*I871*H871*INDIRECT(SUBSTITUTE(G871," ","_"))/1000000,(E871-F871)*I871*H871*INDIRECT(SUBSTITUTE(G871," ","_"))/1000000),IF(ISBLANK(E871),(D871-F871)*J871,(E871-F871)*J871)))</f>
         <v/>
       </c>
@@ -22171,7 +22168,7 @@
       <c r="H872" s="31"/>
       <c r="I872" s="31"/>
       <c r="J872" s="31"/>
-      <c r="K872" s="22" t="str">
+      <c r="K872" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D872), ISBLANK(E872)),AND(OR(ISBLANK(G872),ISBLANK(H872),ISBLANK(I872)),ISBLANK(J872))),"",IF(ISBLANK(J872),IF(ISBLANK(E872),(D872-F872)*I872*H872*INDIRECT(SUBSTITUTE(G872," ","_"))/1000000,(E872-F872)*I872*H872*INDIRECT(SUBSTITUTE(G872," ","_"))/1000000),IF(ISBLANK(E872),(D872-F872)*J872,(E872-F872)*J872)))</f>
         <v/>
       </c>
@@ -22194,7 +22191,7 @@
       <c r="H873" s="31"/>
       <c r="I873" s="31"/>
       <c r="J873" s="31"/>
-      <c r="K873" s="22" t="str">
+      <c r="K873" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D873), ISBLANK(E873)),AND(OR(ISBLANK(G873),ISBLANK(H873),ISBLANK(I873)),ISBLANK(J873))),"",IF(ISBLANK(J873),IF(ISBLANK(E873),(D873-F873)*I873*H873*INDIRECT(SUBSTITUTE(G873," ","_"))/1000000,(E873-F873)*I873*H873*INDIRECT(SUBSTITUTE(G873," ","_"))/1000000),IF(ISBLANK(E873),(D873-F873)*J873,(E873-F873)*J873)))</f>
         <v/>
       </c>
@@ -22217,7 +22214,7 @@
       <c r="H874" s="31"/>
       <c r="I874" s="31"/>
       <c r="J874" s="31"/>
-      <c r="K874" s="22" t="str">
+      <c r="K874" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D874), ISBLANK(E874)),AND(OR(ISBLANK(G874),ISBLANK(H874),ISBLANK(I874)),ISBLANK(J874))),"",IF(ISBLANK(J874),IF(ISBLANK(E874),(D874-F874)*I874*H874*INDIRECT(SUBSTITUTE(G874," ","_"))/1000000,(E874-F874)*I874*H874*INDIRECT(SUBSTITUTE(G874," ","_"))/1000000),IF(ISBLANK(E874),(D874-F874)*J874,(E874-F874)*J874)))</f>
         <v/>
       </c>
@@ -22240,7 +22237,7 @@
       <c r="H875" s="31"/>
       <c r="I875" s="31"/>
       <c r="J875" s="31"/>
-      <c r="K875" s="22" t="str">
+      <c r="K875" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D875), ISBLANK(E875)),AND(OR(ISBLANK(G875),ISBLANK(H875),ISBLANK(I875)),ISBLANK(J875))),"",IF(ISBLANK(J875),IF(ISBLANK(E875),(D875-F875)*I875*H875*INDIRECT(SUBSTITUTE(G875," ","_"))/1000000,(E875-F875)*I875*H875*INDIRECT(SUBSTITUTE(G875," ","_"))/1000000),IF(ISBLANK(E875),(D875-F875)*J875,(E875-F875)*J875)))</f>
         <v/>
       </c>
@@ -22263,7 +22260,7 @@
       <c r="H876" s="31"/>
       <c r="I876" s="31"/>
       <c r="J876" s="31"/>
-      <c r="K876" s="22" t="str">
+      <c r="K876" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D876), ISBLANK(E876)),AND(OR(ISBLANK(G876),ISBLANK(H876),ISBLANK(I876)),ISBLANK(J876))),"",IF(ISBLANK(J876),IF(ISBLANK(E876),(D876-F876)*I876*H876*INDIRECT(SUBSTITUTE(G876," ","_"))/1000000,(E876-F876)*I876*H876*INDIRECT(SUBSTITUTE(G876," ","_"))/1000000),IF(ISBLANK(E876),(D876-F876)*J876,(E876-F876)*J876)))</f>
         <v/>
       </c>
@@ -22286,7 +22283,7 @@
       <c r="H877" s="31"/>
       <c r="I877" s="31"/>
       <c r="J877" s="31"/>
-      <c r="K877" s="22" t="str">
+      <c r="K877" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D877), ISBLANK(E877)),AND(OR(ISBLANK(G877),ISBLANK(H877),ISBLANK(I877)),ISBLANK(J877))),"",IF(ISBLANK(J877),IF(ISBLANK(E877),(D877-F877)*I877*H877*INDIRECT(SUBSTITUTE(G877," ","_"))/1000000,(E877-F877)*I877*H877*INDIRECT(SUBSTITUTE(G877," ","_"))/1000000),IF(ISBLANK(E877),(D877-F877)*J877,(E877-F877)*J877)))</f>
         <v/>
       </c>
@@ -22309,7 +22306,7 @@
       <c r="H878" s="31"/>
       <c r="I878" s="31"/>
       <c r="J878" s="31"/>
-      <c r="K878" s="22" t="str">
+      <c r="K878" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D878), ISBLANK(E878)),AND(OR(ISBLANK(G878),ISBLANK(H878),ISBLANK(I878)),ISBLANK(J878))),"",IF(ISBLANK(J878),IF(ISBLANK(E878),(D878-F878)*I878*H878*INDIRECT(SUBSTITUTE(G878," ","_"))/1000000,(E878-F878)*I878*H878*INDIRECT(SUBSTITUTE(G878," ","_"))/1000000),IF(ISBLANK(E878),(D878-F878)*J878,(E878-F878)*J878)))</f>
         <v/>
       </c>
@@ -22332,7 +22329,7 @@
       <c r="H879" s="31"/>
       <c r="I879" s="31"/>
       <c r="J879" s="31"/>
-      <c r="K879" s="22" t="str">
+      <c r="K879" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D879), ISBLANK(E879)),AND(OR(ISBLANK(G879),ISBLANK(H879),ISBLANK(I879)),ISBLANK(J879))),"",IF(ISBLANK(J879),IF(ISBLANK(E879),(D879-F879)*I879*H879*INDIRECT(SUBSTITUTE(G879," ","_"))/1000000,(E879-F879)*I879*H879*INDIRECT(SUBSTITUTE(G879," ","_"))/1000000),IF(ISBLANK(E879),(D879-F879)*J879,(E879-F879)*J879)))</f>
         <v/>
       </c>
@@ -22355,7 +22352,7 @@
       <c r="H880" s="31"/>
       <c r="I880" s="31"/>
       <c r="J880" s="31"/>
-      <c r="K880" s="22" t="str">
+      <c r="K880" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D880), ISBLANK(E880)),AND(OR(ISBLANK(G880),ISBLANK(H880),ISBLANK(I880)),ISBLANK(J880))),"",IF(ISBLANK(J880),IF(ISBLANK(E880),(D880-F880)*I880*H880*INDIRECT(SUBSTITUTE(G880," ","_"))/1000000,(E880-F880)*I880*H880*INDIRECT(SUBSTITUTE(G880," ","_"))/1000000),IF(ISBLANK(E880),(D880-F880)*J880,(E880-F880)*J880)))</f>
         <v/>
       </c>
@@ -22378,7 +22375,7 @@
       <c r="H881" s="31"/>
       <c r="I881" s="31"/>
       <c r="J881" s="31"/>
-      <c r="K881" s="22" t="str">
+      <c r="K881" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D881), ISBLANK(E881)),AND(OR(ISBLANK(G881),ISBLANK(H881),ISBLANK(I881)),ISBLANK(J881))),"",IF(ISBLANK(J881),IF(ISBLANK(E881),(D881-F881)*I881*H881*INDIRECT(SUBSTITUTE(G881," ","_"))/1000000,(E881-F881)*I881*H881*INDIRECT(SUBSTITUTE(G881," ","_"))/1000000),IF(ISBLANK(E881),(D881-F881)*J881,(E881-F881)*J881)))</f>
         <v/>
       </c>
@@ -22401,7 +22398,7 @@
       <c r="H882" s="31"/>
       <c r="I882" s="31"/>
       <c r="J882" s="31"/>
-      <c r="K882" s="22" t="str">
+      <c r="K882" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D882), ISBLANK(E882)),AND(OR(ISBLANK(G882),ISBLANK(H882),ISBLANK(I882)),ISBLANK(J882))),"",IF(ISBLANK(J882),IF(ISBLANK(E882),(D882-F882)*I882*H882*INDIRECT(SUBSTITUTE(G882," ","_"))/1000000,(E882-F882)*I882*H882*INDIRECT(SUBSTITUTE(G882," ","_"))/1000000),IF(ISBLANK(E882),(D882-F882)*J882,(E882-F882)*J882)))</f>
         <v/>
       </c>
@@ -22424,7 +22421,7 @@
       <c r="H883" s="31"/>
       <c r="I883" s="31"/>
       <c r="J883" s="31"/>
-      <c r="K883" s="22" t="str">
+      <c r="K883" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D883), ISBLANK(E883)),AND(OR(ISBLANK(G883),ISBLANK(H883),ISBLANK(I883)),ISBLANK(J883))),"",IF(ISBLANK(J883),IF(ISBLANK(E883),(D883-F883)*I883*H883*INDIRECT(SUBSTITUTE(G883," ","_"))/1000000,(E883-F883)*I883*H883*INDIRECT(SUBSTITUTE(G883," ","_"))/1000000),IF(ISBLANK(E883),(D883-F883)*J883,(E883-F883)*J883)))</f>
         <v/>
       </c>
@@ -22447,7 +22444,7 @@
       <c r="H884" s="31"/>
       <c r="I884" s="31"/>
       <c r="J884" s="31"/>
-      <c r="K884" s="22" t="str">
+      <c r="K884" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D884), ISBLANK(E884)),AND(OR(ISBLANK(G884),ISBLANK(H884),ISBLANK(I884)),ISBLANK(J884))),"",IF(ISBLANK(J884),IF(ISBLANK(E884),(D884-F884)*I884*H884*INDIRECT(SUBSTITUTE(G884," ","_"))/1000000,(E884-F884)*I884*H884*INDIRECT(SUBSTITUTE(G884," ","_"))/1000000),IF(ISBLANK(E884),(D884-F884)*J884,(E884-F884)*J884)))</f>
         <v/>
       </c>
@@ -22470,7 +22467,7 @@
       <c r="H885" s="31"/>
       <c r="I885" s="31"/>
       <c r="J885" s="31"/>
-      <c r="K885" s="22" t="str">
+      <c r="K885" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D885), ISBLANK(E885)),AND(OR(ISBLANK(G885),ISBLANK(H885),ISBLANK(I885)),ISBLANK(J885))),"",IF(ISBLANK(J885),IF(ISBLANK(E885),(D885-F885)*I885*H885*INDIRECT(SUBSTITUTE(G885," ","_"))/1000000,(E885-F885)*I885*H885*INDIRECT(SUBSTITUTE(G885," ","_"))/1000000),IF(ISBLANK(E885),(D885-F885)*J885,(E885-F885)*J885)))</f>
         <v/>
       </c>
@@ -22493,7 +22490,7 @@
       <c r="H886" s="31"/>
       <c r="I886" s="31"/>
       <c r="J886" s="31"/>
-      <c r="K886" s="22" t="str">
+      <c r="K886" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D886), ISBLANK(E886)),AND(OR(ISBLANK(G886),ISBLANK(H886),ISBLANK(I886)),ISBLANK(J886))),"",IF(ISBLANK(J886),IF(ISBLANK(E886),(D886-F886)*I886*H886*INDIRECT(SUBSTITUTE(G886," ","_"))/1000000,(E886-F886)*I886*H886*INDIRECT(SUBSTITUTE(G886," ","_"))/1000000),IF(ISBLANK(E886),(D886-F886)*J886,(E886-F886)*J886)))</f>
         <v/>
       </c>
@@ -22516,7 +22513,7 @@
       <c r="H887" s="31"/>
       <c r="I887" s="31"/>
       <c r="J887" s="31"/>
-      <c r="K887" s="22" t="str">
+      <c r="K887" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D887), ISBLANK(E887)),AND(OR(ISBLANK(G887),ISBLANK(H887),ISBLANK(I887)),ISBLANK(J887))),"",IF(ISBLANK(J887),IF(ISBLANK(E887),(D887-F887)*I887*H887*INDIRECT(SUBSTITUTE(G887," ","_"))/1000000,(E887-F887)*I887*H887*INDIRECT(SUBSTITUTE(G887," ","_"))/1000000),IF(ISBLANK(E887),(D887-F887)*J887,(E887-F887)*J887)))</f>
         <v/>
       </c>
@@ -22539,7 +22536,7 @@
       <c r="H888" s="31"/>
       <c r="I888" s="31"/>
       <c r="J888" s="31"/>
-      <c r="K888" s="22" t="str">
+      <c r="K888" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D888), ISBLANK(E888)),AND(OR(ISBLANK(G888),ISBLANK(H888),ISBLANK(I888)),ISBLANK(J888))),"",IF(ISBLANK(J888),IF(ISBLANK(E888),(D888-F888)*I888*H888*INDIRECT(SUBSTITUTE(G888," ","_"))/1000000,(E888-F888)*I888*H888*INDIRECT(SUBSTITUTE(G888," ","_"))/1000000),IF(ISBLANK(E888),(D888-F888)*J888,(E888-F888)*J888)))</f>
         <v/>
       </c>
@@ -22562,7 +22559,7 @@
       <c r="H889" s="31"/>
       <c r="I889" s="31"/>
       <c r="J889" s="31"/>
-      <c r="K889" s="22" t="str">
+      <c r="K889" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D889), ISBLANK(E889)),AND(OR(ISBLANK(G889),ISBLANK(H889),ISBLANK(I889)),ISBLANK(J889))),"",IF(ISBLANK(J889),IF(ISBLANK(E889),(D889-F889)*I889*H889*INDIRECT(SUBSTITUTE(G889," ","_"))/1000000,(E889-F889)*I889*H889*INDIRECT(SUBSTITUTE(G889," ","_"))/1000000),IF(ISBLANK(E889),(D889-F889)*J889,(E889-F889)*J889)))</f>
         <v/>
       </c>
@@ -22585,7 +22582,7 @@
       <c r="H890" s="31"/>
       <c r="I890" s="31"/>
       <c r="J890" s="31"/>
-      <c r="K890" s="22" t="str">
+      <c r="K890" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D890), ISBLANK(E890)),AND(OR(ISBLANK(G890),ISBLANK(H890),ISBLANK(I890)),ISBLANK(J890))),"",IF(ISBLANK(J890),IF(ISBLANK(E890),(D890-F890)*I890*H890*INDIRECT(SUBSTITUTE(G890," ","_"))/1000000,(E890-F890)*I890*H890*INDIRECT(SUBSTITUTE(G890," ","_"))/1000000),IF(ISBLANK(E890),(D890-F890)*J890,(E890-F890)*J890)))</f>
         <v/>
       </c>
@@ -22608,7 +22605,7 @@
       <c r="H891" s="31"/>
       <c r="I891" s="31"/>
       <c r="J891" s="31"/>
-      <c r="K891" s="22" t="str">
+      <c r="K891" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D891), ISBLANK(E891)),AND(OR(ISBLANK(G891),ISBLANK(H891),ISBLANK(I891)),ISBLANK(J891))),"",IF(ISBLANK(J891),IF(ISBLANK(E891),(D891-F891)*I891*H891*INDIRECT(SUBSTITUTE(G891," ","_"))/1000000,(E891-F891)*I891*H891*INDIRECT(SUBSTITUTE(G891," ","_"))/1000000),IF(ISBLANK(E891),(D891-F891)*J891,(E891-F891)*J891)))</f>
         <v/>
       </c>
@@ -22631,7 +22628,7 @@
       <c r="H892" s="31"/>
       <c r="I892" s="31"/>
       <c r="J892" s="31"/>
-      <c r="K892" s="22" t="str">
+      <c r="K892" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D892), ISBLANK(E892)),AND(OR(ISBLANK(G892),ISBLANK(H892),ISBLANK(I892)),ISBLANK(J892))),"",IF(ISBLANK(J892),IF(ISBLANK(E892),(D892-F892)*I892*H892*INDIRECT(SUBSTITUTE(G892," ","_"))/1000000,(E892-F892)*I892*H892*INDIRECT(SUBSTITUTE(G892," ","_"))/1000000),IF(ISBLANK(E892),(D892-F892)*J892,(E892-F892)*J892)))</f>
         <v/>
       </c>
@@ -22654,7 +22651,7 @@
       <c r="H893" s="31"/>
       <c r="I893" s="31"/>
       <c r="J893" s="31"/>
-      <c r="K893" s="22" t="str">
+      <c r="K893" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D893), ISBLANK(E893)),AND(OR(ISBLANK(G893),ISBLANK(H893),ISBLANK(I893)),ISBLANK(J893))),"",IF(ISBLANK(J893),IF(ISBLANK(E893),(D893-F893)*I893*H893*INDIRECT(SUBSTITUTE(G893," ","_"))/1000000,(E893-F893)*I893*H893*INDIRECT(SUBSTITUTE(G893," ","_"))/1000000),IF(ISBLANK(E893),(D893-F893)*J893,(E893-F893)*J893)))</f>
         <v/>
       </c>
@@ -22677,7 +22674,7 @@
       <c r="H894" s="31"/>
       <c r="I894" s="31"/>
       <c r="J894" s="31"/>
-      <c r="K894" s="22" t="str">
+      <c r="K894" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D894), ISBLANK(E894)),AND(OR(ISBLANK(G894),ISBLANK(H894),ISBLANK(I894)),ISBLANK(J894))),"",IF(ISBLANK(J894),IF(ISBLANK(E894),(D894-F894)*I894*H894*INDIRECT(SUBSTITUTE(G894," ","_"))/1000000,(E894-F894)*I894*H894*INDIRECT(SUBSTITUTE(G894," ","_"))/1000000),IF(ISBLANK(E894),(D894-F894)*J894,(E894-F894)*J894)))</f>
         <v/>
       </c>
@@ -22700,7 +22697,7 @@
       <c r="H895" s="31"/>
       <c r="I895" s="31"/>
       <c r="J895" s="31"/>
-      <c r="K895" s="22" t="str">
+      <c r="K895" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D895), ISBLANK(E895)),AND(OR(ISBLANK(G895),ISBLANK(H895),ISBLANK(I895)),ISBLANK(J895))),"",IF(ISBLANK(J895),IF(ISBLANK(E895),(D895-F895)*I895*H895*INDIRECT(SUBSTITUTE(G895," ","_"))/1000000,(E895-F895)*I895*H895*INDIRECT(SUBSTITUTE(G895," ","_"))/1000000),IF(ISBLANK(E895),(D895-F895)*J895,(E895-F895)*J895)))</f>
         <v/>
       </c>
@@ -22723,7 +22720,7 @@
       <c r="H896" s="31"/>
       <c r="I896" s="31"/>
       <c r="J896" s="31"/>
-      <c r="K896" s="22" t="str">
+      <c r="K896" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D896), ISBLANK(E896)),AND(OR(ISBLANK(G896),ISBLANK(H896),ISBLANK(I896)),ISBLANK(J896))),"",IF(ISBLANK(J896),IF(ISBLANK(E896),(D896-F896)*I896*H896*INDIRECT(SUBSTITUTE(G896," ","_"))/1000000,(E896-F896)*I896*H896*INDIRECT(SUBSTITUTE(G896," ","_"))/1000000),IF(ISBLANK(E896),(D896-F896)*J896,(E896-F896)*J896)))</f>
         <v/>
       </c>
@@ -22746,7 +22743,7 @@
       <c r="H897" s="31"/>
       <c r="I897" s="31"/>
       <c r="J897" s="31"/>
-      <c r="K897" s="22" t="str">
+      <c r="K897" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D897), ISBLANK(E897)),AND(OR(ISBLANK(G897),ISBLANK(H897),ISBLANK(I897)),ISBLANK(J897))),"",IF(ISBLANK(J897),IF(ISBLANK(E897),(D897-F897)*I897*H897*INDIRECT(SUBSTITUTE(G897," ","_"))/1000000,(E897-F897)*I897*H897*INDIRECT(SUBSTITUTE(G897," ","_"))/1000000),IF(ISBLANK(E897),(D897-F897)*J897,(E897-F897)*J897)))</f>
         <v/>
       </c>
@@ -22769,7 +22766,7 @@
       <c r="H898" s="31"/>
       <c r="I898" s="31"/>
       <c r="J898" s="31"/>
-      <c r="K898" s="22" t="str">
+      <c r="K898" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D898), ISBLANK(E898)),AND(OR(ISBLANK(G898),ISBLANK(H898),ISBLANK(I898)),ISBLANK(J898))),"",IF(ISBLANK(J898),IF(ISBLANK(E898),(D898-F898)*I898*H898*INDIRECT(SUBSTITUTE(G898," ","_"))/1000000,(E898-F898)*I898*H898*INDIRECT(SUBSTITUTE(G898," ","_"))/1000000),IF(ISBLANK(E898),(D898-F898)*J898,(E898-F898)*J898)))</f>
         <v/>
       </c>
@@ -22792,7 +22789,7 @@
       <c r="H899" s="31"/>
       <c r="I899" s="31"/>
       <c r="J899" s="31"/>
-      <c r="K899" s="22" t="str">
+      <c r="K899" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D899), ISBLANK(E899)),AND(OR(ISBLANK(G899),ISBLANK(H899),ISBLANK(I899)),ISBLANK(J899))),"",IF(ISBLANK(J899),IF(ISBLANK(E899),(D899-F899)*I899*H899*INDIRECT(SUBSTITUTE(G899," ","_"))/1000000,(E899-F899)*I899*H899*INDIRECT(SUBSTITUTE(G899," ","_"))/1000000),IF(ISBLANK(E899),(D899-F899)*J899,(E899-F899)*J899)))</f>
         <v/>
       </c>
@@ -22815,7 +22812,7 @@
       <c r="H900" s="31"/>
       <c r="I900" s="31"/>
       <c r="J900" s="31"/>
-      <c r="K900" s="22" t="str">
+      <c r="K900" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D900), ISBLANK(E900)),AND(OR(ISBLANK(G900),ISBLANK(H900),ISBLANK(I900)),ISBLANK(J900))),"",IF(ISBLANK(J900),IF(ISBLANK(E900),(D900-F900)*I900*H900*INDIRECT(SUBSTITUTE(G900," ","_"))/1000000,(E900-F900)*I900*H900*INDIRECT(SUBSTITUTE(G900," ","_"))/1000000),IF(ISBLANK(E900),(D900-F900)*J900,(E900-F900)*J900)))</f>
         <v/>
       </c>
@@ -22838,7 +22835,7 @@
       <c r="H901" s="31"/>
       <c r="I901" s="31"/>
       <c r="J901" s="31"/>
-      <c r="K901" s="22" t="str">
+      <c r="K901" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D901), ISBLANK(E901)),AND(OR(ISBLANK(G901),ISBLANK(H901),ISBLANK(I901)),ISBLANK(J901))),"",IF(ISBLANK(J901),IF(ISBLANK(E901),(D901-F901)*I901*H901*INDIRECT(SUBSTITUTE(G901," ","_"))/1000000,(E901-F901)*I901*H901*INDIRECT(SUBSTITUTE(G901," ","_"))/1000000),IF(ISBLANK(E901),(D901-F901)*J901,(E901-F901)*J901)))</f>
         <v/>
       </c>
@@ -22861,7 +22858,7 @@
       <c r="H902" s="31"/>
       <c r="I902" s="31"/>
       <c r="J902" s="31"/>
-      <c r="K902" s="22" t="str">
+      <c r="K902" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D902), ISBLANK(E902)),AND(OR(ISBLANK(G902),ISBLANK(H902),ISBLANK(I902)),ISBLANK(J902))),"",IF(ISBLANK(J902),IF(ISBLANK(E902),(D902-F902)*I902*H902*INDIRECT(SUBSTITUTE(G902," ","_"))/1000000,(E902-F902)*I902*H902*INDIRECT(SUBSTITUTE(G902," ","_"))/1000000),IF(ISBLANK(E902),(D902-F902)*J902,(E902-F902)*J902)))</f>
         <v/>
       </c>
@@ -22884,7 +22881,7 @@
       <c r="H903" s="31"/>
       <c r="I903" s="31"/>
       <c r="J903" s="31"/>
-      <c r="K903" s="22" t="str">
+      <c r="K903" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D903), ISBLANK(E903)),AND(OR(ISBLANK(G903),ISBLANK(H903),ISBLANK(I903)),ISBLANK(J903))),"",IF(ISBLANK(J903),IF(ISBLANK(E903),(D903-F903)*I903*H903*INDIRECT(SUBSTITUTE(G903," ","_"))/1000000,(E903-F903)*I903*H903*INDIRECT(SUBSTITUTE(G903," ","_"))/1000000),IF(ISBLANK(E903),(D903-F903)*J903,(E903-F903)*J903)))</f>
         <v/>
       </c>
@@ -22907,7 +22904,7 @@
       <c r="H904" s="31"/>
       <c r="I904" s="31"/>
       <c r="J904" s="31"/>
-      <c r="K904" s="22" t="str">
+      <c r="K904" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D904), ISBLANK(E904)),AND(OR(ISBLANK(G904),ISBLANK(H904),ISBLANK(I904)),ISBLANK(J904))),"",IF(ISBLANK(J904),IF(ISBLANK(E904),(D904-F904)*I904*H904*INDIRECT(SUBSTITUTE(G904," ","_"))/1000000,(E904-F904)*I904*H904*INDIRECT(SUBSTITUTE(G904," ","_"))/1000000),IF(ISBLANK(E904),(D904-F904)*J904,(E904-F904)*J904)))</f>
         <v/>
       </c>
@@ -22930,7 +22927,7 @@
       <c r="H905" s="31"/>
       <c r="I905" s="31"/>
       <c r="J905" s="31"/>
-      <c r="K905" s="22" t="str">
+      <c r="K905" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D905), ISBLANK(E905)),AND(OR(ISBLANK(G905),ISBLANK(H905),ISBLANK(I905)),ISBLANK(J905))),"",IF(ISBLANK(J905),IF(ISBLANK(E905),(D905-F905)*I905*H905*INDIRECT(SUBSTITUTE(G905," ","_"))/1000000,(E905-F905)*I905*H905*INDIRECT(SUBSTITUTE(G905," ","_"))/1000000),IF(ISBLANK(E905),(D905-F905)*J905,(E905-F905)*J905)))</f>
         <v/>
       </c>
@@ -22953,7 +22950,7 @@
       <c r="H906" s="31"/>
       <c r="I906" s="31"/>
       <c r="J906" s="31"/>
-      <c r="K906" s="22" t="str">
+      <c r="K906" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D906), ISBLANK(E906)),AND(OR(ISBLANK(G906),ISBLANK(H906),ISBLANK(I906)),ISBLANK(J906))),"",IF(ISBLANK(J906),IF(ISBLANK(E906),(D906-F906)*I906*H906*INDIRECT(SUBSTITUTE(G906," ","_"))/1000000,(E906-F906)*I906*H906*INDIRECT(SUBSTITUTE(G906," ","_"))/1000000),IF(ISBLANK(E906),(D906-F906)*J906,(E906-F906)*J906)))</f>
         <v/>
       </c>
@@ -22976,7 +22973,7 @@
       <c r="H907" s="31"/>
       <c r="I907" s="31"/>
       <c r="J907" s="31"/>
-      <c r="K907" s="22" t="str">
+      <c r="K907" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D907), ISBLANK(E907)),AND(OR(ISBLANK(G907),ISBLANK(H907),ISBLANK(I907)),ISBLANK(J907))),"",IF(ISBLANK(J907),IF(ISBLANK(E907),(D907-F907)*I907*H907*INDIRECT(SUBSTITUTE(G907," ","_"))/1000000,(E907-F907)*I907*H907*INDIRECT(SUBSTITUTE(G907," ","_"))/1000000),IF(ISBLANK(E907),(D907-F907)*J907,(E907-F907)*J907)))</f>
         <v/>
       </c>
@@ -22999,7 +22996,7 @@
       <c r="H908" s="31"/>
       <c r="I908" s="31"/>
       <c r="J908" s="31"/>
-      <c r="K908" s="22" t="str">
+      <c r="K908" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D908), ISBLANK(E908)),AND(OR(ISBLANK(G908),ISBLANK(H908),ISBLANK(I908)),ISBLANK(J908))),"",IF(ISBLANK(J908),IF(ISBLANK(E908),(D908-F908)*I908*H908*INDIRECT(SUBSTITUTE(G908," ","_"))/1000000,(E908-F908)*I908*H908*INDIRECT(SUBSTITUTE(G908," ","_"))/1000000),IF(ISBLANK(E908),(D908-F908)*J908,(E908-F908)*J908)))</f>
         <v/>
       </c>
@@ -23022,7 +23019,7 @@
       <c r="H909" s="31"/>
       <c r="I909" s="31"/>
       <c r="J909" s="31"/>
-      <c r="K909" s="22" t="str">
+      <c r="K909" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D909), ISBLANK(E909)),AND(OR(ISBLANK(G909),ISBLANK(H909),ISBLANK(I909)),ISBLANK(J909))),"",IF(ISBLANK(J909),IF(ISBLANK(E909),(D909-F909)*I909*H909*INDIRECT(SUBSTITUTE(G909," ","_"))/1000000,(E909-F909)*I909*H909*INDIRECT(SUBSTITUTE(G909," ","_"))/1000000),IF(ISBLANK(E909),(D909-F909)*J909,(E909-F909)*J909)))</f>
         <v/>
       </c>
@@ -23045,7 +23042,7 @@
       <c r="H910" s="31"/>
       <c r="I910" s="31"/>
       <c r="J910" s="31"/>
-      <c r="K910" s="22" t="str">
+      <c r="K910" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D910), ISBLANK(E910)),AND(OR(ISBLANK(G910),ISBLANK(H910),ISBLANK(I910)),ISBLANK(J910))),"",IF(ISBLANK(J910),IF(ISBLANK(E910),(D910-F910)*I910*H910*INDIRECT(SUBSTITUTE(G910," ","_"))/1000000,(E910-F910)*I910*H910*INDIRECT(SUBSTITUTE(G910," ","_"))/1000000),IF(ISBLANK(E910),(D910-F910)*J910,(E910-F910)*J910)))</f>
         <v/>
       </c>
@@ -23068,7 +23065,7 @@
       <c r="H911" s="31"/>
       <c r="I911" s="31"/>
       <c r="J911" s="31"/>
-      <c r="K911" s="22" t="str">
+      <c r="K911" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D911), ISBLANK(E911)),AND(OR(ISBLANK(G911),ISBLANK(H911),ISBLANK(I911)),ISBLANK(J911))),"",IF(ISBLANK(J911),IF(ISBLANK(E911),(D911-F911)*I911*H911*INDIRECT(SUBSTITUTE(G911," ","_"))/1000000,(E911-F911)*I911*H911*INDIRECT(SUBSTITUTE(G911," ","_"))/1000000),IF(ISBLANK(E911),(D911-F911)*J911,(E911-F911)*J911)))</f>
         <v/>
       </c>
@@ -23091,7 +23088,7 @@
       <c r="H912" s="31"/>
       <c r="I912" s="31"/>
       <c r="J912" s="31"/>
-      <c r="K912" s="22" t="str">
+      <c r="K912" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D912), ISBLANK(E912)),AND(OR(ISBLANK(G912),ISBLANK(H912),ISBLANK(I912)),ISBLANK(J912))),"",IF(ISBLANK(J912),IF(ISBLANK(E912),(D912-F912)*I912*H912*INDIRECT(SUBSTITUTE(G912," ","_"))/1000000,(E912-F912)*I912*H912*INDIRECT(SUBSTITUTE(G912," ","_"))/1000000),IF(ISBLANK(E912),(D912-F912)*J912,(E912-F912)*J912)))</f>
         <v/>
       </c>
@@ -23114,7 +23111,7 @@
       <c r="H913" s="31"/>
       <c r="I913" s="31"/>
       <c r="J913" s="31"/>
-      <c r="K913" s="22" t="str">
+      <c r="K913" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D913), ISBLANK(E913)),AND(OR(ISBLANK(G913),ISBLANK(H913),ISBLANK(I913)),ISBLANK(J913))),"",IF(ISBLANK(J913),IF(ISBLANK(E913),(D913-F913)*I913*H913*INDIRECT(SUBSTITUTE(G913," ","_"))/1000000,(E913-F913)*I913*H913*INDIRECT(SUBSTITUTE(G913," ","_"))/1000000),IF(ISBLANK(E913),(D913-F913)*J913,(E913-F913)*J913)))</f>
         <v/>
       </c>
@@ -23137,7 +23134,7 @@
       <c r="H914" s="31"/>
       <c r="I914" s="31"/>
       <c r="J914" s="31"/>
-      <c r="K914" s="22" t="str">
+      <c r="K914" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D914), ISBLANK(E914)),AND(OR(ISBLANK(G914),ISBLANK(H914),ISBLANK(I914)),ISBLANK(J914))),"",IF(ISBLANK(J914),IF(ISBLANK(E914),(D914-F914)*I914*H914*INDIRECT(SUBSTITUTE(G914," ","_"))/1000000,(E914-F914)*I914*H914*INDIRECT(SUBSTITUTE(G914," ","_"))/1000000),IF(ISBLANK(E914),(D914-F914)*J914,(E914-F914)*J914)))</f>
         <v/>
       </c>
@@ -23160,7 +23157,7 @@
       <c r="H915" s="31"/>
       <c r="I915" s="31"/>
       <c r="J915" s="31"/>
-      <c r="K915" s="22" t="str">
+      <c r="K915" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D915), ISBLANK(E915)),AND(OR(ISBLANK(G915),ISBLANK(H915),ISBLANK(I915)),ISBLANK(J915))),"",IF(ISBLANK(J915),IF(ISBLANK(E915),(D915-F915)*I915*H915*INDIRECT(SUBSTITUTE(G915," ","_"))/1000000,(E915-F915)*I915*H915*INDIRECT(SUBSTITUTE(G915," ","_"))/1000000),IF(ISBLANK(E915),(D915-F915)*J915,(E915-F915)*J915)))</f>
         <v/>
       </c>
@@ -23183,7 +23180,7 @@
       <c r="H916" s="31"/>
       <c r="I916" s="31"/>
       <c r="J916" s="31"/>
-      <c r="K916" s="22" t="str">
+      <c r="K916" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D916), ISBLANK(E916)),AND(OR(ISBLANK(G916),ISBLANK(H916),ISBLANK(I916)),ISBLANK(J916))),"",IF(ISBLANK(J916),IF(ISBLANK(E916),(D916-F916)*I916*H916*INDIRECT(SUBSTITUTE(G916," ","_"))/1000000,(E916-F916)*I916*H916*INDIRECT(SUBSTITUTE(G916," ","_"))/1000000),IF(ISBLANK(E916),(D916-F916)*J916,(E916-F916)*J916)))</f>
         <v/>
       </c>
@@ -23206,7 +23203,7 @@
       <c r="H917" s="31"/>
       <c r="I917" s="31"/>
       <c r="J917" s="31"/>
-      <c r="K917" s="22" t="str">
+      <c r="K917" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D917), ISBLANK(E917)),AND(OR(ISBLANK(G917),ISBLANK(H917),ISBLANK(I917)),ISBLANK(J917))),"",IF(ISBLANK(J917),IF(ISBLANK(E917),(D917-F917)*I917*H917*INDIRECT(SUBSTITUTE(G917," ","_"))/1000000,(E917-F917)*I917*H917*INDIRECT(SUBSTITUTE(G917," ","_"))/1000000),IF(ISBLANK(E917),(D917-F917)*J917,(E917-F917)*J917)))</f>
         <v/>
       </c>
@@ -23229,7 +23226,7 @@
       <c r="H918" s="31"/>
       <c r="I918" s="31"/>
       <c r="J918" s="31"/>
-      <c r="K918" s="22" t="str">
+      <c r="K918" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D918), ISBLANK(E918)),AND(OR(ISBLANK(G918),ISBLANK(H918),ISBLANK(I918)),ISBLANK(J918))),"",IF(ISBLANK(J918),IF(ISBLANK(E918),(D918-F918)*I918*H918*INDIRECT(SUBSTITUTE(G918," ","_"))/1000000,(E918-F918)*I918*H918*INDIRECT(SUBSTITUTE(G918," ","_"))/1000000),IF(ISBLANK(E918),(D918-F918)*J918,(E918-F918)*J918)))</f>
         <v/>
       </c>
@@ -23252,7 +23249,7 @@
       <c r="H919" s="31"/>
       <c r="I919" s="31"/>
       <c r="J919" s="31"/>
-      <c r="K919" s="22" t="str">
+      <c r="K919" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D919), ISBLANK(E919)),AND(OR(ISBLANK(G919),ISBLANK(H919),ISBLANK(I919)),ISBLANK(J919))),"",IF(ISBLANK(J919),IF(ISBLANK(E919),(D919-F919)*I919*H919*INDIRECT(SUBSTITUTE(G919," ","_"))/1000000,(E919-F919)*I919*H919*INDIRECT(SUBSTITUTE(G919," ","_"))/1000000),IF(ISBLANK(E919),(D919-F919)*J919,(E919-F919)*J919)))</f>
         <v/>
       </c>
@@ -23275,7 +23272,7 @@
       <c r="H920" s="31"/>
       <c r="I920" s="31"/>
       <c r="J920" s="31"/>
-      <c r="K920" s="22" t="str">
+      <c r="K920" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D920), ISBLANK(E920)),AND(OR(ISBLANK(G920),ISBLANK(H920),ISBLANK(I920)),ISBLANK(J920))),"",IF(ISBLANK(J920),IF(ISBLANK(E920),(D920-F920)*I920*H920*INDIRECT(SUBSTITUTE(G920," ","_"))/1000000,(E920-F920)*I920*H920*INDIRECT(SUBSTITUTE(G920," ","_"))/1000000),IF(ISBLANK(E920),(D920-F920)*J920,(E920-F920)*J920)))</f>
         <v/>
       </c>
@@ -23298,7 +23295,7 @@
       <c r="H921" s="31"/>
       <c r="I921" s="31"/>
       <c r="J921" s="31"/>
-      <c r="K921" s="22" t="str">
+      <c r="K921" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D921), ISBLANK(E921)),AND(OR(ISBLANK(G921),ISBLANK(H921),ISBLANK(I921)),ISBLANK(J921))),"",IF(ISBLANK(J921),IF(ISBLANK(E921),(D921-F921)*I921*H921*INDIRECT(SUBSTITUTE(G921," ","_"))/1000000,(E921-F921)*I921*H921*INDIRECT(SUBSTITUTE(G921," ","_"))/1000000),IF(ISBLANK(E921),(D921-F921)*J921,(E921-F921)*J921)))</f>
         <v/>
       </c>
@@ -23321,7 +23318,7 @@
       <c r="H922" s="31"/>
       <c r="I922" s="31"/>
       <c r="J922" s="31"/>
-      <c r="K922" s="22" t="str">
+      <c r="K922" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D922), ISBLANK(E922)),AND(OR(ISBLANK(G922),ISBLANK(H922),ISBLANK(I922)),ISBLANK(J922))),"",IF(ISBLANK(J922),IF(ISBLANK(E922),(D922-F922)*I922*H922*INDIRECT(SUBSTITUTE(G922," ","_"))/1000000,(E922-F922)*I922*H922*INDIRECT(SUBSTITUTE(G922," ","_"))/1000000),IF(ISBLANK(E922),(D922-F922)*J922,(E922-F922)*J922)))</f>
         <v/>
       </c>
@@ -23344,7 +23341,7 @@
       <c r="H923" s="31"/>
       <c r="I923" s="31"/>
       <c r="J923" s="31"/>
-      <c r="K923" s="22" t="str">
+      <c r="K923" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D923), ISBLANK(E923)),AND(OR(ISBLANK(G923),ISBLANK(H923),ISBLANK(I923)),ISBLANK(J923))),"",IF(ISBLANK(J923),IF(ISBLANK(E923),(D923-F923)*I923*H923*INDIRECT(SUBSTITUTE(G923," ","_"))/1000000,(E923-F923)*I923*H923*INDIRECT(SUBSTITUTE(G923," ","_"))/1000000),IF(ISBLANK(E923),(D923-F923)*J923,(E923-F923)*J923)))</f>
         <v/>
       </c>
@@ -23367,7 +23364,7 @@
       <c r="H924" s="31"/>
       <c r="I924" s="31"/>
       <c r="J924" s="31"/>
-      <c r="K924" s="22" t="str">
+      <c r="K924" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D924), ISBLANK(E924)),AND(OR(ISBLANK(G924),ISBLANK(H924),ISBLANK(I924)),ISBLANK(J924))),"",IF(ISBLANK(J924),IF(ISBLANK(E924),(D924-F924)*I924*H924*INDIRECT(SUBSTITUTE(G924," ","_"))/1000000,(E924-F924)*I924*H924*INDIRECT(SUBSTITUTE(G924," ","_"))/1000000),IF(ISBLANK(E924),(D924-F924)*J924,(E924-F924)*J924)))</f>
         <v/>
       </c>
@@ -23390,7 +23387,7 @@
       <c r="H925" s="31"/>
       <c r="I925" s="31"/>
       <c r="J925" s="31"/>
-      <c r="K925" s="22" t="str">
+      <c r="K925" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D925), ISBLANK(E925)),AND(OR(ISBLANK(G925),ISBLANK(H925),ISBLANK(I925)),ISBLANK(J925))),"",IF(ISBLANK(J925),IF(ISBLANK(E925),(D925-F925)*I925*H925*INDIRECT(SUBSTITUTE(G925," ","_"))/1000000,(E925-F925)*I925*H925*INDIRECT(SUBSTITUTE(G925," ","_"))/1000000),IF(ISBLANK(E925),(D925-F925)*J925,(E925-F925)*J925)))</f>
         <v/>
       </c>
@@ -23413,7 +23410,7 @@
       <c r="H926" s="31"/>
       <c r="I926" s="31"/>
       <c r="J926" s="31"/>
-      <c r="K926" s="22" t="str">
+      <c r="K926" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D926), ISBLANK(E926)),AND(OR(ISBLANK(G926),ISBLANK(H926),ISBLANK(I926)),ISBLANK(J926))),"",IF(ISBLANK(J926),IF(ISBLANK(E926),(D926-F926)*I926*H926*INDIRECT(SUBSTITUTE(G926," ","_"))/1000000,(E926-F926)*I926*H926*INDIRECT(SUBSTITUTE(G926," ","_"))/1000000),IF(ISBLANK(E926),(D926-F926)*J926,(E926-F926)*J926)))</f>
         <v/>
       </c>
@@ -23436,7 +23433,7 @@
       <c r="H927" s="31"/>
       <c r="I927" s="31"/>
       <c r="J927" s="31"/>
-      <c r="K927" s="22" t="str">
+      <c r="K927" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D927), ISBLANK(E927)),AND(OR(ISBLANK(G927),ISBLANK(H927),ISBLANK(I927)),ISBLANK(J927))),"",IF(ISBLANK(J927),IF(ISBLANK(E927),(D927-F927)*I927*H927*INDIRECT(SUBSTITUTE(G927," ","_"))/1000000,(E927-F927)*I927*H927*INDIRECT(SUBSTITUTE(G927," ","_"))/1000000),IF(ISBLANK(E927),(D927-F927)*J927,(E927-F927)*J927)))</f>
         <v/>
       </c>
@@ -23459,7 +23456,7 @@
       <c r="H928" s="31"/>
       <c r="I928" s="31"/>
       <c r="J928" s="31"/>
-      <c r="K928" s="22" t="str">
+      <c r="K928" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D928), ISBLANK(E928)),AND(OR(ISBLANK(G928),ISBLANK(H928),ISBLANK(I928)),ISBLANK(J928))),"",IF(ISBLANK(J928),IF(ISBLANK(E928),(D928-F928)*I928*H928*INDIRECT(SUBSTITUTE(G928," ","_"))/1000000,(E928-F928)*I928*H928*INDIRECT(SUBSTITUTE(G928," ","_"))/1000000),IF(ISBLANK(E928),(D928-F928)*J928,(E928-F928)*J928)))</f>
         <v/>
       </c>
@@ -23482,7 +23479,7 @@
       <c r="H929" s="31"/>
       <c r="I929" s="31"/>
       <c r="J929" s="31"/>
-      <c r="K929" s="22" t="str">
+      <c r="K929" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D929), ISBLANK(E929)),AND(OR(ISBLANK(G929),ISBLANK(H929),ISBLANK(I929)),ISBLANK(J929))),"",IF(ISBLANK(J929),IF(ISBLANK(E929),(D929-F929)*I929*H929*INDIRECT(SUBSTITUTE(G929," ","_"))/1000000,(E929-F929)*I929*H929*INDIRECT(SUBSTITUTE(G929," ","_"))/1000000),IF(ISBLANK(E929),(D929-F929)*J929,(E929-F929)*J929)))</f>
         <v/>
       </c>
@@ -23505,7 +23502,7 @@
       <c r="H930" s="31"/>
       <c r="I930" s="31"/>
       <c r="J930" s="31"/>
-      <c r="K930" s="22" t="str">
+      <c r="K930" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D930), ISBLANK(E930)),AND(OR(ISBLANK(G930),ISBLANK(H930),ISBLANK(I930)),ISBLANK(J930))),"",IF(ISBLANK(J930),IF(ISBLANK(E930),(D930-F930)*I930*H930*INDIRECT(SUBSTITUTE(G930," ","_"))/1000000,(E930-F930)*I930*H930*INDIRECT(SUBSTITUTE(G930," ","_"))/1000000),IF(ISBLANK(E930),(D930-F930)*J930,(E930-F930)*J930)))</f>
         <v/>
       </c>
@@ -23528,7 +23525,7 @@
       <c r="H931" s="31"/>
       <c r="I931" s="31"/>
       <c r="J931" s="31"/>
-      <c r="K931" s="22" t="str">
+      <c r="K931" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D931), ISBLANK(E931)),AND(OR(ISBLANK(G931),ISBLANK(H931),ISBLANK(I931)),ISBLANK(J931))),"",IF(ISBLANK(J931),IF(ISBLANK(E931),(D931-F931)*I931*H931*INDIRECT(SUBSTITUTE(G931," ","_"))/1000000,(E931-F931)*I931*H931*INDIRECT(SUBSTITUTE(G931," ","_"))/1000000),IF(ISBLANK(E931),(D931-F931)*J931,(E931-F931)*J931)))</f>
         <v/>
       </c>
@@ -23551,7 +23548,7 @@
       <c r="H932" s="31"/>
       <c r="I932" s="31"/>
       <c r="J932" s="31"/>
-      <c r="K932" s="22" t="str">
+      <c r="K932" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D932), ISBLANK(E932)),AND(OR(ISBLANK(G932),ISBLANK(H932),ISBLANK(I932)),ISBLANK(J932))),"",IF(ISBLANK(J932),IF(ISBLANK(E932),(D932-F932)*I932*H932*INDIRECT(SUBSTITUTE(G932," ","_"))/1000000,(E932-F932)*I932*H932*INDIRECT(SUBSTITUTE(G932," ","_"))/1000000),IF(ISBLANK(E932),(D932-F932)*J932,(E932-F932)*J932)))</f>
         <v/>
       </c>
@@ -23574,7 +23571,7 @@
       <c r="H933" s="31"/>
       <c r="I933" s="31"/>
       <c r="J933" s="31"/>
-      <c r="K933" s="22" t="str">
+      <c r="K933" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D933), ISBLANK(E933)),AND(OR(ISBLANK(G933),ISBLANK(H933),ISBLANK(I933)),ISBLANK(J933))),"",IF(ISBLANK(J933),IF(ISBLANK(E933),(D933-F933)*I933*H933*INDIRECT(SUBSTITUTE(G933," ","_"))/1000000,(E933-F933)*I933*H933*INDIRECT(SUBSTITUTE(G933," ","_"))/1000000),IF(ISBLANK(E933),(D933-F933)*J933,(E933-F933)*J933)))</f>
         <v/>
       </c>
@@ -23597,7 +23594,7 @@
       <c r="H934" s="31"/>
       <c r="I934" s="31"/>
       <c r="J934" s="31"/>
-      <c r="K934" s="22" t="str">
+      <c r="K934" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D934), ISBLANK(E934)),AND(OR(ISBLANK(G934),ISBLANK(H934),ISBLANK(I934)),ISBLANK(J934))),"",IF(ISBLANK(J934),IF(ISBLANK(E934),(D934-F934)*I934*H934*INDIRECT(SUBSTITUTE(G934," ","_"))/1000000,(E934-F934)*I934*H934*INDIRECT(SUBSTITUTE(G934," ","_"))/1000000),IF(ISBLANK(E934),(D934-F934)*J934,(E934-F934)*J934)))</f>
         <v/>
       </c>
@@ -23620,7 +23617,7 @@
       <c r="H935" s="31"/>
       <c r="I935" s="31"/>
       <c r="J935" s="31"/>
-      <c r="K935" s="22" t="str">
+      <c r="K935" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D935), ISBLANK(E935)),AND(OR(ISBLANK(G935),ISBLANK(H935),ISBLANK(I935)),ISBLANK(J935))),"",IF(ISBLANK(J935),IF(ISBLANK(E935),(D935-F935)*I935*H935*INDIRECT(SUBSTITUTE(G935," ","_"))/1000000,(E935-F935)*I935*H935*INDIRECT(SUBSTITUTE(G935," ","_"))/1000000),IF(ISBLANK(E935),(D935-F935)*J935,(E935-F935)*J935)))</f>
         <v/>
       </c>
@@ -23643,7 +23640,7 @@
       <c r="H936" s="31"/>
       <c r="I936" s="31"/>
       <c r="J936" s="31"/>
-      <c r="K936" s="22" t="str">
+      <c r="K936" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D936), ISBLANK(E936)),AND(OR(ISBLANK(G936),ISBLANK(H936),ISBLANK(I936)),ISBLANK(J936))),"",IF(ISBLANK(J936),IF(ISBLANK(E936),(D936-F936)*I936*H936*INDIRECT(SUBSTITUTE(G936," ","_"))/1000000,(E936-F936)*I936*H936*INDIRECT(SUBSTITUTE(G936," ","_"))/1000000),IF(ISBLANK(E936),(D936-F936)*J936,(E936-F936)*J936)))</f>
         <v/>
       </c>
@@ -23666,7 +23663,7 @@
       <c r="H937" s="31"/>
       <c r="I937" s="31"/>
       <c r="J937" s="31"/>
-      <c r="K937" s="22" t="str">
+      <c r="K937" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D937), ISBLANK(E937)),AND(OR(ISBLANK(G937),ISBLANK(H937),ISBLANK(I937)),ISBLANK(J937))),"",IF(ISBLANK(J937),IF(ISBLANK(E937),(D937-F937)*I937*H937*INDIRECT(SUBSTITUTE(G937," ","_"))/1000000,(E937-F937)*I937*H937*INDIRECT(SUBSTITUTE(G937," ","_"))/1000000),IF(ISBLANK(E937),(D937-F937)*J937,(E937-F937)*J937)))</f>
         <v/>
       </c>
@@ -23689,7 +23686,7 @@
       <c r="H938" s="31"/>
       <c r="I938" s="31"/>
       <c r="J938" s="31"/>
-      <c r="K938" s="22" t="str">
+      <c r="K938" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D938), ISBLANK(E938)),AND(OR(ISBLANK(G938),ISBLANK(H938),ISBLANK(I938)),ISBLANK(J938))),"",IF(ISBLANK(J938),IF(ISBLANK(E938),(D938-F938)*I938*H938*INDIRECT(SUBSTITUTE(G938," ","_"))/1000000,(E938-F938)*I938*H938*INDIRECT(SUBSTITUTE(G938," ","_"))/1000000),IF(ISBLANK(E938),(D938-F938)*J938,(E938-F938)*J938)))</f>
         <v/>
       </c>
@@ -23712,7 +23709,7 @@
       <c r="H939" s="31"/>
       <c r="I939" s="31"/>
       <c r="J939" s="31"/>
-      <c r="K939" s="22" t="str">
+      <c r="K939" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D939), ISBLANK(E939)),AND(OR(ISBLANK(G939),ISBLANK(H939),ISBLANK(I939)),ISBLANK(J939))),"",IF(ISBLANK(J939),IF(ISBLANK(E939),(D939-F939)*I939*H939*INDIRECT(SUBSTITUTE(G939," ","_"))/1000000,(E939-F939)*I939*H939*INDIRECT(SUBSTITUTE(G939," ","_"))/1000000),IF(ISBLANK(E939),(D939-F939)*J939,(E939-F939)*J939)))</f>
         <v/>
       </c>
@@ -23735,7 +23732,7 @@
       <c r="H940" s="31"/>
       <c r="I940" s="31"/>
       <c r="J940" s="31"/>
-      <c r="K940" s="22" t="str">
+      <c r="K940" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D940), ISBLANK(E940)),AND(OR(ISBLANK(G940),ISBLANK(H940),ISBLANK(I940)),ISBLANK(J940))),"",IF(ISBLANK(J940),IF(ISBLANK(E940),(D940-F940)*I940*H940*INDIRECT(SUBSTITUTE(G940," ","_"))/1000000,(E940-F940)*I940*H940*INDIRECT(SUBSTITUTE(G940," ","_"))/1000000),IF(ISBLANK(E940),(D940-F940)*J940,(E940-F940)*J940)))</f>
         <v/>
       </c>
@@ -23758,7 +23755,7 @@
       <c r="H941" s="31"/>
       <c r="I941" s="31"/>
       <c r="J941" s="31"/>
-      <c r="K941" s="22" t="str">
+      <c r="K941" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D941), ISBLANK(E941)),AND(OR(ISBLANK(G941),ISBLANK(H941),ISBLANK(I941)),ISBLANK(J941))),"",IF(ISBLANK(J941),IF(ISBLANK(E941),(D941-F941)*I941*H941*INDIRECT(SUBSTITUTE(G941," ","_"))/1000000,(E941-F941)*I941*H941*INDIRECT(SUBSTITUTE(G941," ","_"))/1000000),IF(ISBLANK(E941),(D941-F941)*J941,(E941-F941)*J941)))</f>
         <v/>
       </c>
@@ -23781,7 +23778,7 @@
       <c r="H942" s="31"/>
       <c r="I942" s="31"/>
       <c r="J942" s="31"/>
-      <c r="K942" s="22" t="str">
+      <c r="K942" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D942), ISBLANK(E942)),AND(OR(ISBLANK(G942),ISBLANK(H942),ISBLANK(I942)),ISBLANK(J942))),"",IF(ISBLANK(J942),IF(ISBLANK(E942),(D942-F942)*I942*H942*INDIRECT(SUBSTITUTE(G942," ","_"))/1000000,(E942-F942)*I942*H942*INDIRECT(SUBSTITUTE(G942," ","_"))/1000000),IF(ISBLANK(E942),(D942-F942)*J942,(E942-F942)*J942)))</f>
         <v/>
       </c>
@@ -23804,7 +23801,7 @@
       <c r="H943" s="31"/>
       <c r="I943" s="31"/>
       <c r="J943" s="31"/>
-      <c r="K943" s="22" t="str">
+      <c r="K943" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D943), ISBLANK(E943)),AND(OR(ISBLANK(G943),ISBLANK(H943),ISBLANK(I943)),ISBLANK(J943))),"",IF(ISBLANK(J943),IF(ISBLANK(E943),(D943-F943)*I943*H943*INDIRECT(SUBSTITUTE(G943," ","_"))/1000000,(E943-F943)*I943*H943*INDIRECT(SUBSTITUTE(G943," ","_"))/1000000),IF(ISBLANK(E943),(D943-F943)*J943,(E943-F943)*J943)))</f>
         <v/>
       </c>
@@ -23827,7 +23824,7 @@
       <c r="H944" s="31"/>
       <c r="I944" s="31"/>
       <c r="J944" s="31"/>
-      <c r="K944" s="22" t="str">
+      <c r="K944" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D944), ISBLANK(E944)),AND(OR(ISBLANK(G944),ISBLANK(H944),ISBLANK(I944)),ISBLANK(J944))),"",IF(ISBLANK(J944),IF(ISBLANK(E944),(D944-F944)*I944*H944*INDIRECT(SUBSTITUTE(G944," ","_"))/1000000,(E944-F944)*I944*H944*INDIRECT(SUBSTITUTE(G944," ","_"))/1000000),IF(ISBLANK(E944),(D944-F944)*J944,(E944-F944)*J944)))</f>
         <v/>
       </c>
@@ -23850,7 +23847,7 @@
       <c r="H945" s="31"/>
       <c r="I945" s="31"/>
       <c r="J945" s="31"/>
-      <c r="K945" s="22" t="str">
+      <c r="K945" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D945), ISBLANK(E945)),AND(OR(ISBLANK(G945),ISBLANK(H945),ISBLANK(I945)),ISBLANK(J945))),"",IF(ISBLANK(J945),IF(ISBLANK(E945),(D945-F945)*I945*H945*INDIRECT(SUBSTITUTE(G945," ","_"))/1000000,(E945-F945)*I945*H945*INDIRECT(SUBSTITUTE(G945," ","_"))/1000000),IF(ISBLANK(E945),(D945-F945)*J945,(E945-F945)*J945)))</f>
         <v/>
       </c>
@@ -23873,7 +23870,7 @@
       <c r="H946" s="31"/>
       <c r="I946" s="31"/>
       <c r="J946" s="31"/>
-      <c r="K946" s="22" t="str">
+      <c r="K946" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D946), ISBLANK(E946)),AND(OR(ISBLANK(G946),ISBLANK(H946),ISBLANK(I946)),ISBLANK(J946))),"",IF(ISBLANK(J946),IF(ISBLANK(E946),(D946-F946)*I946*H946*INDIRECT(SUBSTITUTE(G946," ","_"))/1000000,(E946-F946)*I946*H946*INDIRECT(SUBSTITUTE(G946," ","_"))/1000000),IF(ISBLANK(E946),(D946-F946)*J946,(E946-F946)*J946)))</f>
         <v/>
       </c>
@@ -23896,7 +23893,7 @@
       <c r="H947" s="31"/>
       <c r="I947" s="31"/>
       <c r="J947" s="31"/>
-      <c r="K947" s="22" t="str">
+      <c r="K947" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D947), ISBLANK(E947)),AND(OR(ISBLANK(G947),ISBLANK(H947),ISBLANK(I947)),ISBLANK(J947))),"",IF(ISBLANK(J947),IF(ISBLANK(E947),(D947-F947)*I947*H947*INDIRECT(SUBSTITUTE(G947," ","_"))/1000000,(E947-F947)*I947*H947*INDIRECT(SUBSTITUTE(G947," ","_"))/1000000),IF(ISBLANK(E947),(D947-F947)*J947,(E947-F947)*J947)))</f>
         <v/>
       </c>
@@ -23919,7 +23916,7 @@
       <c r="H948" s="31"/>
       <c r="I948" s="31"/>
       <c r="J948" s="31"/>
-      <c r="K948" s="22" t="str">
+      <c r="K948" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D948), ISBLANK(E948)),AND(OR(ISBLANK(G948),ISBLANK(H948),ISBLANK(I948)),ISBLANK(J948))),"",IF(ISBLANK(J948),IF(ISBLANK(E948),(D948-F948)*I948*H948*INDIRECT(SUBSTITUTE(G948," ","_"))/1000000,(E948-F948)*I948*H948*INDIRECT(SUBSTITUTE(G948," ","_"))/1000000),IF(ISBLANK(E948),(D948-F948)*J948,(E948-F948)*J948)))</f>
         <v/>
       </c>
@@ -23942,7 +23939,7 @@
       <c r="H949" s="31"/>
       <c r="I949" s="31"/>
       <c r="J949" s="31"/>
-      <c r="K949" s="22" t="str">
+      <c r="K949" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D949), ISBLANK(E949)),AND(OR(ISBLANK(G949),ISBLANK(H949),ISBLANK(I949)),ISBLANK(J949))),"",IF(ISBLANK(J949),IF(ISBLANK(E949),(D949-F949)*I949*H949*INDIRECT(SUBSTITUTE(G949," ","_"))/1000000,(E949-F949)*I949*H949*INDIRECT(SUBSTITUTE(G949," ","_"))/1000000),IF(ISBLANK(E949),(D949-F949)*J949,(E949-F949)*J949)))</f>
         <v/>
       </c>
@@ -23965,7 +23962,7 @@
       <c r="H950" s="31"/>
       <c r="I950" s="31"/>
       <c r="J950" s="31"/>
-      <c r="K950" s="22" t="str">
+      <c r="K950" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D950), ISBLANK(E950)),AND(OR(ISBLANK(G950),ISBLANK(H950),ISBLANK(I950)),ISBLANK(J950))),"",IF(ISBLANK(J950),IF(ISBLANK(E950),(D950-F950)*I950*H950*INDIRECT(SUBSTITUTE(G950," ","_"))/1000000,(E950-F950)*I950*H950*INDIRECT(SUBSTITUTE(G950," ","_"))/1000000),IF(ISBLANK(E950),(D950-F950)*J950,(E950-F950)*J950)))</f>
         <v/>
       </c>
@@ -23988,7 +23985,7 @@
       <c r="H951" s="31"/>
       <c r="I951" s="31"/>
       <c r="J951" s="31"/>
-      <c r="K951" s="22" t="str">
+      <c r="K951" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D951), ISBLANK(E951)),AND(OR(ISBLANK(G951),ISBLANK(H951),ISBLANK(I951)),ISBLANK(J951))),"",IF(ISBLANK(J951),IF(ISBLANK(E951),(D951-F951)*I951*H951*INDIRECT(SUBSTITUTE(G951," ","_"))/1000000,(E951-F951)*I951*H951*INDIRECT(SUBSTITUTE(G951," ","_"))/1000000),IF(ISBLANK(E951),(D951-F951)*J951,(E951-F951)*J951)))</f>
         <v/>
       </c>
@@ -24011,7 +24008,7 @@
       <c r="H952" s="31"/>
       <c r="I952" s="31"/>
       <c r="J952" s="31"/>
-      <c r="K952" s="22" t="str">
+      <c r="K952" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D952), ISBLANK(E952)),AND(OR(ISBLANK(G952),ISBLANK(H952),ISBLANK(I952)),ISBLANK(J952))),"",IF(ISBLANK(J952),IF(ISBLANK(E952),(D952-F952)*I952*H952*INDIRECT(SUBSTITUTE(G952," ","_"))/1000000,(E952-F952)*I952*H952*INDIRECT(SUBSTITUTE(G952," ","_"))/1000000),IF(ISBLANK(E952),(D952-F952)*J952,(E952-F952)*J952)))</f>
         <v/>
       </c>
@@ -24034,7 +24031,7 @@
       <c r="H953" s="31"/>
       <c r="I953" s="31"/>
       <c r="J953" s="31"/>
-      <c r="K953" s="22" t="str">
+      <c r="K953" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D953), ISBLANK(E953)),AND(OR(ISBLANK(G953),ISBLANK(H953),ISBLANK(I953)),ISBLANK(J953))),"",IF(ISBLANK(J953),IF(ISBLANK(E953),(D953-F953)*I953*H953*INDIRECT(SUBSTITUTE(G953," ","_"))/1000000,(E953-F953)*I953*H953*INDIRECT(SUBSTITUTE(G953," ","_"))/1000000),IF(ISBLANK(E953),(D953-F953)*J953,(E953-F953)*J953)))</f>
         <v/>
       </c>
@@ -24057,7 +24054,7 @@
       <c r="H954" s="31"/>
       <c r="I954" s="31"/>
       <c r="J954" s="31"/>
-      <c r="K954" s="22" t="str">
+      <c r="K954" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D954), ISBLANK(E954)),AND(OR(ISBLANK(G954),ISBLANK(H954),ISBLANK(I954)),ISBLANK(J954))),"",IF(ISBLANK(J954),IF(ISBLANK(E954),(D954-F954)*I954*H954*INDIRECT(SUBSTITUTE(G954," ","_"))/1000000,(E954-F954)*I954*H954*INDIRECT(SUBSTITUTE(G954," ","_"))/1000000),IF(ISBLANK(E954),(D954-F954)*J954,(E954-F954)*J954)))</f>
         <v/>
       </c>
@@ -24080,7 +24077,7 @@
       <c r="H955" s="31"/>
       <c r="I955" s="31"/>
       <c r="J955" s="31"/>
-      <c r="K955" s="22" t="str">
+      <c r="K955" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D955), ISBLANK(E955)),AND(OR(ISBLANK(G955),ISBLANK(H955),ISBLANK(I955)),ISBLANK(J955))),"",IF(ISBLANK(J955),IF(ISBLANK(E955),(D955-F955)*I955*H955*INDIRECT(SUBSTITUTE(G955," ","_"))/1000000,(E955-F955)*I955*H955*INDIRECT(SUBSTITUTE(G955," ","_"))/1000000),IF(ISBLANK(E955),(D955-F955)*J955,(E955-F955)*J955)))</f>
         <v/>
       </c>
@@ -24103,7 +24100,7 @@
       <c r="H956" s="31"/>
       <c r="I956" s="31"/>
       <c r="J956" s="31"/>
-      <c r="K956" s="22" t="str">
+      <c r="K956" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D956), ISBLANK(E956)),AND(OR(ISBLANK(G956),ISBLANK(H956),ISBLANK(I956)),ISBLANK(J956))),"",IF(ISBLANK(J956),IF(ISBLANK(E956),(D956-F956)*I956*H956*INDIRECT(SUBSTITUTE(G956," ","_"))/1000000,(E956-F956)*I956*H956*INDIRECT(SUBSTITUTE(G956," ","_"))/1000000),IF(ISBLANK(E956),(D956-F956)*J956,(E956-F956)*J956)))</f>
         <v/>
       </c>
@@ -24126,7 +24123,7 @@
       <c r="H957" s="31"/>
       <c r="I957" s="31"/>
       <c r="J957" s="31"/>
-      <c r="K957" s="22" t="str">
+      <c r="K957" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D957), ISBLANK(E957)),AND(OR(ISBLANK(G957),ISBLANK(H957),ISBLANK(I957)),ISBLANK(J957))),"",IF(ISBLANK(J957),IF(ISBLANK(E957),(D957-F957)*I957*H957*INDIRECT(SUBSTITUTE(G957," ","_"))/1000000,(E957-F957)*I957*H957*INDIRECT(SUBSTITUTE(G957," ","_"))/1000000),IF(ISBLANK(E957),(D957-F957)*J957,(E957-F957)*J957)))</f>
         <v/>
       </c>
@@ -24149,7 +24146,7 @@
       <c r="H958" s="31"/>
       <c r="I958" s="31"/>
       <c r="J958" s="31"/>
-      <c r="K958" s="22" t="str">
+      <c r="K958" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D958), ISBLANK(E958)),AND(OR(ISBLANK(G958),ISBLANK(H958),ISBLANK(I958)),ISBLANK(J958))),"",IF(ISBLANK(J958),IF(ISBLANK(E958),(D958-F958)*I958*H958*INDIRECT(SUBSTITUTE(G958," ","_"))/1000000,(E958-F958)*I958*H958*INDIRECT(SUBSTITUTE(G958," ","_"))/1000000),IF(ISBLANK(E958),(D958-F958)*J958,(E958-F958)*J958)))</f>
         <v/>
       </c>
@@ -24172,7 +24169,7 @@
       <c r="H959" s="31"/>
       <c r="I959" s="31"/>
       <c r="J959" s="31"/>
-      <c r="K959" s="22" t="str">
+      <c r="K959" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D959), ISBLANK(E959)),AND(OR(ISBLANK(G959),ISBLANK(H959),ISBLANK(I959)),ISBLANK(J959))),"",IF(ISBLANK(J959),IF(ISBLANK(E959),(D959-F959)*I959*H959*INDIRECT(SUBSTITUTE(G959," ","_"))/1000000,(E959-F959)*I959*H959*INDIRECT(SUBSTITUTE(G959," ","_"))/1000000),IF(ISBLANK(E959),(D959-F959)*J959,(E959-F959)*J959)))</f>
         <v/>
       </c>
@@ -24195,7 +24192,7 @@
       <c r="H960" s="31"/>
       <c r="I960" s="31"/>
       <c r="J960" s="31"/>
-      <c r="K960" s="22" t="str">
+      <c r="K960" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D960), ISBLANK(E960)),AND(OR(ISBLANK(G960),ISBLANK(H960),ISBLANK(I960)),ISBLANK(J960))),"",IF(ISBLANK(J960),IF(ISBLANK(E960),(D960-F960)*I960*H960*INDIRECT(SUBSTITUTE(G960," ","_"))/1000000,(E960-F960)*I960*H960*INDIRECT(SUBSTITUTE(G960," ","_"))/1000000),IF(ISBLANK(E960),(D960-F960)*J960,(E960-F960)*J960)))</f>
         <v/>
       </c>
@@ -24218,7 +24215,7 @@
       <c r="H961" s="31"/>
       <c r="I961" s="31"/>
       <c r="J961" s="31"/>
-      <c r="K961" s="22" t="str">
+      <c r="K961" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D961), ISBLANK(E961)),AND(OR(ISBLANK(G961),ISBLANK(H961),ISBLANK(I961)),ISBLANK(J961))),"",IF(ISBLANK(J961),IF(ISBLANK(E961),(D961-F961)*I961*H961*INDIRECT(SUBSTITUTE(G961," ","_"))/1000000,(E961-F961)*I961*H961*INDIRECT(SUBSTITUTE(G961," ","_"))/1000000),IF(ISBLANK(E961),(D961-F961)*J961,(E961-F961)*J961)))</f>
         <v/>
       </c>
@@ -24241,7 +24238,7 @@
       <c r="H962" s="31"/>
       <c r="I962" s="31"/>
       <c r="J962" s="31"/>
-      <c r="K962" s="22" t="str">
+      <c r="K962" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D962), ISBLANK(E962)),AND(OR(ISBLANK(G962),ISBLANK(H962),ISBLANK(I962)),ISBLANK(J962))),"",IF(ISBLANK(J962),IF(ISBLANK(E962),(D962-F962)*I962*H962*INDIRECT(SUBSTITUTE(G962," ","_"))/1000000,(E962-F962)*I962*H962*INDIRECT(SUBSTITUTE(G962," ","_"))/1000000),IF(ISBLANK(E962),(D962-F962)*J962,(E962-F962)*J962)))</f>
         <v/>
       </c>
@@ -24264,7 +24261,7 @@
       <c r="H963" s="31"/>
       <c r="I963" s="31"/>
       <c r="J963" s="31"/>
-      <c r="K963" s="22" t="str">
+      <c r="K963" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D963), ISBLANK(E963)),AND(OR(ISBLANK(G963),ISBLANK(H963),ISBLANK(I963)),ISBLANK(J963))),"",IF(ISBLANK(J963),IF(ISBLANK(E963),(D963-F963)*I963*H963*INDIRECT(SUBSTITUTE(G963," ","_"))/1000000,(E963-F963)*I963*H963*INDIRECT(SUBSTITUTE(G963," ","_"))/1000000),IF(ISBLANK(E963),(D963-F963)*J963,(E963-F963)*J963)))</f>
         <v/>
       </c>
@@ -24287,7 +24284,7 @@
       <c r="H964" s="31"/>
       <c r="I964" s="31"/>
       <c r="J964" s="31"/>
-      <c r="K964" s="22" t="str">
+      <c r="K964" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D964), ISBLANK(E964)),AND(OR(ISBLANK(G964),ISBLANK(H964),ISBLANK(I964)),ISBLANK(J964))),"",IF(ISBLANK(J964),IF(ISBLANK(E964),(D964-F964)*I964*H964*INDIRECT(SUBSTITUTE(G964," ","_"))/1000000,(E964-F964)*I964*H964*INDIRECT(SUBSTITUTE(G964," ","_"))/1000000),IF(ISBLANK(E964),(D964-F964)*J964,(E964-F964)*J964)))</f>
         <v/>
       </c>
@@ -24310,7 +24307,7 @@
       <c r="H965" s="31"/>
       <c r="I965" s="31"/>
       <c r="J965" s="31"/>
-      <c r="K965" s="22" t="str">
+      <c r="K965" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D965), ISBLANK(E965)),AND(OR(ISBLANK(G965),ISBLANK(H965),ISBLANK(I965)),ISBLANK(J965))),"",IF(ISBLANK(J965),IF(ISBLANK(E965),(D965-F965)*I965*H965*INDIRECT(SUBSTITUTE(G965," ","_"))/1000000,(E965-F965)*I965*H965*INDIRECT(SUBSTITUTE(G965," ","_"))/1000000),IF(ISBLANK(E965),(D965-F965)*J965,(E965-F965)*J965)))</f>
         <v/>
       </c>
@@ -24333,7 +24330,7 @@
       <c r="H966" s="31"/>
       <c r="I966" s="31"/>
       <c r="J966" s="31"/>
-      <c r="K966" s="22" t="str">
+      <c r="K966" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D966), ISBLANK(E966)),AND(OR(ISBLANK(G966),ISBLANK(H966),ISBLANK(I966)),ISBLANK(J966))),"",IF(ISBLANK(J966),IF(ISBLANK(E966),(D966-F966)*I966*H966*INDIRECT(SUBSTITUTE(G966," ","_"))/1000000,(E966-F966)*I966*H966*INDIRECT(SUBSTITUTE(G966," ","_"))/1000000),IF(ISBLANK(E966),(D966-F966)*J966,(E966-F966)*J966)))</f>
         <v/>
       </c>
@@ -24356,7 +24353,7 @@
       <c r="H967" s="31"/>
       <c r="I967" s="31"/>
       <c r="J967" s="31"/>
-      <c r="K967" s="22" t="str">
+      <c r="K967" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D967), ISBLANK(E967)),AND(OR(ISBLANK(G967),ISBLANK(H967),ISBLANK(I967)),ISBLANK(J967))),"",IF(ISBLANK(J967),IF(ISBLANK(E967),(D967-F967)*I967*H967*INDIRECT(SUBSTITUTE(G967," ","_"))/1000000,(E967-F967)*I967*H967*INDIRECT(SUBSTITUTE(G967," ","_"))/1000000),IF(ISBLANK(E967),(D967-F967)*J967,(E967-F967)*J967)))</f>
         <v/>
       </c>
@@ -24379,7 +24376,7 @@
       <c r="H968" s="31"/>
       <c r="I968" s="31"/>
       <c r="J968" s="31"/>
-      <c r="K968" s="22" t="str">
+      <c r="K968" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D968), ISBLANK(E968)),AND(OR(ISBLANK(G968),ISBLANK(H968),ISBLANK(I968)),ISBLANK(J968))),"",IF(ISBLANK(J968),IF(ISBLANK(E968),(D968-F968)*I968*H968*INDIRECT(SUBSTITUTE(G968," ","_"))/1000000,(E968-F968)*I968*H968*INDIRECT(SUBSTITUTE(G968," ","_"))/1000000),IF(ISBLANK(E968),(D968-F968)*J968,(E968-F968)*J968)))</f>
         <v/>
       </c>
@@ -24402,7 +24399,7 @@
       <c r="H969" s="31"/>
       <c r="I969" s="31"/>
       <c r="J969" s="31"/>
-      <c r="K969" s="22" t="str">
+      <c r="K969" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D969), ISBLANK(E969)),AND(OR(ISBLANK(G969),ISBLANK(H969),ISBLANK(I969)),ISBLANK(J969))),"",IF(ISBLANK(J969),IF(ISBLANK(E969),(D969-F969)*I969*H969*INDIRECT(SUBSTITUTE(G969," ","_"))/1000000,(E969-F969)*I969*H969*INDIRECT(SUBSTITUTE(G969," ","_"))/1000000),IF(ISBLANK(E969),(D969-F969)*J969,(E969-F969)*J969)))</f>
         <v/>
       </c>
@@ -24425,7 +24422,7 @@
       <c r="H970" s="31"/>
       <c r="I970" s="31"/>
       <c r="J970" s="31"/>
-      <c r="K970" s="22" t="str">
+      <c r="K970" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D970), ISBLANK(E970)),AND(OR(ISBLANK(G970),ISBLANK(H970),ISBLANK(I970)),ISBLANK(J970))),"",IF(ISBLANK(J970),IF(ISBLANK(E970),(D970-F970)*I970*H970*INDIRECT(SUBSTITUTE(G970," ","_"))/1000000,(E970-F970)*I970*H970*INDIRECT(SUBSTITUTE(G970," ","_"))/1000000),IF(ISBLANK(E970),(D970-F970)*J970,(E970-F970)*J970)))</f>
         <v/>
       </c>
@@ -24448,7 +24445,7 @@
       <c r="H971" s="31"/>
       <c r="I971" s="31"/>
       <c r="J971" s="31"/>
-      <c r="K971" s="22" t="str">
+      <c r="K971" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D971), ISBLANK(E971)),AND(OR(ISBLANK(G971),ISBLANK(H971),ISBLANK(I971)),ISBLANK(J971))),"",IF(ISBLANK(J971),IF(ISBLANK(E971),(D971-F971)*I971*H971*INDIRECT(SUBSTITUTE(G971," ","_"))/1000000,(E971-F971)*I971*H971*INDIRECT(SUBSTITUTE(G971," ","_"))/1000000),IF(ISBLANK(E971),(D971-F971)*J971,(E971-F971)*J971)))</f>
         <v/>
       </c>
@@ -24471,7 +24468,7 @@
       <c r="H972" s="31"/>
       <c r="I972" s="31"/>
       <c r="J972" s="31"/>
-      <c r="K972" s="22" t="str">
+      <c r="K972" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D972), ISBLANK(E972)),AND(OR(ISBLANK(G972),ISBLANK(H972),ISBLANK(I972)),ISBLANK(J972))),"",IF(ISBLANK(J972),IF(ISBLANK(E972),(D972-F972)*I972*H972*INDIRECT(SUBSTITUTE(G972," ","_"))/1000000,(E972-F972)*I972*H972*INDIRECT(SUBSTITUTE(G972," ","_"))/1000000),IF(ISBLANK(E972),(D972-F972)*J972,(E972-F972)*J972)))</f>
         <v/>
       </c>
@@ -24494,7 +24491,7 @@
       <c r="H973" s="31"/>
       <c r="I973" s="31"/>
       <c r="J973" s="31"/>
-      <c r="K973" s="22" t="str">
+      <c r="K973" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D973), ISBLANK(E973)),AND(OR(ISBLANK(G973),ISBLANK(H973),ISBLANK(I973)),ISBLANK(J973))),"",IF(ISBLANK(J973),IF(ISBLANK(E973),(D973-F973)*I973*H973*INDIRECT(SUBSTITUTE(G973," ","_"))/1000000,(E973-F973)*I973*H973*INDIRECT(SUBSTITUTE(G973," ","_"))/1000000),IF(ISBLANK(E973),(D973-F973)*J973,(E973-F973)*J973)))</f>
         <v/>
       </c>
@@ -24517,7 +24514,7 @@
       <c r="H974" s="31"/>
       <c r="I974" s="31"/>
       <c r="J974" s="31"/>
-      <c r="K974" s="22" t="str">
+      <c r="K974" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D974), ISBLANK(E974)),AND(OR(ISBLANK(G974),ISBLANK(H974),ISBLANK(I974)),ISBLANK(J974))),"",IF(ISBLANK(J974),IF(ISBLANK(E974),(D974-F974)*I974*H974*INDIRECT(SUBSTITUTE(G974," ","_"))/1000000,(E974-F974)*I974*H974*INDIRECT(SUBSTITUTE(G974," ","_"))/1000000),IF(ISBLANK(E974),(D974-F974)*J974,(E974-F974)*J974)))</f>
         <v/>
       </c>
@@ -24540,7 +24537,7 @@
       <c r="H975" s="31"/>
       <c r="I975" s="31"/>
       <c r="J975" s="31"/>
-      <c r="K975" s="22" t="str">
+      <c r="K975" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D975), ISBLANK(E975)),AND(OR(ISBLANK(G975),ISBLANK(H975),ISBLANK(I975)),ISBLANK(J975))),"",IF(ISBLANK(J975),IF(ISBLANK(E975),(D975-F975)*I975*H975*INDIRECT(SUBSTITUTE(G975," ","_"))/1000000,(E975-F975)*I975*H975*INDIRECT(SUBSTITUTE(G975," ","_"))/1000000),IF(ISBLANK(E975),(D975-F975)*J975,(E975-F975)*J975)))</f>
         <v/>
       </c>
@@ -24563,7 +24560,7 @@
       <c r="H976" s="31"/>
       <c r="I976" s="31"/>
       <c r="J976" s="31"/>
-      <c r="K976" s="22" t="str">
+      <c r="K976" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D976), ISBLANK(E976)),AND(OR(ISBLANK(G976),ISBLANK(H976),ISBLANK(I976)),ISBLANK(J976))),"",IF(ISBLANK(J976),IF(ISBLANK(E976),(D976-F976)*I976*H976*INDIRECT(SUBSTITUTE(G976," ","_"))/1000000,(E976-F976)*I976*H976*INDIRECT(SUBSTITUTE(G976," ","_"))/1000000),IF(ISBLANK(E976),(D976-F976)*J976,(E976-F976)*J976)))</f>
         <v/>
       </c>
@@ -24586,7 +24583,7 @@
       <c r="H977" s="31"/>
       <c r="I977" s="31"/>
       <c r="J977" s="31"/>
-      <c r="K977" s="22" t="str">
+      <c r="K977" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D977), ISBLANK(E977)),AND(OR(ISBLANK(G977),ISBLANK(H977),ISBLANK(I977)),ISBLANK(J977))),"",IF(ISBLANK(J977),IF(ISBLANK(E977),(D977-F977)*I977*H977*INDIRECT(SUBSTITUTE(G977," ","_"))/1000000,(E977-F977)*I977*H977*INDIRECT(SUBSTITUTE(G977," ","_"))/1000000),IF(ISBLANK(E977),(D977-F977)*J977,(E977-F977)*J977)))</f>
         <v/>
       </c>
@@ -24609,7 +24606,7 @@
       <c r="H978" s="31"/>
       <c r="I978" s="31"/>
       <c r="J978" s="31"/>
-      <c r="K978" s="22" t="str">
+      <c r="K978" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D978), ISBLANK(E978)),AND(OR(ISBLANK(G978),ISBLANK(H978),ISBLANK(I978)),ISBLANK(J978))),"",IF(ISBLANK(J978),IF(ISBLANK(E978),(D978-F978)*I978*H978*INDIRECT(SUBSTITUTE(G978," ","_"))/1000000,(E978-F978)*I978*H978*INDIRECT(SUBSTITUTE(G978," ","_"))/1000000),IF(ISBLANK(E978),(D978-F978)*J978,(E978-F978)*J978)))</f>
         <v/>
       </c>
@@ -24632,7 +24629,7 @@
       <c r="H979" s="31"/>
       <c r="I979" s="31"/>
       <c r="J979" s="31"/>
-      <c r="K979" s="22" t="str">
+      <c r="K979" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D979), ISBLANK(E979)),AND(OR(ISBLANK(G979),ISBLANK(H979),ISBLANK(I979)),ISBLANK(J979))),"",IF(ISBLANK(J979),IF(ISBLANK(E979),(D979-F979)*I979*H979*INDIRECT(SUBSTITUTE(G979," ","_"))/1000000,(E979-F979)*I979*H979*INDIRECT(SUBSTITUTE(G979," ","_"))/1000000),IF(ISBLANK(E979),(D979-F979)*J979,(E979-F979)*J979)))</f>
         <v/>
       </c>
@@ -24655,7 +24652,7 @@
       <c r="H980" s="31"/>
       <c r="I980" s="31"/>
       <c r="J980" s="31"/>
-      <c r="K980" s="22" t="str">
+      <c r="K980" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D980), ISBLANK(E980)),AND(OR(ISBLANK(G980),ISBLANK(H980),ISBLANK(I980)),ISBLANK(J980))),"",IF(ISBLANK(J980),IF(ISBLANK(E980),(D980-F980)*I980*H980*INDIRECT(SUBSTITUTE(G980," ","_"))/1000000,(E980-F980)*I980*H980*INDIRECT(SUBSTITUTE(G980," ","_"))/1000000),IF(ISBLANK(E980),(D980-F980)*J980,(E980-F980)*J980)))</f>
         <v/>
       </c>
@@ -24678,7 +24675,7 @@
       <c r="H981" s="31"/>
       <c r="I981" s="31"/>
       <c r="J981" s="31"/>
-      <c r="K981" s="22" t="str">
+      <c r="K981" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D981), ISBLANK(E981)),AND(OR(ISBLANK(G981),ISBLANK(H981),ISBLANK(I981)),ISBLANK(J981))),"",IF(ISBLANK(J981),IF(ISBLANK(E981),(D981-F981)*I981*H981*INDIRECT(SUBSTITUTE(G981," ","_"))/1000000,(E981-F981)*I981*H981*INDIRECT(SUBSTITUTE(G981," ","_"))/1000000),IF(ISBLANK(E981),(D981-F981)*J981,(E981-F981)*J981)))</f>
         <v/>
       </c>
@@ -24701,7 +24698,7 @@
       <c r="H982" s="31"/>
       <c r="I982" s="31"/>
       <c r="J982" s="31"/>
-      <c r="K982" s="22" t="str">
+      <c r="K982" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D982), ISBLANK(E982)),AND(OR(ISBLANK(G982),ISBLANK(H982),ISBLANK(I982)),ISBLANK(J982))),"",IF(ISBLANK(J982),IF(ISBLANK(E982),(D982-F982)*I982*H982*INDIRECT(SUBSTITUTE(G982," ","_"))/1000000,(E982-F982)*I982*H982*INDIRECT(SUBSTITUTE(G982," ","_"))/1000000),IF(ISBLANK(E982),(D982-F982)*J982,(E982-F982)*J982)))</f>
         <v/>
       </c>
@@ -24724,7 +24721,7 @@
       <c r="H983" s="31"/>
       <c r="I983" s="31"/>
       <c r="J983" s="31"/>
-      <c r="K983" s="22" t="str">
+      <c r="K983" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D983), ISBLANK(E983)),AND(OR(ISBLANK(G983),ISBLANK(H983),ISBLANK(I983)),ISBLANK(J983))),"",IF(ISBLANK(J983),IF(ISBLANK(E983),(D983-F983)*I983*H983*INDIRECT(SUBSTITUTE(G983," ","_"))/1000000,(E983-F983)*I983*H983*INDIRECT(SUBSTITUTE(G983," ","_"))/1000000),IF(ISBLANK(E983),(D983-F983)*J983,(E983-F983)*J983)))</f>
         <v/>
       </c>
@@ -24747,7 +24744,7 @@
       <c r="H984" s="31"/>
       <c r="I984" s="31"/>
       <c r="J984" s="31"/>
-      <c r="K984" s="22" t="str">
+      <c r="K984" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D984), ISBLANK(E984)),AND(OR(ISBLANK(G984),ISBLANK(H984),ISBLANK(I984)),ISBLANK(J984))),"",IF(ISBLANK(J984),IF(ISBLANK(E984),(D984-F984)*I984*H984*INDIRECT(SUBSTITUTE(G984," ","_"))/1000000,(E984-F984)*I984*H984*INDIRECT(SUBSTITUTE(G984," ","_"))/1000000),IF(ISBLANK(E984),(D984-F984)*J984,(E984-F984)*J984)))</f>
         <v/>
       </c>
@@ -24770,7 +24767,7 @@
       <c r="H985" s="31"/>
       <c r="I985" s="31"/>
       <c r="J985" s="31"/>
-      <c r="K985" s="22" t="str">
+      <c r="K985" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D985), ISBLANK(E985)),AND(OR(ISBLANK(G985),ISBLANK(H985),ISBLANK(I985)),ISBLANK(J985))),"",IF(ISBLANK(J985),IF(ISBLANK(E985),(D985-F985)*I985*H985*INDIRECT(SUBSTITUTE(G985," ","_"))/1000000,(E985-F985)*I985*H985*INDIRECT(SUBSTITUTE(G985," ","_"))/1000000),IF(ISBLANK(E985),(D985-F985)*J985,(E985-F985)*J985)))</f>
         <v/>
       </c>
@@ -24793,7 +24790,7 @@
       <c r="H986" s="31"/>
       <c r="I986" s="31"/>
       <c r="J986" s="31"/>
-      <c r="K986" s="22" t="str">
+      <c r="K986" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D986), ISBLANK(E986)),AND(OR(ISBLANK(G986),ISBLANK(H986),ISBLANK(I986)),ISBLANK(J986))),"",IF(ISBLANK(J986),IF(ISBLANK(E986),(D986-F986)*I986*H986*INDIRECT(SUBSTITUTE(G986," ","_"))/1000000,(E986-F986)*I986*H986*INDIRECT(SUBSTITUTE(G986," ","_"))/1000000),IF(ISBLANK(E986),(D986-F986)*J986,(E986-F986)*J986)))</f>
         <v/>
       </c>
@@ -24816,7 +24813,7 @@
       <c r="H987" s="31"/>
       <c r="I987" s="31"/>
       <c r="J987" s="31"/>
-      <c r="K987" s="22" t="str">
+      <c r="K987" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D987), ISBLANK(E987)),AND(OR(ISBLANK(G987),ISBLANK(H987),ISBLANK(I987)),ISBLANK(J987))),"",IF(ISBLANK(J987),IF(ISBLANK(E987),(D987-F987)*I987*H987*INDIRECT(SUBSTITUTE(G987," ","_"))/1000000,(E987-F987)*I987*H987*INDIRECT(SUBSTITUTE(G987," ","_"))/1000000),IF(ISBLANK(E987),(D987-F987)*J987,(E987-F987)*J987)))</f>
         <v/>
       </c>
@@ -24839,7 +24836,7 @@
       <c r="H988" s="31"/>
       <c r="I988" s="31"/>
       <c r="J988" s="31"/>
-      <c r="K988" s="22" t="str">
+      <c r="K988" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D988), ISBLANK(E988)),AND(OR(ISBLANK(G988),ISBLANK(H988),ISBLANK(I988)),ISBLANK(J988))),"",IF(ISBLANK(J988),IF(ISBLANK(E988),(D988-F988)*I988*H988*INDIRECT(SUBSTITUTE(G988," ","_"))/1000000,(E988-F988)*I988*H988*INDIRECT(SUBSTITUTE(G988," ","_"))/1000000),IF(ISBLANK(E988),(D988-F988)*J988,(E988-F988)*J988)))</f>
         <v/>
       </c>
@@ -24862,7 +24859,7 @@
       <c r="H989" s="31"/>
       <c r="I989" s="31"/>
       <c r="J989" s="31"/>
-      <c r="K989" s="22" t="str">
+      <c r="K989" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D989), ISBLANK(E989)),AND(OR(ISBLANK(G989),ISBLANK(H989),ISBLANK(I989)),ISBLANK(J989))),"",IF(ISBLANK(J989),IF(ISBLANK(E989),(D989-F989)*I989*H989*INDIRECT(SUBSTITUTE(G989," ","_"))/1000000,(E989-F989)*I989*H989*INDIRECT(SUBSTITUTE(G989," ","_"))/1000000),IF(ISBLANK(E989),(D989-F989)*J989,(E989-F989)*J989)))</f>
         <v/>
       </c>
@@ -24885,7 +24882,7 @@
       <c r="H990" s="31"/>
       <c r="I990" s="31"/>
       <c r="J990" s="31"/>
-      <c r="K990" s="22" t="str">
+      <c r="K990" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D990), ISBLANK(E990)),AND(OR(ISBLANK(G990),ISBLANK(H990),ISBLANK(I990)),ISBLANK(J990))),"",IF(ISBLANK(J990),IF(ISBLANK(E990),(D990-F990)*I990*H990*INDIRECT(SUBSTITUTE(G990," ","_"))/1000000,(E990-F990)*I990*H990*INDIRECT(SUBSTITUTE(G990," ","_"))/1000000),IF(ISBLANK(E990),(D990-F990)*J990,(E990-F990)*J990)))</f>
         <v/>
       </c>
@@ -24908,7 +24905,7 @@
       <c r="H991" s="31"/>
       <c r="I991" s="31"/>
       <c r="J991" s="31"/>
-      <c r="K991" s="22" t="str">
+      <c r="K991" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D991), ISBLANK(E991)),AND(OR(ISBLANK(G991),ISBLANK(H991),ISBLANK(I991)),ISBLANK(J991))),"",IF(ISBLANK(J991),IF(ISBLANK(E991),(D991-F991)*I991*H991*INDIRECT(SUBSTITUTE(G991," ","_"))/1000000,(E991-F991)*I991*H991*INDIRECT(SUBSTITUTE(G991," ","_"))/1000000),IF(ISBLANK(E991),(D991-F991)*J991,(E991-F991)*J991)))</f>
         <v/>
       </c>
@@ -24931,7 +24928,7 @@
       <c r="H992" s="31"/>
       <c r="I992" s="31"/>
       <c r="J992" s="31"/>
-      <c r="K992" s="22" t="str">
+      <c r="K992" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D992), ISBLANK(E992)),AND(OR(ISBLANK(G992),ISBLANK(H992),ISBLANK(I992)),ISBLANK(J992))),"",IF(ISBLANK(J992),IF(ISBLANK(E992),(D992-F992)*I992*H992*INDIRECT(SUBSTITUTE(G992," ","_"))/1000000,(E992-F992)*I992*H992*INDIRECT(SUBSTITUTE(G992," ","_"))/1000000),IF(ISBLANK(E992),(D992-F992)*J992,(E992-F992)*J992)))</f>
         <v/>
       </c>
@@ -24954,7 +24951,7 @@
       <c r="H993" s="31"/>
       <c r="I993" s="31"/>
       <c r="J993" s="31"/>
-      <c r="K993" s="22" t="str">
+      <c r="K993" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D993), ISBLANK(E993)),AND(OR(ISBLANK(G993),ISBLANK(H993),ISBLANK(I993)),ISBLANK(J993))),"",IF(ISBLANK(J993),IF(ISBLANK(E993),(D993-F993)*I993*H993*INDIRECT(SUBSTITUTE(G993," ","_"))/1000000,(E993-F993)*I993*H993*INDIRECT(SUBSTITUTE(G993," ","_"))/1000000),IF(ISBLANK(E993),(D993-F993)*J993,(E993-F993)*J993)))</f>
         <v/>
       </c>
@@ -24977,7 +24974,7 @@
       <c r="H994" s="31"/>
       <c r="I994" s="31"/>
       <c r="J994" s="31"/>
-      <c r="K994" s="22" t="str">
+      <c r="K994" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D994), ISBLANK(E994)),AND(OR(ISBLANK(G994),ISBLANK(H994),ISBLANK(I994)),ISBLANK(J994))),"",IF(ISBLANK(J994),IF(ISBLANK(E994),(D994-F994)*I994*H994*INDIRECT(SUBSTITUTE(G994," ","_"))/1000000,(E994-F994)*I994*H994*INDIRECT(SUBSTITUTE(G994," ","_"))/1000000),IF(ISBLANK(E994),(D994-F994)*J994,(E994-F994)*J994)))</f>
         <v/>
       </c>
@@ -25000,7 +24997,7 @@
       <c r="H995" s="31"/>
       <c r="I995" s="31"/>
       <c r="J995" s="31"/>
-      <c r="K995" s="22" t="str">
+      <c r="K995" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D995), ISBLANK(E995)),AND(OR(ISBLANK(G995),ISBLANK(H995),ISBLANK(I995)),ISBLANK(J995))),"",IF(ISBLANK(J995),IF(ISBLANK(E995),(D995-F995)*I995*H995*INDIRECT(SUBSTITUTE(G995," ","_"))/1000000,(E995-F995)*I995*H995*INDIRECT(SUBSTITUTE(G995," ","_"))/1000000),IF(ISBLANK(E995),(D995-F995)*J995,(E995-F995)*J995)))</f>
         <v/>
       </c>
@@ -25023,7 +25020,7 @@
       <c r="H996" s="31"/>
       <c r="I996" s="31"/>
       <c r="J996" s="31"/>
-      <c r="K996" s="22" t="str">
+      <c r="K996" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D996), ISBLANK(E996)),AND(OR(ISBLANK(G996),ISBLANK(H996),ISBLANK(I996)),ISBLANK(J996))),"",IF(ISBLANK(J996),IF(ISBLANK(E996),(D996-F996)*I996*H996*INDIRECT(SUBSTITUTE(G996," ","_"))/1000000,(E996-F996)*I996*H996*INDIRECT(SUBSTITUTE(G996," ","_"))/1000000),IF(ISBLANK(E996),(D996-F996)*J996,(E996-F996)*J996)))</f>
         <v/>
       </c>
@@ -25046,7 +25043,7 @@
       <c r="H997" s="31"/>
       <c r="I997" s="31"/>
       <c r="J997" s="31"/>
-      <c r="K997" s="22" t="str">
+      <c r="K997" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D997), ISBLANK(E997)),AND(OR(ISBLANK(G997),ISBLANK(H997),ISBLANK(I997)),ISBLANK(J997))),"",IF(ISBLANK(J997),IF(ISBLANK(E997),(D997-F997)*I997*H997*INDIRECT(SUBSTITUTE(G997," ","_"))/1000000,(E997-F997)*I997*H997*INDIRECT(SUBSTITUTE(G997," ","_"))/1000000),IF(ISBLANK(E997),(D997-F997)*J997,(E997-F997)*J997)))</f>
         <v/>
       </c>
@@ -25069,7 +25066,7 @@
       <c r="H998" s="31"/>
       <c r="I998" s="31"/>
       <c r="J998" s="31"/>
-      <c r="K998" s="22" t="str">
+      <c r="K998" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D998), ISBLANK(E998)),AND(OR(ISBLANK(G998),ISBLANK(H998),ISBLANK(I998)),ISBLANK(J998))),"",IF(ISBLANK(J998),IF(ISBLANK(E998),(D998-F998)*I998*H998*INDIRECT(SUBSTITUTE(G998," ","_"))/1000000,(E998-F998)*I998*H998*INDIRECT(SUBSTITUTE(G998," ","_"))/1000000),IF(ISBLANK(E998),(D998-F998)*J998,(E998-F998)*J998)))</f>
         <v/>
       </c>
@@ -25092,7 +25089,7 @@
       <c r="H999" s="31"/>
       <c r="I999" s="31"/>
       <c r="J999" s="31"/>
-      <c r="K999" s="22" t="str">
+      <c r="K999" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D999), ISBLANK(E999)),AND(OR(ISBLANK(G999),ISBLANK(H999),ISBLANK(I999)),ISBLANK(J999))),"",IF(ISBLANK(J999),IF(ISBLANK(E999),(D999-F999)*I999*H999*INDIRECT(SUBSTITUTE(G999," ","_"))/1000000,(E999-F999)*I999*H999*INDIRECT(SUBSTITUTE(G999," ","_"))/1000000),IF(ISBLANK(E999),(D999-F999)*J999,(E999-F999)*J999)))</f>
         <v/>
       </c>
@@ -25115,7 +25112,7 @@
       <c r="H1000" s="36"/>
       <c r="I1000" s="36"/>
       <c r="J1000" s="36"/>
-      <c r="K1000" s="22" t="str">
+      <c r="K1000" s="18" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D1000), ISBLANK(E1000)),AND(OR(ISBLANK(G1000),ISBLANK(H1000),ISBLANK(I1000)),ISBLANK(J1000))),"",IF(ISBLANK(J1000),IF(ISBLANK(E1000),(D1000-F1000)*I1000*H1000*INDIRECT(SUBSTITUTE(G1000," ","_"))/1000000,(E1000-F1000)*I1000*H1000*INDIRECT(SUBSTITUTE(G1000," ","_"))/1000000),IF(ISBLANK(E1000),(D1000-F1000)*J1000,(E1000-F1000)*J1000)))</f>
         <v/>
       </c>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LibraryQC" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Info" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="LibraryQC" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Double_stranded" vbProcedure="false">Index!$H$2</definedName>
@@ -28,7 +28,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
@@ -38,6 +38,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Volume measured before removing Volume used</t>
         </r>
@@ -1435,7 +1436,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1505,15 +1506,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1527,6 +1522,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1730,7 +1726,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1819,7 +1815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1843,11 +1839,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1859,7 +1855,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1883,11 +1879,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1899,15 +1903,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1991,114 +1991,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2110,7 +2004,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
@@ -25112,7 +25006,7 @@
       <c r="H1000" s="36"/>
       <c r="I1000" s="36"/>
       <c r="J1000" s="36"/>
-      <c r="K1000" s="18" t="str">
+      <c r="K1000" s="38" t="str">
         <f aca="true">IF(OR(AND(ISBLANK(D1000), ISBLANK(E1000)),AND(OR(ISBLANK(G1000),ISBLANK(H1000),ISBLANK(I1000)),ISBLANK(J1000))),"",IF(ISBLANK(J1000),IF(ISBLANK(E1000),(D1000-F1000)*I1000*H1000*INDIRECT(SUBSTITUTE(G1000," ","_"))/1000000,(E1000-F1000)*I1000*H1000*INDIRECT(SUBSTITUTE(G1000," ","_"))/1000000),IF(ISBLANK(E1000),(D1000-F1000)*J1000,(E1000-F1000)*J1000)))</f>
         <v/>
       </c>
@@ -25120,36 +25014,36 @@
       <c r="M1000" s="37"/>
       <c r="N1000" s="37"/>
       <c r="O1000" s="34"/>
-      <c r="P1000" s="38"/>
-      <c r="Q1000" s="38"/>
-      <c r="R1000" s="39"/>
+      <c r="P1000" s="39"/>
+      <c r="Q1000" s="39"/>
+      <c r="R1000" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G1000" type="list">
       <formula1>Index!$F$2:$F$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M1000 O6:O1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M1000 O6:O1000" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R6:R1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R6:R1000" type="list">
       <formula1>Index!$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
       <formula1>Index!$D$2:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N1000" type="list">
       <formula1>Index!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -25159,7 +25053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -25169,13 +25063,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3"/>
@@ -25367,7 +25261,7 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3"/>
@@ -25393,7 +25287,7 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -25417,13 +25311,13 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -25447,13 +25341,13 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -25477,13 +25371,13 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -25507,13 +25401,13 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -25537,13 +25431,13 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -25567,13 +25461,13 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -25597,13 +25491,13 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -25627,13 +25521,13 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -25657,13 +25551,13 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -25687,13 +25581,13 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -25717,13 +25611,13 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -25747,13 +25641,13 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -25777,13 +25671,13 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -25807,13 +25701,13 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -25837,13 +25731,13 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="45"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -25867,13 +25761,13 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -25897,13 +25791,13 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -25927,13 +25821,13 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -26869,7 +26763,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -26878,7 +26772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -26888,7 +26782,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
@@ -26901,2340 +26795,2340 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46" t="n">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="n">
         <v>617.9</v>
       </c>
-      <c r="I2" s="46" t="n">
+      <c r="I2" s="47" t="n">
         <f aca="false">H2/2</f>
         <v>308.95</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46" t="s">
+      <c r="C5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="47" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="47" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="47" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="47" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="47" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="47" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="47" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="47" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="47" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="47" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="47" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="47" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="47" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="47" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="47" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="47" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="47" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="47" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="47" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="47" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="47" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="47" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="47" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="47" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="47" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="47" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="47" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="47" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="47" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="47" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="47" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="47" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="47" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="47" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="47" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="47" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="47" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="47" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="47" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="47" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="47" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="47" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="47" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="47" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="47" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="47" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="47" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="47" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="47" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="47" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="47" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="47" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="47" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="47" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="47" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="47" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="47" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="47" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="47" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="47" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="47" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="47" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="47" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="46" t="s">
+      <c r="B110" s="47" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="47" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="46" t="s">
+      <c r="B112" s="47" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="47" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="47" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="47" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="47" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="47" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="47" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="47" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="47" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="46" t="s">
+      <c r="B122" s="47" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="47" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="47" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="47" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="47" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="47" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="47" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="46" t="s">
+      <c r="B129" s="47" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="47" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="47" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="47" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="46" t="s">
+      <c r="B133" s="47" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="46" t="s">
+      <c r="B134" s="47" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="47" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="47" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="46" t="s">
+      <c r="B137" s="47" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="47" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="47" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="47" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="47" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="47" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="47" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="46" t="s">
+      <c r="B144" s="47" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="47" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="46" t="s">
+      <c r="B146" s="47" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="47" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="47" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="47" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="46" t="s">
+      <c r="B150" s="47" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="46" t="s">
+      <c r="B151" s="47" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="46" t="s">
+      <c r="B152" s="47" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="47" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="46" t="s">
+      <c r="B154" s="47" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="46" t="s">
+      <c r="B155" s="47" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="46" t="s">
+      <c r="B156" s="47" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="47" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="47" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="47" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="47" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="47" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="47" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="47" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="47" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="47" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="47" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="47" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="47" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="46" t="s">
+      <c r="B169" s="47" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="47" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="47" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="47" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="47" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="47" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="47" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="47" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="47" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="47" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="46" t="s">
+      <c r="B181" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="46" t="s">
+      <c r="B182" s="47" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="47" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="47" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="47" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="47" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="47" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="46" t="s">
+      <c r="B189" s="47" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="46" t="s">
+      <c r="B190" s="47" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="46" t="s">
+      <c r="B191" s="47" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="47" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="47" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="47" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="47" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="46" t="s">
+      <c r="B196" s="47" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="47" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="46" t="s">
+      <c r="B198" s="47" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="46" t="s">
+      <c r="B199" s="47" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="46" t="s">
+      <c r="B200" s="47" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="46" t="s">
+      <c r="B201" s="47" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="46" t="s">
+      <c r="B202" s="47" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="47" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="47" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="47" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="47" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="47" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="47" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="47" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="47" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="47" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="47" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="47" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="46" t="s">
+      <c r="B214" s="47" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="46" t="s">
+      <c r="B215" s="47" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="46" t="s">
+      <c r="B216" s="47" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="47" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="46" t="s">
+      <c r="B218" s="47" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="46" t="s">
+      <c r="B219" s="47" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="46" t="s">
+      <c r="B220" s="47" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="46" t="s">
+      <c r="B221" s="47" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="46" t="s">
+      <c r="B222" s="47" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="46" t="s">
+      <c r="B223" s="47" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="47" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="46" t="s">
+      <c r="B225" s="47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="46" t="s">
+      <c r="B226" s="47" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="46" t="s">
+      <c r="B227" s="47" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="46" t="s">
+      <c r="B228" s="47" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="46" t="s">
+      <c r="B229" s="47" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B230" s="46" t="s">
+      <c r="B230" s="47" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B231" s="46" t="s">
+      <c r="B231" s="47" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B232" s="46" t="s">
+      <c r="B232" s="47" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B233" s="46" t="s">
+      <c r="B233" s="47" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B234" s="46" t="s">
+      <c r="B234" s="47" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B235" s="46" t="s">
+      <c r="B235" s="47" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B236" s="46" t="s">
+      <c r="B236" s="47" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B237" s="46" t="s">
+      <c r="B237" s="47" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B238" s="46" t="s">
+      <c r="B238" s="47" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B239" s="46" t="s">
+      <c r="B239" s="47" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B240" s="46" t="s">
+      <c r="B240" s="47" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B241" s="46" t="s">
+      <c r="B241" s="47" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B242" s="46" t="s">
+      <c r="B242" s="47" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B243" s="46" t="s">
+      <c r="B243" s="47" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B244" s="46" t="s">
+      <c r="B244" s="47" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B245" s="46" t="s">
+      <c r="B245" s="47" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B246" s="46" t="s">
+      <c r="B246" s="47" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="46" t="s">
+      <c r="B247" s="47" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B248" s="46" t="s">
+      <c r="B248" s="47" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B249" s="46" t="s">
+      <c r="B249" s="47" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B250" s="46" t="s">
+      <c r="B250" s="47" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B251" s="46" t="s">
+      <c r="B251" s="47" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B252" s="46" t="s">
+      <c r="B252" s="47" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B253" s="46" t="s">
+      <c r="B253" s="47" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B254" s="46" t="s">
+      <c r="B254" s="47" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B255" s="46" t="s">
+      <c r="B255" s="47" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B256" s="46" t="s">
+      <c r="B256" s="47" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B257" s="46" t="s">
+      <c r="B257" s="47" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B258" s="46" t="s">
+      <c r="B258" s="47" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B259" s="46" t="s">
+      <c r="B259" s="47" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B260" s="46" t="s">
+      <c r="B260" s="47" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B261" s="46" t="s">
+      <c r="B261" s="47" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B262" s="46" t="s">
+      <c r="B262" s="47" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B263" s="46" t="s">
+      <c r="B263" s="47" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B264" s="46" t="s">
+      <c r="B264" s="47" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B265" s="46" t="s">
+      <c r="B265" s="47" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B266" s="46" t="s">
+      <c r="B266" s="47" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B267" s="46" t="s">
+      <c r="B267" s="47" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="46" t="s">
+      <c r="B268" s="47" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="46" t="s">
+      <c r="B269" s="47" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B270" s="46" t="s">
+      <c r="B270" s="47" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B271" s="46" t="s">
+      <c r="B271" s="47" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B272" s="46" t="s">
+      <c r="B272" s="47" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B273" s="46" t="s">
+      <c r="B273" s="47" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B274" s="46" t="s">
+      <c r="B274" s="47" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B275" s="46" t="s">
+      <c r="B275" s="47" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B276" s="46" t="s">
+      <c r="B276" s="47" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B277" s="46" t="s">
+      <c r="B277" s="47" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="46" t="s">
+      <c r="B278" s="47" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B279" s="46" t="s">
+      <c r="B279" s="47" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B280" s="46" t="s">
+      <c r="B280" s="47" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B281" s="46" t="s">
+      <c r="B281" s="47" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B282" s="46" t="s">
+      <c r="B282" s="47" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="46" t="s">
+      <c r="B283" s="47" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="46" t="s">
+      <c r="B284" s="47" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B285" s="46" t="s">
+      <c r="B285" s="47" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B286" s="46" t="s">
+      <c r="B286" s="47" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B287" s="46" t="s">
+      <c r="B287" s="47" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B288" s="46" t="s">
+      <c r="B288" s="47" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B289" s="46" t="s">
+      <c r="B289" s="47" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B290" s="46" t="s">
+      <c r="B290" s="47" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B291" s="46" t="s">
+      <c r="B291" s="47" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B292" s="46" t="s">
+      <c r="B292" s="47" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B293" s="46" t="s">
+      <c r="B293" s="47" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B294" s="46" t="s">
+      <c r="B294" s="47" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B295" s="46" t="s">
+      <c r="B295" s="47" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B296" s="46" t="s">
+      <c r="B296" s="47" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B297" s="46" t="s">
+      <c r="B297" s="47" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B298" s="46" t="s">
+      <c r="B298" s="47" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="47" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B300" s="46" t="s">
+      <c r="B300" s="47" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B301" s="46" t="s">
+      <c r="B301" s="47" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B302" s="46" t="s">
+      <c r="B302" s="47" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B303" s="46" t="s">
+      <c r="B303" s="47" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="47" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="47" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="46" t="s">
+      <c r="B306" s="47" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B307" s="46" t="s">
+      <c r="B307" s="47" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="47" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="47" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B310" s="46" t="s">
+      <c r="B310" s="47" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="47" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="47" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="47" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="47" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="47" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B316" s="46" t="s">
+      <c r="B316" s="47" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="47" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B318" s="46" t="s">
+      <c r="B318" s="47" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B319" s="46" t="s">
+      <c r="B319" s="47" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B320" s="46" t="s">
+      <c r="B320" s="47" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B321" s="46" t="s">
+      <c r="B321" s="47" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B322" s="46" t="s">
+      <c r="B322" s="47" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B323" s="46" t="s">
+      <c r="B323" s="47" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B324" s="46" t="s">
+      <c r="B324" s="47" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B325" s="46" t="s">
+      <c r="B325" s="47" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B326" s="46" t="s">
+      <c r="B326" s="47" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B327" s="46" t="s">
+      <c r="B327" s="47" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B328" s="46" t="s">
+      <c r="B328" s="47" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B329" s="46" t="s">
+      <c r="B329" s="47" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B330" s="46" t="s">
+      <c r="B330" s="47" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B331" s="46" t="s">
+      <c r="B331" s="47" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B332" s="46" t="s">
+      <c r="B332" s="47" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B333" s="46" t="s">
+      <c r="B333" s="47" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B334" s="46" t="s">
+      <c r="B334" s="47" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B335" s="46" t="s">
+      <c r="B335" s="47" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B336" s="46" t="s">
+      <c r="B336" s="47" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B337" s="46" t="s">
+      <c r="B337" s="47" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B338" s="46" t="s">
+      <c r="B338" s="47" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B339" s="46" t="s">
+      <c r="B339" s="47" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B340" s="46" t="s">
+      <c r="B340" s="47" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B341" s="46" t="s">
+      <c r="B341" s="47" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B342" s="46" t="s">
+      <c r="B342" s="47" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B343" s="46" t="s">
+      <c r="B343" s="47" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B344" s="46" t="s">
+      <c r="B344" s="47" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B345" s="46" t="s">
+      <c r="B345" s="47" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B346" s="46" t="s">
+      <c r="B346" s="47" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="46" t="s">
+      <c r="B347" s="47" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B348" s="46" t="s">
+      <c r="B348" s="47" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B349" s="46" t="s">
+      <c r="B349" s="47" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B350" s="46" t="s">
+      <c r="B350" s="47" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B351" s="46" t="s">
+      <c r="B351" s="47" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B352" s="46" t="s">
+      <c r="B352" s="47" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B353" s="46" t="s">
+      <c r="B353" s="47" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B354" s="46" t="s">
+      <c r="B354" s="47" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B355" s="46" t="s">
+      <c r="B355" s="47" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B356" s="46" t="s">
+      <c r="B356" s="47" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B357" s="46" t="s">
+      <c r="B357" s="47" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B358" s="46" t="s">
+      <c r="B358" s="47" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B359" s="46" t="s">
+      <c r="B359" s="47" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B360" s="46" t="s">
+      <c r="B360" s="47" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B361" s="46" t="s">
+      <c r="B361" s="47" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B362" s="46" t="s">
+      <c r="B362" s="47" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B363" s="46" t="s">
+      <c r="B363" s="47" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B364" s="46" t="s">
+      <c r="B364" s="47" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B365" s="46" t="s">
+      <c r="B365" s="47" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B366" s="46" t="s">
+      <c r="B366" s="47" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B367" s="46" t="s">
+      <c r="B367" s="47" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B368" s="46" t="s">
+      <c r="B368" s="47" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B369" s="46" t="s">
+      <c r="B369" s="47" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B370" s="46" t="s">
+      <c r="B370" s="47" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B371" s="46" t="s">
+      <c r="B371" s="47" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B372" s="46" t="s">
+      <c r="B372" s="47" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B373" s="46" t="s">
+      <c r="B373" s="47" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B374" s="46" t="s">
+      <c r="B374" s="47" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B375" s="46" t="s">
+      <c r="B375" s="47" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B376" s="46" t="s">
+      <c r="B376" s="47" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B377" s="46" t="s">
+      <c r="B377" s="47" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B378" s="46" t="s">
+      <c r="B378" s="47" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B379" s="46" t="s">
+      <c r="B379" s="47" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B380" s="46" t="s">
+      <c r="B380" s="47" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B381" s="46" t="s">
+      <c r="B381" s="47" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B382" s="46" t="s">
+      <c r="B382" s="47" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B383" s="46" t="s">
+      <c r="B383" s="47" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B384" s="46" t="s">
+      <c r="B384" s="47" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B385" s="46" t="s">
+      <c r="B385" s="47" t="s">
         <v>448</v>
       </c>
     </row>
@@ -29855,8 +29749,8 @@
     <row r="1000" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -28,7 +28,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>UFG</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
@@ -1815,7 +1815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2004,7 +2004,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
@@ -2217,7 +2217,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18" t="str">
-        <f aca="true">IF(AND(AND(ISBLANK(D9), ISBLANK(E9)),AND(OR(ISBLANK(G9),ISBLANK(H9),ISBLANK(I9)))),"",IF(ISBLANK(J9),IF(ISBLANK(E9),(D9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000,(E9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000),IF(ISBLANK(E9),(D9-F9)*J9,(E9-F9)*J9)))</f>
+        <f aca="true">IF(OR(AND(ISBLANK(D9), ISBLANK(E9)),AND(OR(ISBLANK(G9),ISBLANK(H9),ISBLANK(I9)),ISBLANK(J9))),"",IF(ISBLANK(J9),IF(ISBLANK(E9),(D9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000,(E9-F9)*I9*H9*INDIRECT(SUBSTITUTE(G9," ","_"))/1000000),IF(ISBLANK(E9),(D9-F9)*J9,(E9-F9)*J9)))</f>
         <v/>
       </c>
       <c r="L9" s="15"/>
@@ -2262,7 +2262,10 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="22" t="str">
+        <f aca="true">IF(OR(AND(ISBLANK(D11), ISBLANK(E11)),AND(OR(ISBLANK(G11),ISBLANK(H11),ISBLANK(I11)),ISBLANK(J11))),"",IF(ISBLANK(J11),IF(ISBLANK(E11),(D11-F11)*I11*H11*INDIRECT(SUBSTITUTE(G11," ","_"))/1000000,(E11-F11)*I11*H11*INDIRECT(SUBSTITUTE(G11," ","_"))/1000000),IF(ISBLANK(E11),(D11-F11)*J11,(E11-F11)*J11)))</f>
+        <v/>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -25063,7 +25066,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.19"/>
   </cols>
@@ -26782,7 +26785,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -28,7 +28,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="450">
   <si>
     <t xml:space="preserve">Library QC Template</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Femto Pulse</t>
   </si>
   <si>
     <t xml:space="preserve">Repeat QC step - Repeat current QC step</t>
@@ -2000,7 +2003,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
@@ -25031,12 +25034,12 @@
       <formula1>Index!$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
-      <formula1>Index!$D$2:$D$3</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N1000" type="list">
+      <formula1>Index!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N1000" type="list">
-      <formula1>Index!$E$2:$E$3</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
+      <formula1>Index!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -25062,7 +25065,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.19"/>
   </cols>
@@ -26781,7 +26784,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
@@ -26891,7 +26894,9 @@
         <v>65</v>
       </c>
       <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
@@ -26899,15 +26904,15 @@
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="46"/>
       <c r="E5" s="46"/>
@@ -26917,15 +26922,15 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -26939,10 +26944,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -26956,10 +26961,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -26973,10 +26978,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="46"/>
       <c r="E9" s="46"/>
@@ -26984,2151 +26989,2151 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="46" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B298" s="46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B299" s="46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="46" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="46" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="46" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="46" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B310" s="46" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B311" s="46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="46" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B318" s="46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B319" s="46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B320" s="46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B322" s="46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B325" s="46" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B326" s="46" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B327" s="46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B329" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B330" s="46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B332" s="46" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="46" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B335" s="46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="46" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="46" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="46" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="46" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="46" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="46" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="46" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="46" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="46" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="46" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="46" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="46" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="46" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="46" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="46" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="46" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="46" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_QC_v4_8_0.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="451">
   <si>
     <t xml:space="preserve">Library QC Template</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A - WGS Tagmentation</t>
   </si>
   <si>
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
@@ -2003,7 +2006,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.88"/>
@@ -25039,7 +25042,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
-      <formula1>Index!$D$2:$D$4</formula1>
+      <formula1>Index!$D$2:$D$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -25065,7 +25068,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.19"/>
   </cols>
@@ -26784,11 +26787,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.4"/>
@@ -26915,6 +26918,9 @@
         <v>68</v>
       </c>
       <c r="C5" s="46"/>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
@@ -26922,15 +26928,15 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -26944,10 +26950,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -26961,10 +26967,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -26978,10 +26984,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="46"/>
       <c r="E9" s="46"/>
@@ -26989,2151 +26995,2151 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="46" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B298" s="46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B299" s="46" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="46" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="46" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="46" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="46" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B310" s="46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B311" s="46" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B318" s="46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B319" s="46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B320" s="46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B322" s="46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="46" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B325" s="46" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B326" s="46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B327" s="46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B329" s="46" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B330" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="46" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B332" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="46" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B335" s="46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="46" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="46" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="46" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="46" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="46" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="46" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="46" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="46" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="46" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="46" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="46" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="46" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="46" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="46" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="46" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="46" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="46" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="46" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
